--- a/SAN FP.xlsx
+++ b/SAN FP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9440622-9974-4E5A-AEF2-80376E3A164F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABB2CE2-6E51-43ED-B5B5-A5FD22173627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19965" yWindow="0" windowWidth="20070" windowHeight="20985" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27135" yWindow="360" windowWidth="26175" windowHeight="13305" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="22" r:id="rId1"/>
@@ -3159,7 +3159,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3328,12 +3328,6 @@
     </xf>
     <xf numFmtId="9" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -6328,10 +6322,10 @@
   <dimension ref="A1:FN124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BG3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BQ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BR20" sqref="BR20"/>
+      <selection pane="bottomRight" activeCell="CG1" sqref="CG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6814,7 +6808,7 @@
       <c r="BH3" s="32"/>
       <c r="BI3" s="32"/>
       <c r="BJ3" s="32"/>
-      <c r="BK3" s="77">
+      <c r="BK3" s="60">
         <v>329</v>
       </c>
       <c r="BL3" s="60"/>
@@ -7064,7 +7058,7 @@
       <c r="BH4" s="23"/>
       <c r="BI4" s="23"/>
       <c r="BJ4" s="23"/>
-      <c r="BK4" s="76">
+      <c r="BK4" s="54">
         <v>774</v>
       </c>
       <c r="BL4" s="54"/>
@@ -7272,7 +7266,7 @@
       <c r="BH5" s="23"/>
       <c r="BI5" s="23"/>
       <c r="BJ5" s="23"/>
-      <c r="BK5" s="76">
+      <c r="BK5" s="54">
         <v>437</v>
       </c>
       <c r="BL5" s="54"/>
@@ -7496,7 +7490,7 @@
       <c r="BH6" s="23"/>
       <c r="BI6" s="23"/>
       <c r="BJ6" s="23"/>
-      <c r="BK6" s="76">
+      <c r="BK6" s="54">
         <v>343</v>
       </c>
       <c r="BL6" s="54"/>
@@ -7698,7 +7692,7 @@
       <c r="BH7" s="23"/>
       <c r="BI7" s="23"/>
       <c r="BJ7" s="23"/>
-      <c r="BK7" s="76">
+      <c r="BK7" s="54">
         <f>1294-BK4-BK9-89-90-66</f>
         <v>64</v>
       </c>
@@ -8012,7 +8006,7 @@
       <c r="BH9" s="23"/>
       <c r="BI9" s="23"/>
       <c r="BJ9" s="23"/>
-      <c r="BK9" s="76">
+      <c r="BK9" s="54">
         <v>211</v>
       </c>
       <c r="BL9" s="54"/>
@@ -8516,7 +8510,7 @@
       <c r="BH12" s="23"/>
       <c r="BI12" s="23"/>
       <c r="BJ12" s="23"/>
-      <c r="BK12" s="76">
+      <c r="BK12" s="54">
         <v>404</v>
       </c>
       <c r="BL12" s="54"/>
@@ -8725,7 +8719,7 @@
       <c r="BH13" s="23"/>
       <c r="BI13" s="23"/>
       <c r="BJ13" s="23"/>
-      <c r="BK13" s="76">
+      <c r="BK13" s="54">
         <v>220</v>
       </c>
       <c r="BL13" s="54"/>
@@ -8896,7 +8890,7 @@
       <c r="BH14" s="23"/>
       <c r="BI14" s="23"/>
       <c r="BJ14" s="23"/>
-      <c r="BK14" s="76">
+      <c r="BK14" s="54">
         <v>185</v>
       </c>
       <c r="BL14" s="54"/>
@@ -9119,7 +9113,7 @@
       <c r="BH15" s="23"/>
       <c r="BI15" s="23"/>
       <c r="BJ15" s="23"/>
-      <c r="BK15" s="76">
+      <c r="BK15" s="54">
         <v>201</v>
       </c>
       <c r="BL15" s="54"/>
@@ -9328,7 +9322,7 @@
       <c r="BH16" s="23"/>
       <c r="BI16" s="23"/>
       <c r="BJ16" s="23"/>
-      <c r="BK16" s="76">
+      <c r="BK16" s="54">
         <v>176</v>
       </c>
       <c r="BL16" s="54"/>
@@ -9493,7 +9487,7 @@
       <c r="BH17" s="23"/>
       <c r="BI17" s="23"/>
       <c r="BJ17" s="23"/>
-      <c r="BK17" s="76">
+      <c r="BK17" s="54">
         <v>174</v>
       </c>
       <c r="BL17" s="54"/>
@@ -9658,7 +9652,7 @@
       <c r="BH18" s="23"/>
       <c r="BI18" s="23"/>
       <c r="BJ18" s="23"/>
-      <c r="BK18" s="76">
+      <c r="BK18" s="54">
         <v>95</v>
       </c>
       <c r="BL18" s="54"/>
@@ -9845,7 +9839,7 @@
       <c r="BH19" s="23"/>
       <c r="BI19" s="23"/>
       <c r="BJ19" s="23"/>
-      <c r="BK19" s="76">
+      <c r="BK19" s="54">
         <v>111</v>
       </c>
       <c r="BL19" s="54"/>
@@ -10020,7 +10014,7 @@
       <c r="BH20" s="23"/>
       <c r="BI20" s="23"/>
       <c r="BJ20" s="23"/>
-      <c r="BK20" s="76">
+      <c r="BK20" s="54">
         <v>81</v>
       </c>
       <c r="BL20" s="54"/>
@@ -10184,7 +10178,7 @@
       <c r="BH21" s="23"/>
       <c r="BI21" s="23"/>
       <c r="BJ21" s="23"/>
-      <c r="BK21" s="76">
+      <c r="BK21" s="54">
         <v>30</v>
       </c>
       <c r="BL21" s="54"/>
@@ -10362,7 +10356,7 @@
       <c r="BH22" s="23"/>
       <c r="BI22" s="23"/>
       <c r="BJ22" s="23"/>
-      <c r="BK22" s="76">
+      <c r="BK22" s="54">
         <v>79</v>
       </c>
       <c r="BL22" s="54"/>
@@ -10557,7 +10551,7 @@
       <c r="BH23" s="23"/>
       <c r="BI23" s="23"/>
       <c r="BJ23" s="23"/>
-      <c r="BK23" s="76">
+      <c r="BK23" s="54">
         <v>67</v>
       </c>
       <c r="BL23" s="54"/>
@@ -10722,7 +10716,7 @@
       <c r="BH24" s="23"/>
       <c r="BI24" s="23"/>
       <c r="BJ24" s="23"/>
-      <c r="BK24" s="76">
+      <c r="BK24" s="54">
         <v>56</v>
       </c>
       <c r="BL24" s="54"/>
@@ -10887,7 +10881,7 @@
       <c r="BH25" s="23"/>
       <c r="BI25" s="23"/>
       <c r="BJ25" s="23"/>
-      <c r="BK25" s="76">
+      <c r="BK25" s="54">
         <v>48</v>
       </c>
       <c r="BL25" s="54"/>
@@ -11206,7 +11200,7 @@
       <c r="BH27" s="23"/>
       <c r="BI27" s="23"/>
       <c r="BJ27" s="23"/>
-      <c r="BK27" s="76">
+      <c r="BK27" s="54">
         <v>44</v>
       </c>
       <c r="BL27" s="54"/>
@@ -11533,7 +11527,7 @@
       <c r="BH29" s="23"/>
       <c r="BI29" s="23"/>
       <c r="BJ29" s="23"/>
-      <c r="BK29" s="76">
+      <c r="BK29" s="54">
         <v>5</v>
       </c>
       <c r="BL29" s="54"/>
@@ -12283,7 +12277,7 @@
       <c r="BH34" s="23"/>
       <c r="BI34" s="23"/>
       <c r="BJ34" s="23"/>
-      <c r="BK34" s="76">
+      <c r="BK34" s="54">
         <v>66</v>
       </c>
       <c r="BL34" s="54"/>
@@ -12548,7 +12542,7 @@
       <c r="BH36" s="23"/>
       <c r="BI36" s="23"/>
       <c r="BJ36" s="23"/>
-      <c r="BK36" s="76">
+      <c r="BK36" s="54">
         <v>92</v>
       </c>
       <c r="BL36" s="54"/>
@@ -12690,7 +12684,7 @@
       <c r="BH37" s="23"/>
       <c r="BI37" s="23"/>
       <c r="BJ37" s="23"/>
-      <c r="BK37" s="76">
+      <c r="BK37" s="54">
         <f>766-176-48-220-185-67</f>
         <v>70</v>
       </c>
@@ -12891,7 +12885,7 @@
       <c r="BH38" s="23"/>
       <c r="BI38" s="23"/>
       <c r="BJ38" s="23"/>
-      <c r="BK38" s="76">
+      <c r="BK38" s="54">
         <v>90</v>
       </c>
       <c r="BL38" s="54"/>
@@ -13047,7 +13041,7 @@
       <c r="BH39" s="23"/>
       <c r="BI39" s="23"/>
       <c r="BJ39" s="23"/>
-      <c r="BK39" s="76">
+      <c r="BK39" s="54">
         <v>68</v>
       </c>
       <c r="BL39" s="54"/>
@@ -13200,7 +13194,7 @@
       <c r="BH40" s="23"/>
       <c r="BI40" s="23"/>
       <c r="BJ40" s="23"/>
-      <c r="BK40" s="76">
+      <c r="BK40" s="54">
         <v>89</v>
       </c>
       <c r="BL40" s="54"/>
@@ -13397,7 +13391,7 @@
       <c r="BH41" s="23"/>
       <c r="BI41" s="23"/>
       <c r="BJ41" s="23"/>
-      <c r="BK41" s="76">
+      <c r="BK41" s="54">
         <v>54</v>
       </c>
       <c r="BL41" s="54"/>
@@ -13603,7 +13597,7 @@
       <c r="BH42" s="23"/>
       <c r="BI42" s="23"/>
       <c r="BJ42" s="23"/>
-      <c r="BK42" s="76">
+      <c r="BK42" s="54">
         <v>52</v>
       </c>
       <c r="BL42" s="54"/>
@@ -13799,7 +13793,7 @@
       <c r="BH43" s="23"/>
       <c r="BI43" s="23"/>
       <c r="BJ43" s="23"/>
-      <c r="BK43" s="76">
+      <c r="BK43" s="54">
         <v>56</v>
       </c>
       <c r="BL43" s="54"/>
@@ -13988,7 +13982,7 @@
       <c r="BH44" s="23"/>
       <c r="BI44" s="23"/>
       <c r="BJ44" s="23"/>
-      <c r="BK44" s="76">
+      <c r="BK44" s="54">
         <v>53</v>
       </c>
       <c r="BL44" s="54"/>
@@ -14315,7 +14309,7 @@
       <c r="BH46" s="23"/>
       <c r="BI46" s="23"/>
       <c r="BJ46" s="23"/>
-      <c r="BK46" s="76">
+      <c r="BK46" s="54">
         <v>79</v>
       </c>
       <c r="BL46" s="54"/>
@@ -14476,7 +14470,7 @@
       <c r="BH47" s="23"/>
       <c r="BI47" s="23"/>
       <c r="BJ47" s="23"/>
-      <c r="BK47" s="76">
+      <c r="BK47" s="54">
         <v>120</v>
       </c>
       <c r="BL47" s="54"/>
@@ -15271,7 +15265,7 @@
       <c r="BH52" s="23"/>
       <c r="BI52" s="23"/>
       <c r="BJ52" s="23"/>
-      <c r="BK52" s="76">
+      <c r="BK52" s="54">
         <v>47</v>
       </c>
       <c r="BL52" s="54"/>
@@ -15917,7 +15911,7 @@
       <c r="BH58" s="23"/>
       <c r="BI58" s="23"/>
       <c r="BJ58" s="23"/>
-      <c r="BK58" s="76">
+      <c r="BK58" s="54">
         <f>399-54-47-81-44-111</f>
         <v>62</v>
       </c>
@@ -23873,83 +23867,83 @@
       <c r="BQ98" s="66"/>
       <c r="BR98" s="66"/>
       <c r="BS98" s="66">
-        <f>+BS3/BO3-1</f>
+        <f t="shared" ref="BS98:CA98" si="209">+BS3/BO3-1</f>
         <v>0.34922680412371143</v>
       </c>
       <c r="BT98" s="66">
-        <f>+BT3/BP3-1</f>
+        <f t="shared" si="209"/>
         <v>0.44871794871794868</v>
       </c>
       <c r="BU98" s="66">
-        <f>+BU3/BQ3-1</f>
+        <f t="shared" si="209"/>
         <v>0.53594771241830075</v>
       </c>
       <c r="BV98" s="66">
-        <f>+BV3/BR3-1</f>
+        <f t="shared" si="209"/>
         <v>0.57739307535641538</v>
       </c>
       <c r="BW98" s="66">
-        <f>+BW3/BS3-1</f>
+        <f t="shared" si="209"/>
         <v>0.54154727793696278</v>
       </c>
       <c r="BX98" s="66">
-        <f>+BX3/BT3-1</f>
+        <f t="shared" si="209"/>
         <v>0.57924376508447306</v>
       </c>
       <c r="BY98" s="66">
-        <f>+BY3/BU3-1</f>
+        <f t="shared" si="209"/>
         <v>0.64113475177304968</v>
       </c>
       <c r="BZ98" s="66">
-        <f>+BZ3/BV3-1</f>
+        <f t="shared" si="209"/>
         <v>0.55067785668173008</v>
       </c>
       <c r="CA98" s="66">
-        <f>+CA3/BW3-1</f>
+        <f t="shared" si="209"/>
         <v>0.43494423791821557</v>
       </c>
       <c r="CB98" s="66">
-        <f t="shared" ref="CB98:CG98" si="209">+CB3/BX3-1</f>
+        <f t="shared" ref="CB98:CG98" si="210">+CB3/BX3-1</f>
         <v>0.30514518593988793</v>
       </c>
       <c r="CC98" s="66">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>0.2303370786516854</v>
       </c>
       <c r="CD98" s="66">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>0.24479600333055784</v>
       </c>
       <c r="CE98" s="66">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>0.22409326424870457</v>
       </c>
       <c r="CF98" s="66">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>0.28922716627634659</v>
       </c>
       <c r="CG98" s="66">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>0.22093431682472775</v>
       </c>
       <c r="CH98" s="66">
-        <f>+CH3/CD3-1</f>
+        <f t="shared" ref="CH98:CL99" si="211">+CH3/CD3-1</f>
         <v>0.19999999999999996</v>
       </c>
       <c r="CI98" s="66">
-        <f>+CI3/CE3-1</f>
+        <f t="shared" si="211"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="CJ98" s="66">
-        <f>+CJ3/CF3-1</f>
+        <f t="shared" si="211"/>
         <v>0.30000000000000027</v>
       </c>
       <c r="CK98" s="66">
-        <f>+CK3/CG3-1</f>
+        <f t="shared" si="211"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="CL98" s="66">
-        <f>+CL3/CH3-1</f>
+        <f t="shared" si="211"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="CM98" s="66"/>
@@ -23988,71 +23982,71 @@
       <c r="M99" s="43"/>
       <c r="N99" s="43"/>
       <c r="O99" s="43">
-        <f t="shared" ref="O99:AE99" si="210">O4/K4-1</f>
+        <f t="shared" ref="O99:AE99" si="212">O4/K4-1</f>
         <v>0.19895287958115193</v>
       </c>
       <c r="P99" s="43">
-        <f t="shared" si="210"/>
+        <f t="shared" si="212"/>
         <v>0.19477434679334915</v>
       </c>
       <c r="Q99" s="43">
-        <f t="shared" si="210"/>
+        <f t="shared" si="212"/>
         <v>0.25728155339805836</v>
       </c>
       <c r="R99" s="43">
-        <f t="shared" si="210"/>
+        <f t="shared" si="212"/>
         <v>0.22394678492239461</v>
       </c>
       <c r="S99" s="43">
-        <f t="shared" si="210"/>
+        <f t="shared" si="212"/>
         <v>0.21615720524017457</v>
       </c>
       <c r="T99" s="43">
-        <f t="shared" si="210"/>
+        <f t="shared" si="212"/>
         <v>0.14512922465208744</v>
       </c>
       <c r="U99" s="43">
-        <f t="shared" si="210"/>
+        <f t="shared" si="212"/>
         <v>0.18146718146718155</v>
       </c>
       <c r="V99" s="43">
-        <f t="shared" si="210"/>
+        <f t="shared" si="212"/>
         <v>0.27717391304347827</v>
       </c>
       <c r="W99" s="43">
-        <f t="shared" si="210"/>
+        <f t="shared" si="212"/>
         <v>0.34111310592459598</v>
       </c>
       <c r="X99" s="43">
-        <f t="shared" si="210"/>
+        <f t="shared" si="212"/>
         <v>0.375</v>
       </c>
       <c r="Y99" s="43">
-        <f t="shared" si="210"/>
+        <f t="shared" si="212"/>
         <v>0.2712418300653594</v>
       </c>
       <c r="Z99" s="43">
-        <f t="shared" si="210"/>
+        <f t="shared" si="212"/>
         <v>8.2269503546099187E-2</v>
       </c>
       <c r="AA99" s="43">
-        <f t="shared" si="210"/>
+        <f t="shared" si="212"/>
         <v>5.7563587684069661E-2</v>
       </c>
       <c r="AB99" s="43">
-        <f t="shared" si="210"/>
+        <f t="shared" si="212"/>
         <v>0.16919191919191912</v>
       </c>
       <c r="AC99" s="43">
-        <f t="shared" si="210"/>
+        <f t="shared" si="212"/>
         <v>0.15681233933161964</v>
       </c>
       <c r="AD99" s="43">
-        <f t="shared" si="210"/>
+        <f t="shared" si="212"/>
         <v>0.17169069462647446</v>
       </c>
       <c r="AE99" s="43">
-        <f t="shared" si="210"/>
+        <f t="shared" si="212"/>
         <v>0.17088607594936711</v>
       </c>
       <c r="AF99" s="43"/>
@@ -24099,47 +24093,47 @@
         <v>-9.9447513812154664E-2</v>
       </c>
       <c r="BT99" s="66">
-        <f t="shared" ref="BT99:CD99" si="211">+BT4/BP4-1</f>
+        <f t="shared" ref="BT99:CD99" si="213">+BT4/BP4-1</f>
         <v>-8.0808080808080773E-2</v>
       </c>
       <c r="BU99" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="213"/>
         <v>-5.3272450532724558E-2</v>
       </c>
       <c r="BV99" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="213"/>
         <v>-6.8143100511073307E-3</v>
       </c>
       <c r="BW99" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="213"/>
         <v>2.914110429447847E-2</v>
       </c>
       <c r="BX99" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="213"/>
         <v>-5.8084772370486704E-2</v>
       </c>
       <c r="BY99" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="213"/>
         <v>-0.1012861736334405</v>
       </c>
       <c r="BZ99" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="213"/>
         <v>-0.26415094339622647</v>
       </c>
       <c r="CA99" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="213"/>
         <v>-0.33383010432190763</v>
       </c>
       <c r="CB99" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="213"/>
         <v>-0.41166666666666663</v>
       </c>
       <c r="CC99" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="213"/>
         <v>-0.38640429338103754</v>
       </c>
       <c r="CD99" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="213"/>
         <v>-0.35431235431235431</v>
       </c>
       <c r="CE99" s="66">
@@ -24155,23 +24149,23 @@
         <v>0.2565597667638484</v>
       </c>
       <c r="CH99" s="66">
-        <f>+CH4/CD4-1</f>
+        <f t="shared" si="211"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="CI99" s="66">
-        <f>+CI4/CE4-1</f>
+        <f t="shared" si="211"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="CJ99" s="66">
-        <f>+CJ4/CF4-1</f>
+        <f t="shared" si="211"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="CK99" s="66">
-        <f>+CK4/CG4-1</f>
+        <f t="shared" si="211"/>
         <v>-9.9999999999999867E-2</v>
       </c>
       <c r="CL99" s="66">
-        <f>+CL4/CH4-1</f>
+        <f t="shared" si="211"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="CM99" s="66"/>
@@ -24217,43 +24211,43 @@
       <c r="T100" s="43"/>
       <c r="U100" s="43"/>
       <c r="V100" s="43">
-        <f t="shared" ref="V100:AE100" si="212">V6/R6-1</f>
+        <f t="shared" ref="V100:AE100" si="214">V6/R6-1</f>
         <v>0.11127596439169141</v>
       </c>
       <c r="W100" s="43">
-        <f t="shared" si="212"/>
+        <f t="shared" si="214"/>
         <v>6.2761506276150625E-2</v>
       </c>
       <c r="X100" s="43">
-        <f t="shared" si="212"/>
+        <f t="shared" si="214"/>
         <v>0.22448979591836737</v>
       </c>
       <c r="Y100" s="43">
-        <f t="shared" si="212"/>
+        <f t="shared" si="214"/>
         <v>0.17637795275590551</v>
       </c>
       <c r="Z100" s="43">
-        <f t="shared" si="212"/>
+        <f t="shared" si="214"/>
         <v>6.6755674232310547E-3</v>
       </c>
       <c r="AA100" s="43">
-        <f t="shared" si="212"/>
+        <f t="shared" si="214"/>
         <v>9.1863517060366551E-3</v>
       </c>
       <c r="AB100" s="43">
-        <f t="shared" si="212"/>
+        <f t="shared" si="214"/>
         <v>0.11025641025641031</v>
       </c>
       <c r="AC100" s="43">
-        <f t="shared" si="212"/>
+        <f t="shared" si="214"/>
         <v>-0.21151271753681389</v>
       </c>
       <c r="AD100" s="43">
-        <f t="shared" si="212"/>
+        <f t="shared" si="214"/>
         <v>-0.22811671087533159</v>
       </c>
       <c r="AE100" s="43">
-        <f t="shared" si="212"/>
+        <f t="shared" si="214"/>
         <v>-0.24187256176853056</v>
       </c>
       <c r="AF100" s="43"/>
@@ -24352,35 +24346,35 @@
       <c r="O101" s="43"/>
       <c r="P101" s="43"/>
       <c r="Q101" s="43">
-        <f t="shared" ref="Q101:V101" si="213">Q90/M90-1</f>
+        <f t="shared" ref="Q101:V101" si="215">Q90/M90-1</f>
         <v>8.3583671031624229E-2</v>
       </c>
       <c r="R101" s="43">
-        <f t="shared" si="213"/>
+        <f t="shared" si="215"/>
         <v>-0.10399806362410113</v>
       </c>
       <c r="S101" s="43">
-        <f t="shared" si="213"/>
+        <f t="shared" si="215"/>
         <v>-0.20947081134089007</v>
       </c>
       <c r="T101" s="43">
-        <f t="shared" si="213"/>
+        <f t="shared" si="215"/>
         <v>0.12676180669236614</v>
       </c>
       <c r="U101" s="43">
-        <f t="shared" si="213"/>
+        <f t="shared" si="215"/>
         <v>8.6798084095178307E-2</v>
       </c>
       <c r="V101" s="43">
-        <f t="shared" si="213"/>
+        <f t="shared" si="215"/>
         <v>8.0266375123093425E-2</v>
       </c>
       <c r="W101" s="43">
-        <f t="shared" ref="W101:X101" si="214">W90/S90-1</f>
+        <f t="shared" ref="W101:X101" si="216">W90/S90-1</f>
         <v>0.11315576897500335</v>
       </c>
       <c r="X101" s="43">
-        <f t="shared" si="214"/>
+        <f t="shared" si="216"/>
         <v>0.1266192863674398</v>
       </c>
       <c r="Y101" s="43">
@@ -24472,27 +24466,27 @@
       <c r="CR101" s="33"/>
       <c r="CS101" s="43"/>
       <c r="CT101" s="43">
-        <f t="shared" ref="CT101:CY101" si="215">CT90/CS90-1</f>
+        <f t="shared" ref="CT101:CY101" si="217">CT90/CS90-1</f>
         <v>6.165058262481482E-3</v>
       </c>
       <c r="CU101" s="43">
-        <f t="shared" si="215"/>
+        <f t="shared" si="217"/>
         <v>0.13441259351318302</v>
       </c>
       <c r="CV101" s="43">
-        <f t="shared" si="215"/>
+        <f t="shared" si="217"/>
         <v>8.0321595516685163E-2</v>
       </c>
       <c r="CW101" s="43">
-        <f t="shared" si="215"/>
+        <f t="shared" si="217"/>
         <v>0.56746687640791649</v>
       </c>
       <c r="CX101" s="43">
-        <f t="shared" si="215"/>
+        <f t="shared" si="217"/>
         <v>6.211068629493921E-2</v>
       </c>
       <c r="CY101" s="43">
-        <f t="shared" si="215"/>
+        <f t="shared" si="217"/>
         <v>-2.8856862095187452E-2</v>
       </c>
       <c r="CZ101" s="43">
@@ -24508,7 +24502,7 @@
         <v>1.8110045384902573E-3</v>
       </c>
       <c r="DC101" s="43">
-        <f t="shared" ref="DC101" si="216">DC90/DB90-1</f>
+        <f t="shared" ref="DC101" si="218">DC90/DB90-1</f>
         <v>-3.8622649812662835E-2</v>
       </c>
       <c r="DN101" s="10"/>
@@ -24729,7 +24723,7 @@
         <v>175</v>
       </c>
       <c r="CT104" s="23">
-        <f t="shared" ref="CT104:CY104" si="217">CT89</f>
+        <f t="shared" ref="CT104:CY104" si="219">CT89</f>
         <v>7523</v>
       </c>
       <c r="CU104" s="23">
@@ -24737,19 +24731,19 @@
         <v>8513</v>
       </c>
       <c r="CV104" s="23">
-        <f t="shared" si="217"/>
+        <f t="shared" si="219"/>
         <v>9193.5499999999993</v>
       </c>
       <c r="CW104" s="23">
-        <f t="shared" si="217"/>
+        <f t="shared" si="219"/>
         <v>14410.585101600002</v>
       </c>
       <c r="CX104" s="23">
-        <f t="shared" si="217"/>
+        <f t="shared" si="219"/>
         <v>15305.636432172003</v>
       </c>
       <c r="CY104" s="23">
-        <f t="shared" si="217"/>
+        <f t="shared" si="219"/>
         <v>14863.963792369741</v>
       </c>
       <c r="CZ104" s="23">
@@ -24814,7 +24808,7 @@
         <v>-15241.838400000001</v>
       </c>
       <c r="AH106" s="23">
-        <f t="shared" ref="AH106" si="218">+AG106+AH89</f>
+        <f t="shared" ref="AH106" si="220">+AG106+AH89</f>
         <v>-11054.355520000001</v>
       </c>
       <c r="AI106" s="23"/>
@@ -24887,31 +24881,31 @@
         <v>-11054.355520000001</v>
       </c>
       <c r="CW106" s="23">
-        <f t="shared" ref="CW106:DC106" si="219">CW104+CV106</f>
+        <f t="shared" ref="CW106:DC106" si="221">CW104+CV106</f>
         <v>3356.2295816000005</v>
       </c>
       <c r="CX106" s="23">
-        <f t="shared" si="219"/>
+        <f t="shared" si="221"/>
         <v>18661.866013772003</v>
       </c>
       <c r="CY106" s="23">
-        <f t="shared" si="219"/>
+        <f t="shared" si="221"/>
         <v>33525.829806141744</v>
       </c>
       <c r="CZ106" s="23">
-        <f t="shared" si="219"/>
+        <f t="shared" si="221"/>
         <v>48356.944159413746</v>
       </c>
       <c r="DA106" s="23">
-        <f t="shared" si="219"/>
+        <f t="shared" si="221"/>
         <v>63561.820905263659</v>
       </c>
       <c r="DB106" s="23">
-        <f t="shared" si="219"/>
+        <f t="shared" si="221"/>
         <v>78794.233751907494</v>
       </c>
       <c r="DC106" s="23">
-        <f t="shared" si="219"/>
+        <f t="shared" si="221"/>
         <v>78794.233751907494</v>
       </c>
     </row>
@@ -27396,21 +27390,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100764A4B226BE2F34C80DFAA3D37A3CB30" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70544b0716d1f2dd0e24adda29a3d132">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -27524,17 +27503,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96797E59-4DFD-499C-8A4E-CC49F873674A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3CFCAF3-5635-4E82-8C3B-EBE76824AE5D}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -27548,17 +27543,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3CFCAF3-5635-4E82-8C3B-EBE76824AE5D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96797E59-4DFD-499C-8A4E-CC49F873674A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SAN FP.xlsx
+++ b/SAN FP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABB2CE2-6E51-43ED-B5B5-A5FD22173627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D20D5A-918F-4834-892B-5B3ADB1299CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27135" yWindow="360" windowWidth="26175" windowHeight="13305" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51600" yWindow="495" windowWidth="25530" windowHeight="20280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="22" r:id="rId1"/>
@@ -97,6 +97,7 @@
   <authors>
     <author>tc={E33F5FBE-A351-43AB-BB26-9BE2FEDE5329}</author>
     <author>tc={14193EBD-CFEE-4BE7-8A7E-3BC4D57390F5}</author>
+    <author>tc={D5DD676B-0E5E-4508-8BC7-B0A73A9A23F5}</author>
     <author>Martin</author>
     <author>MSMB</author>
     <author>RBC</author>
@@ -123,10 +124,20 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Q324: 13B guidance</t>
+    Q324: 13B guidance
+16% CER
+US 2.551B EUR</t>
       </text>
     </comment>
-    <comment ref="Y4" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="DJ3" authorId="2" shapeId="0" xr:uid="{D5DD676B-0E5E-4508-8BC7-B0A73A9A23F5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    +23.1% CER</t>
+      </text>
+    </comment>
+    <comment ref="Y4" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -150,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA4" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="AA4" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -178,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB4" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="AB4" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -202,7 +213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T6" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="T6" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -226,7 +237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U6" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
+    <comment ref="U6" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -250,7 +261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA6" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
+    <comment ref="AA6" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -276,7 +287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB6" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
+    <comment ref="AB6" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -301,7 +312,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC6" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
+    <comment ref="AC6" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -325,7 +336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CU6" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
+    <comment ref="CU6" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -349,7 +360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S12" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
+    <comment ref="S12" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -373,7 +384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X12" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
+    <comment ref="X12" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -386,7 +397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE12" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000C000000}">
+    <comment ref="AE12" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -410,7 +421,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S15" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000D000000}">
+    <comment ref="S15" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -434,7 +445,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CW22" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0300-000019000000}">
+    <comment ref="CW22" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0300-000019000000}">
       <text>
         <r>
           <rPr>
@@ -447,7 +458,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CZ22" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001A000000}">
+    <comment ref="CZ22" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -471,7 +482,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DB22" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001B000000}">
+    <comment ref="DB22" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -484,7 +495,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y41" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0300-000011000000}">
+    <comment ref="Y41" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0300-000011000000}">
       <text>
         <r>
           <rPr>
@@ -508,7 +519,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB41" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0300-000012000000}">
+    <comment ref="AB41" authorId="8" shapeId="0" xr:uid="{00000000-0006-0000-0300-000012000000}">
       <text>
         <r>
           <rPr>
@@ -532,7 +543,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W42" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0300-000013000000}">
+    <comment ref="W42" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0300-000013000000}">
       <text>
         <r>
           <rPr>
@@ -556,7 +567,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA42" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-000014000000}">
+    <comment ref="AA42" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0300-000014000000}">
       <text>
         <r>
           <rPr>
@@ -582,7 +593,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X43" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0300-000015000000}">
+    <comment ref="X43" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0300-000015000000}">
       <text>
         <r>
           <rPr>
@@ -595,7 +606,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CQ43" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0300-000016000000}">
+    <comment ref="CQ43" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0300-000016000000}">
       <text>
         <r>
           <rPr>
@@ -619,7 +630,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CU43" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0300-000017000000}">
+    <comment ref="CU43" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0300-000017000000}">
       <text>
         <r>
           <rPr>
@@ -633,7 +644,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CW48" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0300-000018000000}">
+    <comment ref="CW48" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0300-000018000000}">
       <text>
         <r>
           <rPr>
@@ -657,7 +668,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA52" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000E000000}">
+    <comment ref="AA52" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -683,7 +694,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB52" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000F000000}">
+    <comment ref="AB52" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -707,7 +718,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CV52" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0300-000010000000}">
+    <comment ref="CV52" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0300-000010000000}">
       <text>
         <r>
           <rPr>
@@ -720,7 +731,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T60" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001C000000}">
+    <comment ref="T60" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -744,7 +755,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA61" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001D000000}">
+    <comment ref="AA61" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -768,7 +779,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CG61" authorId="8" shapeId="0" xr:uid="{F9AC6D8E-D4E8-48E6-87BF-AFF3BAEAF239}">
+    <comment ref="CG61" authorId="9" shapeId="0" xr:uid="{F9AC6D8E-D4E8-48E6-87BF-AFF3BAEAF239}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -776,7 +787,7 @@
     Qunol acquisition</t>
       </text>
     </comment>
-    <comment ref="AA63" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001E000000}">
+    <comment ref="AA63" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -800,7 +811,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S64" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001F000000}">
+    <comment ref="S64" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -824,7 +835,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S74" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0300-000020000000}">
+    <comment ref="S74" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0300-000020000000}">
       <text>
         <r>
           <rPr>
@@ -848,7 +859,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA76" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000021000000}">
+    <comment ref="AA76" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-000021000000}">
       <text>
         <r>
           <rPr>
@@ -872,7 +883,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BZ76" authorId="9" shapeId="0" xr:uid="{F7588713-7B33-4A55-9D7A-5A4110D76910}">
+    <comment ref="BZ76" authorId="10" shapeId="0" xr:uid="{F7588713-7B33-4A55-9D7A-5A4110D76910}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -880,7 +891,7 @@
     10725m reported</t>
       </text>
     </comment>
-    <comment ref="S86" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0300-000022000000}">
+    <comment ref="S86" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0300-000022000000}">
       <text>
         <r>
           <rPr>
@@ -904,7 +915,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CG89" authorId="10" shapeId="0" xr:uid="{C332E2A7-7FFB-4B2F-83D9-CD4DD37631A5}">
+    <comment ref="CG89" authorId="11" shapeId="0" xr:uid="{C332E2A7-7FFB-4B2F-83D9-CD4DD37631A5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -912,7 +923,7 @@
     Business NI 3585m</t>
       </text>
     </comment>
-    <comment ref="CG90" authorId="11" shapeId="0" xr:uid="{65F7C13C-73F7-432E-96BC-9619FA75CE2E}">
+    <comment ref="CG90" authorId="12" shapeId="0" xr:uid="{65F7C13C-73F7-432E-96BC-9619FA75CE2E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -921,7 +932,7 @@
 IFRS EPS 2.25</t>
       </text>
     </comment>
-    <comment ref="CT90" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0300-000023000000}">
+    <comment ref="CT90" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0300-000023000000}">
       <text>
         <r>
           <rPr>
@@ -944,7 +955,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CV90" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-000024000000}">
+    <comment ref="CV90" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0300-000024000000}">
       <text>
         <r>
           <rPr>
@@ -968,7 +979,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DJ90" authorId="12" shapeId="0" xr:uid="{70D2DB62-68E2-4B0A-A405-84EE5DA5D593}">
+    <comment ref="DJ90" authorId="13" shapeId="0" xr:uid="{70D2DB62-68E2-4B0A-A405-84EE5DA5D593}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -976,7 +987,7 @@
     10/21/24/Q324: +LSD CER excluding Opella</t>
       </text>
     </comment>
-    <comment ref="AE97" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000025000000}">
+    <comment ref="AE97" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-000025000000}">
       <text>
         <r>
           <rPr>
@@ -1000,7 +1011,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA99" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0300-000026000000}">
+    <comment ref="AA99" authorId="8" shapeId="0" xr:uid="{00000000-0006-0000-0300-000026000000}">
       <text>
         <r>
           <rPr>
@@ -1024,7 +1035,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB99" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-000027000000}">
+    <comment ref="AB99" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0300-000027000000}">
       <text>
         <r>
           <rPr>
@@ -1048,7 +1059,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC99" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000028000000}">
+    <comment ref="AC99" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-000028000000}">
       <text>
         <r>
           <rPr>
@@ -1072,7 +1083,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO101" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000029000000}">
+    <comment ref="AO101" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-000029000000}">
       <text>
         <r>
           <rPr>
@@ -1101,7 +1112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="614">
   <si>
     <t>Q2 2005</t>
   </si>
@@ -2925,6 +2936,24 @@
   </si>
   <si>
     <t>Admelog</t>
+  </si>
+  <si>
+    <t>COPD launch initiated Q424</t>
+  </si>
+  <si>
+    <t>Phase III "EoE KIDS" - NCT04394351</t>
+  </si>
+  <si>
+    <t>Phase III "STYLE1" lichen simplex chronicus - NCT06687967</t>
+  </si>
+  <si>
+    <t>Phase III "STYLE2" lichen simplex chronicus - NCT06687980</t>
+  </si>
+  <si>
+    <t>initiated Q424</t>
+  </si>
+  <si>
+    <t>CSU - sBLA resubmitted Q424, 4/18/25 PDUFA</t>
   </si>
 </sst>
 </file>
@@ -3402,14 +3431,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>112</xdr:col>
-      <xdr:colOff>440120</xdr:colOff>
+      <xdr:col>113</xdr:col>
+      <xdr:colOff>13138</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>112</xdr:col>
-      <xdr:colOff>440120</xdr:colOff>
+      <xdr:col>113</xdr:col>
+      <xdr:colOff>13138</xdr:colOff>
       <xdr:row>130</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -3428,8 +3457,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="51001448" y="0"/>
-          <a:ext cx="0" cy="21280164"/>
+          <a:off x="51047431" y="0"/>
+          <a:ext cx="0" cy="21444388"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3747,7 +3776,12 @@
     <text>+26% CER</text>
   </threadedComment>
   <threadedComment ref="CH3" dT="2024-11-23T22:17:15.82" personId="{318CC6C7-4C79-4B81-8AA8-0F5CDEEED97F}" id="{14193EBD-CFEE-4BE7-8A7E-3BC4D57390F5}">
-    <text>Q324: 13B guidance</text>
+    <text>Q324: 13B guidance
+16% CER
+US 2.551B EUR</text>
+  </threadedComment>
+  <threadedComment ref="DJ3" dT="2025-03-31T00:00:38.98" personId="{318CC6C7-4C79-4B81-8AA8-0F5CDEEED97F}" id="{D5DD676B-0E5E-4508-8BC7-B0A73A9A23F5}">
+    <text>+23.1% CER</text>
   </threadedComment>
   <threadedComment ref="CG61" dT="2024-11-23T22:17:42.49" personId="{318CC6C7-4C79-4B81-8AA8-0F5CDEEED97F}" id="{F9AC6D8E-D4E8-48E6-87BF-AFF3BAEAF239}">
     <text>Qunol acquisition</text>
@@ -4969,7 +5003,7 @@
   <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6322,10 +6356,10 @@
   <dimension ref="A1:FN124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BQ3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BW45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CG1" sqref="CG1"/>
+      <selection pane="bottomRight" activeCell="CH68" sqref="CH68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6872,8 +6906,7 @@
         <v>3476</v>
       </c>
       <c r="CH3" s="60">
-        <f>+CD3*1.2</f>
-        <v>3588</v>
+        <v>3458</v>
       </c>
       <c r="CI3" s="60">
         <f t="shared" ref="CI3:CL3" si="19">+CE3*1.3</f>
@@ -6889,7 +6922,7 @@
       </c>
       <c r="CL3" s="60">
         <f t="shared" si="19"/>
-        <v>4664.4000000000005</v>
+        <v>4495.4000000000005</v>
       </c>
       <c r="CM3" s="60"/>
       <c r="CN3" s="32"/>
@@ -6927,11 +6960,11 @@
       </c>
       <c r="DJ3" s="27">
         <f>SUM(CE3:CH3)</f>
-        <v>13202</v>
+        <v>13072</v>
       </c>
       <c r="DK3" s="27">
         <f>SUM(CI3:CL3)</f>
-        <v>17162.600000000002</v>
+        <v>16993.600000000002</v>
       </c>
     </row>
     <row r="4" spans="1:125" s="27" customFormat="1" x14ac:dyDescent="0.2">
@@ -7122,11 +7155,10 @@
         <v>431</v>
       </c>
       <c r="CH4" s="54">
-        <f t="shared" ref="CH4:CL4" si="21">+CD4*0.9</f>
-        <v>249.3</v>
+        <v>439</v>
       </c>
       <c r="CI4" s="54">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="CH4:CL4" si="21">+CE4*0.9</f>
         <v>324</v>
       </c>
       <c r="CJ4" s="54">
@@ -7139,7 +7171,7 @@
       </c>
       <c r="CL4" s="54">
         <f t="shared" si="21"/>
-        <v>224.37</v>
+        <v>395.1</v>
       </c>
       <c r="CM4" s="54"/>
       <c r="CN4" s="23"/>
@@ -7330,24 +7362,23 @@
         <v>92</v>
       </c>
       <c r="CH5" s="54">
-        <f t="shared" ref="CH5:CL5" si="23">+CG5-5</f>
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="CI5" s="54">
-        <f t="shared" si="23"/>
-        <v>82</v>
+        <f t="shared" ref="CH5:CL5" si="23">+CH5-5</f>
+        <v>73</v>
       </c>
       <c r="CJ5" s="54">
         <f t="shared" si="23"/>
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="CK5" s="54">
         <f t="shared" si="23"/>
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="CL5" s="54">
         <f t="shared" si="23"/>
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="CM5" s="54"/>
       <c r="CN5" s="23"/>
@@ -7554,11 +7585,10 @@
         <v>233</v>
       </c>
       <c r="CH6" s="54">
-        <f t="shared" ref="CH6:CL7" si="24">+CD6</f>
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="CI6" s="54">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="CH6:CL7" si="24">+CE6</f>
         <v>262</v>
       </c>
       <c r="CJ6" s="54">
@@ -7571,7 +7601,7 @@
       </c>
       <c r="CL6" s="54">
         <f t="shared" si="24"/>
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="CM6" s="54"/>
       <c r="CN6" s="23"/>
@@ -7766,8 +7796,7 @@
         <v>1055</v>
       </c>
       <c r="CH7" s="54">
-        <f t="shared" si="24"/>
-        <v>1181</v>
+        <v>1010</v>
       </c>
       <c r="CI7" s="54">
         <f t="shared" si="24"/>
@@ -7783,7 +7812,7 @@
       </c>
       <c r="CL7" s="54">
         <f t="shared" si="24"/>
-        <v>1181</v>
+        <v>1010</v>
       </c>
       <c r="CM7" s="54"/>
       <c r="CN7" s="23"/>
@@ -7904,24 +7933,23 @@
         <v>172</v>
       </c>
       <c r="CH8" s="54">
-        <f t="shared" ref="CH8:CL8" si="27">+CG8+10</f>
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="CI8" s="54">
-        <f t="shared" si="27"/>
-        <v>192</v>
+        <f t="shared" ref="CH8:CL8" si="27">+CH8+10</f>
+        <v>240</v>
       </c>
       <c r="CJ8" s="54">
         <f t="shared" si="27"/>
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="CK8" s="54">
         <f t="shared" si="27"/>
-        <v>212</v>
+        <v>260</v>
       </c>
       <c r="CL8" s="54">
         <f t="shared" si="27"/>
-        <v>222</v>
+        <v>270</v>
       </c>
       <c r="CM8" s="54"/>
       <c r="CN8" s="23"/>
@@ -8070,11 +8098,10 @@
         <v>303</v>
       </c>
       <c r="CH9" s="54">
-        <f t="shared" ref="CH9:CL9" si="28">+CD9*0.9</f>
-        <v>250.20000000000002</v>
+        <v>290</v>
       </c>
       <c r="CI9" s="54">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="CH9:CL9" si="28">+CE9*0.9</f>
         <v>288.90000000000003</v>
       </c>
       <c r="CJ9" s="54">
@@ -8087,7 +8114,7 @@
       </c>
       <c r="CL9" s="54">
         <f t="shared" si="28"/>
-        <v>225.18</v>
+        <v>261</v>
       </c>
       <c r="CM9" s="54"/>
       <c r="CN9" s="23"/>
@@ -8210,24 +8237,23 @@
         <v>28</v>
       </c>
       <c r="CH10" s="54">
-        <f t="shared" ref="CH10:CL10" si="29">+CG10+5</f>
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="CI10" s="54">
-        <f t="shared" si="29"/>
-        <v>38</v>
+        <f t="shared" ref="CH10:CL10" si="29">+CH10+5</f>
+        <v>27</v>
       </c>
       <c r="CJ10" s="54">
         <f t="shared" si="29"/>
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="CK10" s="54">
         <f t="shared" si="29"/>
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="CL10" s="54">
         <f t="shared" si="29"/>
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="CM10" s="54"/>
       <c r="CN10" s="23"/>
@@ -8350,24 +8376,23 @@
         <v>15</v>
       </c>
       <c r="CH11" s="54">
-        <f t="shared" ref="CH11:CL11" si="30">+CG11+5</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="CI11" s="54">
-        <f t="shared" si="30"/>
-        <v>25</v>
+        <f t="shared" ref="CH11:CL11" si="30">+CH11+5</f>
+        <v>23</v>
       </c>
       <c r="CJ11" s="54">
         <f t="shared" si="30"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="CK11" s="54">
         <f t="shared" si="30"/>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="CL11" s="54">
         <f t="shared" si="30"/>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="CM11" s="54"/>
       <c r="CN11" s="23"/>
@@ -8574,11 +8599,10 @@
         <v>230</v>
       </c>
       <c r="CH12" s="54">
-        <f t="shared" ref="CH12:CL12" si="32">+CC12</f>
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="CI12" s="54">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="CH12:CL12" si="32">+CD12</f>
         <v>254</v>
       </c>
       <c r="CJ12" s="54">
@@ -8783,24 +8807,23 @@
         <v>168</v>
       </c>
       <c r="CH13" s="54">
-        <f t="shared" ref="CH13:CL13" si="36">+CG13-5</f>
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="CI13" s="54">
-        <f t="shared" si="36"/>
-        <v>158</v>
+        <f t="shared" ref="CH13:CL13" si="36">+CH13-5</f>
+        <v>127</v>
       </c>
       <c r="CJ13" s="54">
         <f t="shared" si="36"/>
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="CK13" s="54">
         <f t="shared" si="36"/>
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="CL13" s="54">
         <f t="shared" si="36"/>
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="CM13" s="54"/>
       <c r="CN13" s="23"/>
@@ -8954,11 +8977,10 @@
         <v>253</v>
       </c>
       <c r="CH14" s="54">
-        <f t="shared" ref="CH14:CL14" si="37">+CD14*1.01</f>
-        <v>244.42000000000002</v>
+        <v>269</v>
       </c>
       <c r="CI14" s="54">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="CH14:CL14" si="37">+CE14*1.01</f>
         <v>255.53</v>
       </c>
       <c r="CJ14" s="54">
@@ -8971,7 +8993,7 @@
       </c>
       <c r="CL14" s="54">
         <f t="shared" si="37"/>
-        <v>246.86420000000001</v>
+        <v>271.69</v>
       </c>
       <c r="CM14" s="54"/>
       <c r="CN14" s="23"/>
@@ -9177,11 +9199,10 @@
         <v>98</v>
       </c>
       <c r="CH15" s="54">
-        <f t="shared" ref="CH15:CL15" si="39">+CD15*0.9</f>
-        <v>95.4</v>
+        <v>105</v>
       </c>
       <c r="CI15" s="54">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="CH15:CL15" si="39">+CE15*0.9</f>
         <v>94.5</v>
       </c>
       <c r="CJ15" s="54">
@@ -9194,7 +9215,7 @@
       </c>
       <c r="CL15" s="54">
         <f t="shared" si="39"/>
-        <v>85.860000000000014</v>
+        <v>94.5</v>
       </c>
       <c r="CM15" s="54"/>
       <c r="CN15" s="23"/>
@@ -9386,11 +9407,10 @@
         <v>164</v>
       </c>
       <c r="CH16" s="54">
-        <f t="shared" ref="CH16:CL16" si="42">+CD16</f>
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="CI16" s="54">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="CH16:CL16" si="42">+CE16</f>
         <v>214</v>
       </c>
       <c r="CJ16" s="54">
@@ -9403,7 +9423,7 @@
       </c>
       <c r="CL16" s="54">
         <f t="shared" si="42"/>
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="CM16" s="54"/>
       <c r="CN16" s="23"/>
@@ -9551,24 +9571,23 @@
         <v>96</v>
       </c>
       <c r="CH17" s="54">
-        <f>+CG17</f>
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="CI17" s="54">
         <f t="shared" ref="CI17:CL17" si="43">+CH17</f>
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="CJ17" s="54">
         <f t="shared" si="43"/>
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="CK17" s="54">
         <f t="shared" si="43"/>
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="CL17" s="54">
         <f t="shared" si="43"/>
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="CM17" s="54"/>
       <c r="CN17" s="23"/>
@@ -9716,24 +9735,23 @@
         <v>148</v>
       </c>
       <c r="CH18" s="54">
-        <f t="shared" ref="CH18:CL18" si="44">+CG18</f>
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="CI18" s="54">
-        <f t="shared" si="44"/>
-        <v>148</v>
+        <f t="shared" ref="CH18:CL18" si="44">+CH18</f>
+        <v>169</v>
       </c>
       <c r="CJ18" s="54">
         <f t="shared" si="44"/>
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="CK18" s="54">
         <f t="shared" si="44"/>
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="CL18" s="54">
         <f t="shared" si="44"/>
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="CM18" s="54"/>
       <c r="CN18" s="23"/>
@@ -9903,24 +9921,23 @@
         <v>72</v>
       </c>
       <c r="CH19" s="54">
-        <f t="shared" ref="CH19:CL19" si="45">+CG19</f>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="CI19" s="54">
-        <f t="shared" si="45"/>
-        <v>72</v>
+        <f t="shared" ref="CH19:CL19" si="45">+CH19</f>
+        <v>77</v>
       </c>
       <c r="CJ19" s="54">
         <f t="shared" si="45"/>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="CK19" s="54">
         <f t="shared" si="45"/>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="CL19" s="54">
         <f t="shared" si="45"/>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="CM19" s="54"/>
       <c r="CN19" s="23"/>
@@ -10078,24 +10095,23 @@
         <v>121</v>
       </c>
       <c r="CH20" s="54">
-        <f t="shared" ref="CH20:CL20" si="46">+CG20</f>
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="CI20" s="54">
-        <f t="shared" si="46"/>
-        <v>121</v>
+        <f t="shared" ref="CH20:CL20" si="46">+CH20</f>
+        <v>125</v>
       </c>
       <c r="CJ20" s="54">
         <f t="shared" si="46"/>
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="CK20" s="54">
         <f t="shared" si="46"/>
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="CL20" s="54">
         <f t="shared" si="46"/>
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="CM20" s="54"/>
       <c r="CN20" s="23"/>
@@ -10242,24 +10258,23 @@
         <v>109</v>
       </c>
       <c r="CH21" s="54">
-        <f t="shared" ref="CH21:CL21" si="47">+CG21</f>
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="CI21" s="54">
-        <f t="shared" si="47"/>
-        <v>109</v>
+        <f t="shared" ref="CH21:CL21" si="47">+CH21</f>
+        <v>126</v>
       </c>
       <c r="CJ21" s="54">
         <f t="shared" si="47"/>
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="CK21" s="54">
         <f t="shared" si="47"/>
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="CL21" s="54">
         <f t="shared" si="47"/>
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="CM21" s="54"/>
       <c r="CN21" s="23"/>
@@ -10420,24 +10435,23 @@
         <v>72</v>
       </c>
       <c r="CH22" s="54">
-        <f t="shared" ref="CH22:CL22" si="49">+CG22</f>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="CI22" s="54">
-        <f t="shared" si="49"/>
-        <v>72</v>
+        <f t="shared" ref="CH22:CL22" si="49">+CH22</f>
+        <v>77</v>
       </c>
       <c r="CJ22" s="54">
         <f t="shared" si="49"/>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="CK22" s="54">
         <f t="shared" si="49"/>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="CL22" s="54">
         <f t="shared" si="49"/>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="CM22" s="54"/>
       <c r="CN22" s="23"/>
@@ -10615,24 +10629,23 @@
         <v>67</v>
       </c>
       <c r="CH23" s="54">
-        <f t="shared" ref="CH23:CL23" si="50">+CG23</f>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="CI23" s="54">
-        <f t="shared" si="50"/>
-        <v>67</v>
+        <f t="shared" ref="CH23:CL23" si="50">+CH23</f>
+        <v>69</v>
       </c>
       <c r="CJ23" s="54">
         <f t="shared" si="50"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="CK23" s="54">
         <f t="shared" si="50"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="CL23" s="54">
         <f t="shared" si="50"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="CM23" s="54"/>
       <c r="CN23" s="23"/>
@@ -10780,24 +10793,23 @@
         <v>126</v>
       </c>
       <c r="CH24" s="54">
-        <f t="shared" ref="CH24:CL24" si="51">+CG24</f>
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="CI24" s="54">
-        <f t="shared" si="51"/>
-        <v>126</v>
+        <f t="shared" ref="CH24:CL24" si="51">+CH24</f>
+        <v>110</v>
       </c>
       <c r="CJ24" s="54">
         <f t="shared" si="51"/>
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="CK24" s="54">
         <f t="shared" si="51"/>
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="CL24" s="54">
         <f t="shared" si="51"/>
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="CM24" s="54"/>
       <c r="CN24" s="23"/>
@@ -10945,24 +10957,23 @@
         <v>81</v>
       </c>
       <c r="CH25" s="54">
-        <f t="shared" ref="CH25:CL25" si="52">+CG25</f>
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="CI25" s="54">
-        <f t="shared" si="52"/>
-        <v>81</v>
+        <f t="shared" ref="CH25:CL25" si="52">+CH25</f>
+        <v>87</v>
       </c>
       <c r="CJ25" s="54">
         <f t="shared" si="52"/>
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="CK25" s="54">
         <f t="shared" si="52"/>
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="CL25" s="54">
         <f t="shared" si="52"/>
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="CM25" s="54"/>
       <c r="CN25" s="23"/>
@@ -11108,24 +11119,23 @@
         <v>114</v>
       </c>
       <c r="CH26" s="54">
-        <f t="shared" ref="CH26:CL26" si="53">+CG26</f>
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="CI26" s="54">
-        <f t="shared" si="53"/>
-        <v>114</v>
+        <f t="shared" ref="CH26:CL26" si="53">+CH26</f>
+        <v>130</v>
       </c>
       <c r="CJ26" s="54">
         <f t="shared" si="53"/>
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="CK26" s="54">
         <f t="shared" si="53"/>
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="CL26" s="54">
         <f t="shared" si="53"/>
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="CM26" s="54"/>
       <c r="CN26" s="23"/>
@@ -11264,24 +11274,23 @@
         <v>16</v>
       </c>
       <c r="CH27" s="54">
-        <f t="shared" ref="CH27:CL27" si="54">+CG27</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="CI27" s="54">
-        <f t="shared" si="54"/>
-        <v>16</v>
+        <f t="shared" ref="CH27:CL27" si="54">+CH27</f>
+        <v>12</v>
       </c>
       <c r="CJ27" s="54">
         <f t="shared" si="54"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="CK27" s="54">
         <f t="shared" si="54"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="CL27" s="54">
         <f t="shared" si="54"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="CM27" s="54"/>
       <c r="CN27" s="23"/>
@@ -11426,24 +11435,23 @@
         <v>55</v>
       </c>
       <c r="CH28" s="54">
-        <f t="shared" ref="CH28:CL28" si="55">+CG28</f>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="CI28" s="54">
-        <f t="shared" si="55"/>
-        <v>55</v>
+        <f t="shared" ref="CH28:CL28" si="55">+CH28</f>
+        <v>58</v>
       </c>
       <c r="CJ28" s="54">
         <f t="shared" si="55"/>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="CK28" s="54">
         <f t="shared" si="55"/>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="CL28" s="54">
         <f t="shared" si="55"/>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="CM28" s="54"/>
       <c r="CN28" s="23"/>
@@ -11591,24 +11599,23 @@
         <v>63</v>
       </c>
       <c r="CH29" s="54">
-        <f t="shared" ref="CH29:CL29" si="56">+CG29</f>
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="CI29" s="54">
-        <f t="shared" si="56"/>
-        <v>63</v>
+        <f t="shared" ref="CH29:CL29" si="56">+CH29</f>
+        <v>73</v>
       </c>
       <c r="CJ29" s="54">
         <f t="shared" si="56"/>
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="CK29" s="54">
         <f t="shared" si="56"/>
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="CL29" s="54">
         <f t="shared" si="56"/>
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="CM29" s="54"/>
       <c r="CN29" s="23"/>
@@ -11730,24 +11737,23 @@
         <v>41</v>
       </c>
       <c r="CH30" s="54">
-        <f t="shared" ref="CH30:CL30" si="57">+CG30</f>
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="CI30" s="54">
-        <f t="shared" si="57"/>
-        <v>41</v>
+        <f t="shared" ref="CH30:CL30" si="57">+CH30</f>
+        <v>38</v>
       </c>
       <c r="CJ30" s="54">
         <f t="shared" si="57"/>
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="CK30" s="54">
         <f t="shared" si="57"/>
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="CL30" s="54">
         <f t="shared" si="57"/>
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="CM30" s="54"/>
       <c r="CN30" s="23"/>
@@ -11893,24 +11899,23 @@
         <v>46</v>
       </c>
       <c r="CH31" s="54">
-        <f t="shared" ref="CH31:CL31" si="58">+CG31</f>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="CI31" s="54">
-        <f t="shared" si="58"/>
-        <v>46</v>
+        <f t="shared" ref="CH31:CL31" si="58">+CH31</f>
+        <v>51</v>
       </c>
       <c r="CJ31" s="54">
         <f t="shared" si="58"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="CK31" s="54">
         <f t="shared" si="58"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="CL31" s="54">
         <f t="shared" si="58"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="CM31" s="54"/>
       <c r="CN31" s="23"/>
@@ -12044,24 +12049,23 @@
         <v>131</v>
       </c>
       <c r="CH32" s="54">
-        <f t="shared" ref="CH32:CL32" si="59">+CG32</f>
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="CI32" s="54">
-        <f t="shared" si="59"/>
-        <v>131</v>
+        <f t="shared" ref="CH32:CL32" si="59">+CH32</f>
+        <v>132</v>
       </c>
       <c r="CJ32" s="54">
         <f t="shared" si="59"/>
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="CK32" s="54">
         <f t="shared" si="59"/>
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="CL32" s="54">
         <f t="shared" si="59"/>
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="CM32" s="54"/>
       <c r="CN32" s="23"/>
@@ -12439,24 +12443,23 @@
         <v>163</v>
       </c>
       <c r="CH35" s="54">
-        <f t="shared" ref="CH35:CL35" si="60">+CG35</f>
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="CI35" s="54">
-        <f t="shared" si="60"/>
-        <v>163</v>
+        <f>+CH35+10</f>
+        <v>194</v>
       </c>
       <c r="CJ35" s="54">
-        <f t="shared" si="60"/>
-        <v>163</v>
+        <f>+CI35+10</f>
+        <v>204</v>
       </c>
       <c r="CK35" s="54">
-        <f t="shared" si="60"/>
-        <v>163</v>
+        <f>+CJ35+10</f>
+        <v>214</v>
       </c>
       <c r="CL35" s="54">
-        <f t="shared" si="60"/>
-        <v>163</v>
+        <f>+CK35+10</f>
+        <v>224</v>
       </c>
       <c r="CM35" s="54"/>
       <c r="CN35" s="23"/>
@@ -12941,31 +12944,31 @@
         <v>478</v>
       </c>
       <c r="CW38" s="23">
-        <f t="shared" ref="CW38:DC38" si="61">CV38*0.9</f>
+        <f t="shared" ref="CW38:DC38" si="60">CV38*0.9</f>
         <v>430.2</v>
       </c>
       <c r="CX38" s="23">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>387.18</v>
       </c>
       <c r="CY38" s="23">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>348.46199999999999</v>
       </c>
       <c r="CZ38" s="23">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>313.61579999999998</v>
       </c>
       <c r="DA38" s="23">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>282.25421999999998</v>
       </c>
       <c r="DB38" s="23">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>254.02879799999999</v>
       </c>
       <c r="DC38" s="23">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>228.6259182</v>
       </c>
     </row>
@@ -13249,31 +13252,31 @@
         <v>177</v>
       </c>
       <c r="CW40" s="23">
-        <f t="shared" ref="CW40:DB40" si="62">CV40*1.02</f>
+        <f t="shared" ref="CW40:DB40" si="61">CV40*1.02</f>
         <v>180.54</v>
       </c>
       <c r="CX40" s="23">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>184.1508</v>
       </c>
       <c r="CY40" s="23">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>187.83381600000001</v>
       </c>
       <c r="CZ40" s="23">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>191.59049232000001</v>
       </c>
       <c r="DA40" s="23">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>195.42230216640002</v>
       </c>
       <c r="DB40" s="23">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>199.33074820972803</v>
       </c>
       <c r="DC40" s="23">
-        <f t="shared" ref="DC40" si="63">DB40*1.02</f>
+        <f t="shared" ref="DC40" si="62">DB40*1.02</f>
         <v>203.31736317392259</v>
       </c>
     </row>
@@ -13350,11 +13353,11 @@
         <v>248</v>
       </c>
       <c r="AG41" s="23">
-        <f t="shared" ref="AG41:AH41" si="64">+AF41</f>
+        <f t="shared" ref="AG41:AH41" si="63">+AF41</f>
         <v>248</v>
       </c>
       <c r="AH41" s="23">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>248</v>
       </c>
       <c r="AI41" s="23"/>
@@ -13442,7 +13445,7 @@
         <v>1521</v>
       </c>
       <c r="CT41" s="23">
-        <f t="shared" ref="CT41:CT48" si="65">SUM(S41:V41)</f>
+        <f t="shared" ref="CT41:CT48" si="64">SUM(S41:V41)</f>
         <v>1348</v>
       </c>
       <c r="CU41" s="23">
@@ -13458,27 +13461,27 @@
         <v>362.95</v>
       </c>
       <c r="CX41" s="23">
-        <f t="shared" ref="CX41:DC41" si="66">CW41*0.85</f>
+        <f t="shared" ref="CX41:DC41" si="65">CW41*0.85</f>
         <v>308.50749999999999</v>
       </c>
       <c r="CY41" s="23">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>262.23137500000001</v>
       </c>
       <c r="CZ41" s="23">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>222.89666875</v>
       </c>
       <c r="DA41" s="23">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>189.4621684375</v>
       </c>
       <c r="DB41" s="23">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>161.04284317187501</v>
       </c>
       <c r="DC41" s="23">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>136.88641669609376</v>
       </c>
     </row>
@@ -13640,7 +13643,7 @@
         <v>1250</v>
       </c>
       <c r="CT42" s="23">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>829</v>
       </c>
       <c r="CU42" s="23">
@@ -13664,19 +13667,19 @@
         <v>6.5520000000000014</v>
       </c>
       <c r="CZ42" s="23">
-        <f t="shared" ref="CZ42:DB42" si="67">CY42*0.5</f>
+        <f t="shared" ref="CZ42:DB42" si="66">CY42*0.5</f>
         <v>3.2760000000000007</v>
       </c>
       <c r="DA42" s="23">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>1.6380000000000003</v>
       </c>
       <c r="DB42" s="23">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>0.81900000000000017</v>
       </c>
       <c r="DC42" s="23">
-        <f t="shared" ref="DC42" si="68">DB42*0.5</f>
+        <f t="shared" ref="DC42" si="67">DB42*0.5</f>
         <v>0.40950000000000009</v>
       </c>
     </row>
@@ -13836,7 +13839,7 @@
         <v>706</v>
       </c>
       <c r="CT43" s="23">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>688</v>
       </c>
       <c r="CU43" s="23">
@@ -13848,31 +13851,31 @@
         <v>607</v>
       </c>
       <c r="CW43" s="23">
-        <f t="shared" ref="CW43:DC43" si="69">CV43*0.8</f>
+        <f t="shared" ref="CW43:DC43" si="68">CV43*0.8</f>
         <v>485.6</v>
       </c>
       <c r="CX43" s="23">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>388.48</v>
       </c>
       <c r="CY43" s="23">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>310.78400000000005</v>
       </c>
       <c r="CZ43" s="23">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>248.62720000000004</v>
       </c>
       <c r="DA43" s="23">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>198.90176000000005</v>
       </c>
       <c r="DB43" s="23">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>159.12140800000006</v>
       </c>
       <c r="DC43" s="23">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>127.29712640000005</v>
       </c>
     </row>
@@ -14025,7 +14028,7 @@
         <v>741</v>
       </c>
       <c r="CT44" s="23">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>513</v>
       </c>
       <c r="CU44" s="23">
@@ -14037,15 +14040,15 @@
         <v>410</v>
       </c>
       <c r="CW44" s="23">
-        <f t="shared" ref="CW44:DC48" si="70">CV44*0.9</f>
+        <f t="shared" ref="CW44:DC48" si="69">CV44*0.9</f>
         <v>369</v>
       </c>
       <c r="CX44" s="23">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>332.1</v>
       </c>
       <c r="CY44" s="23">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>298.89000000000004</v>
       </c>
       <c r="CZ44" s="23">
@@ -14053,15 +14056,15 @@
         <v>119.55600000000003</v>
       </c>
       <c r="DA44" s="23">
-        <f t="shared" ref="DA44:DC44" si="71">+CZ44*0.4</f>
+        <f t="shared" ref="DA44:DC44" si="70">+CZ44*0.4</f>
         <v>47.822400000000016</v>
       </c>
       <c r="DB44" s="23">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
         <v>19.128960000000006</v>
       </c>
       <c r="DC44" s="23">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
         <v>7.6515840000000033</v>
       </c>
     </row>
@@ -14212,7 +14215,7 @@
         <v>333</v>
       </c>
       <c r="CT45" s="23">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>331</v>
       </c>
       <c r="CU45" s="23">
@@ -14224,31 +14227,31 @@
         <v>296</v>
       </c>
       <c r="CW45" s="23">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>266.40000000000003</v>
       </c>
       <c r="CX45" s="23">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>239.76000000000005</v>
       </c>
       <c r="CY45" s="23">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>215.78400000000005</v>
       </c>
       <c r="CZ45" s="23">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>194.20560000000006</v>
       </c>
       <c r="DA45" s="23">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>174.78504000000007</v>
       </c>
       <c r="DB45" s="23">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>157.30653600000005</v>
       </c>
       <c r="DC45" s="23">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>141.57588240000004</v>
       </c>
     </row>
@@ -14513,7 +14516,7 @@
         <v>316</v>
       </c>
       <c r="CT47" s="23">
-        <f t="shared" ref="CT47" si="72">SUM(S47:V47)</f>
+        <f t="shared" ref="CT47" si="71">SUM(S47:V47)</f>
         <v>329</v>
       </c>
       <c r="CU47" s="23">
@@ -14525,15 +14528,15 @@
         <v>372</v>
       </c>
       <c r="CW47" s="23">
-        <f t="shared" ref="CW47:CY47" si="73">CV47</f>
+        <f t="shared" ref="CW47:CY47" si="72">CV47</f>
         <v>372</v>
       </c>
       <c r="CX47" s="23">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>372</v>
       </c>
       <c r="CY47" s="23">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>372</v>
       </c>
       <c r="CZ47" s="23"/>
@@ -14686,7 +14689,7 @@
         <v>294</v>
       </c>
       <c r="CT48" s="23">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>241</v>
       </c>
       <c r="CU48" s="23">
@@ -14698,7 +14701,7 @@
         <v>189</v>
       </c>
       <c r="CW48" s="23">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>170.1</v>
       </c>
       <c r="CX48" s="23">
@@ -14706,23 +14709,23 @@
         <v>68.040000000000006</v>
       </c>
       <c r="CY48" s="23">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>61.236000000000004</v>
       </c>
       <c r="CZ48" s="23">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>55.112400000000008</v>
       </c>
       <c r="DA48" s="23">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>49.601160000000007</v>
       </c>
       <c r="DB48" s="23">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>44.641044000000008</v>
       </c>
       <c r="DC48" s="23">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>40.176939600000011</v>
       </c>
     </row>
@@ -15002,27 +15005,27 @@
         <v>214.20000000000002</v>
       </c>
       <c r="CX50" s="23">
-        <f t="shared" ref="CX50:DC50" si="74">+CW50*0.9</f>
+        <f t="shared" ref="CX50:DC50" si="73">+CW50*0.9</f>
         <v>192.78000000000003</v>
       </c>
       <c r="CY50" s="23">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>173.50200000000004</v>
       </c>
       <c r="CZ50" s="23">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>156.15180000000004</v>
       </c>
       <c r="DA50" s="23">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>140.53662000000003</v>
       </c>
       <c r="DB50" s="23">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>126.48295800000002</v>
       </c>
       <c r="DC50" s="23">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>113.83466220000003</v>
       </c>
       <c r="DE50" s="19"/>
@@ -15224,11 +15227,11 @@
         <v>204</v>
       </c>
       <c r="AG52" s="23">
-        <f t="shared" ref="AG52:AH52" si="75">+AF52-10</f>
+        <f t="shared" ref="AG52:AH52" si="74">+AF52-10</f>
         <v>194</v>
       </c>
       <c r="AH52" s="23">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>184</v>
       </c>
       <c r="AI52" s="23"/>
@@ -15340,19 +15343,19 @@
         <v>318.3</v>
       </c>
       <c r="CZ52" s="23">
-        <f t="shared" ref="CZ52:DB52" si="76">CY52*0.75</f>
+        <f t="shared" ref="CZ52:DB52" si="75">CY52*0.75</f>
         <v>238.72500000000002</v>
       </c>
       <c r="DA52" s="23">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v>179.04375000000002</v>
       </c>
       <c r="DB52" s="23">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v>134.28281250000001</v>
       </c>
       <c r="DC52" s="23">
-        <f t="shared" ref="DC52" si="77">DB52*0.75</f>
+        <f t="shared" ref="DC52" si="76">DB52*0.75</f>
         <v>100.71210937500001</v>
       </c>
     </row>
@@ -16289,15 +16292,15 @@
         <v>712</v>
       </c>
       <c r="AF61" s="23">
-        <f t="shared" ref="AF61:AH64" si="78">+AE61</f>
+        <f t="shared" ref="AF61:AH64" si="77">+AE61</f>
         <v>712</v>
       </c>
       <c r="AG61" s="23">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>712</v>
       </c>
       <c r="AH61" s="23">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>712</v>
       </c>
       <c r="AI61" s="23"/>
@@ -16398,23 +16401,23 @@
         <v>1271</v>
       </c>
       <c r="CH61" s="54">
-        <f t="shared" ref="CH61:CL61" si="79">+CG61</f>
+        <f t="shared" ref="CH61:CL61" si="78">+CG61</f>
         <v>1271</v>
       </c>
       <c r="CI61" s="54">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>1271</v>
       </c>
       <c r="CJ61" s="54">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>1271</v>
       </c>
       <c r="CK61" s="54">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>1271</v>
       </c>
       <c r="CL61" s="54">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>1271</v>
       </c>
       <c r="CM61" s="54"/>
@@ -16433,31 +16436,31 @@
         <v>2217</v>
       </c>
       <c r="CW61" s="23">
-        <f t="shared" ref="CW61:DC61" si="80">CV61*1.02</f>
+        <f t="shared" ref="CW61:DC61" si="79">CV61*1.02</f>
         <v>2261.34</v>
       </c>
       <c r="CX61" s="23">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>2306.5668000000001</v>
       </c>
       <c r="CY61" s="23">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>2352.698136</v>
       </c>
       <c r="CZ61" s="23">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>2399.75209872</v>
       </c>
       <c r="DA61" s="23">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>2447.7471406944001</v>
       </c>
       <c r="DB61" s="23">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>2496.7020835082881</v>
       </c>
       <c r="DC61" s="23">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>2546.6361251784538</v>
       </c>
     </row>
@@ -16564,23 +16567,23 @@
         <v>126</v>
       </c>
       <c r="CH62" s="54">
-        <f t="shared" ref="CH62:CL62" si="81">+CG62</f>
+        <f t="shared" ref="CH62:CL62" si="80">+CG62</f>
         <v>126</v>
       </c>
       <c r="CI62" s="54">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>126</v>
       </c>
       <c r="CJ62" s="54">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>126</v>
       </c>
       <c r="CK62" s="54">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>126</v>
       </c>
       <c r="CL62" s="54">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>126</v>
       </c>
       <c r="CM62" s="54"/>
@@ -16639,15 +16642,15 @@
         <v>414</v>
       </c>
       <c r="AF63" s="23">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>414</v>
       </c>
       <c r="AG63" s="23">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>414</v>
       </c>
       <c r="AH63" s="23">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>414</v>
       </c>
       <c r="AI63" s="23"/>
@@ -16746,31 +16749,31 @@
         <v>1534</v>
       </c>
       <c r="CW63" s="23">
-        <f t="shared" ref="CW63:DC63" si="82">CV63*1.02</f>
+        <f t="shared" ref="CW63:DC63" si="81">CV63*1.02</f>
         <v>1564.68</v>
       </c>
       <c r="CX63" s="23">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>1595.9736</v>
       </c>
       <c r="CY63" s="23">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>1627.8930720000001</v>
       </c>
       <c r="CZ63" s="23">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>1660.4509334400002</v>
       </c>
       <c r="DA63" s="23">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>1693.6599521088003</v>
       </c>
       <c r="DB63" s="23">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>1727.5331511509764</v>
       </c>
       <c r="DC63" s="23">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>1762.083814173996</v>
       </c>
     </row>
@@ -16845,15 +16848,15 @@
         <v>1479</v>
       </c>
       <c r="AF64" s="23">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>1479</v>
       </c>
       <c r="AG64" s="23">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>1479</v>
       </c>
       <c r="AH64" s="23">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>1479</v>
       </c>
       <c r="AI64" s="23"/>
@@ -16972,19 +16975,19 @@
         <v>5760.8</v>
       </c>
       <c r="CX64" s="44">
-        <f t="shared" ref="CX64:DA64" si="83">CW64*0.95</f>
+        <f t="shared" ref="CX64:DA64" si="82">CW64*0.95</f>
         <v>5472.76</v>
       </c>
       <c r="CY64" s="44">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>5199.1220000000003</v>
       </c>
       <c r="CZ64" s="44">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>4939.1659</v>
       </c>
       <c r="DA64" s="44">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>4692.2076049999996</v>
       </c>
       <c r="DB64" s="44">
@@ -17069,11 +17072,11 @@
         <v>748</v>
       </c>
       <c r="AG65" s="23">
-        <f t="shared" ref="AG65:AH65" si="84">+AC65</f>
+        <f t="shared" ref="AG65:AH65" si="83">+AC65</f>
         <v>1226</v>
       </c>
       <c r="AH65" s="23">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>890</v>
       </c>
       <c r="AI65" s="23"/>
@@ -17169,7 +17172,7 @@
         <v>2533</v>
       </c>
       <c r="CS65" s="23">
-        <f t="shared" ref="CS65" si="85">SUM(O65:R65)</f>
+        <f t="shared" ref="CS65" si="84">SUM(O65:R65)</f>
         <v>2778</v>
       </c>
       <c r="CT65" s="23">
@@ -17193,23 +17196,23 @@
         <v>4079.1296000000002</v>
       </c>
       <c r="CY65" s="23">
-        <f t="shared" ref="CY65:DC65" si="86">CX65*1.03</f>
+        <f t="shared" ref="CY65:DC65" si="85">CX65*1.03</f>
         <v>4201.5034880000003</v>
       </c>
       <c r="CZ65" s="23">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>4327.5485926400006</v>
       </c>
       <c r="DA65" s="23">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>4457.3750504192003</v>
       </c>
       <c r="DB65" s="23">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>4591.096301931776</v>
       </c>
       <c r="DC65" s="23">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>4728.8291909897298</v>
       </c>
     </row>
@@ -17323,24 +17326,23 @@
         <v>760</v>
       </c>
       <c r="CH66" s="54">
-        <f t="shared" ref="CH66:CL66" si="87">+CG66</f>
-        <v>760</v>
+        <v>632</v>
       </c>
       <c r="CI66" s="54">
-        <f t="shared" si="87"/>
-        <v>760</v>
+        <f t="shared" ref="CH66:CL66" si="86">+CH66</f>
+        <v>632</v>
       </c>
       <c r="CJ66" s="54">
-        <f t="shared" si="87"/>
-        <v>760</v>
+        <f t="shared" si="86"/>
+        <v>632</v>
       </c>
       <c r="CK66" s="54">
-        <f t="shared" si="87"/>
-        <v>760</v>
+        <f t="shared" si="86"/>
+        <v>632</v>
       </c>
       <c r="CL66" s="54">
-        <f t="shared" si="87"/>
-        <v>760</v>
+        <f t="shared" si="86"/>
+        <v>632</v>
       </c>
       <c r="CM66" s="54"/>
       <c r="CN66" s="23"/>
@@ -17449,24 +17451,23 @@
         <v>645</v>
       </c>
       <c r="CH67" s="54">
-        <f t="shared" ref="CH67:CL67" si="88">+CG67</f>
-        <v>645</v>
+        <v>841</v>
       </c>
       <c r="CI67" s="54">
-        <f t="shared" si="88"/>
-        <v>645</v>
+        <f t="shared" ref="CH67:CL67" si="87">+CH67</f>
+        <v>841</v>
       </c>
       <c r="CJ67" s="54">
-        <f t="shared" si="88"/>
-        <v>645</v>
+        <f t="shared" si="87"/>
+        <v>841</v>
       </c>
       <c r="CK67" s="54">
-        <f t="shared" si="88"/>
-        <v>645</v>
+        <f t="shared" si="87"/>
+        <v>841</v>
       </c>
       <c r="CL67" s="54">
-        <f t="shared" si="88"/>
-        <v>645</v>
+        <f t="shared" si="87"/>
+        <v>841</v>
       </c>
       <c r="CM67" s="54"/>
       <c r="CN67" s="23"/>
@@ -17595,24 +17596,23 @@
         <v>485</v>
       </c>
       <c r="CH68" s="54">
-        <f>+CG68</f>
-        <v>485</v>
+        <v>249</v>
       </c>
       <c r="CI68" s="54">
-        <f t="shared" ref="CI68:CL68" si="89">+CH68</f>
-        <v>485</v>
+        <f t="shared" ref="CI68:CL68" si="88">+CH68</f>
+        <v>249</v>
       </c>
       <c r="CJ68" s="54">
-        <f t="shared" si="89"/>
-        <v>485</v>
+        <f t="shared" si="88"/>
+        <v>249</v>
       </c>
       <c r="CK68" s="54">
-        <f t="shared" si="89"/>
-        <v>485</v>
+        <f t="shared" si="88"/>
+        <v>249</v>
       </c>
       <c r="CL68" s="54">
-        <f t="shared" si="89"/>
-        <v>485</v>
+        <f t="shared" si="88"/>
+        <v>249</v>
       </c>
       <c r="CM68" s="54"/>
       <c r="CN68" s="23"/>
@@ -18178,11 +18178,11 @@
         <v>594</v>
       </c>
       <c r="AG73" s="23">
-        <f t="shared" ref="AG73:AH74" si="90">+AF73</f>
+        <f t="shared" ref="AG73:AH74" si="89">+AF73</f>
         <v>594</v>
       </c>
       <c r="AH73" s="23">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>594</v>
       </c>
       <c r="AI73" s="23"/>
@@ -18265,23 +18265,23 @@
         <v>2494.8000000000002</v>
       </c>
       <c r="CY73" s="23">
-        <f t="shared" ref="CY73:DC73" si="91">CX73*1.05</f>
+        <f t="shared" ref="CY73:DC73" si="90">CX73*1.05</f>
         <v>2619.5400000000004</v>
       </c>
       <c r="CZ73" s="23">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>2750.5170000000007</v>
       </c>
       <c r="DA73" s="23">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>2888.0428500000007</v>
       </c>
       <c r="DB73" s="23">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>3032.4449925000008</v>
       </c>
       <c r="DC73" s="23">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>3184.067242125001</v>
       </c>
     </row>
@@ -18366,11 +18366,11 @@
         <v>413</v>
       </c>
       <c r="AG74" s="23">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>413</v>
       </c>
       <c r="AH74" s="23">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>413</v>
       </c>
       <c r="AI74" s="23"/>
@@ -18508,67 +18508,67 @@
       <c r="I76" s="39"/>
       <c r="J76" s="39"/>
       <c r="K76" s="39">
-        <f t="shared" ref="K76:Z76" si="92">SUM(K4:K65)</f>
+        <f t="shared" ref="K76:Z76" si="91">SUM(K4:K65)</f>
         <v>7035</v>
       </c>
       <c r="L76" s="39">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>7081</v>
       </c>
       <c r="M76" s="39">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>6901</v>
       </c>
       <c r="N76" s="39">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>7356</v>
       </c>
       <c r="O76" s="39">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>7177</v>
       </c>
       <c r="P76" s="39">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>6939</v>
       </c>
       <c r="Q76" s="39">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>7025</v>
       </c>
       <c r="R76" s="39">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>6911</v>
       </c>
       <c r="S76" s="39">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>6919</v>
       </c>
       <c r="T76" s="39">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>6689</v>
       </c>
       <c r="U76" s="39">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>6853</v>
       </c>
       <c r="V76" s="39">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>7089</v>
       </c>
       <c r="W76" s="39">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>7107</v>
       </c>
       <c r="X76" s="39">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>7442</v>
       </c>
       <c r="Y76" s="39">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>7400</v>
       </c>
       <c r="Z76" s="39">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>7361</v>
       </c>
       <c r="AA76" s="39">
@@ -18588,39 +18588,39 @@
         <v>7395</v>
       </c>
       <c r="AE76" s="39">
-        <f t="shared" ref="AE76:AM76" si="93">SUM(AE4:AE73)</f>
+        <f t="shared" ref="AE76:AM76" si="92">SUM(AE4:AE73)</f>
         <v>7779</v>
       </c>
       <c r="AF76" s="39">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
         <v>7875</v>
       </c>
       <c r="AG76" s="39">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
         <v>7853</v>
       </c>
       <c r="AH76" s="39">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
         <v>7495.4</v>
       </c>
       <c r="AI76" s="39">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
         <v>54</v>
       </c>
       <c r="AJ76" s="39">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AK76" s="39">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AL76" s="39">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AM76" s="39">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AN76" s="39">
@@ -18672,47 +18672,47 @@
         <v>0</v>
       </c>
       <c r="BO76" s="62">
-        <f t="shared" ref="BO76:BX76" si="94">SUM(BO3:BO75)</f>
+        <f t="shared" ref="BO76:BX76" si="93">SUM(BO3:BO75)</f>
         <v>8973</v>
       </c>
       <c r="BP76" s="62">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>8207</v>
       </c>
       <c r="BQ76" s="62">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>9479</v>
       </c>
       <c r="BR76" s="62">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>9382</v>
       </c>
       <c r="BS76" s="62">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>8591</v>
       </c>
       <c r="BT76" s="62">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>8744</v>
       </c>
       <c r="BU76" s="62">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>10432</v>
       </c>
       <c r="BV76" s="62">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>9994</v>
       </c>
       <c r="BW76" s="62">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>9673</v>
       </c>
       <c r="BX76" s="62">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>10116</v>
       </c>
       <c r="BY76" s="62">
-        <f t="shared" ref="BY76:CL76" si="95">SUM(BY3:BY75)</f>
+        <f t="shared" ref="BY76:CL76" si="94">SUM(BY3:BY75)</f>
         <v>12482</v>
       </c>
       <c r="BZ76" s="62">
@@ -18720,15 +18720,15 @@
         <v>10724</v>
       </c>
       <c r="CA76" s="62">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>10221</v>
       </c>
       <c r="CB76" s="62">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>9965</v>
       </c>
       <c r="CC76" s="62">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>11964</v>
       </c>
       <c r="CD76" s="62">
@@ -18740,32 +18740,32 @@
         <v>10464</v>
       </c>
       <c r="CF76" s="62">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>10745</v>
       </c>
       <c r="CG76" s="62">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>13439</v>
       </c>
       <c r="CH76" s="62">
-        <f t="shared" si="95"/>
-        <v>12257.32</v>
+        <f t="shared" si="94"/>
+        <v>12123</v>
       </c>
       <c r="CI76" s="62">
-        <f t="shared" si="95"/>
-        <v>11894.43</v>
+        <f t="shared" si="94"/>
+        <v>11809.43</v>
       </c>
       <c r="CJ76" s="62">
-        <f t="shared" si="95"/>
-        <v>12501.73</v>
+        <f t="shared" si="94"/>
+        <v>12426.73</v>
       </c>
       <c r="CK76" s="62">
-        <f t="shared" si="95"/>
-        <v>14446.13</v>
+        <f t="shared" si="94"/>
+        <v>14381.13</v>
       </c>
       <c r="CL76" s="62">
-        <f t="shared" si="95"/>
-        <v>13328.674200000001</v>
+        <f t="shared" si="94"/>
+        <v>13178.69</v>
       </c>
       <c r="CM76" s="62"/>
       <c r="CN76" s="39"/>
@@ -18793,31 +18793,31 @@
         <v>30415</v>
       </c>
       <c r="CW76" s="39">
-        <f t="shared" ref="CW76:DC76" si="96">SUM(CW4:CW73)</f>
+        <f t="shared" ref="CW76:DC76" si="95">SUM(CW4:CW73)</f>
         <v>30145.23</v>
       </c>
       <c r="CX76" s="39">
-        <f t="shared" si="96"/>
+        <f t="shared" si="95"/>
         <v>29130.449300000004</v>
       </c>
       <c r="CY76" s="39">
-        <f t="shared" si="96"/>
+        <f t="shared" si="95"/>
         <v>27509.208572000003</v>
       </c>
       <c r="CZ76" s="39">
-        <f t="shared" si="96"/>
+        <f t="shared" si="95"/>
         <v>26261.69246577</v>
       </c>
       <c r="DA76" s="39">
-        <f t="shared" si="96"/>
+        <f t="shared" si="95"/>
         <v>25739.669793202305</v>
       </c>
       <c r="DB76" s="39">
-        <f t="shared" si="96"/>
+        <f t="shared" si="95"/>
         <v>24572.232721612385</v>
       </c>
       <c r="DC76" s="39">
-        <f t="shared" si="96"/>
+        <f t="shared" si="95"/>
         <v>22307.744321120292</v>
       </c>
     </row>
@@ -18903,11 +18903,11 @@
         <v>1890</v>
       </c>
       <c r="AG77" s="23">
-        <f t="shared" ref="AG77:AH77" si="97">+AG76-AG78</f>
+        <f t="shared" ref="AG77:AH77" si="96">+AG76-AG78</f>
         <v>1884.7200000000003</v>
       </c>
       <c r="AH77" s="23">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>1798.8959999999997</v>
       </c>
       <c r="AI77" s="23"/>
@@ -19032,7 +19032,7 @@
       <c r="CR77" s="23"/>
       <c r="CS77" s="23"/>
       <c r="CT77" s="23">
-        <f t="shared" ref="CT77:DB77" si="98">CT76-CT78</f>
+        <f t="shared" ref="CT77:DB77" si="97">CT76-CT78</f>
         <v>6086</v>
       </c>
       <c r="CU77" s="23">
@@ -19048,27 +19048,27 @@
         <v>7234.8551999999981</v>
       </c>
       <c r="CX77" s="23">
-        <f t="shared" si="98"/>
+        <f t="shared" si="97"/>
         <v>6991.3078320000022</v>
       </c>
       <c r="CY77" s="23">
-        <f t="shared" si="98"/>
+        <f t="shared" si="97"/>
         <v>6877.3021430000008</v>
       </c>
       <c r="CZ77" s="23">
-        <f t="shared" si="98"/>
+        <f t="shared" si="97"/>
         <v>6565.4231164425</v>
       </c>
       <c r="DA77" s="23">
-        <f t="shared" si="98"/>
+        <f t="shared" si="97"/>
         <v>6434.9174483005772</v>
       </c>
       <c r="DB77" s="23">
-        <f t="shared" si="98"/>
+        <f t="shared" si="97"/>
         <v>6143.0581804030953</v>
       </c>
       <c r="DC77" s="23">
-        <f t="shared" ref="DC77" si="99">DC76-DC78</f>
+        <f t="shared" ref="DC77" si="98">DC76-DC78</f>
         <v>5576.9360802800729</v>
       </c>
     </row>
@@ -19093,79 +19093,79 @@
         <v>5271</v>
       </c>
       <c r="M78" s="23">
-        <f t="shared" ref="M78:AE78" si="100">M76-M77+M74</f>
+        <f t="shared" ref="M78:AE78" si="99">M76-M77+M74</f>
         <v>5302</v>
       </c>
       <c r="N78" s="23">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>5627</v>
       </c>
       <c r="O78" s="23">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>5569</v>
       </c>
       <c r="P78" s="23">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>5390</v>
       </c>
       <c r="Q78" s="23">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>5420</v>
       </c>
       <c r="R78" s="23">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>5257</v>
       </c>
       <c r="S78" s="23">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>5314</v>
       </c>
       <c r="T78" s="23">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>5249</v>
       </c>
       <c r="U78" s="23">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>5372</v>
       </c>
       <c r="V78" s="23">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>5529</v>
       </c>
       <c r="W78" s="23">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>5684</v>
       </c>
       <c r="X78" s="23">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>5968</v>
       </c>
       <c r="Y78" s="23">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>5744</v>
       </c>
       <c r="Z78" s="23">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>5504</v>
       </c>
       <c r="AA78" s="23">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>6263</v>
       </c>
       <c r="AB78" s="23">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>6133</v>
       </c>
       <c r="AC78" s="23">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>5963</v>
       </c>
       <c r="AD78" s="23">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>5500</v>
       </c>
       <c r="AE78" s="23">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>5830</v>
       </c>
       <c r="AF78" s="23">
@@ -19173,11 +19173,11 @@
         <v>5985</v>
       </c>
       <c r="AG78" s="23">
-        <f t="shared" ref="AG78:AH78" si="101">+AG76*AG93</f>
+        <f t="shared" ref="AG78:AH78" si="100">+AG76*AG93</f>
         <v>5968.28</v>
       </c>
       <c r="AH78" s="23">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>5696.5039999999999</v>
       </c>
       <c r="AI78" s="23"/>
@@ -19186,7 +19186,7 @@
       <c r="AL78" s="23"/>
       <c r="AM78" s="23"/>
       <c r="AN78" s="23">
-        <f t="shared" ref="AN78" si="102">+AN76-AN77</f>
+        <f t="shared" ref="AN78" si="101">+AN76-AN77</f>
         <v>5401</v>
       </c>
       <c r="AO78" s="23">
@@ -19219,71 +19219,71 @@
       <c r="BM78" s="54"/>
       <c r="BN78" s="54"/>
       <c r="BO78" s="54">
-        <f t="shared" ref="BO78" si="103">BO76-BO77</f>
+        <f t="shared" ref="BO78" si="102">BO76-BO77</f>
         <v>6469</v>
       </c>
       <c r="BP78" s="54">
-        <f t="shared" ref="BP78" si="104">BP76-BP77</f>
+        <f t="shared" ref="BP78" si="103">BP76-BP77</f>
         <v>5778</v>
       </c>
       <c r="BQ78" s="54">
-        <f t="shared" ref="BQ78:BR78" si="105">BQ76-BQ77</f>
+        <f t="shared" ref="BQ78:BR78" si="104">BQ76-BQ77</f>
         <v>6720</v>
       </c>
       <c r="BR78" s="54">
+        <f t="shared" si="104"/>
+        <v>6297</v>
+      </c>
+      <c r="BS78" s="54">
+        <f t="shared" ref="BS78:BX78" si="105">BS76-BS77</f>
+        <v>6202</v>
+      </c>
+      <c r="BT78" s="54">
         <f t="shared" si="105"/>
-        <v>6297</v>
-      </c>
-      <c r="BS78" s="54">
-        <f t="shared" ref="BS78:BX78" si="106">BS76-BS77</f>
-        <v>6202</v>
-      </c>
-      <c r="BT78" s="54">
+        <v>6187</v>
+      </c>
+      <c r="BU78" s="54">
+        <f t="shared" si="105"/>
+        <v>7591</v>
+      </c>
+      <c r="BV78" s="54">
+        <f t="shared" si="105"/>
+        <v>6944</v>
+      </c>
+      <c r="BW78" s="54">
+        <f t="shared" si="105"/>
+        <v>7174</v>
+      </c>
+      <c r="BX78" s="54">
+        <f t="shared" si="105"/>
+        <v>7493</v>
+      </c>
+      <c r="BY78" s="54">
+        <f t="shared" ref="BY78:CE78" si="106">+BY76-BY77</f>
+        <v>9307</v>
+      </c>
+      <c r="BZ78" s="54">
         <f t="shared" si="106"/>
-        <v>6187</v>
-      </c>
-      <c r="BU78" s="54">
+        <v>7721</v>
+      </c>
+      <c r="CA78" s="54">
         <f t="shared" si="106"/>
-        <v>7591</v>
-      </c>
-      <c r="BV78" s="54">
+        <v>7783</v>
+      </c>
+      <c r="CB78" s="54">
         <f t="shared" si="106"/>
-        <v>6944</v>
-      </c>
-      <c r="BW78" s="54">
+        <v>7419</v>
+      </c>
+      <c r="CC78" s="54">
         <f t="shared" si="106"/>
-        <v>7174</v>
-      </c>
-      <c r="BX78" s="54">
+        <v>8858</v>
+      </c>
+      <c r="CD78" s="54">
         <f t="shared" si="106"/>
-        <v>7493</v>
-      </c>
-      <c r="BY78" s="54">
-        <f t="shared" ref="BY78:CE78" si="107">+BY76-BY77</f>
-        <v>9307</v>
-      </c>
-      <c r="BZ78" s="54">
-        <f t="shared" si="107"/>
-        <v>7721</v>
-      </c>
-      <c r="CA78" s="54">
-        <f t="shared" si="107"/>
-        <v>7783</v>
-      </c>
-      <c r="CB78" s="54">
-        <f t="shared" si="107"/>
-        <v>7419</v>
-      </c>
-      <c r="CC78" s="54">
-        <f t="shared" si="107"/>
-        <v>8858</v>
-      </c>
-      <c r="CD78" s="54">
-        <f t="shared" si="107"/>
         <v>8167</v>
       </c>
       <c r="CE78" s="54">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>7694</v>
       </c>
       <c r="CF78" s="54">
@@ -19320,11 +19320,11 @@
         <v>22910.374800000001</v>
       </c>
       <c r="CX78" s="23">
-        <f t="shared" ref="CX78:CY78" si="108">CX76*CX93</f>
+        <f t="shared" ref="CX78:CY78" si="107">CX76*CX93</f>
         <v>22139.141468000002</v>
       </c>
       <c r="CY78" s="23">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>20631.906429000002</v>
       </c>
       <c r="CZ78" s="23">
@@ -19752,11 +19752,11 @@
         <v>1933</v>
       </c>
       <c r="CX80" s="23">
-        <f t="shared" ref="CX80:CY80" si="109">CW80</f>
+        <f t="shared" ref="CX80:CY80" si="108">CW80</f>
         <v>1933</v>
       </c>
       <c r="CY80" s="23">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>1933</v>
       </c>
       <c r="CZ80" s="23">
@@ -19797,35 +19797,35 @@
         <v>-9</v>
       </c>
       <c r="M81" s="23">
-        <f t="shared" ref="M81:W81" si="110">M80+M79</f>
+        <f t="shared" ref="M81:W81" si="109">M80+M79</f>
         <v>2881</v>
       </c>
       <c r="N81" s="23">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>3364</v>
       </c>
       <c r="O81" s="23">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>2954</v>
       </c>
       <c r="P81" s="23">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>3032</v>
       </c>
       <c r="Q81" s="23">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>2838</v>
       </c>
       <c r="R81" s="23">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>3267</v>
       </c>
       <c r="S81" s="23">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>2872</v>
       </c>
       <c r="T81" s="23">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>2880</v>
       </c>
       <c r="U81" s="23">
@@ -19833,35 +19833,35 @@
         <v>2740</v>
       </c>
       <c r="V81" s="23">
+        <f t="shared" si="109"/>
+        <v>3251</v>
+      </c>
+      <c r="W81" s="23">
+        <f t="shared" si="109"/>
+        <v>2884</v>
+      </c>
+      <c r="X81" s="23">
+        <f t="shared" ref="X81:Y81" si="110">X80+X79</f>
+        <v>3003</v>
+      </c>
+      <c r="Y81" s="23">
         <f t="shared" si="110"/>
-        <v>3251</v>
-      </c>
-      <c r="W81" s="23">
-        <f t="shared" si="110"/>
-        <v>2884</v>
-      </c>
-      <c r="X81" s="23">
-        <f t="shared" ref="X81:Y81" si="111">X80+X79</f>
-        <v>3003</v>
-      </c>
-      <c r="Y81" s="23">
+        <v>2816</v>
+      </c>
+      <c r="Z81" s="23">
+        <f t="shared" ref="Z81:AA81" si="111">Z80+Z79</f>
+        <v>3205</v>
+      </c>
+      <c r="AA81" s="23">
         <f t="shared" si="111"/>
-        <v>2816</v>
-      </c>
-      <c r="Z81" s="23">
-        <f t="shared" ref="Z81:AA81" si="112">Z80+Z79</f>
-        <v>3205</v>
-      </c>
-      <c r="AA81" s="23">
+        <v>2811</v>
+      </c>
+      <c r="AB81" s="23">
+        <f t="shared" ref="AB81:AC81" si="112">AB80+AB79</f>
+        <v>3038</v>
+      </c>
+      <c r="AC81" s="23">
         <f t="shared" si="112"/>
-        <v>2811</v>
-      </c>
-      <c r="AB81" s="23">
-        <f t="shared" ref="AB81:AC81" si="113">AB80+AB79</f>
-        <v>3038</v>
-      </c>
-      <c r="AC81" s="23">
-        <f t="shared" si="113"/>
         <v>2936</v>
       </c>
       <c r="AD81" s="23">
@@ -19869,47 +19869,47 @@
         <v>3183</v>
       </c>
       <c r="AE81" s="23">
-        <f t="shared" ref="AE81:AF81" si="114">AE80+AE79</f>
+        <f t="shared" ref="AE81:AF81" si="113">AE80+AE79</f>
         <v>3033</v>
       </c>
       <c r="AF81" s="23">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AG81" s="23">
+        <f t="shared" ref="AG81:AH81" si="114">AG80+AG79</f>
+        <v>0</v>
+      </c>
+      <c r="AH81" s="23">
         <f t="shared" si="114"/>
         <v>0</v>
       </c>
-      <c r="AG81" s="23">
-        <f t="shared" ref="AG81:AH81" si="115">AG80+AG79</f>
+      <c r="AI81" s="23">
+        <f t="shared" ref="AI81:AO81" si="115">AI80+AI79</f>
         <v>0</v>
       </c>
-      <c r="AH81" s="23">
+      <c r="AJ81" s="23">
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
-      <c r="AI81" s="23">
-        <f t="shared" ref="AI81:AO81" si="116">AI80+AI79</f>
+      <c r="AK81" s="23">
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
-      <c r="AJ81" s="23">
-        <f t="shared" si="116"/>
+      <c r="AL81" s="23">
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
-      <c r="AK81" s="23">
-        <f t="shared" si="116"/>
+      <c r="AM81" s="23">
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
-      <c r="AL81" s="23">
-        <f t="shared" si="116"/>
-        <v>0</v>
-      </c>
-      <c r="AM81" s="23">
-        <f t="shared" si="116"/>
-        <v>0</v>
-      </c>
       <c r="AN81" s="23">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>3495</v>
       </c>
       <c r="AO81" s="23">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>3199</v>
       </c>
       <c r="AP81" s="23"/>
@@ -19938,35 +19938,35 @@
       <c r="BM81" s="54"/>
       <c r="BN81" s="54"/>
       <c r="BO81" s="54">
-        <f t="shared" ref="BO81" si="117">BO79+BO80</f>
+        <f t="shared" ref="BO81" si="116">BO79+BO80</f>
         <v>3682</v>
       </c>
       <c r="BP81" s="54">
-        <f t="shared" ref="BP81:BQ81" si="118">BP79+BP80</f>
+        <f t="shared" ref="BP81:BQ81" si="117">BP79+BP80</f>
         <v>3617</v>
       </c>
       <c r="BQ81" s="54">
+        <f t="shared" si="117"/>
+        <v>3503</v>
+      </c>
+      <c r="BR81" s="54">
+        <f t="shared" ref="BR81:BV81" si="118">BR79+BR80</f>
+        <v>4118</v>
+      </c>
+      <c r="BS81" s="54">
         <f t="shared" si="118"/>
-        <v>3503</v>
-      </c>
-      <c r="BR81" s="54">
-        <f t="shared" ref="BR81:BV81" si="119">BR79+BR80</f>
-        <v>4118</v>
-      </c>
-      <c r="BS81" s="54">
-        <f t="shared" si="119"/>
         <v>3461</v>
       </c>
       <c r="BT81" s="54">
-        <f t="shared" si="119"/>
+        <f t="shared" si="118"/>
         <v>3733</v>
       </c>
       <c r="BU81" s="54">
-        <f t="shared" si="119"/>
+        <f t="shared" si="118"/>
         <v>3710</v>
       </c>
       <c r="BV81" s="54">
-        <f t="shared" si="119"/>
+        <f t="shared" si="118"/>
         <v>4343</v>
       </c>
       <c r="BW81" s="54">
@@ -19978,31 +19978,31 @@
         <v>4232</v>
       </c>
       <c r="BY81" s="54">
-        <f t="shared" ref="BY81:CE81" si="120">BY80+BY79</f>
+        <f t="shared" ref="BY81:CE81" si="119">BY80+BY79</f>
         <v>4380</v>
       </c>
       <c r="BZ81" s="54">
-        <f t="shared" si="120"/>
+        <f t="shared" si="119"/>
         <v>4718</v>
       </c>
       <c r="CA81" s="54">
-        <f t="shared" si="120"/>
+        <f t="shared" si="119"/>
         <v>4170</v>
       </c>
       <c r="CB81" s="54">
-        <f t="shared" si="120"/>
+        <f t="shared" si="119"/>
         <v>4205</v>
       </c>
       <c r="CC81" s="54">
-        <f t="shared" si="120"/>
+        <f t="shared" si="119"/>
         <v>4242</v>
       </c>
       <c r="CD81" s="54">
-        <f t="shared" si="120"/>
+        <f t="shared" si="119"/>
         <v>4803</v>
       </c>
       <c r="CE81" s="54">
-        <f t="shared" si="120"/>
+        <f t="shared" si="119"/>
         <v>4324</v>
       </c>
       <c r="CF81" s="54">
@@ -20023,7 +20023,7 @@
       <c r="CR81" s="23"/>
       <c r="CS81" s="23"/>
       <c r="CT81" s="23">
-        <f t="shared" ref="CT81:CY81" si="121">CT79+CT80</f>
+        <f t="shared" ref="CT81:CY81" si="120">CT79+CT80</f>
         <v>11743</v>
       </c>
       <c r="CU81" s="23">
@@ -20039,11 +20039,11 @@
         <v>3033</v>
       </c>
       <c r="CX81" s="23">
-        <f t="shared" si="121"/>
+        <f t="shared" si="120"/>
         <v>1933</v>
       </c>
       <c r="CY81" s="23">
-        <f t="shared" si="121"/>
+        <f t="shared" si="120"/>
         <v>1933</v>
       </c>
       <c r="CZ81" s="23">
@@ -20084,35 +20084,35 @@
         <v>2272</v>
       </c>
       <c r="M82" s="23">
-        <f t="shared" ref="M82:W82" si="122">M78-M81</f>
+        <f t="shared" ref="M82:W82" si="121">M78-M81</f>
         <v>2421</v>
       </c>
       <c r="N82" s="23">
-        <f t="shared" si="122"/>
+        <f t="shared" si="121"/>
         <v>2263</v>
       </c>
       <c r="O82" s="23">
-        <f t="shared" si="122"/>
+        <f t="shared" si="121"/>
         <v>2615</v>
       </c>
       <c r="P82" s="23">
-        <f t="shared" si="122"/>
+        <f t="shared" si="121"/>
         <v>2358</v>
       </c>
       <c r="Q82" s="23">
-        <f t="shared" si="122"/>
+        <f t="shared" si="121"/>
         <v>2582</v>
       </c>
       <c r="R82" s="23">
-        <f t="shared" si="122"/>
+        <f t="shared" si="121"/>
         <v>1990</v>
       </c>
       <c r="S82" s="23">
-        <f t="shared" si="122"/>
+        <f t="shared" si="121"/>
         <v>2442</v>
       </c>
       <c r="T82" s="23">
-        <f t="shared" si="122"/>
+        <f t="shared" si="121"/>
         <v>2369</v>
       </c>
       <c r="U82" s="23">
@@ -20120,11 +20120,11 @@
         <v>2632</v>
       </c>
       <c r="V82" s="23">
-        <f t="shared" si="122"/>
+        <f t="shared" si="121"/>
         <v>2278</v>
       </c>
       <c r="W82" s="23">
-        <f t="shared" si="122"/>
+        <f t="shared" si="121"/>
         <v>2800</v>
       </c>
       <c r="X82" s="23">
@@ -20144,11 +20144,11 @@
         <v>3452</v>
       </c>
       <c r="AB82" s="23">
-        <f t="shared" ref="AB82:AC82" si="123">AB78-AB81</f>
+        <f t="shared" ref="AB82:AC82" si="122">AB78-AB81</f>
         <v>3095</v>
       </c>
       <c r="AC82" s="23">
-        <f t="shared" si="123"/>
+        <f t="shared" si="122"/>
         <v>3027</v>
       </c>
       <c r="AD82" s="23">
@@ -20172,31 +20172,31 @@
         <v>5696.5039999999999</v>
       </c>
       <c r="AI82" s="23">
-        <f t="shared" ref="AI82:AO82" si="124">AI78-AI81</f>
+        <f t="shared" ref="AI82:AO82" si="123">AI78-AI81</f>
         <v>0</v>
       </c>
       <c r="AJ82" s="23">
-        <f t="shared" si="124"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="AK82" s="23">
-        <f t="shared" si="124"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="AL82" s="23">
-        <f t="shared" si="124"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="AM82" s="23">
-        <f t="shared" si="124"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="AN82" s="23">
-        <f t="shared" si="124"/>
+        <f t="shared" si="123"/>
         <v>1906</v>
       </c>
       <c r="AO82" s="23">
-        <f t="shared" si="124"/>
+        <f t="shared" si="123"/>
         <v>2430</v>
       </c>
       <c r="AP82" s="23"/>
@@ -20225,35 +20225,35 @@
       <c r="BM82" s="54"/>
       <c r="BN82" s="54"/>
       <c r="BO82" s="54">
-        <f t="shared" ref="BO82" si="125">BO78-BO81</f>
+        <f t="shared" ref="BO82" si="124">BO78-BO81</f>
         <v>2787</v>
       </c>
       <c r="BP82" s="54">
-        <f t="shared" ref="BP82:BQ82" si="126">BP78-BP81</f>
+        <f t="shared" ref="BP82:BQ82" si="125">BP78-BP81</f>
         <v>2161</v>
       </c>
       <c r="BQ82" s="54">
+        <f t="shared" si="125"/>
+        <v>3217</v>
+      </c>
+      <c r="BR82" s="54">
+        <f t="shared" ref="BR82:BV82" si="126">BR78-BR81</f>
+        <v>2179</v>
+      </c>
+      <c r="BS82" s="54">
         <f t="shared" si="126"/>
-        <v>3217</v>
-      </c>
-      <c r="BR82" s="54">
-        <f t="shared" ref="BR82:BV82" si="127">BR78-BR81</f>
-        <v>2179</v>
-      </c>
-      <c r="BS82" s="54">
-        <f t="shared" si="127"/>
         <v>2741</v>
       </c>
       <c r="BT82" s="54">
-        <f t="shared" si="127"/>
+        <f t="shared" si="126"/>
         <v>2454</v>
       </c>
       <c r="BU82" s="54">
-        <f t="shared" si="127"/>
+        <f t="shared" si="126"/>
         <v>3881</v>
       </c>
       <c r="BV82" s="54">
-        <f t="shared" si="127"/>
+        <f t="shared" si="126"/>
         <v>2601</v>
       </c>
       <c r="BW82" s="54">
@@ -20265,31 +20265,31 @@
         <v>3261</v>
       </c>
       <c r="BY82" s="54">
-        <f t="shared" ref="BY82:CE82" si="128">BY78-BY81</f>
+        <f t="shared" ref="BY82:CE82" si="127">BY78-BY81</f>
         <v>4927</v>
       </c>
       <c r="BZ82" s="54">
-        <f t="shared" si="128"/>
+        <f t="shared" si="127"/>
         <v>3003</v>
       </c>
       <c r="CA82" s="54">
-        <f t="shared" si="128"/>
+        <f t="shared" si="127"/>
         <v>3613</v>
       </c>
       <c r="CB82" s="54">
-        <f t="shared" si="128"/>
+        <f t="shared" si="127"/>
         <v>3214</v>
       </c>
       <c r="CC82" s="54">
-        <f t="shared" si="128"/>
+        <f t="shared" si="127"/>
         <v>4616</v>
       </c>
       <c r="CD82" s="54">
-        <f t="shared" si="128"/>
+        <f t="shared" si="127"/>
         <v>3364</v>
       </c>
       <c r="CE82" s="54">
-        <f t="shared" si="128"/>
+        <f t="shared" si="127"/>
         <v>3370</v>
       </c>
       <c r="CF82" s="54">
@@ -20310,7 +20310,7 @@
       <c r="CR82" s="23"/>
       <c r="CS82" s="23"/>
       <c r="CT82" s="23">
-        <f t="shared" ref="CT82:CY82" si="129">CT78-CT81</f>
+        <f t="shared" ref="CT82:CY82" si="128">CT78-CT81</f>
         <v>9721</v>
       </c>
       <c r="CU82" s="23">
@@ -20326,11 +20326,11 @@
         <v>19877.374800000001</v>
       </c>
       <c r="CX82" s="23">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>20206.141468000002</v>
       </c>
       <c r="CY82" s="23">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>18698.906429000002</v>
       </c>
       <c r="CZ82" s="23">
@@ -20550,31 +20550,31 @@
         <v>506</v>
       </c>
       <c r="CW83" s="23">
-        <f t="shared" ref="CW83:DC83" si="130">CV106*$DO$92</f>
+        <f t="shared" ref="CW83:DC83" si="129">CV106*$DO$92</f>
         <v>-663.26133120000009</v>
       </c>
       <c r="CX83" s="23">
-        <f t="shared" si="130"/>
+        <f t="shared" si="129"/>
         <v>201.37377489600001</v>
       </c>
       <c r="CY83" s="23">
-        <f t="shared" si="130"/>
+        <f t="shared" si="129"/>
         <v>1119.7119608263201</v>
       </c>
       <c r="CZ83" s="23">
-        <f t="shared" si="130"/>
+        <f t="shared" si="129"/>
         <v>2011.5497883685046</v>
       </c>
       <c r="DA83" s="23">
-        <f t="shared" si="130"/>
+        <f t="shared" si="129"/>
         <v>2901.4166495648246</v>
       </c>
       <c r="DB83" s="23">
-        <f t="shared" si="130"/>
+        <f t="shared" si="129"/>
         <v>3813.7092543158196</v>
       </c>
       <c r="DC83" s="23">
-        <f t="shared" si="130"/>
+        <f t="shared" si="129"/>
         <v>4727.6540251144497</v>
       </c>
     </row>
@@ -20607,55 +20607,55 @@
         <v>2384</v>
       </c>
       <c r="O84" s="23">
-        <f t="shared" ref="O84:AH84" si="131">O82+O83</f>
+        <f t="shared" ref="O84:AH84" si="130">O82+O83</f>
         <v>2720</v>
       </c>
       <c r="P84" s="23">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>2324</v>
       </c>
       <c r="Q84" s="23">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>2600</v>
       </c>
       <c r="R84" s="23">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>1977</v>
       </c>
       <c r="S84" s="23">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>2529</v>
       </c>
       <c r="T84" s="23">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>2410</v>
       </c>
       <c r="U84" s="23">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>2621</v>
       </c>
       <c r="V84" s="23">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>2132</v>
       </c>
       <c r="W84" s="23">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>2904</v>
       </c>
       <c r="X84" s="23">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>2747</v>
       </c>
       <c r="Y84" s="23">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>2945</v>
       </c>
       <c r="Z84" s="23">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>2318</v>
       </c>
       <c r="AA84" s="23">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>3815</v>
       </c>
       <c r="AB84" s="23">
@@ -20663,7 +20663,7 @@
         <v>3421</v>
       </c>
       <c r="AC84" s="23">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>2939</v>
       </c>
       <c r="AD84" s="23">
@@ -20671,19 +20671,19 @@
         <v>2222</v>
       </c>
       <c r="AE84" s="23">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>2719</v>
       </c>
       <c r="AF84" s="23">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>5785</v>
       </c>
       <c r="AG84" s="23">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>5768.28</v>
       </c>
       <c r="AH84" s="23">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>5496.5039999999999</v>
       </c>
       <c r="AI84" s="23"/>
@@ -20692,11 +20692,11 @@
       <c r="AL84" s="23"/>
       <c r="AM84" s="23"/>
       <c r="AN84" s="23">
-        <f t="shared" ref="AN84:AO84" si="132">AN82+AN83</f>
+        <f t="shared" ref="AN84:AO84" si="131">AN82+AN83</f>
         <v>1867</v>
       </c>
       <c r="AO84" s="23">
-        <f t="shared" si="132"/>
+        <f t="shared" si="131"/>
         <v>2337</v>
       </c>
       <c r="AP84" s="23"/>
@@ -20725,7 +20725,7 @@
       <c r="BM84" s="54"/>
       <c r="BN84" s="54"/>
       <c r="BO84" s="54">
-        <f t="shared" ref="BO84" si="133">BO82+BO83</f>
+        <f t="shared" ref="BO84" si="132">BO82+BO83</f>
         <v>2659</v>
       </c>
       <c r="BP84" s="54">
@@ -20733,27 +20733,27 @@
         <v>1976</v>
       </c>
       <c r="BQ84" s="54">
-        <f t="shared" ref="BQ84" si="134">BQ82+BQ83</f>
+        <f t="shared" ref="BQ84" si="133">BQ82+BQ83</f>
         <v>2951</v>
       </c>
       <c r="BR84" s="54">
-        <f t="shared" ref="BR84:BV84" si="135">BR82+BR83</f>
+        <f t="shared" ref="BR84:BV84" si="134">BR82+BR83</f>
         <v>1959</v>
       </c>
       <c r="BS84" s="54">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>2553</v>
       </c>
       <c r="BT84" s="54">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>2189</v>
       </c>
       <c r="BU84" s="54">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>3473</v>
       </c>
       <c r="BV84" s="54">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>2173</v>
       </c>
       <c r="BW84" s="54">
@@ -20765,31 +20765,31 @@
         <v>2676</v>
       </c>
       <c r="BY84" s="54">
-        <f t="shared" ref="BY84:CE84" si="136">BY82+BY83</f>
+        <f t="shared" ref="BY84:CE84" si="135">BY82+BY83</f>
         <v>4447</v>
       </c>
       <c r="BZ84" s="54">
-        <f t="shared" si="136"/>
+        <f t="shared" si="135"/>
         <v>2695</v>
       </c>
       <c r="CA84" s="54">
-        <f t="shared" si="136"/>
+        <f t="shared" si="135"/>
         <v>3325</v>
       </c>
       <c r="CB84" s="54">
-        <f t="shared" si="136"/>
+        <f t="shared" si="135"/>
         <v>2684</v>
       </c>
       <c r="CC84" s="54">
-        <f t="shared" si="136"/>
+        <f t="shared" si="135"/>
         <v>3945</v>
       </c>
       <c r="CD84" s="54">
-        <f t="shared" si="136"/>
+        <f t="shared" si="135"/>
         <v>2534</v>
       </c>
       <c r="CE84" s="54">
-        <f t="shared" si="136"/>
+        <f t="shared" si="135"/>
         <v>2800</v>
       </c>
       <c r="CF84" s="54">
@@ -20810,43 +20810,43 @@
       <c r="CR84" s="23"/>
       <c r="CS84" s="23"/>
       <c r="CT84" s="23">
-        <f t="shared" ref="CT84" si="137">CT82+CT83</f>
+        <f t="shared" ref="CT84" si="136">CT82+CT83</f>
         <v>9721</v>
       </c>
       <c r="CU84" s="23">
-        <f t="shared" ref="CU84:DC84" si="138">CU82+CU83</f>
+        <f t="shared" ref="CU84:DC84" si="137">CU82+CU83</f>
         <v>10914</v>
       </c>
       <c r="CV84" s="23">
-        <f t="shared" si="138"/>
+        <f t="shared" si="137"/>
         <v>11957.55</v>
       </c>
       <c r="CW84" s="23">
-        <f t="shared" si="138"/>
+        <f t="shared" si="137"/>
         <v>19214.113468800002</v>
       </c>
       <c r="CX84" s="23">
-        <f t="shared" si="138"/>
+        <f t="shared" si="137"/>
         <v>20407.515242896003</v>
       </c>
       <c r="CY84" s="23">
-        <f t="shared" si="138"/>
+        <f t="shared" si="137"/>
         <v>19818.618389826323</v>
       </c>
       <c r="CZ84" s="23">
-        <f t="shared" si="138"/>
+        <f t="shared" si="137"/>
         <v>19774.819137696006</v>
       </c>
       <c r="DA84" s="23">
-        <f t="shared" si="138"/>
+        <f t="shared" si="137"/>
         <v>20273.168994466552</v>
       </c>
       <c r="DB84" s="23">
-        <f t="shared" si="138"/>
+        <f t="shared" si="137"/>
         <v>20309.883795525107</v>
       </c>
       <c r="DC84" s="23">
-        <f t="shared" si="138"/>
+        <f t="shared" si="137"/>
         <v>19525.462265954669</v>
       </c>
     </row>
@@ -20933,11 +20933,11 @@
         <v>1619.8000000000002</v>
       </c>
       <c r="AG85" s="23">
-        <f t="shared" ref="AG85:AH85" si="139">+AG84*AG94</f>
+        <f t="shared" ref="AG85:AH85" si="138">+AG84*AG94</f>
         <v>1615.1184000000001</v>
       </c>
       <c r="AH85" s="23">
-        <f t="shared" si="139"/>
+        <f t="shared" si="138"/>
         <v>1539.0211200000001</v>
       </c>
       <c r="AI85" s="23"/>
@@ -21055,31 +21055,31 @@
         <v>2764</v>
       </c>
       <c r="CW85" s="23">
-        <f t="shared" ref="CW85:DC85" si="140">CW84*CW94</f>
+        <f t="shared" ref="CW85:DC85" si="139">CW84*CW94</f>
         <v>4803.5283672000005</v>
       </c>
       <c r="CX85" s="23">
-        <f t="shared" si="140"/>
+        <f t="shared" si="139"/>
         <v>5101.8788107240007</v>
       </c>
       <c r="CY85" s="23">
-        <f t="shared" si="140"/>
+        <f t="shared" si="139"/>
         <v>4954.6545974565806</v>
       </c>
       <c r="CZ85" s="23">
-        <f t="shared" si="140"/>
+        <f t="shared" si="139"/>
         <v>4943.7047844240014</v>
       </c>
       <c r="DA85" s="23">
-        <f t="shared" si="140"/>
+        <f t="shared" si="139"/>
         <v>5068.2922486166381</v>
       </c>
       <c r="DB85" s="23">
-        <f t="shared" si="140"/>
+        <f t="shared" si="139"/>
         <v>5077.4709488812769</v>
       </c>
       <c r="DC85" s="23">
-        <f t="shared" si="140"/>
+        <f t="shared" si="139"/>
         <v>4881.3655664886674</v>
       </c>
     </row>
@@ -21315,27 +21315,27 @@
         <v>1683</v>
       </c>
       <c r="M87" s="23">
-        <f t="shared" ref="M87:R87" si="141">M84-M85+M86</f>
+        <f t="shared" ref="M87:R87" si="140">M84-M85+M86</f>
         <v>1837</v>
       </c>
       <c r="N87" s="23">
-        <f t="shared" si="141"/>
+        <f t="shared" si="140"/>
         <v>1900</v>
       </c>
       <c r="O87" s="23">
-        <f t="shared" si="141"/>
+        <f t="shared" si="140"/>
         <v>2590</v>
       </c>
       <c r="P87" s="23">
-        <f t="shared" si="141"/>
+        <f t="shared" si="140"/>
         <v>1839</v>
       </c>
       <c r="Q87" s="23">
-        <f t="shared" si="141"/>
+        <f t="shared" si="140"/>
         <v>1995</v>
       </c>
       <c r="R87" s="23">
-        <f t="shared" si="141"/>
+        <f t="shared" si="140"/>
         <v>1691</v>
       </c>
       <c r="S87" s="23">
@@ -21355,31 +21355,31 @@
         <v>1793</v>
       </c>
       <c r="W87" s="23">
-        <f t="shared" ref="W87:AC87" si="142">W84-W85+W86</f>
+        <f t="shared" ref="W87:AC87" si="141">W84-W85+W86</f>
         <v>2228</v>
       </c>
       <c r="X87" s="23">
-        <f t="shared" si="142"/>
+        <f t="shared" si="141"/>
         <v>2244</v>
       </c>
       <c r="Y87" s="23">
-        <f t="shared" si="142"/>
+        <f t="shared" si="141"/>
         <v>2402</v>
       </c>
       <c r="Z87" s="23">
-        <f t="shared" si="142"/>
+        <f t="shared" si="141"/>
         <v>2058</v>
       </c>
       <c r="AA87" s="23">
-        <f t="shared" si="142"/>
+        <f t="shared" si="141"/>
         <v>2940</v>
       </c>
       <c r="AB87" s="23">
-        <f t="shared" si="142"/>
+        <f t="shared" si="141"/>
         <v>2478</v>
       </c>
       <c r="AC87" s="23">
-        <f t="shared" si="142"/>
+        <f t="shared" si="141"/>
         <v>2860</v>
       </c>
       <c r="AD87" s="23">
@@ -21391,15 +21391,15 @@
         <v>2170</v>
       </c>
       <c r="AF87" s="23">
-        <f t="shared" ref="AF87:AH87" si="143">AF84-AF85+AF86</f>
+        <f t="shared" ref="AF87:AH87" si="142">AF84-AF85+AF86</f>
         <v>4395.2</v>
       </c>
       <c r="AG87" s="23">
-        <f t="shared" si="143"/>
+        <f t="shared" si="142"/>
         <v>4383.1615999999995</v>
       </c>
       <c r="AH87" s="23">
-        <f t="shared" si="143"/>
+        <f t="shared" si="142"/>
         <v>4187.4828799999996</v>
       </c>
       <c r="AI87" s="23"/>
@@ -21408,11 +21408,11 @@
       <c r="AL87" s="23"/>
       <c r="AM87" s="23"/>
       <c r="AN87" s="23">
-        <f t="shared" ref="AN87:AO87" si="144">AN84-AN85+AN86</f>
+        <f t="shared" ref="AN87:AO87" si="143">AN84-AN85+AN86</f>
         <v>1462</v>
       </c>
       <c r="AO87" s="23">
-        <f t="shared" si="144"/>
+        <f t="shared" si="143"/>
         <v>1774</v>
       </c>
       <c r="AP87" s="23"/>
@@ -21441,35 +21441,35 @@
       <c r="BM87" s="54"/>
       <c r="BN87" s="54"/>
       <c r="BO87" s="54">
-        <f t="shared" ref="BO87" si="145">BO84-BO85-BO86</f>
+        <f t="shared" ref="BO87" si="144">BO84-BO85-BO86</f>
         <v>2042</v>
       </c>
       <c r="BP87" s="54">
-        <f t="shared" ref="BP87" si="146">BP84-BP85-BP86</f>
+        <f t="shared" ref="BP87" si="145">BP84-BP85-BP86</f>
         <v>1540</v>
       </c>
       <c r="BQ87" s="54">
-        <f t="shared" ref="BQ87:BR87" si="147">BQ84-BQ85-BQ86</f>
+        <f t="shared" ref="BQ87:BR87" si="146">BQ84-BQ85-BQ86</f>
         <v>2299</v>
       </c>
       <c r="BR87" s="54">
+        <f t="shared" si="146"/>
+        <v>1527</v>
+      </c>
+      <c r="BS87" s="54">
+        <f t="shared" ref="BS87:BV87" si="147">BS84-BS85-BS86</f>
+        <v>2016</v>
+      </c>
+      <c r="BT87" s="54">
         <f t="shared" si="147"/>
-        <v>1527</v>
-      </c>
-      <c r="BS87" s="54">
-        <f t="shared" ref="BS87:BV87" si="148">BS84-BS85-BS86</f>
-        <v>2016</v>
-      </c>
-      <c r="BT87" s="54">
-        <f t="shared" si="148"/>
         <v>1731</v>
       </c>
       <c r="BU87" s="54">
-        <f t="shared" si="148"/>
+        <f t="shared" si="147"/>
         <v>2736</v>
       </c>
       <c r="BV87" s="54">
-        <f t="shared" si="148"/>
+        <f t="shared" si="147"/>
         <v>1730</v>
       </c>
       <c r="BW87" s="54">
@@ -21481,31 +21481,31 @@
         <v>2170</v>
       </c>
       <c r="BY87" s="54">
-        <f t="shared" ref="BY87:CE87" si="149">BY84-BY85-BY86</f>
+        <f t="shared" ref="BY87:CE87" si="148">BY84-BY85-BY86</f>
         <v>3606</v>
       </c>
       <c r="BZ87" s="54">
-        <f t="shared" si="149"/>
+        <f t="shared" si="148"/>
         <v>2140</v>
       </c>
       <c r="CA87" s="54">
-        <f t="shared" si="149"/>
+        <f t="shared" si="148"/>
         <v>2698</v>
       </c>
       <c r="CB87" s="54">
-        <f t="shared" si="149"/>
+        <f t="shared" si="148"/>
         <v>2177</v>
       </c>
       <c r="CC87" s="54">
-        <f t="shared" si="149"/>
+        <f t="shared" si="148"/>
         <v>3196</v>
       </c>
       <c r="CD87" s="54">
-        <f t="shared" si="149"/>
+        <f t="shared" si="148"/>
         <v>2083</v>
       </c>
       <c r="CE87" s="54">
-        <f t="shared" si="149"/>
+        <f t="shared" si="148"/>
         <v>2219</v>
       </c>
       <c r="CF87" s="54">
@@ -21525,47 +21525,47 @@
       <c r="CN87" s="23"/>
       <c r="CR87" s="23"/>
       <c r="CS87" s="23">
-        <f t="shared" ref="CS87:CT87" si="150">CS84-CS85+CS86</f>
+        <f t="shared" ref="CS87:CT87" si="149">CS84-CS85+CS86</f>
         <v>739</v>
       </c>
       <c r="CT87" s="23">
+        <f t="shared" si="149"/>
+        <v>7942</v>
+      </c>
+      <c r="CU87" s="23">
+        <f t="shared" ref="CU87:DC87" si="150">CU84-CU85+CU86</f>
+        <v>8932</v>
+      </c>
+      <c r="CV87" s="23">
         <f t="shared" si="150"/>
-        <v>7942</v>
-      </c>
-      <c r="CU87" s="23">
-        <f t="shared" ref="CU87:DC87" si="151">CU84-CU85+CU86</f>
-        <v>8932</v>
-      </c>
-      <c r="CV87" s="23">
-        <f t="shared" si="151"/>
         <v>9193.5499999999993</v>
       </c>
       <c r="CW87" s="23">
-        <f t="shared" si="151"/>
+        <f t="shared" si="150"/>
         <v>14410.585101600002</v>
       </c>
       <c r="CX87" s="23">
-        <f t="shared" si="151"/>
+        <f t="shared" si="150"/>
         <v>15305.636432172003</v>
       </c>
       <c r="CY87" s="23">
-        <f t="shared" si="151"/>
+        <f t="shared" si="150"/>
         <v>14863.963792369741</v>
       </c>
       <c r="CZ87" s="23">
-        <f t="shared" si="151"/>
+        <f t="shared" si="150"/>
         <v>14831.114353272005</v>
       </c>
       <c r="DA87" s="23">
-        <f t="shared" si="151"/>
+        <f t="shared" si="150"/>
         <v>15204.876745849913</v>
       </c>
       <c r="DB87" s="23">
-        <f t="shared" si="151"/>
+        <f t="shared" si="150"/>
         <v>15232.412846643831</v>
       </c>
       <c r="DC87" s="23">
-        <f t="shared" si="151"/>
+        <f t="shared" si="150"/>
         <v>14644.096699466001</v>
       </c>
     </row>
@@ -21773,35 +21773,35 @@
         <v>1596</v>
       </c>
       <c r="M89" s="23">
-        <f t="shared" ref="M89:W89" si="152">M87+M88</f>
+        <f t="shared" ref="M89:W89" si="151">M87+M88</f>
         <v>1737</v>
       </c>
       <c r="N89" s="23">
-        <f t="shared" si="152"/>
+        <f t="shared" si="151"/>
         <v>1797</v>
       </c>
       <c r="O89" s="23">
-        <f t="shared" si="152"/>
+        <f t="shared" si="151"/>
         <v>2478</v>
       </c>
       <c r="P89" s="23">
-        <f t="shared" si="152"/>
+        <f t="shared" si="151"/>
         <v>1740</v>
       </c>
       <c r="Q89" s="23">
-        <f t="shared" si="152"/>
+        <f t="shared" si="151"/>
         <v>1884</v>
       </c>
       <c r="R89" s="23">
-        <f t="shared" si="152"/>
+        <f t="shared" si="151"/>
         <v>1594</v>
       </c>
       <c r="S89" s="23">
-        <f t="shared" si="152"/>
+        <f t="shared" si="151"/>
         <v>1915</v>
       </c>
       <c r="T89" s="23">
-        <f t="shared" si="152"/>
+        <f t="shared" si="151"/>
         <v>1894</v>
       </c>
       <c r="U89" s="23">
@@ -21809,35 +21809,35 @@
         <v>1980</v>
       </c>
       <c r="V89" s="23">
+        <f t="shared" si="151"/>
+        <v>1683</v>
+      </c>
+      <c r="W89" s="23">
+        <f t="shared" si="151"/>
+        <v>2107</v>
+      </c>
+      <c r="X89" s="23">
+        <f t="shared" ref="X89:AC89" si="152">X87+X88</f>
+        <v>2133</v>
+      </c>
+      <c r="Y89" s="23">
         <f t="shared" si="152"/>
-        <v>1683</v>
-      </c>
-      <c r="W89" s="23">
+        <v>2288</v>
+      </c>
+      <c r="Z89" s="23">
         <f t="shared" si="152"/>
-        <v>2107</v>
-      </c>
-      <c r="X89" s="23">
-        <f t="shared" ref="X89:AC89" si="153">X87+X88</f>
-        <v>2133</v>
-      </c>
-      <c r="Y89" s="23">
-        <f t="shared" si="153"/>
-        <v>2288</v>
-      </c>
-      <c r="Z89" s="23">
-        <f t="shared" si="153"/>
         <v>1977</v>
       </c>
       <c r="AA89" s="23">
-        <f t="shared" si="153"/>
+        <f t="shared" si="152"/>
         <v>2940</v>
       </c>
       <c r="AB89" s="23">
-        <f t="shared" si="153"/>
+        <f t="shared" si="152"/>
         <v>2478</v>
       </c>
       <c r="AC89" s="23">
-        <f t="shared" si="153"/>
+        <f t="shared" si="152"/>
         <v>2860</v>
       </c>
       <c r="AD89" s="23">
@@ -21849,15 +21849,15 @@
         <v>2170</v>
       </c>
       <c r="AF89" s="23">
-        <f t="shared" ref="AF89:AH89" si="154">AF87+AF88</f>
+        <f t="shared" ref="AF89:AH89" si="153">AF87+AF88</f>
         <v>4395.2</v>
       </c>
       <c r="AG89" s="23">
-        <f t="shared" si="154"/>
+        <f t="shared" si="153"/>
         <v>4383.1615999999995</v>
       </c>
       <c r="AH89" s="23">
-        <f t="shared" si="154"/>
+        <f t="shared" si="153"/>
         <v>4187.4828799999996</v>
       </c>
       <c r="AI89" s="23"/>
@@ -21866,11 +21866,11 @@
       <c r="AL89" s="23"/>
       <c r="AM89" s="23"/>
       <c r="AN89" s="23">
-        <f t="shared" ref="AN89:AO89" si="155">AN87+AN88</f>
+        <f t="shared" ref="AN89:AO89" si="154">AN87+AN88</f>
         <v>1462</v>
       </c>
       <c r="AO89" s="23">
-        <f t="shared" si="155"/>
+        <f t="shared" si="154"/>
         <v>1774</v>
       </c>
       <c r="AP89" s="23"/>
@@ -21899,79 +21899,79 @@
       <c r="BM89" s="54"/>
       <c r="BN89" s="54"/>
       <c r="BO89" s="54">
-        <f t="shared" ref="BO89" si="156">BO87-BO88</f>
+        <f t="shared" ref="BO89" si="155">BO87-BO88</f>
         <v>2042</v>
       </c>
       <c r="BP89" s="54">
-        <f t="shared" ref="BP89:BQ89" si="157">BP87-BP88</f>
+        <f t="shared" ref="BP89:BQ89" si="156">BP87-BP88</f>
         <v>1540</v>
       </c>
       <c r="BQ89" s="54">
+        <f t="shared" si="156"/>
+        <v>2299</v>
+      </c>
+      <c r="BR89" s="54">
+        <f t="shared" ref="BR89:BX89" si="157">BR87-BR88</f>
+        <v>1527</v>
+      </c>
+      <c r="BS89" s="54">
         <f t="shared" si="157"/>
-        <v>2299</v>
-      </c>
-      <c r="BR89" s="54">
-        <f t="shared" ref="BR89:BX89" si="158">BR87-BR88</f>
-        <v>1527</v>
-      </c>
-      <c r="BS89" s="54">
+        <v>2016</v>
+      </c>
+      <c r="BT89" s="54">
+        <f t="shared" si="157"/>
+        <v>1731</v>
+      </c>
+      <c r="BU89" s="54">
+        <f t="shared" si="157"/>
+        <v>2736</v>
+      </c>
+      <c r="BV89" s="54">
+        <f t="shared" si="157"/>
+        <v>1730</v>
+      </c>
+      <c r="BW89" s="54">
+        <f t="shared" si="157"/>
+        <v>2423</v>
+      </c>
+      <c r="BX89" s="54">
+        <f t="shared" si="157"/>
+        <v>2170</v>
+      </c>
+      <c r="BY89" s="54">
+        <f t="shared" ref="BY89:CB89" si="158">BY87-BY88</f>
+        <v>3606</v>
+      </c>
+      <c r="BZ89" s="54">
         <f t="shared" si="158"/>
-        <v>2016</v>
-      </c>
-      <c r="BT89" s="54">
+        <v>2140</v>
+      </c>
+      <c r="CA89" s="54">
         <f t="shared" si="158"/>
-        <v>1731</v>
-      </c>
-      <c r="BU89" s="54">
+        <v>2698</v>
+      </c>
+      <c r="CB89" s="54">
         <f t="shared" si="158"/>
-        <v>2736</v>
-      </c>
-      <c r="BV89" s="54">
-        <f t="shared" si="158"/>
-        <v>1730</v>
-      </c>
-      <c r="BW89" s="54">
-        <f t="shared" si="158"/>
-        <v>2423</v>
-      </c>
-      <c r="BX89" s="54">
-        <f t="shared" si="158"/>
-        <v>2170</v>
-      </c>
-      <c r="BY89" s="54">
-        <f t="shared" ref="BY89:CB89" si="159">BY87-BY88</f>
-        <v>3606</v>
-      </c>
-      <c r="BZ89" s="54">
+        <v>2177</v>
+      </c>
+      <c r="CC89" s="54">
+        <f t="shared" ref="CC89:CD89" si="159">CC87-CC88</f>
+        <v>3196</v>
+      </c>
+      <c r="CD89" s="54">
         <f t="shared" si="159"/>
-        <v>2140</v>
-      </c>
-      <c r="CA89" s="54">
-        <f t="shared" si="159"/>
-        <v>2698</v>
-      </c>
-      <c r="CB89" s="54">
-        <f t="shared" si="159"/>
-        <v>2177</v>
-      </c>
-      <c r="CC89" s="54">
-        <f t="shared" ref="CC89:CD89" si="160">CC87-CC88</f>
-        <v>3196</v>
-      </c>
-      <c r="CD89" s="54">
+        <v>2083</v>
+      </c>
+      <c r="CE89" s="54">
+        <f t="shared" ref="CE89:CG89" si="160">CE87-CE88</f>
+        <v>2219</v>
+      </c>
+      <c r="CF89" s="54">
         <f t="shared" si="160"/>
-        <v>2083</v>
-      </c>
-      <c r="CE89" s="54">
-        <f t="shared" ref="CE89:CG89" si="161">CE87-CE88</f>
-        <v>2219</v>
-      </c>
-      <c r="CF89" s="54">
-        <f t="shared" si="161"/>
         <v>2161</v>
       </c>
       <c r="CG89" s="54">
-        <f t="shared" si="161"/>
+        <f t="shared" si="160"/>
         <v>3749</v>
       </c>
       <c r="CH89" s="54"/>
@@ -21984,295 +21984,295 @@
       <c r="CR89" s="23"/>
       <c r="CS89" s="23"/>
       <c r="CT89" s="23">
-        <f t="shared" ref="CT89" si="162">CT87+CT88</f>
+        <f t="shared" ref="CT89" si="161">CT87+CT88</f>
         <v>7523</v>
       </c>
       <c r="CU89" s="23">
-        <f t="shared" ref="CU89:DC89" si="163">CU87+CU88</f>
+        <f t="shared" ref="CU89:DC89" si="162">CU87+CU88</f>
         <v>8513</v>
       </c>
       <c r="CV89" s="23">
+        <f t="shared" si="162"/>
+        <v>9193.5499999999993</v>
+      </c>
+      <c r="CW89" s="23">
+        <f t="shared" si="162"/>
+        <v>14410.585101600002</v>
+      </c>
+      <c r="CX89" s="23">
+        <f t="shared" si="162"/>
+        <v>15305.636432172003</v>
+      </c>
+      <c r="CY89" s="23">
+        <f t="shared" si="162"/>
+        <v>14863.963792369741</v>
+      </c>
+      <c r="CZ89" s="23">
+        <f t="shared" si="162"/>
+        <v>14831.114353272005</v>
+      </c>
+      <c r="DA89" s="23">
+        <f t="shared" si="162"/>
+        <v>15204.876745849913</v>
+      </c>
+      <c r="DB89" s="23">
+        <f t="shared" si="162"/>
+        <v>15232.412846643831</v>
+      </c>
+      <c r="DC89" s="23">
+        <f t="shared" si="162"/>
+        <v>14644.096699466001</v>
+      </c>
+      <c r="DD89" s="14">
+        <f t="shared" ref="DD89:EI89" si="163">DC89*(1+$DO$93)</f>
+        <v>14497.655732471341</v>
+      </c>
+      <c r="DE89" s="14">
         <f t="shared" si="163"/>
-        <v>9193.5499999999993</v>
-      </c>
-      <c r="CW89" s="23">
+        <v>14352.679175146628</v>
+      </c>
+      <c r="DF89" s="14">
         <f t="shared" si="163"/>
-        <v>14410.585101600002</v>
-      </c>
-      <c r="CX89" s="23">
+        <v>14209.152383395161</v>
+      </c>
+      <c r="DG89" s="14">
         <f t="shared" si="163"/>
-        <v>15305.636432172003</v>
-      </c>
-      <c r="CY89" s="23">
+        <v>14067.06085956121</v>
+      </c>
+      <c r="DH89" s="14">
         <f t="shared" si="163"/>
-        <v>14863.963792369741</v>
-      </c>
-      <c r="CZ89" s="23">
+        <v>13926.390250965598</v>
+      </c>
+      <c r="DI89" s="14">
         <f t="shared" si="163"/>
-        <v>14831.114353272005</v>
-      </c>
-      <c r="DA89" s="23">
+        <v>13787.126348455942</v>
+      </c>
+      <c r="DJ89" s="14">
         <f t="shared" si="163"/>
-        <v>15204.876745849913</v>
-      </c>
-      <c r="DB89" s="23">
+        <v>13649.255084971383</v>
+      </c>
+      <c r="DK89" s="14">
         <f t="shared" si="163"/>
-        <v>15232.412846643831</v>
-      </c>
-      <c r="DC89" s="23">
+        <v>13512.762534121668</v>
+      </c>
+      <c r="DL89" s="14">
         <f t="shared" si="163"/>
-        <v>14644.096699466001</v>
-      </c>
-      <c r="DD89" s="14">
-        <f t="shared" ref="DD89:EI89" si="164">DC89*(1+$DO$93)</f>
-        <v>14497.655732471341</v>
-      </c>
-      <c r="DE89" s="14">
+        <v>13377.634908780452</v>
+      </c>
+      <c r="DM89" s="14">
+        <f t="shared" si="163"/>
+        <v>13243.858559692648</v>
+      </c>
+      <c r="DN89" s="14">
+        <f t="shared" si="163"/>
+        <v>13111.419974095721</v>
+      </c>
+      <c r="DO89" s="14">
+        <f t="shared" si="163"/>
+        <v>12980.305774354763</v>
+      </c>
+      <c r="DP89" s="14">
+        <f t="shared" si="163"/>
+        <v>12850.502716611216</v>
+      </c>
+      <c r="DQ89" s="14">
+        <f t="shared" si="163"/>
+        <v>12721.997689445103</v>
+      </c>
+      <c r="DR89" s="14">
+        <f t="shared" si="163"/>
+        <v>12594.777712550651</v>
+      </c>
+      <c r="DS89" s="14">
+        <f t="shared" si="163"/>
+        <v>12468.829935425145</v>
+      </c>
+      <c r="DT89" s="14">
+        <f t="shared" si="163"/>
+        <v>12344.141636070894</v>
+      </c>
+      <c r="DU89" s="14">
+        <f t="shared" si="163"/>
+        <v>12220.700219710185</v>
+      </c>
+      <c r="DV89" s="14">
+        <f t="shared" si="163"/>
+        <v>12098.493217513083</v>
+      </c>
+      <c r="DW89" s="14">
+        <f t="shared" si="163"/>
+        <v>11977.508285337952</v>
+      </c>
+      <c r="DX89" s="14">
+        <f t="shared" si="163"/>
+        <v>11857.733202484573</v>
+      </c>
+      <c r="DY89" s="14">
+        <f t="shared" si="163"/>
+        <v>11739.155870459726</v>
+      </c>
+      <c r="DZ89" s="14">
+        <f t="shared" si="163"/>
+        <v>11621.764311755129</v>
+      </c>
+      <c r="EA89" s="14">
+        <f t="shared" si="163"/>
+        <v>11505.546668637577</v>
+      </c>
+      <c r="EB89" s="14">
+        <f t="shared" si="163"/>
+        <v>11390.491201951201</v>
+      </c>
+      <c r="EC89" s="14">
+        <f t="shared" si="163"/>
+        <v>11276.586289931689</v>
+      </c>
+      <c r="ED89" s="14">
+        <f t="shared" si="163"/>
+        <v>11163.820427032371</v>
+      </c>
+      <c r="EE89" s="14">
+        <f t="shared" si="163"/>
+        <v>11052.182222762047</v>
+      </c>
+      <c r="EF89" s="14">
+        <f t="shared" si="163"/>
+        <v>10941.660400534427</v>
+      </c>
+      <c r="EG89" s="14">
+        <f t="shared" si="163"/>
+        <v>10832.243796529083</v>
+      </c>
+      <c r="EH89" s="14">
+        <f t="shared" si="163"/>
+        <v>10723.921358563792</v>
+      </c>
+      <c r="EI89" s="14">
+        <f t="shared" si="163"/>
+        <v>10616.682144978155</v>
+      </c>
+      <c r="EJ89" s="14">
+        <f t="shared" ref="EJ89:FN89" si="164">EI89*(1+$DO$93)</f>
+        <v>10510.515323528372</v>
+      </c>
+      <c r="EK89" s="14">
         <f t="shared" si="164"/>
-        <v>14352.679175146628</v>
-      </c>
-      <c r="DF89" s="14">
+        <v>10405.410170293089</v>
+      </c>
+      <c r="EL89" s="14">
         <f t="shared" si="164"/>
-        <v>14209.152383395161</v>
-      </c>
-      <c r="DG89" s="14">
+        <v>10301.356068590158</v>
+      </c>
+      <c r="EM89" s="14">
         <f t="shared" si="164"/>
-        <v>14067.06085956121</v>
-      </c>
-      <c r="DH89" s="14">
+        <v>10198.342507904255</v>
+      </c>
+      <c r="EN89" s="14">
         <f t="shared" si="164"/>
-        <v>13926.390250965598</v>
-      </c>
-      <c r="DI89" s="14">
+        <v>10096.359082825213</v>
+      </c>
+      <c r="EO89" s="14">
         <f t="shared" si="164"/>
-        <v>13787.126348455942</v>
-      </c>
-      <c r="DJ89" s="14">
+        <v>9995.3954919969601</v>
+      </c>
+      <c r="EP89" s="14">
         <f t="shared" si="164"/>
-        <v>13649.255084971383</v>
-      </c>
-      <c r="DK89" s="14">
+        <v>9895.4415370769912</v>
+      </c>
+      <c r="EQ89" s="14">
         <f t="shared" si="164"/>
-        <v>13512.762534121668</v>
-      </c>
-      <c r="DL89" s="14">
+        <v>9796.4871217062209</v>
+      </c>
+      <c r="ER89" s="14">
         <f t="shared" si="164"/>
-        <v>13377.634908780452</v>
-      </c>
-      <c r="DM89" s="14">
+        <v>9698.522250489159</v>
+      </c>
+      <c r="ES89" s="14">
         <f t="shared" si="164"/>
-        <v>13243.858559692648</v>
-      </c>
-      <c r="DN89" s="14">
+        <v>9601.5370279842682</v>
+      </c>
+      <c r="ET89" s="14">
         <f t="shared" si="164"/>
-        <v>13111.419974095721</v>
-      </c>
-      <c r="DO89" s="14">
+        <v>9505.5216577044248</v>
+      </c>
+      <c r="EU89" s="14">
         <f t="shared" si="164"/>
-        <v>12980.305774354763</v>
-      </c>
-      <c r="DP89" s="14">
+        <v>9410.4664411273807</v>
+      </c>
+      <c r="EV89" s="14">
         <f t="shared" si="164"/>
-        <v>12850.502716611216</v>
-      </c>
-      <c r="DQ89" s="14">
+        <v>9316.3617767161068</v>
+      </c>
+      <c r="EW89" s="14">
         <f t="shared" si="164"/>
-        <v>12721.997689445103</v>
-      </c>
-      <c r="DR89" s="14">
+        <v>9223.198158948946</v>
+      </c>
+      <c r="EX89" s="14">
         <f t="shared" si="164"/>
-        <v>12594.777712550651</v>
-      </c>
-      <c r="DS89" s="14">
+        <v>9130.9661773594562</v>
+      </c>
+      <c r="EY89" s="14">
         <f t="shared" si="164"/>
-        <v>12468.829935425145</v>
-      </c>
-      <c r="DT89" s="14">
+        <v>9039.6565155858607</v>
+      </c>
+      <c r="EZ89" s="14">
         <f t="shared" si="164"/>
-        <v>12344.141636070894</v>
-      </c>
-      <c r="DU89" s="14">
+        <v>8949.2599504300015</v>
+      </c>
+      <c r="FA89" s="14">
         <f t="shared" si="164"/>
-        <v>12220.700219710185</v>
-      </c>
-      <c r="DV89" s="14">
+        <v>8859.767350925702</v>
+      </c>
+      <c r="FB89" s="14">
         <f t="shared" si="164"/>
-        <v>12098.493217513083</v>
-      </c>
-      <c r="DW89" s="14">
+        <v>8771.1696774164448</v>
+      </c>
+      <c r="FC89" s="14">
         <f t="shared" si="164"/>
-        <v>11977.508285337952</v>
-      </c>
-      <c r="DX89" s="14">
+        <v>8683.4579806422807</v>
+      </c>
+      <c r="FD89" s="14">
         <f t="shared" si="164"/>
-        <v>11857.733202484573</v>
-      </c>
-      <c r="DY89" s="14">
+        <v>8596.623400835857</v>
+      </c>
+      <c r="FE89" s="14">
         <f t="shared" si="164"/>
-        <v>11739.155870459726</v>
-      </c>
-      <c r="DZ89" s="14">
+        <v>8510.6571668274992</v>
+      </c>
+      <c r="FF89" s="14">
         <f t="shared" si="164"/>
-        <v>11621.764311755129</v>
-      </c>
-      <c r="EA89" s="14">
+        <v>8425.550595159224</v>
+      </c>
+      <c r="FG89" s="14">
         <f t="shared" si="164"/>
-        <v>11505.546668637577</v>
-      </c>
-      <c r="EB89" s="14">
+        <v>8341.2950892076315</v>
+      </c>
+      <c r="FH89" s="14">
         <f t="shared" si="164"/>
-        <v>11390.491201951201</v>
-      </c>
-      <c r="EC89" s="14">
+        <v>8257.8821383155555</v>
+      </c>
+      <c r="FI89" s="14">
         <f t="shared" si="164"/>
-        <v>11276.586289931689</v>
-      </c>
-      <c r="ED89" s="14">
+        <v>8175.3033169323999</v>
+      </c>
+      <c r="FJ89" s="14">
         <f t="shared" si="164"/>
-        <v>11163.820427032371</v>
-      </c>
-      <c r="EE89" s="14">
+        <v>8093.5502837630756</v>
+      </c>
+      <c r="FK89" s="14">
         <f t="shared" si="164"/>
-        <v>11052.182222762047</v>
-      </c>
-      <c r="EF89" s="14">
+        <v>8012.6147809254444</v>
+      </c>
+      <c r="FL89" s="14">
         <f t="shared" si="164"/>
-        <v>10941.660400534427</v>
-      </c>
-      <c r="EG89" s="14">
+        <v>7932.4886331161897</v>
+      </c>
+      <c r="FM89" s="14">
         <f t="shared" si="164"/>
-        <v>10832.243796529083</v>
-      </c>
-      <c r="EH89" s="14">
+        <v>7853.1637467850278</v>
+      </c>
+      <c r="FN89" s="14">
         <f t="shared" si="164"/>
-        <v>10723.921358563792</v>
-      </c>
-      <c r="EI89" s="14">
-        <f t="shared" si="164"/>
-        <v>10616.682144978155</v>
-      </c>
-      <c r="EJ89" s="14">
-        <f t="shared" ref="EJ89:FN89" si="165">EI89*(1+$DO$93)</f>
-        <v>10510.515323528372</v>
-      </c>
-      <c r="EK89" s="14">
-        <f t="shared" si="165"/>
-        <v>10405.410170293089</v>
-      </c>
-      <c r="EL89" s="14">
-        <f t="shared" si="165"/>
-        <v>10301.356068590158</v>
-      </c>
-      <c r="EM89" s="14">
-        <f t="shared" si="165"/>
-        <v>10198.342507904255</v>
-      </c>
-      <c r="EN89" s="14">
-        <f t="shared" si="165"/>
-        <v>10096.359082825213</v>
-      </c>
-      <c r="EO89" s="14">
-        <f t="shared" si="165"/>
-        <v>9995.3954919969601</v>
-      </c>
-      <c r="EP89" s="14">
-        <f t="shared" si="165"/>
-        <v>9895.4415370769912</v>
-      </c>
-      <c r="EQ89" s="14">
-        <f t="shared" si="165"/>
-        <v>9796.4871217062209</v>
-      </c>
-      <c r="ER89" s="14">
-        <f t="shared" si="165"/>
-        <v>9698.522250489159</v>
-      </c>
-      <c r="ES89" s="14">
-        <f t="shared" si="165"/>
-        <v>9601.5370279842682</v>
-      </c>
-      <c r="ET89" s="14">
-        <f t="shared" si="165"/>
-        <v>9505.5216577044248</v>
-      </c>
-      <c r="EU89" s="14">
-        <f t="shared" si="165"/>
-        <v>9410.4664411273807</v>
-      </c>
-      <c r="EV89" s="14">
-        <f t="shared" si="165"/>
-        <v>9316.3617767161068</v>
-      </c>
-      <c r="EW89" s="14">
-        <f t="shared" si="165"/>
-        <v>9223.198158948946</v>
-      </c>
-      <c r="EX89" s="14">
-        <f t="shared" si="165"/>
-        <v>9130.9661773594562</v>
-      </c>
-      <c r="EY89" s="14">
-        <f t="shared" si="165"/>
-        <v>9039.6565155858607</v>
-      </c>
-      <c r="EZ89" s="14">
-        <f t="shared" si="165"/>
-        <v>8949.2599504300015</v>
-      </c>
-      <c r="FA89" s="14">
-        <f t="shared" si="165"/>
-        <v>8859.767350925702</v>
-      </c>
-      <c r="FB89" s="14">
-        <f t="shared" si="165"/>
-        <v>8771.1696774164448</v>
-      </c>
-      <c r="FC89" s="14">
-        <f t="shared" si="165"/>
-        <v>8683.4579806422807</v>
-      </c>
-      <c r="FD89" s="14">
-        <f t="shared" si="165"/>
-        <v>8596.623400835857</v>
-      </c>
-      <c r="FE89" s="14">
-        <f t="shared" si="165"/>
-        <v>8510.6571668274992</v>
-      </c>
-      <c r="FF89" s="14">
-        <f t="shared" si="165"/>
-        <v>8425.550595159224</v>
-      </c>
-      <c r="FG89" s="14">
-        <f t="shared" si="165"/>
-        <v>8341.2950892076315</v>
-      </c>
-      <c r="FH89" s="14">
-        <f t="shared" si="165"/>
-        <v>8257.8821383155555</v>
-      </c>
-      <c r="FI89" s="14">
-        <f t="shared" si="165"/>
-        <v>8175.3033169323999</v>
-      </c>
-      <c r="FJ89" s="14">
-        <f t="shared" si="165"/>
-        <v>8093.5502837630756</v>
-      </c>
-      <c r="FK89" s="14">
-        <f t="shared" si="165"/>
-        <v>8012.6147809254444</v>
-      </c>
-      <c r="FL89" s="14">
-        <f t="shared" si="165"/>
-        <v>7932.4886331161897</v>
-      </c>
-      <c r="FM89" s="14">
-        <f t="shared" si="165"/>
-        <v>7853.1637467850278</v>
-      </c>
-      <c r="FN89" s="14">
-        <f t="shared" si="165"/>
         <v>7774.6321093171773</v>
       </c>
     </row>
@@ -22303,88 +22303,88 @@
       <c r="K90" s="40"/>
       <c r="L90" s="40"/>
       <c r="M90" s="40">
-        <f t="shared" ref="M90:W90" si="166">M89/M91</f>
+        <f t="shared" ref="M90:W90" si="165">M89/M91</f>
         <v>1.2885756676557865</v>
       </c>
       <c r="N90" s="40">
+        <f t="shared" si="165"/>
+        <v>1.3322953736654806</v>
+      </c>
+      <c r="O90" s="40">
+        <f t="shared" si="165"/>
+        <v>1.8340611353711791</v>
+      </c>
+      <c r="P90" s="40">
+        <f t="shared" si="165"/>
+        <v>1.2870774465566979</v>
+      </c>
+      <c r="Q90" s="40">
+        <f t="shared" si="165"/>
+        <v>1.3962795523604832</v>
+      </c>
+      <c r="R90" s="40">
+        <f t="shared" si="165"/>
+        <v>1.1937392346289224</v>
+      </c>
+      <c r="S90" s="40">
+        <f t="shared" si="165"/>
+        <v>1.4498788612961842</v>
+      </c>
+      <c r="T90" s="40">
+        <f t="shared" si="165"/>
+        <v>1.4502297090352221</v>
+      </c>
+      <c r="U90" s="40">
+        <f t="shared" si="165"/>
+        <v>1.5174739423666463</v>
+      </c>
+      <c r="V90" s="40">
+        <f t="shared" si="165"/>
+        <v>1.289556355834802</v>
+      </c>
+      <c r="W90" s="40">
+        <f t="shared" si="165"/>
+        <v>1.613941018766756</v>
+      </c>
+      <c r="X90" s="40">
+        <f t="shared" ref="X90:Y90" si="166">X89/X91</f>
+        <v>1.6338567598621219</v>
+      </c>
+      <c r="Y90" s="40">
         <f t="shared" si="166"/>
-        <v>1.3322953736654806</v>
-      </c>
-      <c r="O90" s="40">
-        <f t="shared" si="166"/>
-        <v>1.8340611353711791</v>
-      </c>
-      <c r="P90" s="40">
-        <f t="shared" si="166"/>
-        <v>1.2870774465566979</v>
-      </c>
-      <c r="Q90" s="40">
-        <f t="shared" si="166"/>
-        <v>1.3962795523604832</v>
-      </c>
-      <c r="R90" s="40">
-        <f t="shared" si="166"/>
-        <v>1.1937392346289224</v>
-      </c>
-      <c r="S90" s="40">
-        <f t="shared" si="166"/>
-        <v>1.4498788612961842</v>
-      </c>
-      <c r="T90" s="40">
-        <f t="shared" si="166"/>
-        <v>1.4502297090352221</v>
-      </c>
-      <c r="U90" s="40">
-        <f t="shared" si="166"/>
-        <v>1.5174739423666463</v>
-      </c>
-      <c r="V90" s="40">
-        <f t="shared" si="166"/>
-        <v>1.289556355834802</v>
-      </c>
-      <c r="W90" s="40">
-        <f t="shared" si="166"/>
-        <v>1.613941018766756</v>
-      </c>
-      <c r="X90" s="40">
-        <f t="shared" ref="X90:Y90" si="167">X89/X91</f>
-        <v>1.6338567598621219</v>
-      </c>
-      <c r="Y90" s="40">
+        <v>1.7523167649536646</v>
+      </c>
+      <c r="Z90" s="40">
+        <f t="shared" ref="Z90:AH90" si="167">Z89/Z91</f>
+        <v>1.5126243305279266</v>
+      </c>
+      <c r="AA90" s="40">
         <f t="shared" si="167"/>
-        <v>1.7523167649536646</v>
-      </c>
-      <c r="Z90" s="40">
-        <f t="shared" ref="Z90:AH90" si="168">Z89/Z91</f>
-        <v>1.5126243305279266</v>
-      </c>
-      <c r="AA90" s="40">
-        <f t="shared" si="168"/>
         <v>2.2489099671077795</v>
       </c>
       <c r="AB90" s="40">
-        <f t="shared" si="168"/>
+        <f t="shared" si="167"/>
         <v>1.8998696618876025</v>
       </c>
       <c r="AC90" s="40">
-        <f t="shared" si="168"/>
+        <f t="shared" si="167"/>
         <v>2.1919068056407114</v>
       </c>
       <c r="AD90" s="40"/>
       <c r="AE90" s="40">
-        <f t="shared" si="168"/>
+        <f t="shared" si="167"/>
         <v>1.6625804474410051</v>
       </c>
       <c r="AF90" s="40">
-        <f t="shared" si="168"/>
+        <f t="shared" si="167"/>
         <v>3.3674532638676062</v>
       </c>
       <c r="AG90" s="40">
-        <f t="shared" si="168"/>
+        <f t="shared" si="167"/>
         <v>3.3582298498314431</v>
       </c>
       <c r="AH90" s="40">
-        <f t="shared" si="168"/>
+        <f t="shared" si="167"/>
         <v>3.2083074471345383</v>
       </c>
       <c r="AI90" s="40"/>
@@ -22393,11 +22393,11 @@
       <c r="AL90" s="40"/>
       <c r="AM90" s="40"/>
       <c r="AN90" s="40">
-        <f t="shared" ref="AN90:AO90" si="169">AN89/AN91</f>
+        <f t="shared" ref="AN90:AO90" si="168">AN89/AN91</f>
         <v>1.1028136079052575</v>
       </c>
       <c r="AO90" s="40">
-        <f t="shared" si="169"/>
+        <f t="shared" si="168"/>
         <v>1.3403853418964866</v>
       </c>
       <c r="AP90" s="40"/>
@@ -22426,71 +22426,71 @@
       <c r="BM90" s="63"/>
       <c r="BN90" s="63"/>
       <c r="BO90" s="63">
-        <f t="shared" ref="BO90" si="170">BO89/BO91</f>
+        <f t="shared" ref="BO90" si="169">BO89/BO91</f>
         <v>1.6319028210660913</v>
       </c>
       <c r="BP90" s="63">
-        <f t="shared" ref="BP90:BQ90" si="171">BP89/BP91</f>
+        <f t="shared" ref="BP90:BQ90" si="170">BP89/BP91</f>
         <v>1.2298354895384123</v>
       </c>
       <c r="BQ90" s="63">
+        <f t="shared" si="170"/>
+        <v>1.8308513179899657</v>
+      </c>
+      <c r="BR90" s="63">
+        <f t="shared" ref="BR90:BX90" si="171">BR89/BR91</f>
+        <v>1.2166361246115849</v>
+      </c>
+      <c r="BS90" s="63">
         <f t="shared" si="171"/>
-        <v>1.8308513179899657</v>
-      </c>
-      <c r="BR90" s="63">
-        <f t="shared" ref="BR90:BX90" si="172">BR89/BR91</f>
-        <v>1.2166361246115849</v>
-      </c>
-      <c r="BS90" s="63">
+        <v>1.6137036740574722</v>
+      </c>
+      <c r="BT90" s="63">
+        <f t="shared" si="171"/>
+        <v>1.3833613042435866</v>
+      </c>
+      <c r="BU90" s="63">
+        <f t="shared" si="171"/>
+        <v>2.1809485850936627</v>
+      </c>
+      <c r="BV90" s="63">
+        <f t="shared" si="171"/>
+        <v>1.3785959040561</v>
+      </c>
+      <c r="BW90" s="63">
+        <f t="shared" si="171"/>
+        <v>1.9396413704771054</v>
+      </c>
+      <c r="BX90" s="63">
+        <f t="shared" si="171"/>
+        <v>1.7348896706108092</v>
+      </c>
+      <c r="BY90" s="63">
+        <f t="shared" ref="BY90:CE90" si="172">BY89/BY91</f>
+        <v>2.8767451136816913</v>
+      </c>
+      <c r="BZ90" s="63">
         <f t="shared" si="172"/>
-        <v>1.6137036740574722</v>
-      </c>
-      <c r="BT90" s="63">
+        <v>1.7065390749601277</v>
+      </c>
+      <c r="CA90" s="63">
         <f t="shared" si="172"/>
-        <v>1.3833613042435866</v>
-      </c>
-      <c r="BU90" s="63">
+        <v>2.1596093812535022</v>
+      </c>
+      <c r="CB90" s="63">
         <f t="shared" si="172"/>
-        <v>2.1809485850936627</v>
-      </c>
-      <c r="BV90" s="63">
+        <v>1.7407644330721255</v>
+      </c>
+      <c r="CC90" s="63">
         <f t="shared" si="172"/>
-        <v>1.3785959040561</v>
-      </c>
-      <c r="BW90" s="63">
+        <v>2.5502713054580273</v>
+      </c>
+      <c r="CD90" s="63">
         <f t="shared" si="172"/>
-        <v>1.9396413704771054</v>
-      </c>
-      <c r="BX90" s="63">
+        <v>1.6616145500957245</v>
+      </c>
+      <c r="CE90" s="63">
         <f t="shared" si="172"/>
-        <v>1.7348896706108092</v>
-      </c>
-      <c r="BY90" s="63">
-        <f t="shared" ref="BY90:CE90" si="173">BY89/BY91</f>
-        <v>2.8767451136816913</v>
-      </c>
-      <c r="BZ90" s="63">
-        <f t="shared" si="173"/>
-        <v>1.7065390749601277</v>
-      </c>
-      <c r="CA90" s="63">
-        <f t="shared" si="173"/>
-        <v>2.1596093812535022</v>
-      </c>
-      <c r="CB90" s="63">
-        <f t="shared" si="173"/>
-        <v>1.7407644330721255</v>
-      </c>
-      <c r="CC90" s="63">
-        <f t="shared" si="173"/>
-        <v>2.5502713054580273</v>
-      </c>
-      <c r="CD90" s="63">
-        <f t="shared" si="173"/>
-        <v>1.6616145500957245</v>
-      </c>
-      <c r="CE90" s="63">
-        <f t="shared" si="173"/>
         <v>1.7769058295964126</v>
       </c>
       <c r="CF90" s="63">
@@ -22517,7 +22517,7 @@
         <v>5.7111573689172825</v>
       </c>
       <c r="CT90" s="46">
-        <f t="shared" ref="CT90:CY90" si="174">CT89/CT91</f>
+        <f t="shared" ref="CT90:CY90" si="173">CT89/CT91</f>
         <v>5.7463669868428582</v>
       </c>
       <c r="CU90" s="46">
@@ -22529,15 +22529,15 @@
         <v>7.0423475640894706</v>
       </c>
       <c r="CW90" s="46">
-        <f t="shared" si="174"/>
+        <f t="shared" si="173"/>
         <v>11.038646538862222</v>
       </c>
       <c r="CX90" s="46">
-        <f t="shared" si="174"/>
+        <f t="shared" si="173"/>
         <v>11.724264451158211</v>
       </c>
       <c r="CY90" s="46">
-        <f t="shared" si="174"/>
+        <f t="shared" si="173"/>
         <v>11.385938968723631</v>
       </c>
       <c r="CZ90" s="46">
@@ -22757,23 +22757,23 @@
         <v>1305.4666666666665</v>
       </c>
       <c r="CW91" s="23">
-        <f t="shared" ref="CW91:DA91" si="175">CV91</f>
+        <f t="shared" ref="CW91:DA91" si="174">CV91</f>
         <v>1305.4666666666665</v>
       </c>
       <c r="CX91" s="23">
-        <f t="shared" si="175"/>
+        <f t="shared" si="174"/>
         <v>1305.4666666666665</v>
       </c>
       <c r="CY91" s="23">
-        <f t="shared" si="175"/>
+        <f t="shared" si="174"/>
         <v>1305.4666666666665</v>
       </c>
       <c r="CZ91" s="23">
-        <f t="shared" si="175"/>
+        <f t="shared" si="174"/>
         <v>1305.4666666666665</v>
       </c>
       <c r="DA91" s="23">
-        <f t="shared" si="175"/>
+        <f t="shared" si="174"/>
         <v>1305.4666666666665</v>
       </c>
       <c r="DB91" s="23">
@@ -22798,79 +22798,79 @@
         <v>169</v>
       </c>
       <c r="M93" s="41">
-        <f t="shared" ref="M93:W93" si="176">M78/M76</f>
+        <f t="shared" ref="M93:W93" si="175">M78/M76</f>
         <v>0.76829445007969854</v>
       </c>
       <c r="N93" s="41">
+        <f t="shared" si="175"/>
+        <v>0.76495377922784125</v>
+      </c>
+      <c r="O93" s="41">
+        <f t="shared" si="175"/>
+        <v>0.77595095443778739</v>
+      </c>
+      <c r="P93" s="41">
+        <f t="shared" si="175"/>
+        <v>0.77676898688571838</v>
+      </c>
+      <c r="Q93" s="41">
+        <f t="shared" si="175"/>
+        <v>0.77153024911032031</v>
+      </c>
+      <c r="R93" s="41">
+        <f t="shared" si="175"/>
+        <v>0.76067139343076251</v>
+      </c>
+      <c r="S93" s="41">
+        <f t="shared" si="175"/>
+        <v>0.76803006214770919</v>
+      </c>
+      <c r="T93" s="41">
+        <f t="shared" si="175"/>
+        <v>0.78472118403348778</v>
+      </c>
+      <c r="U93" s="41">
+        <f t="shared" si="175"/>
+        <v>0.78389026703633446</v>
+      </c>
+      <c r="V93" s="41">
+        <f t="shared" si="175"/>
+        <v>0.77994075327972912</v>
+      </c>
+      <c r="W93" s="41">
+        <f t="shared" si="175"/>
+        <v>0.79977486984663004</v>
+      </c>
+      <c r="X93" s="41">
+        <f t="shared" ref="X93:Y93" si="176">X78/X76</f>
+        <v>0.80193496371943029</v>
+      </c>
+      <c r="Y93" s="41">
         <f t="shared" si="176"/>
-        <v>0.76495377922784125</v>
-      </c>
-      <c r="O93" s="41">
-        <f t="shared" si="176"/>
-        <v>0.77595095443778739</v>
-      </c>
-      <c r="P93" s="41">
-        <f t="shared" si="176"/>
-        <v>0.77676898688571838</v>
-      </c>
-      <c r="Q93" s="41">
-        <f t="shared" si="176"/>
-        <v>0.77153024911032031</v>
-      </c>
-      <c r="R93" s="41">
-        <f t="shared" si="176"/>
-        <v>0.76067139343076251</v>
-      </c>
-      <c r="S93" s="41">
-        <f t="shared" si="176"/>
-        <v>0.76803006214770919</v>
-      </c>
-      <c r="T93" s="41">
-        <f t="shared" si="176"/>
-        <v>0.78472118403348778</v>
-      </c>
-      <c r="U93" s="41">
-        <f t="shared" si="176"/>
-        <v>0.78389026703633446</v>
-      </c>
-      <c r="V93" s="41">
-        <f t="shared" si="176"/>
-        <v>0.77994075327972912</v>
-      </c>
-      <c r="W93" s="41">
-        <f t="shared" si="176"/>
-        <v>0.79977486984663004</v>
-      </c>
-      <c r="X93" s="41">
-        <f t="shared" ref="X93:Y93" si="177">X78/X76</f>
-        <v>0.80193496371943029</v>
-      </c>
-      <c r="Y93" s="41">
+        <v>0.77621621621621617</v>
+      </c>
+      <c r="Z93" s="41">
+        <f t="shared" ref="Z93:AE93" si="177">Z78/Z76</f>
+        <v>0.7477244939546257</v>
+      </c>
+      <c r="AA93" s="41">
         <f t="shared" si="177"/>
-        <v>0.77621621621621617</v>
-      </c>
-      <c r="Z93" s="41">
-        <f t="shared" ref="Z93:AE93" si="178">Z78/Z76</f>
-        <v>0.7477244939546257</v>
-      </c>
-      <c r="AA93" s="41">
-        <f t="shared" si="178"/>
         <v>0.7929855659660674</v>
       </c>
       <c r="AB93" s="41">
-        <f t="shared" si="178"/>
+        <f t="shared" si="177"/>
         <v>0.7879994860593601</v>
       </c>
       <c r="AC93" s="41">
-        <f t="shared" si="178"/>
+        <f t="shared" si="177"/>
         <v>0.76243447129523079</v>
       </c>
       <c r="AD93" s="41">
-        <f t="shared" si="178"/>
+        <f t="shared" si="177"/>
         <v>0.74374577417173771</v>
       </c>
       <c r="AE93" s="41">
-        <f t="shared" si="178"/>
+        <f t="shared" si="177"/>
         <v>0.74945365728242708</v>
       </c>
       <c r="AF93" s="41">
@@ -22915,79 +22915,79 @@
       <c r="BM93" s="64"/>
       <c r="BN93" s="64"/>
       <c r="BO93" s="64">
-        <f t="shared" ref="BO93" si="179">+BO78/BO76</f>
+        <f t="shared" ref="BO93" si="178">+BO78/BO76</f>
         <v>0.72094059957650725</v>
       </c>
       <c r="BP93" s="64">
-        <f t="shared" ref="BP93" si="180">+BP78/BP76</f>
+        <f t="shared" ref="BP93" si="179">+BP78/BP76</f>
         <v>0.70403314243938098</v>
       </c>
       <c r="BQ93" s="64">
-        <f t="shared" ref="BQ93:BR93" si="181">+BQ78/BQ76</f>
+        <f t="shared" ref="BQ93:BR93" si="180">+BQ78/BQ76</f>
         <v>0.70893554172381057</v>
       </c>
       <c r="BR93" s="64">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>0.67117885312300152</v>
       </c>
       <c r="BS93" s="64">
-        <f t="shared" ref="BS93" si="182">+BS78/BS76</f>
+        <f t="shared" ref="BS93" si="181">+BS78/BS76</f>
         <v>0.72191828657897805</v>
       </c>
       <c r="BT93" s="64">
-        <f t="shared" ref="BT93:BU93" si="183">+BT78/BT76</f>
+        <f t="shared" ref="BT93:BU93" si="182">+BT78/BT76</f>
         <v>0.70757090576395243</v>
       </c>
       <c r="BU93" s="64">
+        <f t="shared" si="182"/>
+        <v>0.72766487730061347</v>
+      </c>
+      <c r="BV93" s="64">
+        <f t="shared" ref="BV93:BW93" si="183">+BV78/BV76</f>
+        <v>0.69481689013408043</v>
+      </c>
+      <c r="BW93" s="64">
         <f t="shared" si="183"/>
-        <v>0.72766487730061347</v>
-      </c>
-      <c r="BV93" s="64">
-        <f t="shared" ref="BV93:BW93" si="184">+BV78/BV76</f>
-        <v>0.69481689013408043</v>
-      </c>
-      <c r="BW93" s="64">
+        <v>0.74165202108963091</v>
+      </c>
+      <c r="BX93" s="64">
+        <f t="shared" ref="BX93:CF93" si="184">+BX78/BX76</f>
+        <v>0.74070778964017403</v>
+      </c>
+      <c r="BY93" s="64">
         <f t="shared" si="184"/>
-        <v>0.74165202108963091</v>
-      </c>
-      <c r="BX93" s="64">
-        <f t="shared" ref="BX93:CF93" si="185">+BX78/BX76</f>
-        <v>0.74070778964017403</v>
-      </c>
-      <c r="BY93" s="64">
-        <f t="shared" si="185"/>
         <v>0.74563371254606636</v>
       </c>
       <c r="BZ93" s="64">
-        <f t="shared" si="185"/>
+        <f t="shared" si="184"/>
         <v>0.7199738903394256</v>
       </c>
       <c r="CA93" s="64">
-        <f t="shared" si="185"/>
+        <f t="shared" si="184"/>
         <v>0.76147148028568634</v>
       </c>
       <c r="CB93" s="64">
-        <f t="shared" si="185"/>
+        <f t="shared" si="184"/>
         <v>0.74450577019568487</v>
       </c>
       <c r="CC93" s="64">
-        <f t="shared" si="185"/>
+        <f t="shared" si="184"/>
         <v>0.74038783015713805</v>
       </c>
       <c r="CD93" s="64">
-        <f t="shared" si="185"/>
+        <f t="shared" si="184"/>
         <v>0.74796226760692375</v>
       </c>
       <c r="CE93" s="64">
-        <f t="shared" si="185"/>
+        <f t="shared" si="184"/>
         <v>0.735282874617737</v>
       </c>
       <c r="CF93" s="64">
-        <f t="shared" si="185"/>
+        <f t="shared" si="184"/>
         <v>0.74211261051651933</v>
       </c>
       <c r="CG93" s="64">
-        <f t="shared" ref="CG93" si="186">+CG78/CG76</f>
+        <f t="shared" ref="CG93" si="185">+CG78/CG76</f>
         <v>0.74953493563509188</v>
       </c>
       <c r="CH93" s="64"/>
@@ -22998,15 +22998,15 @@
       <c r="CM93" s="64"/>
       <c r="CN93" s="41"/>
       <c r="CS93" s="41">
-        <f t="shared" ref="CS93:CU93" si="187">CS78/CS76</f>
+        <f t="shared" ref="CS93:CU93" si="186">CS78/CS76</f>
         <v>0</v>
       </c>
       <c r="CT93" s="41">
-        <f t="shared" si="187"/>
+        <f t="shared" si="186"/>
         <v>0.77909255898366603</v>
       </c>
       <c r="CU93" s="41">
-        <f t="shared" si="187"/>
+        <f t="shared" si="186"/>
         <v>0.78130330945069937</v>
       </c>
       <c r="CV93" s="41">
@@ -23045,51 +23045,51 @@
         <v>171</v>
       </c>
       <c r="M94" s="41">
-        <f t="shared" ref="M94:W94" si="188">M85/M84</f>
+        <f t="shared" ref="M94:W94" si="187">M85/M84</f>
         <v>0.30154220779220781</v>
       </c>
       <c r="N94" s="41">
-        <f t="shared" si="188"/>
+        <f t="shared" si="187"/>
         <v>0.22399328859060402</v>
       </c>
       <c r="O94" s="41">
-        <f t="shared" si="188"/>
+        <f t="shared" si="187"/>
         <v>9.8529411764705879E-2</v>
       </c>
       <c r="P94" s="41">
-        <f t="shared" si="188"/>
+        <f t="shared" si="187"/>
         <v>0.29905335628227192</v>
       </c>
       <c r="Q94" s="41">
-        <f t="shared" si="188"/>
+        <f t="shared" si="187"/>
         <v>0.31461538461538463</v>
       </c>
       <c r="R94" s="41">
-        <f t="shared" si="188"/>
+        <f t="shared" si="187"/>
         <v>0.23469903894790087</v>
       </c>
       <c r="S94" s="41">
-        <f t="shared" si="188"/>
+        <f t="shared" si="187"/>
         <v>0.28983788058521154</v>
       </c>
       <c r="T94" s="41">
-        <f t="shared" si="188"/>
+        <f t="shared" si="187"/>
         <v>0.26058091286307056</v>
       </c>
       <c r="U94" s="41">
-        <f t="shared" si="188"/>
+        <f t="shared" si="187"/>
         <v>0.28576879053796261</v>
       </c>
       <c r="V94" s="41">
-        <f t="shared" si="188"/>
+        <f t="shared" si="187"/>
         <v>0.26219512195121952</v>
       </c>
       <c r="W94" s="41">
-        <f t="shared" si="188"/>
+        <f t="shared" si="187"/>
         <v>0.28512396694214875</v>
       </c>
       <c r="X94" s="41">
-        <f t="shared" ref="X94:Z94" si="189">X85/X84</f>
+        <f t="shared" ref="X94:Z94" si="188">X85/X84</f>
         <v>0.32398980706224972</v>
       </c>
       <c r="Y94" s="41">
@@ -23097,19 +23097,19 @@
         <v>0.28421052631578947</v>
       </c>
       <c r="Z94" s="41">
+        <f t="shared" si="188"/>
+        <v>0.21958584987057808</v>
+      </c>
+      <c r="AA94" s="41">
+        <f t="shared" ref="AA94:AC94" si="189">AA85/AA84</f>
+        <v>0.22935779816513763</v>
+      </c>
+      <c r="AB94" s="41">
         <f t="shared" si="189"/>
-        <v>0.21958584987057808</v>
-      </c>
-      <c r="AA94" s="41">
-        <f t="shared" ref="AA94:AC94" si="190">AA85/AA84</f>
-        <v>0.22935779816513763</v>
-      </c>
-      <c r="AB94" s="41">
-        <f t="shared" si="190"/>
         <v>0.27565039462145574</v>
       </c>
       <c r="AC94" s="41">
-        <f t="shared" si="190"/>
+        <f t="shared" si="189"/>
         <v>0.12385165022116366</v>
       </c>
       <c r="AD94" s="41">
@@ -23162,79 +23162,79 @@
       <c r="BM94" s="64"/>
       <c r="BN94" s="64"/>
       <c r="BO94" s="64">
-        <f t="shared" ref="BO94" si="191">+BO85/BO84</f>
+        <f t="shared" ref="BO94" si="190">+BO85/BO84</f>
         <v>0.20383602858217376</v>
       </c>
       <c r="BP94" s="64">
-        <f t="shared" ref="BP94" si="192">+BP85/BP84</f>
+        <f t="shared" ref="BP94" si="191">+BP85/BP84</f>
         <v>0.22064777327935223</v>
       </c>
       <c r="BQ94" s="64">
-        <f t="shared" ref="BQ94:BR94" si="193">+BQ85/BQ84</f>
+        <f t="shared" ref="BQ94:BR94" si="192">+BQ85/BQ84</f>
         <v>0.2209420535411725</v>
       </c>
       <c r="BR94" s="64">
-        <f t="shared" si="193"/>
+        <f t="shared" si="192"/>
         <v>0.22052067381316998</v>
       </c>
       <c r="BS94" s="64">
-        <f t="shared" ref="BS94" si="194">+BS85/BS84</f>
+        <f t="shared" ref="BS94" si="193">+BS85/BS84</f>
         <v>0.21034077555816685</v>
       </c>
       <c r="BT94" s="64">
-        <f t="shared" ref="BT94:BU94" si="195">+BT85/BT84</f>
+        <f t="shared" ref="BT94:BU94" si="194">+BT85/BT84</f>
         <v>0.20922795797167656</v>
       </c>
       <c r="BU94" s="64">
+        <f t="shared" si="194"/>
+        <v>0.21220846530377196</v>
+      </c>
+      <c r="BV94" s="64">
+        <f t="shared" ref="BV94:BW94" si="195">+BV85/BV84</f>
+        <v>0.203865623561896</v>
+      </c>
+      <c r="BW94" s="64">
         <f t="shared" si="195"/>
-        <v>0.21220846530377196</v>
-      </c>
-      <c r="BV94" s="64">
-        <f t="shared" ref="BV94:BW94" si="196">+BV85/BV84</f>
-        <v>0.203865623561896</v>
-      </c>
-      <c r="BW94" s="64">
+        <v>0.18854655056932351</v>
+      </c>
+      <c r="BX94" s="64">
+        <f t="shared" ref="BX94:CF94" si="196">+BX85/BX84</f>
+        <v>0.1890881913303438</v>
+      </c>
+      <c r="BY94" s="64">
         <f t="shared" si="196"/>
-        <v>0.18854655056932351</v>
-      </c>
-      <c r="BX94" s="64">
-        <f t="shared" ref="BX94:CF94" si="197">+BX85/BX84</f>
-        <v>0.1890881913303438</v>
-      </c>
-      <c r="BY94" s="64">
-        <f t="shared" si="197"/>
         <v>0.18911625815156285</v>
       </c>
       <c r="BZ94" s="64">
-        <f t="shared" si="197"/>
+        <f t="shared" si="196"/>
         <v>0.20593692022263452</v>
       </c>
       <c r="CA94" s="64">
-        <f t="shared" si="197"/>
+        <f t="shared" si="196"/>
         <v>0.18857142857142858</v>
       </c>
       <c r="CB94" s="64">
-        <f t="shared" si="197"/>
+        <f t="shared" si="196"/>
         <v>0.18889716840536513</v>
       </c>
       <c r="CC94" s="64">
-        <f t="shared" si="197"/>
+        <f t="shared" si="196"/>
         <v>0.18986058301647654</v>
       </c>
       <c r="CD94" s="64">
-        <f t="shared" si="197"/>
+        <f t="shared" si="196"/>
         <v>0.17797947908445147</v>
       </c>
       <c r="CE94" s="64">
-        <f t="shared" si="197"/>
+        <f t="shared" si="196"/>
         <v>0.20749999999999999</v>
       </c>
       <c r="CF94" s="64">
-        <f t="shared" si="197"/>
+        <f t="shared" si="196"/>
         <v>0.20755408874220754</v>
       </c>
       <c r="CG94" s="64">
-        <f t="shared" ref="CG94" si="198">+CG85/CG84</f>
+        <f t="shared" ref="CG94" si="197">+CG85/CG84</f>
         <v>0.16610322289835475</v>
       </c>
       <c r="CH94" s="64"/>
@@ -23405,27 +23405,27 @@
       <c r="M96" s="39"/>
       <c r="N96" s="39"/>
       <c r="O96" s="42">
-        <f t="shared" ref="O96:V96" si="199">O76/K76-1</f>
+        <f t="shared" ref="O96:V96" si="198">O76/K76-1</f>
         <v>2.0184790334043967E-2</v>
       </c>
       <c r="P96" s="42">
-        <f t="shared" si="199"/>
+        <f t="shared" si="198"/>
         <v>-2.005366473661907E-2</v>
       </c>
       <c r="Q96" s="42">
-        <f t="shared" si="199"/>
+        <f t="shared" si="198"/>
         <v>1.7968410375307942E-2</v>
       </c>
       <c r="R96" s="42">
-        <f t="shared" si="199"/>
+        <f t="shared" si="198"/>
         <v>-6.0494834148994037E-2</v>
       </c>
       <c r="S96" s="42">
-        <f t="shared" si="199"/>
+        <f t="shared" si="198"/>
         <v>-3.5948167758116156E-2</v>
       </c>
       <c r="T96" s="42">
-        <f t="shared" si="199"/>
+        <f t="shared" si="198"/>
         <v>-3.6028246144977683E-2</v>
       </c>
       <c r="U96" s="42">
@@ -23433,43 +23433,43 @@
         <v>-2.4483985765124561E-2</v>
       </c>
       <c r="V96" s="42">
+        <f t="shared" si="198"/>
+        <v>2.5756041093908166E-2</v>
+      </c>
+      <c r="W96" s="42">
+        <f t="shared" ref="W96:X96" si="199">W76/S76-1</f>
+        <v>2.7171556583321266E-2</v>
+      </c>
+      <c r="X96" s="42">
         <f t="shared" si="199"/>
-        <v>2.5756041093908166E-2</v>
-      </c>
-      <c r="W96" s="42">
-        <f t="shared" ref="W96:X96" si="200">W76/S76-1</f>
-        <v>2.7171556583321266E-2</v>
-      </c>
-      <c r="X96" s="42">
+        <v>0.11257288084915529</v>
+      </c>
+      <c r="Y96" s="42">
+        <f t="shared" ref="Y96:AE96" si="200">Y76/U76-1</f>
+        <v>7.9819057347147337E-2</v>
+      </c>
+      <c r="Z96" s="42">
         <f t="shared" si="200"/>
-        <v>0.11257288084915529</v>
-      </c>
-      <c r="Y96" s="42">
-        <f t="shared" ref="Y96:AE96" si="201">Y76/U76-1</f>
-        <v>7.9819057347147337E-2</v>
-      </c>
-      <c r="Z96" s="42">
-        <f t="shared" si="201"/>
         <v>3.83693045563549E-2</v>
       </c>
       <c r="AA96" s="42">
-        <f t="shared" si="201"/>
+        <f t="shared" si="200"/>
         <v>0.11129871957225279</v>
       </c>
       <c r="AB96" s="42">
-        <f t="shared" si="201"/>
+        <f t="shared" si="200"/>
         <v>4.5821015855952663E-2</v>
       </c>
       <c r="AC96" s="42">
-        <f t="shared" si="201"/>
+        <f t="shared" si="200"/>
         <v>5.6891891891891921E-2</v>
       </c>
       <c r="AD96" s="42">
-        <f t="shared" si="201"/>
+        <f t="shared" si="200"/>
         <v>4.6189376443417363E-3</v>
       </c>
       <c r="AE96" s="42">
-        <f t="shared" si="201"/>
+        <f t="shared" si="200"/>
         <v>-1.5067105596353492E-2</v>
       </c>
       <c r="AF96" s="42"/>
@@ -23528,7 +23528,7 @@
         <v>6.5231293967171089E-2</v>
       </c>
       <c r="BW96" s="65">
-        <f t="shared" ref="BW96" si="202">+BW76/BS76-1</f>
+        <f t="shared" ref="BW96" si="201">+BW76/BS76-1</f>
         <v>0.12594575718775469</v>
       </c>
       <c r="BX96" s="65">
@@ -23536,27 +23536,27 @@
         <v>0.15690759377859109</v>
       </c>
       <c r="BY96" s="65">
-        <f t="shared" ref="BY96:CH96" si="203">+BY76/BU76-1</f>
+        <f t="shared" ref="BY96:CH96" si="202">+BY76/BU76-1</f>
         <v>0.19651073619631898</v>
       </c>
       <c r="BZ96" s="65">
-        <f t="shared" si="203"/>
+        <f t="shared" si="202"/>
         <v>7.3043826295777547E-2</v>
       </c>
       <c r="CA96" s="65">
-        <f t="shared" si="203"/>
+        <f t="shared" si="202"/>
         <v>5.6652537992349927E-2</v>
       </c>
       <c r="CB96" s="65">
-        <f t="shared" si="203"/>
+        <f t="shared" si="202"/>
         <v>-1.4926848556741756E-2</v>
       </c>
       <c r="CC96" s="65">
-        <f t="shared" si="203"/>
+        <f t="shared" si="202"/>
         <v>-4.1499759653901624E-2</v>
       </c>
       <c r="CD96" s="65">
-        <f t="shared" si="203"/>
+        <f t="shared" si="202"/>
         <v>1.818351361432291E-2</v>
       </c>
       <c r="CE96" s="65">
@@ -23564,32 +23564,32 @@
         <v>2.3774581743469358E-2</v>
       </c>
       <c r="CF96" s="65">
-        <f t="shared" si="203"/>
+        <f t="shared" si="202"/>
         <v>7.8273958855995973E-2</v>
       </c>
       <c r="CG96" s="65">
-        <f t="shared" si="203"/>
+        <f t="shared" si="202"/>
         <v>0.12328652624540282</v>
       </c>
       <c r="CH96" s="65">
-        <f t="shared" si="203"/>
-        <v>0.12256800073266771</v>
+        <f t="shared" si="202"/>
+        <v>0.1102665079219709</v>
       </c>
       <c r="CI96" s="65">
-        <f t="shared" ref="CI96" si="204">+CI76/CE76-1</f>
-        <v>0.13670011467889909</v>
+        <f t="shared" ref="CI96" si="203">+CI76/CE76-1</f>
+        <v>0.12857702599388388</v>
       </c>
       <c r="CJ96" s="65">
-        <f t="shared" ref="CJ96" si="205">+CJ76/CF76-1</f>
-        <v>0.16349278734295014</v>
+        <f t="shared" ref="CJ96" si="204">+CJ76/CF76-1</f>
+        <v>0.15651279664960449</v>
       </c>
       <c r="CK96" s="65">
-        <f t="shared" ref="CK96" si="206">+CK76/CG76-1</f>
-        <v>7.4940843812783653E-2</v>
+        <f t="shared" ref="CK96" si="205">+CK76/CG76-1</f>
+        <v>7.0104174417739307E-2</v>
       </c>
       <c r="CL96" s="65">
-        <f t="shared" ref="CL96" si="207">+CL76/CH76-1</f>
-        <v>8.740525661400711E-2</v>
+        <f t="shared" ref="CL96" si="206">+CL76/CH76-1</f>
+        <v>8.7081580466881192E-2</v>
       </c>
       <c r="CM96" s="65"/>
       <c r="CN96" s="42"/>
@@ -23602,27 +23602,27 @@
         <v>-1.1313572762837953E-2</v>
       </c>
       <c r="CT96" s="42">
-        <f t="shared" ref="CT96:CY96" si="208">CT76/CS76-1</f>
+        <f t="shared" ref="CT96:CY96" si="207">CT76/CS76-1</f>
         <v>-1.7895337230857011E-2</v>
       </c>
       <c r="CU96" s="42">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>6.3883847549909278E-2</v>
       </c>
       <c r="CV96" s="42">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>3.7700443534629757E-2</v>
       </c>
       <c r="CW96" s="42">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>-8.8696366924214676E-3</v>
       </c>
       <c r="CX96" s="42">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>-3.3663060457657656E-2</v>
       </c>
       <c r="CY96" s="42">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>-5.5654504717852049E-2</v>
       </c>
       <c r="CZ96" s="42">
@@ -23867,84 +23867,84 @@
       <c r="BQ98" s="66"/>
       <c r="BR98" s="66"/>
       <c r="BS98" s="66">
-        <f t="shared" ref="BS98:CA98" si="209">+BS3/BO3-1</f>
+        <f t="shared" ref="BS98:CA98" si="208">+BS3/BO3-1</f>
         <v>0.34922680412371143</v>
       </c>
       <c r="BT98" s="66">
+        <f t="shared" si="208"/>
+        <v>0.44871794871794868</v>
+      </c>
+      <c r="BU98" s="66">
+        <f t="shared" si="208"/>
+        <v>0.53594771241830075</v>
+      </c>
+      <c r="BV98" s="66">
+        <f t="shared" si="208"/>
+        <v>0.57739307535641538</v>
+      </c>
+      <c r="BW98" s="66">
+        <f t="shared" si="208"/>
+        <v>0.54154727793696278</v>
+      </c>
+      <c r="BX98" s="66">
+        <f t="shared" si="208"/>
+        <v>0.57924376508447306</v>
+      </c>
+      <c r="BY98" s="66">
+        <f t="shared" si="208"/>
+        <v>0.64113475177304968</v>
+      </c>
+      <c r="BZ98" s="66">
+        <f t="shared" si="208"/>
+        <v>0.55067785668173008</v>
+      </c>
+      <c r="CA98" s="66">
+        <f t="shared" si="208"/>
+        <v>0.43494423791821557</v>
+      </c>
+      <c r="CB98" s="66">
+        <f t="shared" ref="CB98:CG98" si="209">+CB3/BX3-1</f>
+        <v>0.30514518593988793</v>
+      </c>
+      <c r="CC98" s="66">
         <f t="shared" si="209"/>
-        <v>0.44871794871794868</v>
-      </c>
-      <c r="BU98" s="66">
+        <v>0.2303370786516854</v>
+      </c>
+      <c r="CD98" s="66">
         <f t="shared" si="209"/>
-        <v>0.53594771241830075</v>
-      </c>
-      <c r="BV98" s="66">
+        <v>0.24479600333055784</v>
+      </c>
+      <c r="CE98" s="66">
         <f t="shared" si="209"/>
-        <v>0.57739307535641538</v>
-      </c>
-      <c r="BW98" s="66">
+        <v>0.22409326424870457</v>
+      </c>
+      <c r="CF98" s="66">
         <f t="shared" si="209"/>
-        <v>0.54154727793696278</v>
-      </c>
-      <c r="BX98" s="66">
+        <v>0.28922716627634659</v>
+      </c>
+      <c r="CG98" s="66">
         <f t="shared" si="209"/>
-        <v>0.57924376508447306</v>
-      </c>
-      <c r="BY98" s="66">
-        <f t="shared" si="209"/>
-        <v>0.64113475177304968</v>
-      </c>
-      <c r="BZ98" s="66">
-        <f t="shared" si="209"/>
-        <v>0.55067785668173008</v>
-      </c>
-      <c r="CA98" s="66">
-        <f t="shared" si="209"/>
-        <v>0.43494423791821557</v>
-      </c>
-      <c r="CB98" s="66">
-        <f t="shared" ref="CB98:CG98" si="210">+CB3/BX3-1</f>
-        <v>0.30514518593988793</v>
-      </c>
-      <c r="CC98" s="66">
+        <v>0.22093431682472775</v>
+      </c>
+      <c r="CH98" s="66">
+        <f t="shared" ref="CH98:CL99" si="210">+CH3/CD3-1</f>
+        <v>0.15652173913043477</v>
+      </c>
+      <c r="CI98" s="66">
         <f t="shared" si="210"/>
-        <v>0.2303370786516854</v>
-      </c>
-      <c r="CD98" s="66">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="CJ98" s="66">
         <f t="shared" si="210"/>
-        <v>0.24479600333055784</v>
-      </c>
-      <c r="CE98" s="66">
+        <v>0.30000000000000027</v>
+      </c>
+      <c r="CK98" s="66">
         <f t="shared" si="210"/>
-        <v>0.22409326424870457</v>
-      </c>
-      <c r="CF98" s="66">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="CL98" s="66">
         <f t="shared" si="210"/>
-        <v>0.28922716627634659</v>
-      </c>
-      <c r="CG98" s="66">
-        <f t="shared" si="210"/>
-        <v>0.22093431682472775</v>
-      </c>
-      <c r="CH98" s="66">
-        <f t="shared" ref="CH98:CL99" si="211">+CH3/CD3-1</f>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="CI98" s="66">
-        <f t="shared" si="211"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="CJ98" s="66">
-        <f t="shared" si="211"/>
         <v>0.30000000000000027</v>
-      </c>
-      <c r="CK98" s="66">
-        <f t="shared" si="211"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="CL98" s="66">
-        <f t="shared" si="211"/>
-        <v>0.30000000000000004</v>
       </c>
       <c r="CM98" s="66"/>
       <c r="CN98" s="43"/>
@@ -23982,71 +23982,71 @@
       <c r="M99" s="43"/>
       <c r="N99" s="43"/>
       <c r="O99" s="43">
-        <f t="shared" ref="O99:AE99" si="212">O4/K4-1</f>
+        <f t="shared" ref="O99:AE99" si="211">O4/K4-1</f>
         <v>0.19895287958115193</v>
       </c>
       <c r="P99" s="43">
-        <f t="shared" si="212"/>
+        <f t="shared" si="211"/>
         <v>0.19477434679334915</v>
       </c>
       <c r="Q99" s="43">
-        <f t="shared" si="212"/>
+        <f t="shared" si="211"/>
         <v>0.25728155339805836</v>
       </c>
       <c r="R99" s="43">
-        <f t="shared" si="212"/>
+        <f t="shared" si="211"/>
         <v>0.22394678492239461</v>
       </c>
       <c r="S99" s="43">
-        <f t="shared" si="212"/>
+        <f t="shared" si="211"/>
         <v>0.21615720524017457</v>
       </c>
       <c r="T99" s="43">
-        <f t="shared" si="212"/>
+        <f t="shared" si="211"/>
         <v>0.14512922465208744</v>
       </c>
       <c r="U99" s="43">
-        <f t="shared" si="212"/>
+        <f t="shared" si="211"/>
         <v>0.18146718146718155</v>
       </c>
       <c r="V99" s="43">
-        <f t="shared" si="212"/>
+        <f t="shared" si="211"/>
         <v>0.27717391304347827</v>
       </c>
       <c r="W99" s="43">
-        <f t="shared" si="212"/>
+        <f t="shared" si="211"/>
         <v>0.34111310592459598</v>
       </c>
       <c r="X99" s="43">
-        <f t="shared" si="212"/>
+        <f t="shared" si="211"/>
         <v>0.375</v>
       </c>
       <c r="Y99" s="43">
-        <f t="shared" si="212"/>
+        <f t="shared" si="211"/>
         <v>0.2712418300653594</v>
       </c>
       <c r="Z99" s="43">
-        <f t="shared" si="212"/>
+        <f t="shared" si="211"/>
         <v>8.2269503546099187E-2</v>
       </c>
       <c r="AA99" s="43">
-        <f t="shared" si="212"/>
+        <f t="shared" si="211"/>
         <v>5.7563587684069661E-2</v>
       </c>
       <c r="AB99" s="43">
-        <f t="shared" si="212"/>
+        <f t="shared" si="211"/>
         <v>0.16919191919191912</v>
       </c>
       <c r="AC99" s="43">
-        <f t="shared" si="212"/>
+        <f t="shared" si="211"/>
         <v>0.15681233933161964</v>
       </c>
       <c r="AD99" s="43">
-        <f t="shared" si="212"/>
+        <f t="shared" si="211"/>
         <v>0.17169069462647446</v>
       </c>
       <c r="AE99" s="43">
-        <f t="shared" si="212"/>
+        <f t="shared" si="211"/>
         <v>0.17088607594936711</v>
       </c>
       <c r="AF99" s="43"/>
@@ -24093,47 +24093,47 @@
         <v>-9.9447513812154664E-2</v>
       </c>
       <c r="BT99" s="66">
-        <f t="shared" ref="BT99:CD99" si="213">+BT4/BP4-1</f>
+        <f t="shared" ref="BT99:CD99" si="212">+BT4/BP4-1</f>
         <v>-8.0808080808080773E-2</v>
       </c>
       <c r="BU99" s="66">
-        <f t="shared" si="213"/>
+        <f t="shared" si="212"/>
         <v>-5.3272450532724558E-2</v>
       </c>
       <c r="BV99" s="66">
-        <f t="shared" si="213"/>
+        <f t="shared" si="212"/>
         <v>-6.8143100511073307E-3</v>
       </c>
       <c r="BW99" s="66">
-        <f t="shared" si="213"/>
+        <f t="shared" si="212"/>
         <v>2.914110429447847E-2</v>
       </c>
       <c r="BX99" s="66">
-        <f t="shared" si="213"/>
+        <f t="shared" si="212"/>
         <v>-5.8084772370486704E-2</v>
       </c>
       <c r="BY99" s="66">
-        <f t="shared" si="213"/>
+        <f t="shared" si="212"/>
         <v>-0.1012861736334405</v>
       </c>
       <c r="BZ99" s="66">
-        <f t="shared" si="213"/>
+        <f t="shared" si="212"/>
         <v>-0.26415094339622647</v>
       </c>
       <c r="CA99" s="66">
-        <f t="shared" si="213"/>
+        <f t="shared" si="212"/>
         <v>-0.33383010432190763</v>
       </c>
       <c r="CB99" s="66">
-        <f t="shared" si="213"/>
+        <f t="shared" si="212"/>
         <v>-0.41166666666666663</v>
       </c>
       <c r="CC99" s="66">
-        <f t="shared" si="213"/>
+        <f t="shared" si="212"/>
         <v>-0.38640429338103754</v>
       </c>
       <c r="CD99" s="66">
-        <f t="shared" si="213"/>
+        <f t="shared" si="212"/>
         <v>-0.35431235431235431</v>
       </c>
       <c r="CE99" s="66">
@@ -24149,23 +24149,23 @@
         <v>0.2565597667638484</v>
       </c>
       <c r="CH99" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="210"/>
+        <v>0.58483754512635389</v>
+      </c>
+      <c r="CI99" s="66">
+        <f t="shared" si="210"/>
         <v>-9.9999999999999978E-2</v>
       </c>
-      <c r="CI99" s="66">
-        <f t="shared" si="211"/>
+      <c r="CJ99" s="66">
+        <f t="shared" si="210"/>
         <v>-9.9999999999999978E-2</v>
       </c>
-      <c r="CJ99" s="66">
-        <f t="shared" si="211"/>
-        <v>-9.9999999999999978E-2</v>
-      </c>
       <c r="CK99" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="210"/>
         <v>-9.9999999999999867E-2</v>
       </c>
       <c r="CL99" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="210"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="CM99" s="66"/>
@@ -24211,43 +24211,43 @@
       <c r="T100" s="43"/>
       <c r="U100" s="43"/>
       <c r="V100" s="43">
-        <f t="shared" ref="V100:AE100" si="214">V6/R6-1</f>
+        <f t="shared" ref="V100:AE100" si="213">V6/R6-1</f>
         <v>0.11127596439169141</v>
       </c>
       <c r="W100" s="43">
-        <f t="shared" si="214"/>
+        <f t="shared" si="213"/>
         <v>6.2761506276150625E-2</v>
       </c>
       <c r="X100" s="43">
-        <f t="shared" si="214"/>
+        <f t="shared" si="213"/>
         <v>0.22448979591836737</v>
       </c>
       <c r="Y100" s="43">
-        <f t="shared" si="214"/>
+        <f t="shared" si="213"/>
         <v>0.17637795275590551</v>
       </c>
       <c r="Z100" s="43">
-        <f t="shared" si="214"/>
+        <f t="shared" si="213"/>
         <v>6.6755674232310547E-3</v>
       </c>
       <c r="AA100" s="43">
-        <f t="shared" si="214"/>
+        <f t="shared" si="213"/>
         <v>9.1863517060366551E-3</v>
       </c>
       <c r="AB100" s="43">
-        <f t="shared" si="214"/>
+        <f t="shared" si="213"/>
         <v>0.11025641025641031</v>
       </c>
       <c r="AC100" s="43">
-        <f t="shared" si="214"/>
+        <f t="shared" si="213"/>
         <v>-0.21151271753681389</v>
       </c>
       <c r="AD100" s="43">
-        <f t="shared" si="214"/>
+        <f t="shared" si="213"/>
         <v>-0.22811671087533159</v>
       </c>
       <c r="AE100" s="43">
-        <f t="shared" si="214"/>
+        <f t="shared" si="213"/>
         <v>-0.24187256176853056</v>
       </c>
       <c r="AF100" s="43"/>
@@ -24346,35 +24346,35 @@
       <c r="O101" s="43"/>
       <c r="P101" s="43"/>
       <c r="Q101" s="43">
-        <f t="shared" ref="Q101:V101" si="215">Q90/M90-1</f>
+        <f t="shared" ref="Q101:V101" si="214">Q90/M90-1</f>
         <v>8.3583671031624229E-2</v>
       </c>
       <c r="R101" s="43">
+        <f t="shared" si="214"/>
+        <v>-0.10399806362410113</v>
+      </c>
+      <c r="S101" s="43">
+        <f t="shared" si="214"/>
+        <v>-0.20947081134089007</v>
+      </c>
+      <c r="T101" s="43">
+        <f t="shared" si="214"/>
+        <v>0.12676180669236614</v>
+      </c>
+      <c r="U101" s="43">
+        <f t="shared" si="214"/>
+        <v>8.6798084095178307E-2</v>
+      </c>
+      <c r="V101" s="43">
+        <f t="shared" si="214"/>
+        <v>8.0266375123093425E-2</v>
+      </c>
+      <c r="W101" s="43">
+        <f t="shared" ref="W101:X101" si="215">W90/S90-1</f>
+        <v>0.11315576897500335</v>
+      </c>
+      <c r="X101" s="43">
         <f t="shared" si="215"/>
-        <v>-0.10399806362410113</v>
-      </c>
-      <c r="S101" s="43">
-        <f t="shared" si="215"/>
-        <v>-0.20947081134089007</v>
-      </c>
-      <c r="T101" s="43">
-        <f t="shared" si="215"/>
-        <v>0.12676180669236614</v>
-      </c>
-      <c r="U101" s="43">
-        <f t="shared" si="215"/>
-        <v>8.6798084095178307E-2</v>
-      </c>
-      <c r="V101" s="43">
-        <f t="shared" si="215"/>
-        <v>8.0266375123093425E-2</v>
-      </c>
-      <c r="W101" s="43">
-        <f t="shared" ref="W101:X101" si="216">W90/S90-1</f>
-        <v>0.11315576897500335</v>
-      </c>
-      <c r="X101" s="43">
-        <f t="shared" si="216"/>
         <v>0.1266192863674398</v>
       </c>
       <c r="Y101" s="43">
@@ -24466,27 +24466,27 @@
       <c r="CR101" s="33"/>
       <c r="CS101" s="43"/>
       <c r="CT101" s="43">
-        <f t="shared" ref="CT101:CY101" si="217">CT90/CS90-1</f>
+        <f t="shared" ref="CT101:CY101" si="216">CT90/CS90-1</f>
         <v>6.165058262481482E-3</v>
       </c>
       <c r="CU101" s="43">
-        <f t="shared" si="217"/>
+        <f t="shared" si="216"/>
         <v>0.13441259351318302</v>
       </c>
       <c r="CV101" s="43">
-        <f t="shared" si="217"/>
+        <f t="shared" si="216"/>
         <v>8.0321595516685163E-2</v>
       </c>
       <c r="CW101" s="43">
-        <f t="shared" si="217"/>
+        <f t="shared" si="216"/>
         <v>0.56746687640791649</v>
       </c>
       <c r="CX101" s="43">
-        <f t="shared" si="217"/>
+        <f t="shared" si="216"/>
         <v>6.211068629493921E-2</v>
       </c>
       <c r="CY101" s="43">
-        <f t="shared" si="217"/>
+        <f t="shared" si="216"/>
         <v>-2.8856862095187452E-2</v>
       </c>
       <c r="CZ101" s="43">
@@ -24502,7 +24502,7 @@
         <v>1.8110045384902573E-3</v>
       </c>
       <c r="DC101" s="43">
-        <f t="shared" ref="DC101" si="218">DC90/DB90-1</f>
+        <f t="shared" ref="DC101" si="217">DC90/DB90-1</f>
         <v>-3.8622649812662835E-2</v>
       </c>
       <c r="DN101" s="10"/>
@@ -24723,7 +24723,7 @@
         <v>175</v>
       </c>
       <c r="CT104" s="23">
-        <f t="shared" ref="CT104:CY104" si="219">CT89</f>
+        <f t="shared" ref="CT104:CY104" si="218">CT89</f>
         <v>7523</v>
       </c>
       <c r="CU104" s="23">
@@ -24731,19 +24731,19 @@
         <v>8513</v>
       </c>
       <c r="CV104" s="23">
-        <f t="shared" si="219"/>
+        <f t="shared" si="218"/>
         <v>9193.5499999999993</v>
       </c>
       <c r="CW104" s="23">
-        <f t="shared" si="219"/>
+        <f t="shared" si="218"/>
         <v>14410.585101600002</v>
       </c>
       <c r="CX104" s="23">
-        <f t="shared" si="219"/>
+        <f t="shared" si="218"/>
         <v>15305.636432172003</v>
       </c>
       <c r="CY104" s="23">
-        <f t="shared" si="219"/>
+        <f t="shared" si="218"/>
         <v>14863.963792369741</v>
       </c>
       <c r="CZ104" s="23">
@@ -24808,7 +24808,7 @@
         <v>-15241.838400000001</v>
       </c>
       <c r="AH106" s="23">
-        <f t="shared" ref="AH106" si="220">+AG106+AH89</f>
+        <f t="shared" ref="AH106" si="219">+AG106+AH89</f>
         <v>-11054.355520000001</v>
       </c>
       <c r="AI106" s="23"/>
@@ -24881,31 +24881,31 @@
         <v>-11054.355520000001</v>
       </c>
       <c r="CW106" s="23">
-        <f t="shared" ref="CW106:DC106" si="221">CW104+CV106</f>
+        <f t="shared" ref="CW106:DC106" si="220">CW104+CV106</f>
         <v>3356.2295816000005</v>
       </c>
       <c r="CX106" s="23">
-        <f t="shared" si="221"/>
+        <f t="shared" si="220"/>
         <v>18661.866013772003</v>
       </c>
       <c r="CY106" s="23">
-        <f t="shared" si="221"/>
+        <f t="shared" si="220"/>
         <v>33525.829806141744</v>
       </c>
       <c r="CZ106" s="23">
-        <f t="shared" si="221"/>
+        <f t="shared" si="220"/>
         <v>48356.944159413746</v>
       </c>
       <c r="DA106" s="23">
-        <f t="shared" si="221"/>
+        <f t="shared" si="220"/>
         <v>63561.820905263659</v>
       </c>
       <c r="DB106" s="23">
-        <f t="shared" si="221"/>
+        <f t="shared" si="220"/>
         <v>78794.233751907494</v>
       </c>
       <c r="DC106" s="23">
-        <f t="shared" si="221"/>
+        <f t="shared" si="220"/>
         <v>78794.233751907494</v>
       </c>
     </row>
@@ -26862,7 +26862,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F80BD0FC-BE9A-4804-A1F8-5730C974DDE3}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
@@ -26902,24 +26902,61 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="29" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="29"/>
+      <c r="C6" s="29" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="29" t="s">
         <v>592</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C7" s="29" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="29" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="29" t="s">
         <v>594</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C8" s="29" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C7" s="29" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="29" t="s">
         <v>603</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="30" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="30" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="29" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="30" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="29" t="s">
+        <v>612</v>
       </c>
     </row>
   </sheetData>
@@ -27504,18 +27541,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -27535,14 +27572,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A163F551-4DC3-4346-BFB2-E5655EE44603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96797E59-4DFD-499C-8A4E-CC49F873674A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -27555,4 +27584,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A163F551-4DC3-4346-BFB2-E5655EE44603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SAN FP.xlsx
+++ b/SAN FP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D20D5A-918F-4834-892B-5B3ADB1299CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C10D12F-E20F-4A69-904B-4C974EEC7CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51600" yWindow="495" windowWidth="25530" windowHeight="20280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51765" yWindow="0" windowWidth="22965" windowHeight="20985" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="22" r:id="rId1"/>
@@ -98,16 +98,23 @@
     <author>tc={E33F5FBE-A351-43AB-BB26-9BE2FEDE5329}</author>
     <author>tc={14193EBD-CFEE-4BE7-8A7E-3BC4D57390F5}</author>
     <author>tc={D5DD676B-0E5E-4508-8BC7-B0A73A9A23F5}</author>
+    <author>tc={3C5A1471-DCCA-4393-8919-4C76421719EE}</author>
     <author>Martin</author>
     <author>MSMB</author>
     <author>RBC</author>
     <author>Martin Shkreli</author>
+    <author>tc={33D8977C-9DE1-4C75-9837-4AE138309EE3}</author>
+    <author>tc={DBDCA234-B388-462B-A15C-B39E337DF9FD}</author>
     <author xml:space="preserve"> </author>
+    <author>tc={369A9D9C-E8DB-4875-A620-36A7DE3DC2E0}</author>
+    <author>tc={3A866901-E658-44E9-B783-7AF3287D819A}</author>
     <author>MSMB - Andre</author>
     <author>tc={F9AC6D8E-D4E8-48E6-87BF-AFF3BAEAF239}</author>
     <author>tc={F7588713-7B33-4A55-9D7A-5A4110D76910}</author>
+    <author>tc={BD0047EE-85B6-4B61-A969-431013501C3B}</author>
     <author>tc={C332E2A7-7FFB-4B2F-83D9-CD4DD37631A5}</author>
     <author>tc={65F7C13C-73F7-432E-96BC-9619FA75CE2E}</author>
+    <author>tc={474CDD52-F71C-4FA1-A7E2-59168AC71305}</author>
     <author>tc={70D2DB62-68E2-4B0A-A405-84EE5DA5D593}</author>
   </authors>
   <commentList>
@@ -137,7 +144,15 @@
     +23.1% CER</t>
       </text>
     </comment>
-    <comment ref="Y4" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="DP3" authorId="3" shapeId="0" xr:uid="{3C5A1471-DCCA-4393-8919-4C76421719EE}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q424: 22B EUR guidance</t>
+      </text>
+    </comment>
+    <comment ref="Y4" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -161,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA4" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="AA4" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -189,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB4" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="AB4" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -213,7 +228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T6" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="T6" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -237,7 +252,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U6" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
+    <comment ref="U6" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -261,7 +276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA6" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
+    <comment ref="AA6" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -287,7 +302,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB6" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
+    <comment ref="AB6" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -312,7 +327,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC6" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
+    <comment ref="AC6" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -336,7 +351,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CU6" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
+    <comment ref="CU6" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -360,7 +375,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="S12" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
+    <comment ref="CH8" authorId="8" shapeId="0" xr:uid="{33D8977C-9DE1-4C75-9837-4AE138309EE3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Patient switches</t>
+      </text>
+    </comment>
+    <comment ref="CH10" authorId="9" shapeId="0" xr:uid="{DBDCA234-B388-462B-A15C-B39E337DF9FD}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    11/29/24 sold asset to Recordati</t>
+      </text>
+    </comment>
+    <comment ref="S12" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -384,7 +415,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X12" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
+    <comment ref="X12" authorId="10" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -397,7 +428,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE12" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000C000000}">
+    <comment ref="AE12" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -421,7 +452,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S15" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000D000000}">
+    <comment ref="S15" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -445,7 +476,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CW22" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0300-000019000000}">
+    <comment ref="CW22" authorId="10" shapeId="0" xr:uid="{00000000-0006-0000-0300-000019000000}">
       <text>
         <r>
           <rPr>
@@ -458,7 +489,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CZ22" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001A000000}">
+    <comment ref="CZ22" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -482,7 +513,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DB22" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001B000000}">
+    <comment ref="DB22" authorId="10" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -495,7 +526,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y41" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0300-000011000000}">
+    <comment ref="CH32" authorId="11" shapeId="0" xr:uid="{369A9D9C-E8DB-4875-A620-36A7DE3DC2E0}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Europe 8m, ROW 5m</t>
+      </text>
+    </comment>
+    <comment ref="CH35" authorId="12" shapeId="0" xr:uid="{3A866901-E658-44E9-B783-7AF3287D819A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Most patients have switched in the US from Myozyme/Lumizyme</t>
+      </text>
+    </comment>
+    <comment ref="Y41" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0300-000011000000}">
       <text>
         <r>
           <rPr>
@@ -519,7 +566,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB41" authorId="8" shapeId="0" xr:uid="{00000000-0006-0000-0300-000012000000}">
+    <comment ref="AB41" authorId="13" shapeId="0" xr:uid="{00000000-0006-0000-0300-000012000000}">
       <text>
         <r>
           <rPr>
@@ -543,7 +590,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W42" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0300-000013000000}">
+    <comment ref="W42" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0300-000013000000}">
       <text>
         <r>
           <rPr>
@@ -567,7 +614,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA42" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0300-000014000000}">
+    <comment ref="AA42" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0300-000014000000}">
       <text>
         <r>
           <rPr>
@@ -593,7 +640,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X43" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0300-000015000000}">
+    <comment ref="X43" authorId="10" shapeId="0" xr:uid="{00000000-0006-0000-0300-000015000000}">
       <text>
         <r>
           <rPr>
@@ -606,7 +653,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CQ43" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0300-000016000000}">
+    <comment ref="CQ43" authorId="10" shapeId="0" xr:uid="{00000000-0006-0000-0300-000016000000}">
       <text>
         <r>
           <rPr>
@@ -630,7 +677,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CU43" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0300-000017000000}">
+    <comment ref="CU43" authorId="10" shapeId="0" xr:uid="{00000000-0006-0000-0300-000017000000}">
       <text>
         <r>
           <rPr>
@@ -644,7 +691,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CW48" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0300-000018000000}">
+    <comment ref="CW48" authorId="10" shapeId="0" xr:uid="{00000000-0006-0000-0300-000018000000}">
       <text>
         <r>
           <rPr>
@@ -668,7 +715,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA52" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000E000000}">
+    <comment ref="AA52" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -694,7 +741,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB52" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000F000000}">
+    <comment ref="AB52" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -718,7 +765,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CV52" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0300-000010000000}">
+    <comment ref="CV52" authorId="10" shapeId="0" xr:uid="{00000000-0006-0000-0300-000010000000}">
       <text>
         <r>
           <rPr>
@@ -731,7 +778,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T60" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001C000000}">
+    <comment ref="T60" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -755,7 +802,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA61" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001D000000}">
+    <comment ref="AA61" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -779,7 +826,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CG61" authorId="9" shapeId="0" xr:uid="{F9AC6D8E-D4E8-48E6-87BF-AFF3BAEAF239}">
+    <comment ref="CG61" authorId="14" shapeId="0" xr:uid="{F9AC6D8E-D4E8-48E6-87BF-AFF3BAEAF239}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -787,7 +834,7 @@
     Qunol acquisition</t>
       </text>
     </comment>
-    <comment ref="AA63" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001E000000}">
+    <comment ref="AA63" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -811,7 +858,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S64" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001F000000}">
+    <comment ref="S64" authorId="10" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -835,7 +882,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S74" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0300-000020000000}">
+    <comment ref="S74" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0300-000020000000}">
       <text>
         <r>
           <rPr>
@@ -859,7 +906,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA76" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-000021000000}">
+    <comment ref="AA76" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0300-000021000000}">
       <text>
         <r>
           <rPr>
@@ -883,7 +930,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BZ76" authorId="10" shapeId="0" xr:uid="{F7588713-7B33-4A55-9D7A-5A4110D76910}">
+    <comment ref="BZ76" authorId="15" shapeId="0" xr:uid="{F7588713-7B33-4A55-9D7A-5A4110D76910}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -891,7 +938,15 @@
     10725m reported</t>
       </text>
     </comment>
-    <comment ref="S86" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0300-000022000000}">
+    <comment ref="CD76" authorId="16" shapeId="0" xr:uid="{BD0047EE-85B6-4B61-A969-431013501C3B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    9687 prior period recast (Q424)</t>
+      </text>
+    </comment>
+    <comment ref="S86" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0300-000022000000}">
       <text>
         <r>
           <rPr>
@@ -915,7 +970,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CG89" authorId="11" shapeId="0" xr:uid="{C332E2A7-7FFB-4B2F-83D9-CD4DD37631A5}">
+    <comment ref="CG89" authorId="17" shapeId="0" xr:uid="{C332E2A7-7FFB-4B2F-83D9-CD4DD37631A5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -923,7 +978,7 @@
     Business NI 3585m</t>
       </text>
     </comment>
-    <comment ref="CG90" authorId="12" shapeId="0" xr:uid="{65F7C13C-73F7-432E-96BC-9619FA75CE2E}">
+    <comment ref="CG90" authorId="18" shapeId="0" xr:uid="{65F7C13C-73F7-432E-96BC-9619FA75CE2E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -932,7 +987,16 @@
 IFRS EPS 2.25</t>
       </text>
     </comment>
-    <comment ref="CT90" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0300-000023000000}">
+    <comment ref="CH90" authorId="19" shapeId="0" xr:uid="{474CDD52-F71C-4FA1-A7E2-59168AC71305}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Business EPS of EUR1.31
+-11% CER</t>
+      </text>
+    </comment>
+    <comment ref="CT90" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0300-000023000000}">
       <text>
         <r>
           <rPr>
@@ -955,7 +1019,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CV90" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0300-000024000000}">
+    <comment ref="CV90" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0300-000024000000}">
       <text>
         <r>
           <rPr>
@@ -979,7 +1043,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DJ90" authorId="13" shapeId="0" xr:uid="{70D2DB62-68E2-4B0A-A405-84EE5DA5D593}">
+    <comment ref="DJ90" authorId="20" shapeId="0" xr:uid="{70D2DB62-68E2-4B0A-A405-84EE5DA5D593}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -987,7 +1051,7 @@
     10/21/24/Q324: +LSD CER excluding Opella</t>
       </text>
     </comment>
-    <comment ref="AE97" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-000025000000}">
+    <comment ref="AE97" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0300-000025000000}">
       <text>
         <r>
           <rPr>
@@ -1011,7 +1075,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA99" authorId="8" shapeId="0" xr:uid="{00000000-0006-0000-0300-000026000000}">
+    <comment ref="AA99" authorId="13" shapeId="0" xr:uid="{00000000-0006-0000-0300-000026000000}">
       <text>
         <r>
           <rPr>
@@ -1035,7 +1099,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB99" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0300-000027000000}">
+    <comment ref="AB99" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0300-000027000000}">
       <text>
         <r>
           <rPr>
@@ -1059,7 +1123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC99" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-000028000000}">
+    <comment ref="AC99" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0300-000028000000}">
       <text>
         <r>
           <rPr>
@@ -1083,7 +1147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO101" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-000029000000}">
+    <comment ref="AO101" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0300-000029000000}">
       <text>
         <r>
           <rPr>
@@ -1112,7 +1176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="623">
   <si>
     <t>Q2 2005</t>
   </si>
@@ -2290,9 +2354,6 @@
     <t>ombrabulin (AVE8062, VDA for sarcoma)</t>
   </si>
   <si>
-    <t>Niemann-Pick</t>
-  </si>
-  <si>
     <t>rhASM</t>
   </si>
   <si>
@@ -2848,9 +2909,6 @@
     <t>CEO: Paul Hudson</t>
   </si>
   <si>
-    <t>Xenopozyme</t>
-  </si>
-  <si>
     <t>Altuviiio</t>
   </si>
   <si>
@@ -2869,9 +2927,6 @@
     <t>Altuviiio (efanesoctocog alfa)</t>
   </si>
   <si>
-    <t>fitusiran</t>
-  </si>
-  <si>
     <t>thrombin RNAi</t>
   </si>
   <si>
@@ -2954,6 +3009,42 @@
   </si>
   <si>
     <t>CSU - sBLA resubmitted Q424, 4/18/25 PDUFA</t>
+  </si>
+  <si>
+    <t>1/30/25: Q424 results</t>
+  </si>
+  <si>
+    <t>Xenpozyme</t>
+  </si>
+  <si>
+    <t>Niemann-Pick/ASMD</t>
+  </si>
+  <si>
+    <t>Cablivi (caplacizumab)</t>
+  </si>
+  <si>
+    <t>vwF mab</t>
+  </si>
+  <si>
+    <t>Qfitlia (fitusiran)</t>
+  </si>
+  <si>
+    <t>EVP, Specialty: Brian Foard</t>
+  </si>
+  <si>
+    <t>ALNY</t>
+  </si>
+  <si>
+    <t>acquired TTP</t>
+  </si>
+  <si>
+    <t>SOBI</t>
+  </si>
+  <si>
+    <t>11/29/24: sold Enjaymo for CAD to 11/29/2024</t>
+  </si>
+  <si>
+    <t>1,215</t>
   </si>
 </sst>
 </file>
@@ -3188,7 +3279,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3339,9 +3430,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3359,6 +3447,14 @@
     <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3783,11 +3879,29 @@
   <threadedComment ref="DJ3" dT="2025-03-31T00:00:38.98" personId="{318CC6C7-4C79-4B81-8AA8-0F5CDEEED97F}" id="{D5DD676B-0E5E-4508-8BC7-B0A73A9A23F5}">
     <text>+23.1% CER</text>
   </threadedComment>
+  <threadedComment ref="DP3" dT="2025-04-01T01:30:21.24" personId="{318CC6C7-4C79-4B81-8AA8-0F5CDEEED97F}" id="{3C5A1471-DCCA-4393-8919-4C76421719EE}">
+    <text>Q424: 22B EUR guidance</text>
+  </threadedComment>
+  <threadedComment ref="CH8" dT="2025-04-01T02:15:11.38" personId="{318CC6C7-4C79-4B81-8AA8-0F5CDEEED97F}" id="{33D8977C-9DE1-4C75-9837-4AE138309EE3}">
+    <text>Patient switches</text>
+  </threadedComment>
+  <threadedComment ref="CH10" dT="2025-04-01T02:21:17.81" personId="{318CC6C7-4C79-4B81-8AA8-0F5CDEEED97F}" id="{DBDCA234-B388-462B-A15C-B39E337DF9FD}">
+    <text>11/29/24 sold asset to Recordati</text>
+  </threadedComment>
+  <threadedComment ref="CH32" dT="2025-04-01T02:05:03.83" personId="{318CC6C7-4C79-4B81-8AA8-0F5CDEEED97F}" id="{369A9D9C-E8DB-4875-A620-36A7DE3DC2E0}">
+    <text>Europe 8m, ROW 5m</text>
+  </threadedComment>
+  <threadedComment ref="CH35" dT="2025-04-01T02:20:49.38" personId="{318CC6C7-4C79-4B81-8AA8-0F5CDEEED97F}" id="{3A866901-E658-44E9-B783-7AF3287D819A}">
+    <text>Most patients have switched in the US from Myozyme/Lumizyme</text>
+  </threadedComment>
   <threadedComment ref="CG61" dT="2024-11-23T22:17:42.49" personId="{318CC6C7-4C79-4B81-8AA8-0F5CDEEED97F}" id="{F9AC6D8E-D4E8-48E6-87BF-AFF3BAEAF239}">
     <text>Qunol acquisition</text>
   </threadedComment>
   <threadedComment ref="BZ76" dT="2023-03-01T21:09:31.45" personId="{318CC6C7-4C79-4B81-8AA8-0F5CDEEED97F}" id="{F7588713-7B33-4A55-9D7A-5A4110D76910}">
     <text>10725m reported</text>
+  </threadedComment>
+  <threadedComment ref="CD76" dT="2025-04-01T03:02:57.27" personId="{318CC6C7-4C79-4B81-8AA8-0F5CDEEED97F}" id="{BD0047EE-85B6-4B61-A969-431013501C3B}">
+    <text>9687 prior period recast (Q424)</text>
   </threadedComment>
   <threadedComment ref="CG89" dT="2024-11-23T22:33:35.82" personId="{318CC6C7-4C79-4B81-8AA8-0F5CDEEED97F}" id="{C332E2A7-7FFB-4B2F-83D9-CD4DD37631A5}">
     <text>Business NI 3585m</text>
@@ -3795,6 +3909,10 @@
   <threadedComment ref="CG90" dT="2024-11-23T22:32:08.55" personId="{318CC6C7-4C79-4B81-8AA8-0F5CDEEED97F}" id="{65F7C13C-73F7-432E-96BC-9619FA75CE2E}">
     <text>Business EPS 2.86
 IFRS EPS 2.25</text>
+  </threadedComment>
+  <threadedComment ref="CH90" dT="2025-04-01T01:28:08.46" personId="{318CC6C7-4C79-4B81-8AA8-0F5CDEEED97F}" id="{474CDD52-F71C-4FA1-A7E2-59168AC71305}">
+    <text>Business EPS of EUR1.31
+-11% CER</text>
   </threadedComment>
   <threadedComment ref="DJ90" dT="2024-11-23T22:33:25.07" personId="{318CC6C7-4C79-4B81-8AA8-0F5CDEEED97F}" id="{70D2DB62-68E2-4B0A-A405-84EE5DA5D593}">
     <text>10/21/24/Q324: +LSD CER excluding Opella</text>
@@ -3874,7 +3992,7 @@
       <c r="D4" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="E4" s="71">
+      <c r="E4" s="70">
         <v>33266</v>
       </c>
       <c r="F4" s="16" t="s">
@@ -3897,7 +4015,7 @@
       <c r="C5" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="68" t="s">
         <v>258</v>
       </c>
       <c r="E5" s="6"/>
@@ -3921,7 +4039,7 @@
       <c r="C6" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="69"/>
+      <c r="D6" s="68"/>
       <c r="E6" s="6"/>
       <c r="F6" s="16" t="s">
         <v>239</v>
@@ -3941,7 +4059,7 @@
       <c r="C7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="69">
+      <c r="D7" s="68">
         <v>1</v>
       </c>
       <c r="E7" s="6"/>
@@ -3958,62 +4076,62 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>213</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="34" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>213</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="34" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D13" s="17">
         <v>1</v>
@@ -4022,47 +4140,47 @@
         <v>213</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="34" t="s">
+        <v>472</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>473</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>474</v>
-      </c>
       <c r="D14" s="17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>213</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" s="34" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>158</v>
@@ -4074,48 +4192,48 @@
         <v>213</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H15" s="16" t="s">
         <v>370</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>421</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>422</v>
-      </c>
       <c r="D16" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>154</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G16" s="16" t="s">
         <v>370</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="K16" s="13"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="19" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>257</v>
@@ -4125,13 +4243,13 @@
         <v>154</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
       <c r="J17" s="29" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
@@ -4266,32 +4384,32 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" s="19" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" s="19" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" s="19" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" s="19" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" s="19" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -5000,11 +5118,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M63"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5039,8 +5155,8 @@
       <c r="E2" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
+      <c r="F2" s="35" t="s">
+        <v>70</v>
       </c>
       <c r="G2" s="35" t="s">
         <v>70</v>
@@ -5062,10 +5178,10 @@
       <c r="C3" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="69">
+      <c r="D3" s="68">
         <v>1</v>
       </c>
-      <c r="E3" s="70">
+      <c r="E3" s="69">
         <v>36636</v>
       </c>
       <c r="F3" s="16" t="s">
@@ -5084,7 +5200,7 @@
         <v>1251</v>
       </c>
       <c r="L3" s="33" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -5094,16 +5210,16 @@
       <c r="C4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="71">
+      <c r="E4" s="70">
         <v>35751</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="71" t="s">
         <v>196</v>
       </c>
-      <c r="G4" s="73" t="s">
+      <c r="G4" s="72" t="s">
         <v>186</v>
       </c>
       <c r="H4" s="7" t="s">
@@ -5125,10 +5241,10 @@
       <c r="C5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="69">
+      <c r="D5" s="68">
         <v>1</v>
       </c>
-      <c r="E5" s="71">
+      <c r="E5" s="70">
         <v>34057</v>
       </c>
       <c r="F5" s="16" t="s">
@@ -5147,29 +5263,31 @@
         <v>0</v>
       </c>
       <c r="L5" s="33" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="M5" s="27"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="68"/>
+      <c r="E6" s="75">
+        <v>42822</v>
+      </c>
       <c r="F6" s="16" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>370</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>104</v>
@@ -5178,7 +5296,7 @@
         <v>11483</v>
       </c>
       <c r="L6" s="33" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -5188,10 +5306,10 @@
       <c r="C7" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="D7" s="69">
+      <c r="D7" s="68">
         <v>1</v>
       </c>
-      <c r="E7" s="71">
+      <c r="E7" s="70">
         <v>35199</v>
       </c>
       <c r="F7" s="16" t="s">
@@ -5221,7 +5339,7 @@
       <c r="D8" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="E8" s="71">
+      <c r="E8" s="70">
         <v>35271</v>
       </c>
       <c r="F8" s="16" t="s">
@@ -5241,10 +5359,10 @@
       <c r="C9" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="D9" s="69">
+      <c r="D9" s="68">
         <v>1</v>
       </c>
-      <c r="E9" s="70">
+      <c r="E9" s="69">
         <v>41164</v>
       </c>
       <c r="F9" s="6"/>
@@ -5255,7 +5373,7 @@
         <v>109</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -5265,10 +5383,10 @@
       <c r="C10" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="E10" s="71">
+      <c r="E10" s="70">
         <v>37477</v>
       </c>
       <c r="F10" s="16" t="s">
@@ -5280,7 +5398,9 @@
       <c r="H10" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="J10" s="11"/>
+      <c r="J10" s="19" t="s">
+        <v>617</v>
+      </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -5310,7 +5430,7 @@
       <c r="C12" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="69"/>
+      <c r="D12" s="68"/>
       <c r="E12" s="6"/>
       <c r="F12" s="16" t="s">
         <v>230</v>
@@ -5351,7 +5471,7 @@
       <c r="C14" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D14" s="69" t="s">
+      <c r="D14" s="68" t="s">
         <v>120</v>
       </c>
       <c r="E14" s="6">
@@ -5371,7 +5491,7 @@
       <c r="C15" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D15" s="69">
+      <c r="D15" s="68">
         <v>1</v>
       </c>
       <c r="E15" s="6"/>
@@ -5394,7 +5514,7 @@
       <c r="D16" s="17">
         <v>1</v>
       </c>
-      <c r="E16" s="73">
+      <c r="E16" s="72">
         <v>39995</v>
       </c>
       <c r="F16" s="16" t="s">
@@ -5412,7 +5532,7 @@
       <c r="C17" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="69">
+      <c r="D17" s="68">
         <v>1</v>
       </c>
       <c r="E17" s="6">
@@ -5431,7 +5551,7 @@
       <c r="C18" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="D18" s="69">
+      <c r="D18" s="68">
         <v>1</v>
       </c>
       <c r="E18" s="6">
@@ -5450,10 +5570,12 @@
       <c r="C19" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="D19" s="69">
+      <c r="D19" s="68">
         <v>1</v>
       </c>
-      <c r="E19" s="6"/>
+      <c r="E19" s="69">
+        <v>34477</v>
+      </c>
       <c r="F19" s="16"/>
       <c r="G19" s="6"/>
       <c r="H19" s="7"/>
@@ -5465,10 +5587,12 @@
       <c r="C20" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="D20" s="69">
+      <c r="D20" s="68">
         <v>1</v>
       </c>
-      <c r="E20" s="6"/>
+      <c r="E20" s="69">
+        <v>38835</v>
+      </c>
       <c r="F20" s="16"/>
       <c r="G20" s="6"/>
       <c r="H20" s="7"/>
@@ -5480,10 +5604,12 @@
       <c r="C21" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="D21" s="69" t="s">
+      <c r="D21" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="6"/>
+      <c r="E21" s="69">
+        <v>41124</v>
+      </c>
       <c r="F21" s="6" t="s">
         <v>155</v>
       </c>
@@ -5496,258 +5622,258 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="34" t="s">
-        <v>363</v>
+        <v>614</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="D22" s="17">
-        <v>1</v>
-      </c>
-      <c r="E22" s="16"/>
+        <v>619</v>
+      </c>
+      <c r="D22" s="68"/>
+      <c r="E22" s="69">
+        <v>43502</v>
+      </c>
       <c r="F22" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>371</v>
-      </c>
+        <v>615</v>
+      </c>
+      <c r="G22" s="16"/>
       <c r="H22" s="7"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="34" t="s">
-        <v>599</v>
+        <v>363</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="D23" s="69">
+        <v>331</v>
+      </c>
+      <c r="D23" s="17">
         <v>1</v>
       </c>
-      <c r="E23" s="16" t="s">
-        <v>213</v>
+      <c r="E23" s="76">
+        <v>41870</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>394</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="H23" s="7"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="34" t="s">
-        <v>326</v>
+        <v>596</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>481</v>
-      </c>
-      <c r="D24" s="69">
+        <v>613</v>
+      </c>
+      <c r="D24" s="68">
         <v>1</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="7"/>
+      <c r="E24" s="76">
+        <v>44804</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="34" t="s">
-        <v>584</v>
+        <v>326</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="D25" s="69"/>
-      <c r="E25" s="6"/>
+        <v>480</v>
+      </c>
+      <c r="D25" s="68">
+        <v>1</v>
+      </c>
+      <c r="E25" s="69">
+        <v>37735</v>
+      </c>
       <c r="F25" s="16"/>
-      <c r="G25" s="16" t="s">
-        <v>581</v>
-      </c>
+      <c r="G25" s="6"/>
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="34" t="s">
-        <v>561</v>
+        <v>582</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>387</v>
+        <v>578</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16" t="s">
-        <v>388</v>
-      </c>
+        <v>620</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="16"/>
       <c r="G26" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>369</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="H26" s="7"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="34" t="s">
-        <v>597</v>
+        <v>534</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>369</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="7"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="34" t="s">
-        <v>598</v>
+        <v>560</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="D28" s="17">
-        <v>1</v>
-      </c>
-      <c r="E28" s="16"/>
+        <v>387</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="76">
+        <v>42877</v>
+      </c>
       <c r="F28" s="16" t="s">
-        <v>442</v>
+        <v>388</v>
       </c>
       <c r="G28" s="16" t="s">
         <v>370</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>416</v>
+        <v>369</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="34" t="s">
-        <v>322</v>
+        <v>594</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D29" s="69">
-        <v>1</v>
-      </c>
-      <c r="E29" s="6"/>
+        <v>364</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="76">
+        <v>42209</v>
+      </c>
       <c r="F29" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="7"/>
-      <c r="J29" s="19"/>
+        <v>365</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="34" t="s">
-        <v>366</v>
+        <v>595</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="E30" s="16"/>
+        <v>440</v>
+      </c>
+      <c r="D30" s="17">
+        <v>1</v>
+      </c>
+      <c r="E30" s="76">
+        <v>43892</v>
+      </c>
       <c r="F30" s="16" t="s">
-        <v>367</v>
+        <v>441</v>
       </c>
       <c r="G30" s="16" t="s">
         <v>370</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>135</v>
+        <v>415</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="2"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G31" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="4"/>
+      <c r="B31" s="34" t="s">
+        <v>616</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="17" t="s">
+        <v>618</v>
+      </c>
+      <c r="E31" s="76">
+        <v>45744</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>583</v>
+      </c>
+      <c r="G31" s="16"/>
+      <c r="H31" s="18"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="34" t="s">
-        <v>382</v>
+        <v>322</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="D32" s="17">
+        <v>137</v>
+      </c>
+      <c r="D32" s="68">
         <v>1</v>
       </c>
-      <c r="E32" s="16" t="s">
-        <v>153</v>
-      </c>
+      <c r="E32" s="6"/>
       <c r="F32" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="G32" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="H32" s="18" t="s">
-        <v>386</v>
-      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="7"/>
+      <c r="J32" s="19"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="34" t="s">
-        <v>585</v>
-      </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="16"/>
+        <v>366</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="E33" s="76">
+        <v>37018</v>
+      </c>
       <c r="F33" s="16" t="s">
-        <v>586</v>
-      </c>
-      <c r="G33" s="16"/>
-      <c r="H33" s="18"/>
+        <v>367</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B34" s="34" t="s">
-        <v>383</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>385</v>
-      </c>
-      <c r="D34" s="17">
-        <v>1</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="H34" s="18" t="s">
-        <v>386</v>
-      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="4"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="34" t="s">
-        <v>485</v>
+        <v>382</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>83</v>
+        <v>384</v>
       </c>
       <c r="D35" s="17">
         <v>1</v>
@@ -5756,21 +5882,21 @@
         <v>153</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>486</v>
+        <v>266</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="34" t="s">
-        <v>332</v>
+        <v>383</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>333</v>
+        <v>385</v>
       </c>
       <c r="D36" s="17">
         <v>1</v>
@@ -5778,118 +5904,118 @@
       <c r="E36" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="F36" s="6"/>
+      <c r="F36" s="16" t="s">
+        <v>266</v>
+      </c>
       <c r="G36" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="H36" s="7"/>
+      <c r="H36" s="18" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="34" t="s">
-        <v>375</v>
+        <v>484</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D37" s="17" t="s">
-        <v>395</v>
+      <c r="D37" s="17">
+        <v>1</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>153</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>376</v>
+        <v>245</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="19" t="s">
-        <v>601</v>
+      <c r="B38" s="34" t="s">
+        <v>332</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>602</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="D38" s="17">
+        <v>1</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="F38" s="6"/>
+      <c r="G38" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="H38" s="7"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="34" t="s">
-        <v>424</v>
+        <v>375</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>425</v>
+        <v>83</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>426</v>
+        <v>394</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>427</v>
+        <v>84</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>412</v>
+        <v>377</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="34" t="s">
-        <v>428</v>
+      <c r="B40" s="19" t="s">
+        <v>598</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>429</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="F40" s="16" t="s">
-        <v>430</v>
-      </c>
-      <c r="G40" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="H40" s="18" t="s">
-        <v>412</v>
+        <v>599</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="34" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>243</v>
+        <v>425</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>154</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>109</v>
+        <v>411</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" s="34" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="D42" s="17" t="s">
         <v>307</v>
@@ -5898,249 +6024,249 @@
         <v>154</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>412</v>
+        <v>370</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43" s="34" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>419</v>
+        <v>243</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>154</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>412</v>
+        <v>371</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>412</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" s="34" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="D44" s="69">
-        <v>1</v>
+        <v>434</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>307</v>
       </c>
       <c r="E44" s="16" t="s">
         <v>154</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>370</v>
+        <v>411</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45" s="34" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="D45" s="69">
-        <v>1</v>
+        <v>417</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>418</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>154</v>
       </c>
       <c r="F45" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="G45" s="16" t="s">
         <v>411</v>
       </c>
-      <c r="G45" s="16" t="s">
-        <v>412</v>
-      </c>
       <c r="H45" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B46" s="34" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="D46" s="69">
+        <v>413</v>
+      </c>
+      <c r="D46" s="68">
         <v>1</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>154</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="G46" s="16" t="s">
         <v>370</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47" s="34" t="s">
-        <v>454</v>
+        <v>408</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>455</v>
-      </c>
-      <c r="D47" s="69">
+        <v>409</v>
+      </c>
+      <c r="D47" s="68">
         <v>1</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>213</v>
+        <v>154</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>456</v>
+        <v>410</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>457</v>
+        <v>411</v>
       </c>
       <c r="H47" s="18" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B48" s="34" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>404</v>
-      </c>
-      <c r="D48" s="69">
+        <v>406</v>
+      </c>
+      <c r="D48" s="68">
         <v>1</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>154</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G48" s="16" t="s">
         <v>370</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="34" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="D49" s="69">
+        <v>454</v>
+      </c>
+      <c r="D49" s="68">
         <v>1</v>
       </c>
       <c r="E49" s="16" t="s">
         <v>213</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="H49" s="18"/>
+        <v>456</v>
+      </c>
+      <c r="H49" s="18" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="34" t="s">
-        <v>439</v>
+        <v>402</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>412</v>
+        <v>403</v>
+      </c>
+      <c r="D50" s="68">
+        <v>1</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>213</v>
+        <v>154</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>440</v>
+        <v>404</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>412</v>
+        <v>370</v>
       </c>
       <c r="H50" s="18" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="34" t="s">
-        <v>458</v>
+        <v>436</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="D51" s="17">
+        <v>242</v>
+      </c>
+      <c r="D51" s="68">
         <v>1</v>
       </c>
       <c r="E51" s="16" t="s">
         <v>213</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="G51" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="H51" s="18" t="s">
-        <v>412</v>
-      </c>
+      <c r="H51" s="18"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B52" s="34" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>464</v>
-      </c>
-      <c r="D52" s="17">
-        <v>1</v>
+        <v>242</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>411</v>
       </c>
       <c r="E52" s="16" t="s">
         <v>213</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>465</v>
+        <v>439</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>370</v>
+        <v>411</v>
       </c>
       <c r="H52" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B53" s="34" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="D53" s="17">
         <v>1</v>
@@ -6149,21 +6275,21 @@
         <v>213</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="G53" s="16" t="s">
         <v>370</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B54" s="34" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>327</v>
+        <v>463</v>
       </c>
       <c r="D54" s="17">
         <v>1</v>
@@ -6172,21 +6298,21 @@
         <v>213</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>484</v>
+        <v>464</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>245</v>
+        <v>370</v>
       </c>
       <c r="H54" s="18" t="s">
-        <v>135</v>
+        <v>411</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B55" s="34" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="D55" s="17">
         <v>1</v>
@@ -6195,21 +6321,21 @@
         <v>213</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H55" s="18" t="s">
-        <v>109</v>
+        <v>411</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B56" s="34" t="s">
-        <v>445</v>
+        <v>482</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>242</v>
+        <v>327</v>
       </c>
       <c r="D56" s="17">
         <v>1</v>
@@ -6218,30 +6344,30 @@
         <v>213</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>412</v>
+        <v>245</v>
       </c>
       <c r="H56" s="18" t="s">
-        <v>446</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B57" s="34" t="s">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>243</v>
+        <v>479</v>
+      </c>
+      <c r="D57" s="17">
+        <v>1</v>
       </c>
       <c r="E57" s="16" t="s">
         <v>213</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>453</v>
+        <v>481</v>
       </c>
       <c r="G57" s="16" t="s">
         <v>371</v>
@@ -6252,7 +6378,7 @@
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B58" s="34" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C58" s="16" t="s">
         <v>242</v>
@@ -6264,30 +6390,30 @@
         <v>213</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>370</v>
+        <v>411</v>
       </c>
       <c r="H58" s="18" t="s">
-        <v>416</v>
+        <v>445</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B59" s="34" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C59" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="D59" s="17">
-        <v>1</v>
+      <c r="D59" s="17" t="s">
+        <v>243</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>213</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G59" s="16" t="s">
         <v>371</v>
@@ -6297,37 +6423,94 @@
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B60" s="49" t="s">
+      <c r="B60" s="34" t="s">
+        <v>447</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="D60" s="17">
+        <v>1</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="G60" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="H60" s="18" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B61" s="34" t="s">
+        <v>449</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="D61" s="17">
+        <v>1</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="G61" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H61" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B62" s="49" t="s">
+        <v>442</v>
+      </c>
+      <c r="C62" s="50" t="s">
+        <v>242</v>
+      </c>
+      <c r="D62" s="51" t="s">
+        <v>425</v>
+      </c>
+      <c r="E62" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="F62" s="50" t="s">
         <v>443</v>
       </c>
-      <c r="C60" s="50" t="s">
-        <v>242</v>
-      </c>
-      <c r="D60" s="51" t="s">
-        <v>426</v>
-      </c>
-      <c r="E60" s="50" t="s">
-        <v>213</v>
-      </c>
-      <c r="F60" s="50" t="s">
-        <v>444</v>
-      </c>
-      <c r="G60" s="50" t="s">
+      <c r="G62" s="50" t="s">
         <v>370</v>
       </c>
-      <c r="H60" s="52" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="F62" s="19" t="s">
+      <c r="H62" s="52" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F64" s="19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E63" s="12"/>
-      <c r="F63" s="19" t="s">
+    <row r="65" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E65" s="12"/>
+      <c r="F65" s="19" t="s">
         <v>372</v>
+      </c>
+    </row>
+    <row r="66" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E66" s="12"/>
+      <c r="F66" s="19" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="67" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F67" s="19" t="s">
+        <v>611</v>
       </c>
     </row>
   </sheetData>
@@ -6356,10 +6539,10 @@
   <dimension ref="A1:FN124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BW45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="DF62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CH68" sqref="CH68"/>
+      <selection pane="bottomRight" activeCell="DJ97" sqref="DJ97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6374,9 +6557,9 @@
     <col min="93" max="93" width="9.140625" style="20"/>
     <col min="94" max="106" width="7.28515625" style="20" customWidth="1"/>
     <col min="107" max="107" width="6.85546875" style="20" customWidth="1"/>
-    <col min="108" max="111" width="6.85546875" style="1" customWidth="1"/>
-    <col min="112" max="116" width="7" style="1" customWidth="1"/>
-    <col min="117" max="16384" width="9.140625" style="1"/>
+    <col min="108" max="109" width="6.85546875" style="1" customWidth="1"/>
+    <col min="110" max="120" width="8.140625" style="1" customWidth="1"/>
+    <col min="121" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:125" x14ac:dyDescent="0.2">
@@ -6510,148 +6693,148 @@
         <v>348</v>
       </c>
       <c r="AQ2" s="33" t="s">
+        <v>489</v>
+      </c>
+      <c r="AR2" s="55" t="s">
         <v>490</v>
       </c>
-      <c r="AR2" s="55" t="s">
+      <c r="AS2" s="33" t="s">
         <v>491</v>
       </c>
-      <c r="AS2" s="33" t="s">
+      <c r="AT2" s="33" t="s">
         <v>492</v>
       </c>
-      <c r="AT2" s="33" t="s">
-        <v>493</v>
-      </c>
       <c r="AU2" s="33" t="s">
+        <v>495</v>
+      </c>
+      <c r="AV2" s="33" t="s">
         <v>496</v>
       </c>
-      <c r="AV2" s="33" t="s">
+      <c r="AW2" s="33" t="s">
         <v>497</v>
       </c>
-      <c r="AW2" s="33" t="s">
+      <c r="AX2" s="33" t="s">
         <v>498</v>
       </c>
-      <c r="AX2" s="33" t="s">
+      <c r="AY2" s="33" t="s">
         <v>499</v>
       </c>
-      <c r="AY2" s="33" t="s">
+      <c r="AZ2" s="33" t="s">
         <v>500</v>
       </c>
-      <c r="AZ2" s="33" t="s">
+      <c r="BA2" s="33" t="s">
         <v>501</v>
       </c>
-      <c r="BA2" s="33" t="s">
+      <c r="BB2" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="BB2" s="33" t="s">
+      <c r="BC2" s="33" t="s">
         <v>503</v>
       </c>
-      <c r="BC2" s="33" t="s">
+      <c r="BD2" s="33" t="s">
         <v>504</v>
       </c>
-      <c r="BD2" s="33" t="s">
+      <c r="BE2" s="33" t="s">
         <v>505</v>
       </c>
-      <c r="BE2" s="33" t="s">
+      <c r="BF2" s="33" t="s">
         <v>506</v>
       </c>
-      <c r="BF2" s="33" t="s">
+      <c r="BG2" s="33" t="s">
         <v>507</v>
       </c>
-      <c r="BG2" s="33" t="s">
+      <c r="BH2" s="33" t="s">
         <v>508</v>
       </c>
-      <c r="BH2" s="33" t="s">
+      <c r="BI2" s="33" t="s">
         <v>509</v>
       </c>
-      <c r="BI2" s="33" t="s">
+      <c r="BJ2" s="33" t="s">
         <v>510</v>
       </c>
-      <c r="BJ2" s="33" t="s">
+      <c r="BK2" s="59" t="s">
         <v>511</v>
       </c>
-      <c r="BK2" s="59" t="s">
+      <c r="BL2" s="59" t="s">
         <v>512</v>
       </c>
-      <c r="BL2" s="59" t="s">
+      <c r="BM2" s="59" t="s">
         <v>513</v>
       </c>
-      <c r="BM2" s="59" t="s">
+      <c r="BN2" s="59" t="s">
         <v>514</v>
       </c>
-      <c r="BN2" s="59" t="s">
+      <c r="BO2" s="59" t="s">
         <v>515</v>
       </c>
-      <c r="BO2" s="59" t="s">
+      <c r="BP2" s="59" t="s">
         <v>516</v>
       </c>
-      <c r="BP2" s="59" t="s">
+      <c r="BQ2" s="59" t="s">
         <v>517</v>
       </c>
-      <c r="BQ2" s="59" t="s">
+      <c r="BR2" s="59" t="s">
         <v>518</v>
       </c>
-      <c r="BR2" s="59" t="s">
+      <c r="BS2" s="59" t="s">
         <v>519</v>
       </c>
-      <c r="BS2" s="59" t="s">
+      <c r="BT2" s="59" t="s">
         <v>520</v>
       </c>
-      <c r="BT2" s="59" t="s">
+      <c r="BU2" s="59" t="s">
         <v>521</v>
       </c>
-      <c r="BU2" s="59" t="s">
+      <c r="BV2" s="59" t="s">
         <v>522</v>
       </c>
-      <c r="BV2" s="59" t="s">
+      <c r="BW2" s="59" t="s">
         <v>523</v>
       </c>
-      <c r="BW2" s="59" t="s">
+      <c r="BX2" s="59" t="s">
         <v>524</v>
       </c>
-      <c r="BX2" s="59" t="s">
+      <c r="BY2" s="59" t="s">
         <v>525</v>
       </c>
-      <c r="BY2" s="59" t="s">
+      <c r="BZ2" s="59" t="s">
         <v>526</v>
       </c>
-      <c r="BZ2" s="59" t="s">
-        <v>527</v>
-      </c>
       <c r="CA2" s="59" t="s">
+        <v>551</v>
+      </c>
+      <c r="CB2" s="59" t="s">
         <v>552</v>
       </c>
-      <c r="CB2" s="59" t="s">
+      <c r="CC2" s="59" t="s">
         <v>553</v>
       </c>
-      <c r="CC2" s="59" t="s">
+      <c r="CD2" s="59" t="s">
         <v>554</v>
       </c>
-      <c r="CD2" s="59" t="s">
-        <v>555</v>
-      </c>
       <c r="CE2" s="59" t="s">
+        <v>568</v>
+      </c>
+      <c r="CF2" s="59" t="s">
         <v>569</v>
       </c>
-      <c r="CF2" s="59" t="s">
+      <c r="CG2" s="59" t="s">
         <v>570</v>
       </c>
-      <c r="CG2" s="59" t="s">
+      <c r="CH2" s="59" t="s">
         <v>571</v>
       </c>
-      <c r="CH2" s="59" t="s">
+      <c r="CI2" s="59" t="s">
         <v>572</v>
       </c>
-      <c r="CI2" s="59" t="s">
+      <c r="CJ2" s="59" t="s">
         <v>573</v>
       </c>
-      <c r="CJ2" s="59" t="s">
+      <c r="CK2" s="59" t="s">
         <v>574</v>
       </c>
-      <c r="CK2" s="59" t="s">
+      <c r="CL2" s="59" t="s">
         <v>575</v>
-      </c>
-      <c r="CL2" s="59" t="s">
-        <v>576</v>
       </c>
       <c r="CM2" s="59"/>
       <c r="CN2" s="33"/>
@@ -6780,7 +6963,7 @@
     </row>
     <row r="3" spans="1:125" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="48" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -6966,6 +7149,26 @@
         <f>SUM(CI3:CL3)</f>
         <v>16993.600000000002</v>
       </c>
+      <c r="DL3" s="27">
+        <f>+DK3*1.1</f>
+        <v>18692.960000000003</v>
+      </c>
+      <c r="DM3" s="27">
+        <f>+DL3*1.07</f>
+        <v>20001.467200000003</v>
+      </c>
+      <c r="DN3" s="27">
+        <f>+DM3*1.05</f>
+        <v>21001.540560000005</v>
+      </c>
+      <c r="DO3" s="27">
+        <f>+DN3*1.05</f>
+        <v>22051.617588000005</v>
+      </c>
+      <c r="DP3" s="27">
+        <f>+DO3*1.05</f>
+        <v>23154.198467400005</v>
+      </c>
     </row>
     <row r="4" spans="1:125" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="48" t="s">
@@ -7158,7 +7361,7 @@
         <v>439</v>
       </c>
       <c r="CI4" s="54">
-        <f t="shared" ref="CH4:CL4" si="21">+CE4*0.9</f>
+        <f t="shared" ref="CI4:CL4" si="21">+CE4*0.9</f>
         <v>324</v>
       </c>
       <c r="CJ4" s="54">
@@ -7227,6 +7430,10 @@
         <v>3714.6375081730926</v>
       </c>
       <c r="DE4" s="48"/>
+      <c r="DJ4" s="27">
+        <f>SUM(CE4:CH4)</f>
+        <v>1628</v>
+      </c>
     </row>
     <row r="5" spans="1:125" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="48" t="s">
@@ -7365,7 +7572,7 @@
         <v>78</v>
       </c>
       <c r="CI5" s="54">
-        <f t="shared" ref="CH5:CL5" si="23">+CH5-5</f>
+        <f t="shared" ref="CI5:CL5" si="23">+CH5-5</f>
         <v>73</v>
       </c>
       <c r="CJ5" s="54">
@@ -7397,6 +7604,10 @@
       <c r="DA5" s="23"/>
       <c r="DB5" s="23"/>
       <c r="DC5" s="23"/>
+      <c r="DJ5" s="27">
+        <f>SUM(CE5:CH5)</f>
+        <v>379</v>
+      </c>
     </row>
     <row r="6" spans="1:125" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="48" t="s">
@@ -7588,7 +7799,7 @@
         <v>231</v>
       </c>
       <c r="CI6" s="54">
-        <f t="shared" ref="CH6:CL7" si="24">+CE6</f>
+        <f t="shared" ref="CI6:CL7" si="24">+CE6</f>
         <v>262</v>
       </c>
       <c r="CJ6" s="54">
@@ -7657,10 +7868,14 @@
         <v>117.82506240000001</v>
       </c>
       <c r="DE6" s="48"/>
+      <c r="DJ6" s="27">
+        <f>SUM(CE6:CH6)</f>
+        <v>982</v>
+      </c>
     </row>
     <row r="7" spans="1:125" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="48" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
@@ -7832,10 +8047,14 @@
       <c r="DB7" s="23"/>
       <c r="DC7" s="23"/>
       <c r="DE7" s="48"/>
+      <c r="DJ7" s="27">
+        <f>SUM(CE7:CH7)</f>
+        <v>4285</v>
+      </c>
     </row>
     <row r="8" spans="1:125" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="48" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
@@ -7897,23 +8116,23 @@
       <c r="BH8" s="23"/>
       <c r="BI8" s="23"/>
       <c r="BJ8" s="23"/>
-      <c r="BK8" s="75"/>
-      <c r="BL8" s="75"/>
-      <c r="BM8" s="75"/>
-      <c r="BN8" s="75"/>
-      <c r="BO8" s="75"/>
-      <c r="BP8" s="75"/>
-      <c r="BQ8" s="75"/>
-      <c r="BR8" s="75"/>
-      <c r="BS8" s="75"/>
-      <c r="BT8" s="75"/>
-      <c r="BU8" s="75"/>
-      <c r="BV8" s="75"/>
-      <c r="BW8" s="75"/>
-      <c r="BX8" s="75"/>
-      <c r="BY8" s="75"/>
-      <c r="BZ8" s="75"/>
-      <c r="CA8" s="75"/>
+      <c r="BK8" s="74"/>
+      <c r="BL8" s="74"/>
+      <c r="BM8" s="74"/>
+      <c r="BN8" s="74"/>
+      <c r="BO8" s="74"/>
+      <c r="BP8" s="74"/>
+      <c r="BQ8" s="74"/>
+      <c r="BR8" s="74"/>
+      <c r="BS8" s="74"/>
+      <c r="BT8" s="74"/>
+      <c r="BU8" s="74"/>
+      <c r="BV8" s="74"/>
+      <c r="BW8" s="74"/>
+      <c r="BX8" s="74"/>
+      <c r="BY8" s="74"/>
+      <c r="BZ8" s="74"/>
+      <c r="CA8" s="74"/>
       <c r="CB8" s="54">
         <v>18</v>
       </c>
@@ -7936,7 +8155,7 @@
         <v>230</v>
       </c>
       <c r="CI8" s="54">
-        <f t="shared" ref="CH8:CL8" si="27">+CH8+10</f>
+        <f t="shared" ref="CI8:CL8" si="27">+CH8+10</f>
         <v>240</v>
       </c>
       <c r="CJ8" s="54">
@@ -7969,10 +8188,14 @@
       <c r="DB8" s="23"/>
       <c r="DC8" s="23"/>
       <c r="DE8" s="48"/>
+      <c r="DJ8" s="27">
+        <f>SUM(CE8:CH8)</f>
+        <v>682</v>
+      </c>
     </row>
     <row r="9" spans="1:125" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="48" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
@@ -8101,7 +8324,7 @@
         <v>290</v>
       </c>
       <c r="CI9" s="54">
-        <f t="shared" ref="CH9:CL9" si="28">+CE9*0.9</f>
+        <f t="shared" ref="CI9:CL9" si="28">+CE9*0.9</f>
         <v>288.90000000000003</v>
       </c>
       <c r="CJ9" s="54">
@@ -8134,10 +8357,14 @@
       <c r="DB9" s="23"/>
       <c r="DC9" s="23"/>
       <c r="DE9" s="48"/>
+      <c r="DJ9" s="27">
+        <f>SUM(CE9:CH9)</f>
+        <v>1227</v>
+      </c>
     </row>
     <row r="10" spans="1:125" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="48" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
@@ -8199,22 +8426,22 @@
       <c r="BH10" s="23"/>
       <c r="BI10" s="23"/>
       <c r="BJ10" s="23"/>
-      <c r="BK10" s="75"/>
-      <c r="BL10" s="75"/>
-      <c r="BM10" s="75"/>
-      <c r="BN10" s="75"/>
-      <c r="BO10" s="75"/>
-      <c r="BP10" s="75"/>
-      <c r="BQ10" s="75"/>
-      <c r="BR10" s="75"/>
-      <c r="BS10" s="75"/>
-      <c r="BT10" s="75"/>
-      <c r="BU10" s="75"/>
-      <c r="BV10" s="75"/>
-      <c r="BW10" s="75"/>
-      <c r="BX10" s="75"/>
-      <c r="BY10" s="75"/>
-      <c r="BZ10" s="75"/>
+      <c r="BK10" s="74"/>
+      <c r="BL10" s="74"/>
+      <c r="BM10" s="74"/>
+      <c r="BN10" s="74"/>
+      <c r="BO10" s="74"/>
+      <c r="BP10" s="74"/>
+      <c r="BQ10" s="74"/>
+      <c r="BR10" s="74"/>
+      <c r="BS10" s="74"/>
+      <c r="BT10" s="74"/>
+      <c r="BU10" s="74"/>
+      <c r="BV10" s="74"/>
+      <c r="BW10" s="74"/>
+      <c r="BX10" s="74"/>
+      <c r="BY10" s="74"/>
+      <c r="BZ10" s="74"/>
       <c r="CA10" s="54">
         <v>16</v>
       </c>
@@ -8240,7 +8467,7 @@
         <v>22</v>
       </c>
       <c r="CI10" s="54">
-        <f t="shared" ref="CH10:CL10" si="29">+CH10+5</f>
+        <f t="shared" ref="CI10:CL10" si="29">+CH10+5</f>
         <v>27</v>
       </c>
       <c r="CJ10" s="54">
@@ -8273,10 +8500,14 @@
       <c r="DB10" s="23"/>
       <c r="DC10" s="23"/>
       <c r="DE10" s="48"/>
+      <c r="DJ10" s="27">
+        <f>SUM(CE10:CH10)</f>
+        <v>105</v>
+      </c>
     </row>
     <row r="11" spans="1:125" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="48" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
@@ -8338,22 +8569,22 @@
       <c r="BH11" s="23"/>
       <c r="BI11" s="23"/>
       <c r="BJ11" s="23"/>
-      <c r="BK11" s="75"/>
-      <c r="BL11" s="75"/>
-      <c r="BM11" s="75"/>
-      <c r="BN11" s="75"/>
-      <c r="BO11" s="75"/>
-      <c r="BP11" s="75"/>
-      <c r="BQ11" s="75"/>
-      <c r="BR11" s="75"/>
-      <c r="BS11" s="75"/>
-      <c r="BT11" s="75"/>
-      <c r="BU11" s="75"/>
-      <c r="BV11" s="75"/>
-      <c r="BW11" s="75"/>
-      <c r="BX11" s="75"/>
-      <c r="BY11" s="75"/>
-      <c r="BZ11" s="75"/>
+      <c r="BK11" s="74"/>
+      <c r="BL11" s="74"/>
+      <c r="BM11" s="74"/>
+      <c r="BN11" s="74"/>
+      <c r="BO11" s="74"/>
+      <c r="BP11" s="74"/>
+      <c r="BQ11" s="74"/>
+      <c r="BR11" s="74"/>
+      <c r="BS11" s="74"/>
+      <c r="BT11" s="74"/>
+      <c r="BU11" s="74"/>
+      <c r="BV11" s="74"/>
+      <c r="BW11" s="74"/>
+      <c r="BX11" s="74"/>
+      <c r="BY11" s="74"/>
+      <c r="BZ11" s="74"/>
       <c r="CA11" s="54">
         <v>0</v>
       </c>
@@ -8379,7 +8610,7 @@
         <v>18</v>
       </c>
       <c r="CI11" s="54">
-        <f t="shared" ref="CH11:CL11" si="30">+CH11+5</f>
+        <f t="shared" ref="CI11:CL11" si="30">+CH11+5</f>
         <v>23</v>
       </c>
       <c r="CJ11" s="54">
@@ -8412,6 +8643,10 @@
       <c r="DB11" s="23"/>
       <c r="DC11" s="23"/>
       <c r="DE11" s="48"/>
+      <c r="DJ11" s="27">
+        <f>SUM(CE11:CH11)</f>
+        <v>54</v>
+      </c>
     </row>
     <row r="12" spans="1:125" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="27" t="s">
@@ -8602,7 +8837,7 @@
         <v>211</v>
       </c>
       <c r="CI12" s="54">
-        <f t="shared" ref="CH12:CL12" si="32">+CD12</f>
+        <f t="shared" ref="CI12:CL12" si="32">+CD12</f>
         <v>254</v>
       </c>
       <c r="CJ12" s="54">
@@ -8669,6 +8904,10 @@
       <c r="DC12" s="23">
         <f>+DB12*0.1</f>
         <v>46.136616960000026</v>
+      </c>
+      <c r="DJ12" s="27">
+        <f>SUM(CE12:CH12)</f>
+        <v>914</v>
       </c>
     </row>
     <row r="13" spans="1:125" s="27" customFormat="1" x14ac:dyDescent="0.2">
@@ -8810,7 +9049,7 @@
         <v>132</v>
       </c>
       <c r="CI13" s="54">
-        <f t="shared" ref="CH13:CL13" si="36">+CH13-5</f>
+        <f t="shared" ref="CI13:CL13" si="36">+CH13-5</f>
         <v>127</v>
       </c>
       <c r="CJ13" s="54">
@@ -8842,6 +9081,10 @@
       <c r="DA13" s="23"/>
       <c r="DB13" s="23"/>
       <c r="DC13" s="23"/>
+      <c r="DJ13" s="27">
+        <f>SUM(CE13:CH13)</f>
+        <v>671</v>
+      </c>
     </row>
     <row r="14" spans="1:125" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="48" t="s">
@@ -8980,7 +9223,7 @@
         <v>269</v>
       </c>
       <c r="CI14" s="54">
-        <f t="shared" ref="CH14:CL14" si="37">+CE14*1.01</f>
+        <f t="shared" ref="CI14:CL14" si="37">+CE14*1.01</f>
         <v>255.53</v>
       </c>
       <c r="CJ14" s="54">
@@ -9012,6 +9255,10 @@
       <c r="DA14" s="23"/>
       <c r="DB14" s="23"/>
       <c r="DC14" s="23"/>
+      <c r="DJ14" s="27">
+        <f>SUM(CE14:CH14)</f>
+        <v>1048</v>
+      </c>
     </row>
     <row r="15" spans="1:125" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="27" t="s">
@@ -9202,7 +9449,7 @@
         <v>105</v>
       </c>
       <c r="CI15" s="54">
-        <f t="shared" ref="CH15:CL15" si="39">+CE15*0.9</f>
+        <f t="shared" ref="CI15:CL15" si="39">+CE15*0.9</f>
         <v>94.5</v>
       </c>
       <c r="CJ15" s="54">
@@ -9269,6 +9516,10 @@
       <c r="DC15" s="23">
         <f t="shared" si="41"/>
         <v>173.93254400000006</v>
+      </c>
+      <c r="DJ15" s="27">
+        <f>SUM(CE15:CH15)</f>
+        <v>416</v>
       </c>
     </row>
     <row r="16" spans="1:125" s="27" customFormat="1" x14ac:dyDescent="0.2">
@@ -9410,7 +9661,7 @@
         <v>171</v>
       </c>
       <c r="CI16" s="54">
-        <f t="shared" ref="CH16:CL16" si="42">+CE16</f>
+        <f t="shared" ref="CI16:CL16" si="42">+CE16</f>
         <v>214</v>
       </c>
       <c r="CJ16" s="54">
@@ -9442,10 +9693,14 @@
       <c r="DA16" s="23"/>
       <c r="DB16" s="23"/>
       <c r="DC16" s="23"/>
-    </row>
-    <row r="17" spans="2:109" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="DJ16" s="27">
+        <f>SUM(CE16:CH16)</f>
+        <v>742</v>
+      </c>
+    </row>
+    <row r="17" spans="2:114" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="48" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
@@ -9606,10 +9861,14 @@
       <c r="DA17" s="23"/>
       <c r="DB17" s="23"/>
       <c r="DC17" s="23"/>
-    </row>
-    <row r="18" spans="2:109" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="DJ17" s="27">
+        <f>SUM(CE17:CH17)</f>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="18" spans="2:114" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="48" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
@@ -9738,7 +9997,7 @@
         <v>169</v>
       </c>
       <c r="CI18" s="54">
-        <f t="shared" ref="CH18:CL18" si="44">+CH18</f>
+        <f t="shared" ref="CI18:CL18" si="44">+CH18</f>
         <v>169</v>
       </c>
       <c r="CJ18" s="54">
@@ -9770,8 +10029,12 @@
       <c r="DA18" s="23"/>
       <c r="DB18" s="23"/>
       <c r="DC18" s="23"/>
-    </row>
-    <row r="19" spans="2:109" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="DJ18" s="27">
+        <f>SUM(CE18:CH18)</f>
+        <v>588</v>
+      </c>
+    </row>
+    <row r="19" spans="2:114" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="48" t="s">
         <v>298</v>
       </c>
@@ -9924,7 +10187,7 @@
         <v>77</v>
       </c>
       <c r="CI19" s="54">
-        <f t="shared" ref="CH19:CL19" si="45">+CH19</f>
+        <f t="shared" ref="CI19:CL19" si="45">+CH19</f>
         <v>77</v>
       </c>
       <c r="CJ19" s="54">
@@ -9975,8 +10238,12 @@
         <f>+DB19*0.1</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="2:109" x14ac:dyDescent="0.2">
+      <c r="DJ19" s="27">
+        <f>SUM(CE19:CH19)</f>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="20" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B20" s="19" t="s">
         <v>356</v>
       </c>
@@ -10098,7 +10365,7 @@
         <v>125</v>
       </c>
       <c r="CI20" s="54">
-        <f t="shared" ref="CH20:CL20" si="46">+CH20</f>
+        <f t="shared" ref="CI20:CL20" si="46">+CH20</f>
         <v>125</v>
       </c>
       <c r="CJ20" s="54">
@@ -10129,10 +10396,14 @@
       <c r="DA20" s="23"/>
       <c r="DB20" s="23"/>
       <c r="DC20" s="23"/>
-    </row>
-    <row r="21" spans="2:109" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="DJ20" s="27">
+        <f>SUM(CE20:CH20)</f>
+        <v>492</v>
+      </c>
+    </row>
+    <row r="21" spans="2:114" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="48" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
@@ -10261,7 +10532,7 @@
         <v>126</v>
       </c>
       <c r="CI21" s="54">
-        <f t="shared" ref="CH21:CL21" si="47">+CH21</f>
+        <f t="shared" ref="CI21:CL21" si="47">+CH21</f>
         <v>126</v>
       </c>
       <c r="CJ21" s="54">
@@ -10293,8 +10564,12 @@
       <c r="DA21" s="23"/>
       <c r="DB21" s="23"/>
       <c r="DC21" s="23"/>
-    </row>
-    <row r="22" spans="2:109" x14ac:dyDescent="0.2">
+      <c r="DJ21" s="27">
+        <f>SUM(CE21:CH21)</f>
+        <v>424</v>
+      </c>
+    </row>
+    <row r="22" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B22" s="19" t="s">
         <v>302</v>
       </c>
@@ -10438,7 +10713,7 @@
         <v>77</v>
       </c>
       <c r="CI22" s="54">
-        <f t="shared" ref="CH22:CL22" si="49">+CH22</f>
+        <f t="shared" ref="CI22:CL22" si="49">+CH22</f>
         <v>77</v>
       </c>
       <c r="CJ22" s="54">
@@ -10494,8 +10769,12 @@
         <v>121.27500000000001</v>
       </c>
       <c r="DE22" s="19"/>
-    </row>
-    <row r="23" spans="2:109" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="DJ22" s="27">
+        <f>SUM(CE22:CH22)</f>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="23" spans="2:114" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="48" t="s">
         <v>349</v>
       </c>
@@ -10632,7 +10911,7 @@
         <v>69</v>
       </c>
       <c r="CI23" s="54">
-        <f t="shared" ref="CH23:CL23" si="50">+CH23</f>
+        <f t="shared" ref="CI23:CL23" si="50">+CH23</f>
         <v>69</v>
       </c>
       <c r="CJ23" s="54">
@@ -10664,10 +10943,14 @@
       <c r="DA23" s="23"/>
       <c r="DB23" s="23"/>
       <c r="DC23" s="23"/>
-    </row>
-    <row r="24" spans="2:109" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="DJ23" s="27">
+        <f>SUM(CE23:CH23)</f>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="24" spans="2:114" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="48" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
@@ -10796,7 +11079,7 @@
         <v>110</v>
       </c>
       <c r="CI24" s="54">
-        <f t="shared" ref="CH24:CL24" si="51">+CH24</f>
+        <f t="shared" ref="CI24:CL24" si="51">+CH24</f>
         <v>110</v>
       </c>
       <c r="CJ24" s="54">
@@ -10828,10 +11111,14 @@
       <c r="DA24" s="23"/>
       <c r="DB24" s="23"/>
       <c r="DC24" s="23"/>
-    </row>
-    <row r="25" spans="2:109" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="DJ24" s="27">
+        <f>SUM(CE24:CH24)</f>
+        <v>483</v>
+      </c>
+    </row>
+    <row r="25" spans="2:114" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="48" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
@@ -10960,7 +11247,7 @@
         <v>87</v>
       </c>
       <c r="CI25" s="54">
-        <f t="shared" ref="CH25:CL25" si="52">+CH25</f>
+        <f t="shared" ref="CI25:CL25" si="52">+CH25</f>
         <v>87</v>
       </c>
       <c r="CJ25" s="54">
@@ -10992,10 +11279,14 @@
       <c r="DA25" s="23"/>
       <c r="DB25" s="23"/>
       <c r="DC25" s="23"/>
-    </row>
-    <row r="26" spans="2:109" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="DJ25" s="27">
+        <f>SUM(CE25:CH25)</f>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="26" spans="2:114" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="48" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
@@ -11057,7 +11348,7 @@
       <c r="BH26" s="23"/>
       <c r="BI26" s="23"/>
       <c r="BJ26" s="23"/>
-      <c r="BK26" s="75"/>
+      <c r="BK26" s="74"/>
       <c r="BL26" s="54"/>
       <c r="BM26" s="54"/>
       <c r="BN26" s="54"/>
@@ -11122,7 +11413,7 @@
         <v>130</v>
       </c>
       <c r="CI26" s="54">
-        <f t="shared" ref="CH26:CL26" si="53">+CH26</f>
+        <f t="shared" ref="CI26:CL26" si="53">+CH26</f>
         <v>130</v>
       </c>
       <c r="CJ26" s="54">
@@ -11154,8 +11445,12 @@
       <c r="DA26" s="23"/>
       <c r="DB26" s="23"/>
       <c r="DC26" s="23"/>
-    </row>
-    <row r="27" spans="2:109" x14ac:dyDescent="0.2">
+      <c r="DJ26" s="27">
+        <f>SUM(CE26:CH26)</f>
+        <v>471</v>
+      </c>
+    </row>
+    <row r="27" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B27" s="19" t="s">
         <v>351</v>
       </c>
@@ -11277,7 +11572,7 @@
         <v>12</v>
       </c>
       <c r="CI27" s="54">
-        <f t="shared" ref="CH27:CL27" si="54">+CH27</f>
+        <f t="shared" ref="CI27:CL27" si="54">+CH27</f>
         <v>12</v>
       </c>
       <c r="CJ27" s="54">
@@ -11308,10 +11603,14 @@
       <c r="DA27" s="23"/>
       <c r="DB27" s="23"/>
       <c r="DC27" s="23"/>
-    </row>
-    <row r="28" spans="2:109" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="DJ27" s="27">
+        <f>SUM(CE27:CH27)</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="2:114" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="48" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
@@ -11438,7 +11737,7 @@
         <v>58</v>
       </c>
       <c r="CI28" s="54">
-        <f t="shared" ref="CH28:CL28" si="55">+CH28</f>
+        <f t="shared" ref="CI28:CL28" si="55">+CH28</f>
         <v>58</v>
       </c>
       <c r="CJ28" s="54">
@@ -11470,10 +11769,14 @@
       <c r="DA28" s="23"/>
       <c r="DB28" s="23"/>
       <c r="DC28" s="23"/>
-    </row>
-    <row r="29" spans="2:109" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="DJ28" s="27">
+        <f>SUM(CE28:CH28)</f>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="2:114" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="48" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
@@ -11602,7 +11905,7 @@
         <v>73</v>
       </c>
       <c r="CI29" s="54">
-        <f t="shared" ref="CH29:CL29" si="56">+CH29</f>
+        <f t="shared" ref="CI29:CL29" si="56">+CH29</f>
         <v>73</v>
       </c>
       <c r="CJ29" s="54">
@@ -11634,10 +11937,14 @@
       <c r="DA29" s="23"/>
       <c r="DB29" s="23"/>
       <c r="DC29" s="23"/>
-    </row>
-    <row r="30" spans="2:109" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="DJ29" s="27">
+        <f>SUM(CE29:CH29)</f>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="30" spans="2:114" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="48" t="s">
-        <v>578</v>
+        <v>612</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
@@ -11699,16 +12006,16 @@
       <c r="BH30" s="23"/>
       <c r="BI30" s="23"/>
       <c r="BJ30" s="23"/>
-      <c r="BK30" s="75"/>
-      <c r="BL30" s="75"/>
-      <c r="BM30" s="75"/>
-      <c r="BN30" s="75"/>
-      <c r="BO30" s="75"/>
-      <c r="BP30" s="75"/>
-      <c r="BQ30" s="75"/>
-      <c r="BR30" s="75"/>
-      <c r="BS30" s="75"/>
-      <c r="BT30" s="75"/>
+      <c r="BK30" s="74"/>
+      <c r="BL30" s="74"/>
+      <c r="BM30" s="74"/>
+      <c r="BN30" s="74"/>
+      <c r="BO30" s="74"/>
+      <c r="BP30" s="74"/>
+      <c r="BQ30" s="74"/>
+      <c r="BR30" s="74"/>
+      <c r="BS30" s="74"/>
+      <c r="BT30" s="74"/>
       <c r="BU30" s="54"/>
       <c r="BV30" s="54"/>
       <c r="BW30" s="54"/>
@@ -11740,7 +12047,7 @@
         <v>38</v>
       </c>
       <c r="CI30" s="54">
-        <f t="shared" ref="CH30:CL30" si="57">+CH30</f>
+        <f t="shared" ref="CI30:CL30" si="57">+CH30</f>
         <v>38</v>
       </c>
       <c r="CJ30" s="54">
@@ -11772,10 +12079,14 @@
       <c r="DA30" s="23"/>
       <c r="DB30" s="23"/>
       <c r="DC30" s="23"/>
-    </row>
-    <row r="31" spans="2:109" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="DJ30" s="27">
+        <f>SUM(CE30:CH30)</f>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="2:114" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="48" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
@@ -11902,7 +12213,7 @@
         <v>51</v>
       </c>
       <c r="CI31" s="54">
-        <f t="shared" ref="CH31:CL31" si="58">+CH31</f>
+        <f t="shared" ref="CI31:CL31" si="58">+CH31</f>
         <v>51</v>
       </c>
       <c r="CJ31" s="54">
@@ -11934,10 +12245,14 @@
       <c r="DA31" s="23"/>
       <c r="DB31" s="23"/>
       <c r="DC31" s="23"/>
-    </row>
-    <row r="32" spans="2:109" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="DJ31" s="27">
+        <f>SUM(CE31:CH31)</f>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="2:114" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="48" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C32" s="23"/>
       <c r="D32" s="23"/>
@@ -11999,16 +12314,16 @@
       <c r="BH32" s="23"/>
       <c r="BI32" s="23"/>
       <c r="BJ32" s="23"/>
-      <c r="BK32" s="75"/>
-      <c r="BL32" s="75"/>
-      <c r="BM32" s="75"/>
-      <c r="BN32" s="75"/>
-      <c r="BO32" s="75"/>
-      <c r="BP32" s="75"/>
-      <c r="BQ32" s="75"/>
-      <c r="BR32" s="75"/>
-      <c r="BS32" s="75"/>
-      <c r="BT32" s="75"/>
+      <c r="BK32" s="74"/>
+      <c r="BL32" s="74"/>
+      <c r="BM32" s="74"/>
+      <c r="BN32" s="74"/>
+      <c r="BO32" s="74"/>
+      <c r="BP32" s="74"/>
+      <c r="BQ32" s="74"/>
+      <c r="BR32" s="74"/>
+      <c r="BS32" s="74"/>
+      <c r="BT32" s="74"/>
       <c r="BU32" s="54">
         <v>0</v>
       </c>
@@ -12052,7 +12367,7 @@
         <v>132</v>
       </c>
       <c r="CI32" s="54">
-        <f t="shared" ref="CH32:CL32" si="59">+CH32</f>
+        <f t="shared" ref="CI32:CL32" si="59">+CH32</f>
         <v>132</v>
       </c>
       <c r="CJ32" s="54">
@@ -12084,10 +12399,14 @@
       <c r="DA32" s="23"/>
       <c r="DB32" s="23"/>
       <c r="DC32" s="23"/>
-    </row>
-    <row r="33" spans="2:107" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="DJ32" s="27">
+        <f>SUM(CE32:CH32)</f>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="33" spans="2:114" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="48" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C33" s="23"/>
       <c r="D33" s="23"/>
@@ -12217,9 +12536,9 @@
       <c r="DB33" s="23"/>
       <c r="DC33" s="23"/>
     </row>
-    <row r="34" spans="2:107" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:114" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="48" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C34" s="23"/>
       <c r="D34" s="23"/>
@@ -12329,9 +12648,9 @@
       <c r="DB34" s="23"/>
       <c r="DC34" s="23"/>
     </row>
-    <row r="35" spans="2:107" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:114" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="48" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C35" s="23"/>
       <c r="D35" s="23"/>
@@ -12393,16 +12712,16 @@
       <c r="BH35" s="23"/>
       <c r="BI35" s="23"/>
       <c r="BJ35" s="23"/>
-      <c r="BK35" s="75"/>
-      <c r="BL35" s="75"/>
-      <c r="BM35" s="75"/>
-      <c r="BN35" s="75"/>
-      <c r="BO35" s="75"/>
-      <c r="BP35" s="75"/>
-      <c r="BQ35" s="75"/>
-      <c r="BR35" s="75"/>
-      <c r="BS35" s="75"/>
-      <c r="BT35" s="75"/>
+      <c r="BK35" s="74"/>
+      <c r="BL35" s="74"/>
+      <c r="BM35" s="74"/>
+      <c r="BN35" s="74"/>
+      <c r="BO35" s="74"/>
+      <c r="BP35" s="74"/>
+      <c r="BQ35" s="74"/>
+      <c r="BR35" s="74"/>
+      <c r="BS35" s="74"/>
+      <c r="BT35" s="74"/>
       <c r="BU35" s="54">
         <v>0</v>
       </c>
@@ -12478,10 +12797,14 @@
       <c r="DA35" s="23"/>
       <c r="DB35" s="23"/>
       <c r="DC35" s="23"/>
-    </row>
-    <row r="36" spans="2:107" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="DJ35" s="27">
+        <f>SUM(CE35:CH35)</f>
+        <v>667</v>
+      </c>
+    </row>
+    <row r="36" spans="2:114" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="48" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C36" s="23"/>
       <c r="D36" s="23"/>
@@ -12617,9 +12940,9 @@
       <c r="DB36" s="23"/>
       <c r="DC36" s="23"/>
     </row>
-    <row r="37" spans="2:107" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:114" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="48" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
@@ -12766,7 +13089,7 @@
       <c r="DB37" s="23"/>
       <c r="DC37" s="23"/>
     </row>
-    <row r="38" spans="2:107" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:114" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="58" t="s">
         <v>228</v>
       </c>
@@ -12972,7 +13295,7 @@
         <v>228.6259182</v>
       </c>
     </row>
-    <row r="39" spans="2:107" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:114" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="48" t="s">
         <v>340</v>
       </c>
@@ -13100,7 +13423,7 @@
       <c r="DB39" s="23"/>
       <c r="DC39" s="23"/>
     </row>
-    <row r="40" spans="2:107" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:114" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="27" t="s">
         <v>214</v>
       </c>
@@ -13280,7 +13603,7 @@
         <v>203.31736317392259</v>
       </c>
     </row>
-    <row r="41" spans="2:107" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>61</v>
       </c>
@@ -13484,8 +13807,9 @@
         <f t="shared" si="65"/>
         <v>136.88641669609376</v>
       </c>
-    </row>
-    <row r="42" spans="2:107" x14ac:dyDescent="0.2">
+      <c r="DJ41" s="27"/>
+    </row>
+    <row r="42" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>132</v>
       </c>
@@ -13682,8 +14006,9 @@
         <f t="shared" ref="DC42" si="67">DB42*0.5</f>
         <v>0.40950000000000009</v>
       </c>
-    </row>
-    <row r="43" spans="2:107" x14ac:dyDescent="0.2">
+      <c r="DJ42" s="27"/>
+    </row>
+    <row r="43" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>48</v>
       </c>
@@ -13878,8 +14203,9 @@
         <f t="shared" si="68"/>
         <v>127.29712640000005</v>
       </c>
-    </row>
-    <row r="44" spans="2:107" x14ac:dyDescent="0.2">
+      <c r="DJ43" s="27"/>
+    </row>
+    <row r="44" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B44" s="31" t="s">
         <v>226</v>
       </c>
@@ -14067,8 +14393,9 @@
         <f t="shared" si="70"/>
         <v>7.6515840000000033</v>
       </c>
-    </row>
-    <row r="45" spans="2:107" x14ac:dyDescent="0.2">
+      <c r="DJ44" s="27"/>
+    </row>
+    <row r="45" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B45" s="31" t="s">
         <v>237</v>
       </c>
@@ -14254,8 +14581,9 @@
         <f t="shared" si="69"/>
         <v>141.57588240000004</v>
       </c>
-    </row>
-    <row r="46" spans="2:107" x14ac:dyDescent="0.2">
+      <c r="DJ45" s="27"/>
+    </row>
+    <row r="46" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B46" s="19" t="s">
         <v>354</v>
       </c>
@@ -14366,8 +14694,9 @@
       <c r="DA46" s="23"/>
       <c r="DB46" s="23"/>
       <c r="DC46" s="23"/>
-    </row>
-    <row r="47" spans="2:107" x14ac:dyDescent="0.2">
+      <c r="DJ46" s="27"/>
+    </row>
+    <row r="47" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B47" s="26" t="s">
         <v>133</v>
       </c>
@@ -14543,8 +14872,9 @@
       <c r="DA47" s="23"/>
       <c r="DB47" s="23"/>
       <c r="DC47" s="23"/>
-    </row>
-    <row r="48" spans="2:107" x14ac:dyDescent="0.2">
+      <c r="DJ47" s="27"/>
+    </row>
+    <row r="48" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B48" s="31" t="s">
         <v>238</v>
       </c>
@@ -14728,8 +15058,9 @@
         <f t="shared" si="69"/>
         <v>40.176939600000011</v>
       </c>
-    </row>
-    <row r="49" spans="2:109" x14ac:dyDescent="0.2">
+      <c r="DJ48" s="27"/>
+    </row>
+    <row r="49" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B49" s="31" t="s">
         <v>295</v>
       </c>
@@ -14841,8 +15172,9 @@
       <c r="DA49" s="23"/>
       <c r="DB49" s="23"/>
       <c r="DC49" s="23"/>
-    </row>
-    <row r="50" spans="2:109" x14ac:dyDescent="0.2">
+      <c r="DJ49" s="27"/>
+    </row>
+    <row r="50" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B50" s="31" t="s">
         <v>303</v>
       </c>
@@ -15029,8 +15361,9 @@
         <v>113.83466220000003</v>
       </c>
       <c r="DE50" s="19"/>
-    </row>
-    <row r="51" spans="2:109" x14ac:dyDescent="0.2">
+      <c r="DJ50" s="27"/>
+    </row>
+    <row r="51" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B51" s="19" t="s">
         <v>352</v>
       </c>
@@ -15153,8 +15486,9 @@
       <c r="DC51" s="32">
         <v>500</v>
       </c>
-    </row>
-    <row r="52" spans="2:109" x14ac:dyDescent="0.2">
+      <c r="DJ51" s="27"/>
+    </row>
+    <row r="52" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>60</v>
       </c>
@@ -15358,8 +15692,9 @@
         <f t="shared" ref="DC52" si="76">DB52*0.75</f>
         <v>100.71210937500001</v>
       </c>
-    </row>
-    <row r="53" spans="2:109" x14ac:dyDescent="0.2">
+      <c r="DJ52" s="27"/>
+    </row>
+    <row r="53" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B53" s="19" t="s">
         <v>353</v>
       </c>
@@ -15458,8 +15793,9 @@
       <c r="DA53" s="23"/>
       <c r="DB53" s="32"/>
       <c r="DC53" s="32"/>
-    </row>
-    <row r="54" spans="2:109" x14ac:dyDescent="0.2">
+      <c r="DJ53" s="27"/>
+    </row>
+    <row r="54" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B54" s="19" t="s">
         <v>357</v>
       </c>
@@ -15558,8 +15894,9 @@
       <c r="DA54" s="23"/>
       <c r="DB54" s="23"/>
       <c r="DC54" s="23"/>
-    </row>
-    <row r="55" spans="2:109" x14ac:dyDescent="0.2">
+      <c r="DJ54" s="27"/>
+    </row>
+    <row r="55" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B55" s="19" t="s">
         <v>358</v>
       </c>
@@ -15658,8 +15995,9 @@
       <c r="DA55" s="23"/>
       <c r="DB55" s="23"/>
       <c r="DC55" s="23"/>
-    </row>
-    <row r="56" spans="2:109" x14ac:dyDescent="0.2">
+      <c r="DJ55" s="27"/>
+    </row>
+    <row r="56" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B56" s="19" t="s">
         <v>359</v>
       </c>
@@ -15758,8 +16096,9 @@
       <c r="DA56" s="23"/>
       <c r="DB56" s="23"/>
       <c r="DC56" s="23"/>
-    </row>
-    <row r="57" spans="2:109" x14ac:dyDescent="0.2">
+      <c r="DJ56" s="27"/>
+    </row>
+    <row r="57" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B57" s="19" t="s">
         <v>360</v>
       </c>
@@ -15858,10 +16197,11 @@
       <c r="DA57" s="23"/>
       <c r="DB57" s="23"/>
       <c r="DC57" s="23"/>
-    </row>
-    <row r="58" spans="2:109" x14ac:dyDescent="0.2">
+      <c r="DJ57" s="27"/>
+    </row>
+    <row r="58" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B58" s="19" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="R58" s="23"/>
       <c r="S58" s="23"/>
@@ -15963,10 +16303,11 @@
       <c r="DA58" s="23"/>
       <c r="DB58" s="23"/>
       <c r="DC58" s="23"/>
-    </row>
-    <row r="59" spans="2:109" x14ac:dyDescent="0.2">
+      <c r="DJ58" s="27"/>
+    </row>
+    <row r="59" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B59" s="19" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="R59" s="23"/>
       <c r="S59" s="23"/>
@@ -16059,8 +16400,9 @@
       <c r="DA59" s="23"/>
       <c r="DB59" s="23"/>
       <c r="DC59" s="23"/>
-    </row>
-    <row r="60" spans="2:109" x14ac:dyDescent="0.2">
+      <c r="DJ59" s="27"/>
+    </row>
+    <row r="60" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
         <v>63</v>
       </c>
@@ -16253,8 +16595,9 @@
         <f>DB60*0.5</f>
         <v>37.1163515625</v>
       </c>
-    </row>
-    <row r="61" spans="2:109" x14ac:dyDescent="0.2">
+      <c r="DJ60" s="27"/>
+    </row>
+    <row r="61" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B61" s="19" t="s">
         <v>282</v>
       </c>
@@ -16388,8 +16731,8 @@
       <c r="CC61" s="54">
         <v>1245</v>
       </c>
-      <c r="CD61" s="54">
-        <v>1215</v>
+      <c r="CD61" s="61" t="s">
+        <v>622</v>
       </c>
       <c r="CE61" s="54">
         <v>1525</v>
@@ -16400,25 +16743,22 @@
       <c r="CG61" s="54">
         <v>1271</v>
       </c>
-      <c r="CH61" s="54">
-        <f t="shared" ref="CH61:CL61" si="78">+CG61</f>
-        <v>1271</v>
-      </c>
+      <c r="CH61" s="54"/>
       <c r="CI61" s="54">
-        <f t="shared" si="78"/>
-        <v>1271</v>
+        <f t="shared" ref="CH61:CL61" si="78">+CH61</f>
+        <v>0</v>
       </c>
       <c r="CJ61" s="54">
         <f t="shared" si="78"/>
-        <v>1271</v>
+        <v>0</v>
       </c>
       <c r="CK61" s="54">
         <f t="shared" si="78"/>
-        <v>1271</v>
+        <v>0</v>
       </c>
       <c r="CL61" s="54">
         <f t="shared" si="78"/>
-        <v>1271</v>
+        <v>0</v>
       </c>
       <c r="CM61" s="54"/>
       <c r="CN61" s="23"/>
@@ -16463,10 +16803,11 @@
         <f t="shared" si="79"/>
         <v>2546.6361251784538</v>
       </c>
-    </row>
-    <row r="62" spans="2:109" x14ac:dyDescent="0.2">
+      <c r="DJ61" s="27"/>
+    </row>
+    <row r="62" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B62" s="19" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R62" s="23"/>
       <c r="S62" s="23"/>
@@ -16567,24 +16908,23 @@
         <v>126</v>
       </c>
       <c r="CH62" s="54">
-        <f t="shared" ref="CH62:CL62" si="80">+CG62</f>
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="CI62" s="54">
-        <f t="shared" si="80"/>
-        <v>126</v>
+        <f t="shared" ref="CH62:CL62" si="80">+CH62</f>
+        <v>124</v>
       </c>
       <c r="CJ62" s="54">
         <f t="shared" si="80"/>
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="CK62" s="54">
         <f t="shared" si="80"/>
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="CL62" s="54">
         <f t="shared" si="80"/>
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="CM62" s="54"/>
       <c r="CN62" s="23"/>
@@ -16602,8 +16942,12 @@
       <c r="DA62" s="23"/>
       <c r="DB62" s="23"/>
       <c r="DC62" s="23"/>
-    </row>
-    <row r="63" spans="2:109" x14ac:dyDescent="0.2">
+      <c r="DJ62" s="27">
+        <f t="shared" ref="DJ36:DJ66" si="81">SUM(CE62:CH62)</f>
+        <v>528</v>
+      </c>
+    </row>
+    <row r="63" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B63" s="19" t="s">
         <v>278</v>
       </c>
@@ -16749,35 +17093,36 @@
         <v>1534</v>
       </c>
       <c r="CW63" s="23">
-        <f t="shared" ref="CW63:DC63" si="81">CV63*1.02</f>
+        <f t="shared" ref="CW63:DC63" si="82">CV63*1.02</f>
         <v>1564.68</v>
       </c>
       <c r="CX63" s="23">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1595.9736</v>
       </c>
       <c r="CY63" s="23">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1627.8930720000001</v>
       </c>
       <c r="CZ63" s="23">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1660.4509334400002</v>
       </c>
       <c r="DA63" s="23">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1693.6599521088003</v>
       </c>
       <c r="DB63" s="23">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1727.5331511509764</v>
       </c>
       <c r="DC63" s="23">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1762.083814173996</v>
       </c>
-    </row>
-    <row r="64" spans="2:109" x14ac:dyDescent="0.2">
+      <c r="DJ63" s="27"/>
+    </row>
+    <row r="64" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>138</v>
       </c>
@@ -16975,19 +17320,19 @@
         <v>5760.8</v>
       </c>
       <c r="CX64" s="44">
-        <f t="shared" ref="CX64:DA64" si="82">CW64*0.95</f>
+        <f t="shared" ref="CX64:DA64" si="83">CW64*0.95</f>
         <v>5472.76</v>
       </c>
       <c r="CY64" s="44">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>5199.1220000000003</v>
       </c>
       <c r="CZ64" s="44">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>4939.1659</v>
       </c>
       <c r="DA64" s="44">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>4692.2076049999996</v>
       </c>
       <c r="DB64" s="44">
@@ -16998,8 +17343,9 @@
         <f>DB64*0.95</f>
         <v>4234.7173635124991</v>
       </c>
-    </row>
-    <row r="65" spans="2:107" x14ac:dyDescent="0.2">
+      <c r="DJ64" s="27"/>
+    </row>
+    <row r="65" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
         <v>145</v>
       </c>
@@ -17072,11 +17418,11 @@
         <v>748</v>
       </c>
       <c r="AG65" s="23">
-        <f t="shared" ref="AG65:AH65" si="83">+AC65</f>
+        <f t="shared" ref="AG65:AH65" si="84">+AC65</f>
         <v>1226</v>
       </c>
       <c r="AH65" s="23">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>890</v>
       </c>
       <c r="AI65" s="23"/>
@@ -17120,34 +17466,34 @@
       <c r="BM65" s="54"/>
       <c r="BN65" s="54"/>
       <c r="BO65" s="61" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="BP65" s="61" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="BQ65" s="61" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="BR65" s="61" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="BS65" s="61" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="BT65" s="61" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="BU65" s="61" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="BV65" s="67" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="BW65" s="61" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="BX65" s="61" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="BY65" s="54"/>
       <c r="BZ65" s="54"/>
@@ -17172,7 +17518,7 @@
         <v>2533</v>
       </c>
       <c r="CS65" s="23">
-        <f t="shared" ref="CS65" si="84">SUM(O65:R65)</f>
+        <f t="shared" ref="CS65" si="85">SUM(O65:R65)</f>
         <v>2778</v>
       </c>
       <c r="CT65" s="23">
@@ -17196,29 +17542,30 @@
         <v>4079.1296000000002</v>
       </c>
       <c r="CY65" s="23">
-        <f t="shared" ref="CY65:DC65" si="85">CX65*1.03</f>
+        <f t="shared" ref="CY65:DC65" si="86">CX65*1.03</f>
         <v>4201.5034880000003</v>
       </c>
       <c r="CZ65" s="23">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>4327.5485926400006</v>
       </c>
       <c r="DA65" s="23">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>4457.3750504192003</v>
       </c>
       <c r="DB65" s="23">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>4591.096301931776</v>
       </c>
       <c r="DC65" s="23">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>4728.8291909897298</v>
       </c>
-    </row>
-    <row r="66" spans="2:107" x14ac:dyDescent="0.2">
+      <c r="DJ65" s="27"/>
+    </row>
+    <row r="66" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B66" s="19" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="R66" s="23"/>
       <c r="S66" s="23"/>
@@ -17329,19 +17676,19 @@
         <v>632</v>
       </c>
       <c r="CI66" s="54">
-        <f t="shared" ref="CH66:CL66" si="86">+CH66</f>
+        <f t="shared" ref="CI66:CL66" si="87">+CH66</f>
         <v>632</v>
       </c>
       <c r="CJ66" s="54">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>632</v>
       </c>
       <c r="CK66" s="54">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>632</v>
       </c>
       <c r="CL66" s="54">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>632</v>
       </c>
       <c r="CM66" s="54"/>
@@ -17360,10 +17707,14 @@
       <c r="DA66" s="23"/>
       <c r="DB66" s="23"/>
       <c r="DC66" s="23"/>
-    </row>
-    <row r="67" spans="2:107" x14ac:dyDescent="0.2">
+      <c r="DJ66" s="27">
+        <f>SUM(CE66:CH66)</f>
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="67" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B67" s="19" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="R67" s="23"/>
       <c r="S67" s="23"/>
@@ -17454,19 +17805,19 @@
         <v>841</v>
       </c>
       <c r="CI67" s="54">
-        <f t="shared" ref="CH67:CL67" si="87">+CH67</f>
+        <f t="shared" ref="CI67:CL67" si="88">+CH67</f>
         <v>841</v>
       </c>
       <c r="CJ67" s="54">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>841</v>
       </c>
       <c r="CK67" s="54">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>841</v>
       </c>
       <c r="CL67" s="54">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>841</v>
       </c>
       <c r="CM67" s="54"/>
@@ -17485,10 +17836,14 @@
       <c r="DA67" s="23"/>
       <c r="DB67" s="23"/>
       <c r="DC67" s="23"/>
-    </row>
-    <row r="68" spans="2:107" x14ac:dyDescent="0.2">
+      <c r="DJ67" s="27">
+        <f>SUM(CE67:CH67)</f>
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="68" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B68" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="R68" s="23"/>
       <c r="S68" s="23"/>
@@ -17599,19 +17954,19 @@
         <v>249</v>
       </c>
       <c r="CI68" s="54">
-        <f t="shared" ref="CI68:CL68" si="88">+CH68</f>
+        <f t="shared" ref="CI68:CL68" si="89">+CH68</f>
         <v>249</v>
       </c>
       <c r="CJ68" s="54">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>249</v>
       </c>
       <c r="CK68" s="54">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>249</v>
       </c>
       <c r="CL68" s="54">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>249</v>
       </c>
       <c r="CM68" s="54"/>
@@ -17630,10 +17985,14 @@
       <c r="DA68" s="23"/>
       <c r="DB68" s="23"/>
       <c r="DC68" s="23"/>
-    </row>
-    <row r="69" spans="2:107" x14ac:dyDescent="0.2">
+      <c r="DJ68" s="27">
+        <f>SUM(CE68:CH68)</f>
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="69" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B69" s="19" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="R69" s="23"/>
       <c r="S69" s="23"/>
@@ -17755,10 +18114,14 @@
       <c r="DA69" s="23"/>
       <c r="DB69" s="23"/>
       <c r="DC69" s="23"/>
-    </row>
-    <row r="70" spans="2:107" x14ac:dyDescent="0.2">
+      <c r="DJ69" s="27">
+        <f>SUM(CE69:CH69)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B70" s="19" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="R70" s="23"/>
       <c r="S70" s="23"/>
@@ -17887,10 +18250,14 @@
       <c r="DA70" s="23"/>
       <c r="DB70" s="23"/>
       <c r="DC70" s="23"/>
-    </row>
-    <row r="71" spans="2:107" x14ac:dyDescent="0.2">
+      <c r="DJ70" s="27">
+        <f>SUM(CE70:CH70)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B71" s="19" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="R71" s="23"/>
       <c r="S71" s="23"/>
@@ -17998,8 +18365,7 @@
         <v>1913</v>
       </c>
       <c r="CH71" s="54">
-        <f>+CD71</f>
-        <v>741</v>
+        <v>454</v>
       </c>
       <c r="CI71" s="54">
         <f>+CE71</f>
@@ -18015,7 +18381,7 @@
       </c>
       <c r="CL71" s="54">
         <f>+CH71</f>
-        <v>741</v>
+        <v>454</v>
       </c>
       <c r="CM71" s="54"/>
       <c r="CN71" s="23"/>
@@ -18033,10 +18399,14 @@
       <c r="DA71" s="23"/>
       <c r="DB71" s="23"/>
       <c r="DC71" s="23"/>
-    </row>
-    <row r="72" spans="2:107" x14ac:dyDescent="0.2">
+      <c r="DJ71" s="27">
+        <f>SUM(CE71:CH71)</f>
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="72" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B72" s="19" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="R72" s="23"/>
       <c r="S72" s="23"/>
@@ -18160,7 +18530,7 @@
       <c r="DB72" s="23"/>
       <c r="DC72" s="23"/>
     </row>
-    <row r="73" spans="2:107" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B73" s="19" t="s">
         <v>319</v>
       </c>
@@ -18178,11 +18548,11 @@
         <v>594</v>
       </c>
       <c r="AG73" s="23">
-        <f t="shared" ref="AG73:AH74" si="89">+AF73</f>
+        <f t="shared" ref="AG73:AH74" si="90">+AF73</f>
         <v>594</v>
       </c>
       <c r="AH73" s="23">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>594</v>
       </c>
       <c r="AI73" s="23"/>
@@ -18265,27 +18635,27 @@
         <v>2494.8000000000002</v>
       </c>
       <c r="CY73" s="23">
-        <f t="shared" ref="CY73:DC73" si="90">CX73*1.05</f>
+        <f t="shared" ref="CY73:DC73" si="91">CX73*1.05</f>
         <v>2619.5400000000004</v>
       </c>
       <c r="CZ73" s="23">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>2750.5170000000007</v>
       </c>
       <c r="DA73" s="23">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>2888.0428500000007</v>
       </c>
       <c r="DB73" s="23">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>3032.4449925000008</v>
       </c>
       <c r="DC73" s="23">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>3184.067242125001</v>
       </c>
     </row>
-    <row r="74" spans="2:107" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
         <v>1</v>
       </c>
@@ -18366,11 +18736,11 @@
         <v>413</v>
       </c>
       <c r="AG74" s="23">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>413</v>
       </c>
       <c r="AH74" s="23">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>413</v>
       </c>
       <c r="AI74" s="23"/>
@@ -18453,7 +18823,7 @@
       <c r="DB74" s="23"/>
       <c r="DC74" s="23"/>
     </row>
-    <row r="75" spans="2:107" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:114" x14ac:dyDescent="0.2">
       <c r="C75" s="23">
         <f>12196-D75</f>
         <v>5919</v>
@@ -18483,7 +18853,7 @@
       <c r="DB75" s="23"/>
       <c r="DC75" s="23"/>
     </row>
-    <row r="76" spans="2:107" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:114" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="11" t="s">
         <v>181</v>
       </c>
@@ -18508,67 +18878,67 @@
       <c r="I76" s="39"/>
       <c r="J76" s="39"/>
       <c r="K76" s="39">
-        <f t="shared" ref="K76:Z76" si="91">SUM(K4:K65)</f>
+        <f t="shared" ref="K76:Z76" si="92">SUM(K4:K65)</f>
         <v>7035</v>
       </c>
       <c r="L76" s="39">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>7081</v>
       </c>
       <c r="M76" s="39">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>6901</v>
       </c>
       <c r="N76" s="39">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>7356</v>
       </c>
       <c r="O76" s="39">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>7177</v>
       </c>
       <c r="P76" s="39">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>6939</v>
       </c>
       <c r="Q76" s="39">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>7025</v>
       </c>
       <c r="R76" s="39">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>6911</v>
       </c>
       <c r="S76" s="39">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>6919</v>
       </c>
       <c r="T76" s="39">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>6689</v>
       </c>
       <c r="U76" s="39">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>6853</v>
       </c>
       <c r="V76" s="39">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>7089</v>
       </c>
       <c r="W76" s="39">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>7107</v>
       </c>
       <c r="X76" s="39">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>7442</v>
       </c>
       <c r="Y76" s="39">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>7400</v>
       </c>
       <c r="Z76" s="39">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>7361</v>
       </c>
       <c r="AA76" s="39">
@@ -18588,39 +18958,39 @@
         <v>7395</v>
       </c>
       <c r="AE76" s="39">
-        <f t="shared" ref="AE76:AM76" si="92">SUM(AE4:AE73)</f>
+        <f t="shared" ref="AE76:AM76" si="93">SUM(AE4:AE73)</f>
         <v>7779</v>
       </c>
       <c r="AF76" s="39">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>7875</v>
       </c>
       <c r="AG76" s="39">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>7853</v>
       </c>
       <c r="AH76" s="39">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>7495.4</v>
       </c>
       <c r="AI76" s="39">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>54</v>
       </c>
       <c r="AJ76" s="39">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AK76" s="39">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AL76" s="39">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AM76" s="39">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AN76" s="39">
@@ -18672,47 +19042,47 @@
         <v>0</v>
       </c>
       <c r="BO76" s="62">
-        <f t="shared" ref="BO76:BX76" si="93">SUM(BO3:BO75)</f>
+        <f t="shared" ref="BO76:BX76" si="94">SUM(BO3:BO75)</f>
         <v>8973</v>
       </c>
       <c r="BP76" s="62">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>8207</v>
       </c>
       <c r="BQ76" s="62">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>9479</v>
       </c>
       <c r="BR76" s="62">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>9382</v>
       </c>
       <c r="BS76" s="62">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>8591</v>
       </c>
       <c r="BT76" s="62">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>8744</v>
       </c>
       <c r="BU76" s="62">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>10432</v>
       </c>
       <c r="BV76" s="62">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>9994</v>
       </c>
       <c r="BW76" s="62">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>9673</v>
       </c>
       <c r="BX76" s="62">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>10116</v>
       </c>
       <c r="BY76" s="62">
-        <f t="shared" ref="BY76:CL76" si="94">SUM(BY3:BY75)</f>
+        <f t="shared" ref="BY76:CL76" si="95">SUM(BY3:BY75)</f>
         <v>12482</v>
       </c>
       <c r="BZ76" s="62">
@@ -18720,52 +19090,52 @@
         <v>10724</v>
       </c>
       <c r="CA76" s="62">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>10221</v>
       </c>
       <c r="CB76" s="62">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>9965</v>
       </c>
       <c r="CC76" s="62">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>11964</v>
       </c>
       <c r="CD76" s="62">
         <f>SUM(CD3:CD75)</f>
-        <v>10919</v>
+        <v>9704</v>
       </c>
       <c r="CE76" s="62">
         <f>SUM(CE3:CE75)</f>
         <v>10464</v>
       </c>
       <c r="CF76" s="62">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>10745</v>
       </c>
       <c r="CG76" s="62">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>13439</v>
       </c>
       <c r="CH76" s="62">
-        <f t="shared" si="94"/>
-        <v>12123</v>
+        <f>SUM(CH3:CH75)</f>
+        <v>10563</v>
       </c>
       <c r="CI76" s="62">
-        <f t="shared" si="94"/>
-        <v>11809.43</v>
+        <f t="shared" si="95"/>
+        <v>10536.43</v>
       </c>
       <c r="CJ76" s="62">
-        <f t="shared" si="94"/>
-        <v>12426.73</v>
+        <f t="shared" si="95"/>
+        <v>11153.73</v>
       </c>
       <c r="CK76" s="62">
-        <f t="shared" si="94"/>
-        <v>14381.13</v>
+        <f t="shared" si="95"/>
+        <v>13108.13</v>
       </c>
       <c r="CL76" s="62">
-        <f t="shared" si="94"/>
-        <v>13178.69</v>
+        <f t="shared" si="95"/>
+        <v>11618.69</v>
       </c>
       <c r="CM76" s="62"/>
       <c r="CN76" s="39"/>
@@ -18793,35 +19163,39 @@
         <v>30415</v>
       </c>
       <c r="CW76" s="39">
-        <f t="shared" ref="CW76:DC76" si="95">SUM(CW4:CW73)</f>
+        <f t="shared" ref="CW76:DC76" si="96">SUM(CW4:CW73)</f>
         <v>30145.23</v>
       </c>
       <c r="CX76" s="39">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>29130.449300000004</v>
       </c>
       <c r="CY76" s="39">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>27509.208572000003</v>
       </c>
       <c r="CZ76" s="39">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>26261.69246577</v>
       </c>
       <c r="DA76" s="39">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>25739.669793202305</v>
       </c>
       <c r="DB76" s="39">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>24572.232721612385</v>
       </c>
       <c r="DC76" s="39">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>22307.744321120292</v>
       </c>
-    </row>
-    <row r="77" spans="2:107" x14ac:dyDescent="0.2">
+      <c r="DJ76" s="77">
+        <f>SUM(DJ3:DJ74)</f>
+        <v>41109</v>
+      </c>
+    </row>
+    <row r="77" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
         <v>2</v>
       </c>
@@ -18903,11 +19277,11 @@
         <v>1890</v>
       </c>
       <c r="AG77" s="23">
-        <f t="shared" ref="AG77:AH77" si="96">+AG76-AG78</f>
+        <f t="shared" ref="AG77:AH77" si="97">+AG76-AG78</f>
         <v>1884.7200000000003</v>
       </c>
       <c r="AH77" s="23">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>1798.8959999999997</v>
       </c>
       <c r="AI77" s="23"/>
@@ -19022,7 +19396,10 @@
         <f>4085-719</f>
         <v>3366</v>
       </c>
-      <c r="CH77" s="54"/>
+      <c r="CH77" s="54">
+        <f>3576-856</f>
+        <v>2720</v>
+      </c>
       <c r="CI77" s="54"/>
       <c r="CJ77" s="54"/>
       <c r="CK77" s="54"/>
@@ -19032,7 +19409,7 @@
       <c r="CR77" s="23"/>
       <c r="CS77" s="23"/>
       <c r="CT77" s="23">
-        <f t="shared" ref="CT77:DB77" si="97">CT76-CT78</f>
+        <f t="shared" ref="CT77:DB77" si="98">CT76-CT78</f>
         <v>6086</v>
       </c>
       <c r="CU77" s="23">
@@ -19048,31 +19425,31 @@
         <v>7234.8551999999981</v>
       </c>
       <c r="CX77" s="23">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>6991.3078320000022</v>
       </c>
       <c r="CY77" s="23">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>6877.3021430000008</v>
       </c>
       <c r="CZ77" s="23">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>6565.4231164425</v>
       </c>
       <c r="DA77" s="23">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>6434.9174483005772</v>
       </c>
       <c r="DB77" s="23">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>6143.0581804030953</v>
       </c>
       <c r="DC77" s="23">
-        <f t="shared" ref="DC77" si="98">DC76-DC78</f>
+        <f t="shared" ref="DC77" si="99">DC76-DC78</f>
         <v>5576.9360802800729</v>
       </c>
     </row>
-    <row r="78" spans="2:107" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
         <v>168</v>
       </c>
@@ -19093,79 +19470,79 @@
         <v>5271</v>
       </c>
       <c r="M78" s="23">
-        <f t="shared" ref="M78:AE78" si="99">M76-M77+M74</f>
+        <f t="shared" ref="M78:AE78" si="100">M76-M77+M74</f>
         <v>5302</v>
       </c>
       <c r="N78" s="23">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>5627</v>
       </c>
       <c r="O78" s="23">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>5569</v>
       </c>
       <c r="P78" s="23">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>5390</v>
       </c>
       <c r="Q78" s="23">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>5420</v>
       </c>
       <c r="R78" s="23">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>5257</v>
       </c>
       <c r="S78" s="23">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>5314</v>
       </c>
       <c r="T78" s="23">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>5249</v>
       </c>
       <c r="U78" s="23">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>5372</v>
       </c>
       <c r="V78" s="23">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>5529</v>
       </c>
       <c r="W78" s="23">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>5684</v>
       </c>
       <c r="X78" s="23">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>5968</v>
       </c>
       <c r="Y78" s="23">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>5744</v>
       </c>
       <c r="Z78" s="23">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>5504</v>
       </c>
       <c r="AA78" s="23">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>6263</v>
       </c>
       <c r="AB78" s="23">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>6133</v>
       </c>
       <c r="AC78" s="23">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>5963</v>
       </c>
       <c r="AD78" s="23">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>5500</v>
       </c>
       <c r="AE78" s="23">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>5830</v>
       </c>
       <c r="AF78" s="23">
@@ -19173,11 +19550,11 @@
         <v>5985</v>
       </c>
       <c r="AG78" s="23">
-        <f t="shared" ref="AG78:AH78" si="100">+AG76*AG93</f>
+        <f t="shared" ref="AG78:AH78" si="101">+AG76*AG93</f>
         <v>5968.28</v>
       </c>
       <c r="AH78" s="23">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>5696.5039999999999</v>
       </c>
       <c r="AI78" s="23"/>
@@ -19186,7 +19563,7 @@
       <c r="AL78" s="23"/>
       <c r="AM78" s="23"/>
       <c r="AN78" s="23">
-        <f t="shared" ref="AN78" si="101">+AN76-AN77</f>
+        <f t="shared" ref="AN78" si="102">+AN76-AN77</f>
         <v>5401</v>
       </c>
       <c r="AO78" s="23">
@@ -19219,71 +19596,71 @@
       <c r="BM78" s="54"/>
       <c r="BN78" s="54"/>
       <c r="BO78" s="54">
-        <f t="shared" ref="BO78" si="102">BO76-BO77</f>
+        <f t="shared" ref="BO78" si="103">BO76-BO77</f>
         <v>6469</v>
       </c>
       <c r="BP78" s="54">
-        <f t="shared" ref="BP78" si="103">BP76-BP77</f>
+        <f t="shared" ref="BP78" si="104">BP76-BP77</f>
         <v>5778</v>
       </c>
       <c r="BQ78" s="54">
-        <f t="shared" ref="BQ78:BR78" si="104">BQ76-BQ77</f>
+        <f t="shared" ref="BQ78:BR78" si="105">BQ76-BQ77</f>
         <v>6720</v>
       </c>
       <c r="BR78" s="54">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>6297</v>
       </c>
       <c r="BS78" s="54">
-        <f t="shared" ref="BS78:BX78" si="105">BS76-BS77</f>
+        <f t="shared" ref="BS78:BX78" si="106">BS76-BS77</f>
         <v>6202</v>
       </c>
       <c r="BT78" s="54">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>6187</v>
       </c>
       <c r="BU78" s="54">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>7591</v>
       </c>
       <c r="BV78" s="54">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>6944</v>
       </c>
       <c r="BW78" s="54">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>7174</v>
       </c>
       <c r="BX78" s="54">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>7493</v>
       </c>
       <c r="BY78" s="54">
-        <f t="shared" ref="BY78:CE78" si="106">+BY76-BY77</f>
+        <f t="shared" ref="BY78:CE78" si="107">+BY76-BY77</f>
         <v>9307</v>
       </c>
       <c r="BZ78" s="54">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>7721</v>
       </c>
       <c r="CA78" s="54">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>7783</v>
       </c>
       <c r="CB78" s="54">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>7419</v>
       </c>
       <c r="CC78" s="54">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>8858</v>
       </c>
       <c r="CD78" s="54">
-        <f t="shared" si="106"/>
-        <v>8167</v>
+        <f t="shared" si="107"/>
+        <v>6952</v>
       </c>
       <c r="CE78" s="54">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>7694</v>
       </c>
       <c r="CF78" s="54">
@@ -19294,7 +19671,10 @@
         <f>CG76-CG77</f>
         <v>10073</v>
       </c>
-      <c r="CH78" s="54"/>
+      <c r="CH78" s="54">
+        <f>+CH76-CH77</f>
+        <v>7843</v>
+      </c>
       <c r="CI78" s="54"/>
       <c r="CJ78" s="54"/>
       <c r="CK78" s="54"/>
@@ -19320,11 +19700,11 @@
         <v>22910.374800000001</v>
       </c>
       <c r="CX78" s="23">
-        <f t="shared" ref="CX78:CY78" si="107">CX76*CX93</f>
+        <f t="shared" ref="CX78:CY78" si="108">CX76*CX93</f>
         <v>22139.141468000002</v>
       </c>
       <c r="CY78" s="23">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>20631.906429000002</v>
       </c>
       <c r="CZ78" s="23">
@@ -19344,7 +19724,7 @@
         <v>16730.808240840219</v>
       </c>
     </row>
-    <row r="79" spans="2:107" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>3</v>
       </c>
@@ -19516,7 +19896,9 @@
       <c r="CG79" s="54">
         <v>1852</v>
       </c>
-      <c r="CH79" s="54"/>
+      <c r="CH79" s="54">
+        <v>2257</v>
+      </c>
       <c r="CI79" s="54"/>
       <c r="CJ79" s="54"/>
       <c r="CK79" s="54"/>
@@ -19551,7 +19933,7 @@
       <c r="DB79" s="23"/>
       <c r="DC79" s="23"/>
     </row>
-    <row r="80" spans="2:107" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
         <v>4</v>
       </c>
@@ -19723,7 +20105,9 @@
       <c r="CG80" s="54">
         <v>2681</v>
       </c>
-      <c r="CH80" s="54"/>
+      <c r="CH80" s="54">
+        <v>2648</v>
+      </c>
       <c r="CI80" s="54"/>
       <c r="CJ80" s="54"/>
       <c r="CK80" s="54"/>
@@ -19752,11 +20136,11 @@
         <v>1933</v>
       </c>
       <c r="CX80" s="23">
-        <f t="shared" ref="CX80:CY80" si="108">CW80</f>
+        <f t="shared" ref="CX80:CY80" si="109">CW80</f>
         <v>1933</v>
       </c>
       <c r="CY80" s="23">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>1933</v>
       </c>
       <c r="CZ80" s="23">
@@ -19797,35 +20181,35 @@
         <v>-9</v>
       </c>
       <c r="M81" s="23">
-        <f t="shared" ref="M81:W81" si="109">M80+M79</f>
+        <f t="shared" ref="M81:W81" si="110">M80+M79</f>
         <v>2881</v>
       </c>
       <c r="N81" s="23">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>3364</v>
       </c>
       <c r="O81" s="23">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>2954</v>
       </c>
       <c r="P81" s="23">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>3032</v>
       </c>
       <c r="Q81" s="23">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>2838</v>
       </c>
       <c r="R81" s="23">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>3267</v>
       </c>
       <c r="S81" s="23">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>2872</v>
       </c>
       <c r="T81" s="23">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>2880</v>
       </c>
       <c r="U81" s="23">
@@ -19833,35 +20217,35 @@
         <v>2740</v>
       </c>
       <c r="V81" s="23">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>3251</v>
       </c>
       <c r="W81" s="23">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>2884</v>
       </c>
       <c r="X81" s="23">
-        <f t="shared" ref="X81:Y81" si="110">X80+X79</f>
+        <f t="shared" ref="X81:Y81" si="111">X80+X79</f>
         <v>3003</v>
       </c>
       <c r="Y81" s="23">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>2816</v>
       </c>
       <c r="Z81" s="23">
-        <f t="shared" ref="Z81:AA81" si="111">Z80+Z79</f>
+        <f t="shared" ref="Z81:AA81" si="112">Z80+Z79</f>
         <v>3205</v>
       </c>
       <c r="AA81" s="23">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>2811</v>
       </c>
       <c r="AB81" s="23">
-        <f t="shared" ref="AB81:AC81" si="112">AB80+AB79</f>
+        <f t="shared" ref="AB81:AC81" si="113">AB80+AB79</f>
         <v>3038</v>
       </c>
       <c r="AC81" s="23">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>2936</v>
       </c>
       <c r="AD81" s="23">
@@ -19869,47 +20253,47 @@
         <v>3183</v>
       </c>
       <c r="AE81" s="23">
-        <f t="shared" ref="AE81:AF81" si="113">AE80+AE79</f>
+        <f t="shared" ref="AE81:AF81" si="114">AE80+AE79</f>
         <v>3033</v>
       </c>
       <c r="AF81" s="23">
-        <f t="shared" si="113"/>
-        <v>0</v>
-      </c>
-      <c r="AG81" s="23">
-        <f t="shared" ref="AG81:AH81" si="114">AG80+AG79</f>
-        <v>0</v>
-      </c>
-      <c r="AH81" s="23">
         <f t="shared" si="114"/>
         <v>0</v>
       </c>
-      <c r="AI81" s="23">
-        <f t="shared" ref="AI81:AO81" si="115">AI80+AI79</f>
+      <c r="AG81" s="23">
+        <f t="shared" ref="AG81:AH81" si="115">AG80+AG79</f>
         <v>0</v>
       </c>
-      <c r="AJ81" s="23">
+      <c r="AH81" s="23">
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
+      <c r="AI81" s="23">
+        <f t="shared" ref="AI81:AO81" si="116">AI80+AI79</f>
+        <v>0</v>
+      </c>
+      <c r="AJ81" s="23">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
       <c r="AK81" s="23">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="AL81" s="23">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="AM81" s="23">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="AN81" s="23">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>3495</v>
       </c>
       <c r="AO81" s="23">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>3199</v>
       </c>
       <c r="AP81" s="23"/>
@@ -19938,35 +20322,35 @@
       <c r="BM81" s="54"/>
       <c r="BN81" s="54"/>
       <c r="BO81" s="54">
-        <f t="shared" ref="BO81" si="116">BO79+BO80</f>
+        <f t="shared" ref="BO81" si="117">BO79+BO80</f>
         <v>3682</v>
       </c>
       <c r="BP81" s="54">
-        <f t="shared" ref="BP81:BQ81" si="117">BP79+BP80</f>
+        <f t="shared" ref="BP81:BQ81" si="118">BP79+BP80</f>
         <v>3617</v>
       </c>
       <c r="BQ81" s="54">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>3503</v>
       </c>
       <c r="BR81" s="54">
-        <f t="shared" ref="BR81:BV81" si="118">BR79+BR80</f>
+        <f t="shared" ref="BR81:BV81" si="119">BR79+BR80</f>
         <v>4118</v>
       </c>
       <c r="BS81" s="54">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>3461</v>
       </c>
       <c r="BT81" s="54">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>3733</v>
       </c>
       <c r="BU81" s="54">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>3710</v>
       </c>
       <c r="BV81" s="54">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>4343</v>
       </c>
       <c r="BW81" s="54">
@@ -19978,31 +20362,31 @@
         <v>4232</v>
       </c>
       <c r="BY81" s="54">
-        <f t="shared" ref="BY81:CE81" si="119">BY80+BY79</f>
+        <f t="shared" ref="BY81:CE81" si="120">BY80+BY79</f>
         <v>4380</v>
       </c>
       <c r="BZ81" s="54">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>4718</v>
       </c>
       <c r="CA81" s="54">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>4170</v>
       </c>
       <c r="CB81" s="54">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>4205</v>
       </c>
       <c r="CC81" s="54">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>4242</v>
       </c>
       <c r="CD81" s="54">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>4803</v>
       </c>
       <c r="CE81" s="54">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>4324</v>
       </c>
       <c r="CF81" s="54">
@@ -20013,7 +20397,10 @@
         <f>CG80+CG79</f>
         <v>4533</v>
       </c>
-      <c r="CH81" s="54"/>
+      <c r="CH81" s="54">
+        <f t="shared" ref="CH81" si="121">CH80+CH79</f>
+        <v>4905</v>
+      </c>
       <c r="CI81" s="54"/>
       <c r="CJ81" s="54"/>
       <c r="CK81" s="54"/>
@@ -20023,7 +20410,7 @@
       <c r="CR81" s="23"/>
       <c r="CS81" s="23"/>
       <c r="CT81" s="23">
-        <f t="shared" ref="CT81:CY81" si="120">CT79+CT80</f>
+        <f t="shared" ref="CT81:CY81" si="122">CT79+CT80</f>
         <v>11743</v>
       </c>
       <c r="CU81" s="23">
@@ -20039,11 +20426,11 @@
         <v>3033</v>
       </c>
       <c r="CX81" s="23">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>1933</v>
       </c>
       <c r="CY81" s="23">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>1933</v>
       </c>
       <c r="CZ81" s="23">
@@ -20084,35 +20471,35 @@
         <v>2272</v>
       </c>
       <c r="M82" s="23">
-        <f t="shared" ref="M82:W82" si="121">M78-M81</f>
+        <f t="shared" ref="M82:W82" si="123">M78-M81</f>
         <v>2421</v>
       </c>
       <c r="N82" s="23">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>2263</v>
       </c>
       <c r="O82" s="23">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>2615</v>
       </c>
       <c r="P82" s="23">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>2358</v>
       </c>
       <c r="Q82" s="23">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>2582</v>
       </c>
       <c r="R82" s="23">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>1990</v>
       </c>
       <c r="S82" s="23">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>2442</v>
       </c>
       <c r="T82" s="23">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>2369</v>
       </c>
       <c r="U82" s="23">
@@ -20120,11 +20507,11 @@
         <v>2632</v>
       </c>
       <c r="V82" s="23">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>2278</v>
       </c>
       <c r="W82" s="23">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>2800</v>
       </c>
       <c r="X82" s="23">
@@ -20144,11 +20531,11 @@
         <v>3452</v>
       </c>
       <c r="AB82" s="23">
-        <f t="shared" ref="AB82:AC82" si="122">AB78-AB81</f>
+        <f t="shared" ref="AB82:AC82" si="124">AB78-AB81</f>
         <v>3095</v>
       </c>
       <c r="AC82" s="23">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>3027</v>
       </c>
       <c r="AD82" s="23">
@@ -20172,31 +20559,31 @@
         <v>5696.5039999999999</v>
       </c>
       <c r="AI82" s="23">
-        <f t="shared" ref="AI82:AO82" si="123">AI78-AI81</f>
+        <f t="shared" ref="AI82:AO82" si="125">AI78-AI81</f>
         <v>0</v>
       </c>
       <c r="AJ82" s="23">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="AK82" s="23">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="AL82" s="23">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="AM82" s="23">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="AN82" s="23">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>1906</v>
       </c>
       <c r="AO82" s="23">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>2430</v>
       </c>
       <c r="AP82" s="23"/>
@@ -20225,35 +20612,35 @@
       <c r="BM82" s="54"/>
       <c r="BN82" s="54"/>
       <c r="BO82" s="54">
-        <f t="shared" ref="BO82" si="124">BO78-BO81</f>
+        <f t="shared" ref="BO82" si="126">BO78-BO81</f>
         <v>2787</v>
       </c>
       <c r="BP82" s="54">
-        <f t="shared" ref="BP82:BQ82" si="125">BP78-BP81</f>
+        <f t="shared" ref="BP82:BQ82" si="127">BP78-BP81</f>
         <v>2161</v>
       </c>
       <c r="BQ82" s="54">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>3217</v>
       </c>
       <c r="BR82" s="54">
-        <f t="shared" ref="BR82:BV82" si="126">BR78-BR81</f>
+        <f t="shared" ref="BR82:BV82" si="128">BR78-BR81</f>
         <v>2179</v>
       </c>
       <c r="BS82" s="54">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>2741</v>
       </c>
       <c r="BT82" s="54">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>2454</v>
       </c>
       <c r="BU82" s="54">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>3881</v>
       </c>
       <c r="BV82" s="54">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>2601</v>
       </c>
       <c r="BW82" s="54">
@@ -20265,31 +20652,31 @@
         <v>3261</v>
       </c>
       <c r="BY82" s="54">
-        <f t="shared" ref="BY82:CE82" si="127">BY78-BY81</f>
+        <f t="shared" ref="BY82:CE82" si="129">BY78-BY81</f>
         <v>4927</v>
       </c>
       <c r="BZ82" s="54">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>3003</v>
       </c>
       <c r="CA82" s="54">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>3613</v>
       </c>
       <c r="CB82" s="54">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>3214</v>
       </c>
       <c r="CC82" s="54">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>4616</v>
       </c>
       <c r="CD82" s="54">
-        <f t="shared" si="127"/>
-        <v>3364</v>
+        <f t="shared" si="129"/>
+        <v>2149</v>
       </c>
       <c r="CE82" s="54">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>3370</v>
       </c>
       <c r="CF82" s="54">
@@ -20300,7 +20687,10 @@
         <f>CG78-CG81</f>
         <v>5540</v>
       </c>
-      <c r="CH82" s="54"/>
+      <c r="CH82" s="54">
+        <f t="shared" ref="CH82" si="130">CH78-CH81</f>
+        <v>2938</v>
+      </c>
       <c r="CI82" s="54"/>
       <c r="CJ82" s="54"/>
       <c r="CK82" s="54"/>
@@ -20310,7 +20700,7 @@
       <c r="CR82" s="23"/>
       <c r="CS82" s="23"/>
       <c r="CT82" s="23">
-        <f t="shared" ref="CT82:CY82" si="128">CT78-CT81</f>
+        <f t="shared" ref="CT82:CY82" si="131">CT78-CT81</f>
         <v>9721</v>
       </c>
       <c r="CU82" s="23">
@@ -20326,11 +20716,11 @@
         <v>19877.374800000001</v>
       </c>
       <c r="CX82" s="23">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>20206.141468000002</v>
       </c>
       <c r="CY82" s="23">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>18698.906429000002</v>
       </c>
       <c r="CZ82" s="23">
@@ -20535,6 +20925,10 @@
       <c r="CG83" s="54">
         <f>187-1158-265+133</f>
         <v>-1103</v>
+      </c>
+      <c r="CH83" s="53">
+        <f>-886+32-7-62</f>
+        <v>-923</v>
       </c>
       <c r="CR83" s="23"/>
       <c r="CS83" s="23"/>
@@ -20550,31 +20944,31 @@
         <v>506</v>
       </c>
       <c r="CW83" s="23">
-        <f t="shared" ref="CW83:DC83" si="129">CV106*$DO$92</f>
+        <f t="shared" ref="CW83:DC83" si="132">CV106*$DO$92</f>
         <v>-663.26133120000009</v>
       </c>
       <c r="CX83" s="23">
-        <f t="shared" si="129"/>
+        <f t="shared" si="132"/>
         <v>201.37377489600001</v>
       </c>
       <c r="CY83" s="23">
-        <f t="shared" si="129"/>
+        <f t="shared" si="132"/>
         <v>1119.7119608263201</v>
       </c>
       <c r="CZ83" s="23">
-        <f t="shared" si="129"/>
+        <f t="shared" si="132"/>
         <v>2011.5497883685046</v>
       </c>
       <c r="DA83" s="23">
-        <f t="shared" si="129"/>
+        <f t="shared" si="132"/>
         <v>2901.4166495648246</v>
       </c>
       <c r="DB83" s="23">
-        <f t="shared" si="129"/>
+        <f t="shared" si="132"/>
         <v>3813.7092543158196</v>
       </c>
       <c r="DC83" s="23">
-        <f t="shared" si="129"/>
+        <f t="shared" si="132"/>
         <v>4727.6540251144497</v>
       </c>
     </row>
@@ -20607,55 +21001,55 @@
         <v>2384</v>
       </c>
       <c r="O84" s="23">
-        <f t="shared" ref="O84:AH84" si="130">O82+O83</f>
+        <f t="shared" ref="O84:AH84" si="133">O82+O83</f>
         <v>2720</v>
       </c>
       <c r="P84" s="23">
-        <f t="shared" si="130"/>
+        <f t="shared" si="133"/>
         <v>2324</v>
       </c>
       <c r="Q84" s="23">
-        <f t="shared" si="130"/>
+        <f t="shared" si="133"/>
         <v>2600</v>
       </c>
       <c r="R84" s="23">
-        <f t="shared" si="130"/>
+        <f t="shared" si="133"/>
         <v>1977</v>
       </c>
       <c r="S84" s="23">
-        <f t="shared" si="130"/>
+        <f t="shared" si="133"/>
         <v>2529</v>
       </c>
       <c r="T84" s="23">
-        <f t="shared" si="130"/>
+        <f t="shared" si="133"/>
         <v>2410</v>
       </c>
       <c r="U84" s="23">
-        <f t="shared" si="130"/>
+        <f t="shared" si="133"/>
         <v>2621</v>
       </c>
       <c r="V84" s="23">
-        <f t="shared" si="130"/>
+        <f t="shared" si="133"/>
         <v>2132</v>
       </c>
       <c r="W84" s="23">
-        <f t="shared" si="130"/>
+        <f t="shared" si="133"/>
         <v>2904</v>
       </c>
       <c r="X84" s="23">
-        <f t="shared" si="130"/>
+        <f t="shared" si="133"/>
         <v>2747</v>
       </c>
       <c r="Y84" s="23">
-        <f t="shared" si="130"/>
+        <f t="shared" si="133"/>
         <v>2945</v>
       </c>
       <c r="Z84" s="23">
-        <f t="shared" si="130"/>
+        <f t="shared" si="133"/>
         <v>2318</v>
       </c>
       <c r="AA84" s="23">
-        <f t="shared" si="130"/>
+        <f t="shared" si="133"/>
         <v>3815</v>
       </c>
       <c r="AB84" s="23">
@@ -20663,7 +21057,7 @@
         <v>3421</v>
       </c>
       <c r="AC84" s="23">
-        <f t="shared" si="130"/>
+        <f t="shared" si="133"/>
         <v>2939</v>
       </c>
       <c r="AD84" s="23">
@@ -20671,19 +21065,19 @@
         <v>2222</v>
       </c>
       <c r="AE84" s="23">
-        <f t="shared" si="130"/>
+        <f t="shared" si="133"/>
         <v>2719</v>
       </c>
       <c r="AF84" s="23">
-        <f t="shared" si="130"/>
+        <f t="shared" si="133"/>
         <v>5785</v>
       </c>
       <c r="AG84" s="23">
-        <f t="shared" si="130"/>
+        <f t="shared" si="133"/>
         <v>5768.28</v>
       </c>
       <c r="AH84" s="23">
-        <f t="shared" si="130"/>
+        <f t="shared" si="133"/>
         <v>5496.5039999999999</v>
       </c>
       <c r="AI84" s="23"/>
@@ -20692,11 +21086,11 @@
       <c r="AL84" s="23"/>
       <c r="AM84" s="23"/>
       <c r="AN84" s="23">
-        <f t="shared" ref="AN84:AO84" si="131">AN82+AN83</f>
+        <f t="shared" ref="AN84:AO84" si="134">AN82+AN83</f>
         <v>1867</v>
       </c>
       <c r="AO84" s="23">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>2337</v>
       </c>
       <c r="AP84" s="23"/>
@@ -20725,7 +21119,7 @@
       <c r="BM84" s="54"/>
       <c r="BN84" s="54"/>
       <c r="BO84" s="54">
-        <f t="shared" ref="BO84" si="132">BO82+BO83</f>
+        <f t="shared" ref="BO84" si="135">BO82+BO83</f>
         <v>2659</v>
       </c>
       <c r="BP84" s="54">
@@ -20733,27 +21127,27 @@
         <v>1976</v>
       </c>
       <c r="BQ84" s="54">
-        <f t="shared" ref="BQ84" si="133">BQ82+BQ83</f>
+        <f t="shared" ref="BQ84" si="136">BQ82+BQ83</f>
         <v>2951</v>
       </c>
       <c r="BR84" s="54">
-        <f t="shared" ref="BR84:BV84" si="134">BR82+BR83</f>
+        <f t="shared" ref="BR84:BV84" si="137">BR82+BR83</f>
         <v>1959</v>
       </c>
       <c r="BS84" s="54">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>2553</v>
       </c>
       <c r="BT84" s="54">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>2189</v>
       </c>
       <c r="BU84" s="54">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>3473</v>
       </c>
       <c r="BV84" s="54">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>2173</v>
       </c>
       <c r="BW84" s="54">
@@ -20765,31 +21159,31 @@
         <v>2676</v>
       </c>
       <c r="BY84" s="54">
-        <f t="shared" ref="BY84:CE84" si="135">BY82+BY83</f>
+        <f t="shared" ref="BY84:CE84" si="138">BY82+BY83</f>
         <v>4447</v>
       </c>
       <c r="BZ84" s="54">
-        <f t="shared" si="135"/>
+        <f t="shared" si="138"/>
         <v>2695</v>
       </c>
       <c r="CA84" s="54">
-        <f t="shared" si="135"/>
+        <f t="shared" si="138"/>
         <v>3325</v>
       </c>
       <c r="CB84" s="54">
-        <f t="shared" si="135"/>
+        <f t="shared" si="138"/>
         <v>2684</v>
       </c>
       <c r="CC84" s="54">
-        <f t="shared" si="135"/>
+        <f t="shared" si="138"/>
         <v>3945</v>
       </c>
       <c r="CD84" s="54">
-        <f t="shared" si="135"/>
-        <v>2534</v>
+        <f t="shared" si="138"/>
+        <v>1319</v>
       </c>
       <c r="CE84" s="54">
-        <f t="shared" si="135"/>
+        <f t="shared" si="138"/>
         <v>2800</v>
       </c>
       <c r="CF84" s="54">
@@ -20800,7 +21194,10 @@
         <f>CG82+CG83</f>
         <v>4437</v>
       </c>
-      <c r="CH84" s="54"/>
+      <c r="CH84" s="54">
+        <f>CH82+CH83</f>
+        <v>2015</v>
+      </c>
       <c r="CI84" s="54"/>
       <c r="CJ84" s="54"/>
       <c r="CK84" s="54"/>
@@ -20810,43 +21207,43 @@
       <c r="CR84" s="23"/>
       <c r="CS84" s="23"/>
       <c r="CT84" s="23">
-        <f t="shared" ref="CT84" si="136">CT82+CT83</f>
+        <f t="shared" ref="CT84" si="139">CT82+CT83</f>
         <v>9721</v>
       </c>
       <c r="CU84" s="23">
-        <f t="shared" ref="CU84:DC84" si="137">CU82+CU83</f>
+        <f t="shared" ref="CU84:DC84" si="140">CU82+CU83</f>
         <v>10914</v>
       </c>
       <c r="CV84" s="23">
-        <f t="shared" si="137"/>
+        <f t="shared" si="140"/>
         <v>11957.55</v>
       </c>
       <c r="CW84" s="23">
-        <f t="shared" si="137"/>
+        <f t="shared" si="140"/>
         <v>19214.113468800002</v>
       </c>
       <c r="CX84" s="23">
-        <f t="shared" si="137"/>
+        <f t="shared" si="140"/>
         <v>20407.515242896003</v>
       </c>
       <c r="CY84" s="23">
-        <f t="shared" si="137"/>
+        <f t="shared" si="140"/>
         <v>19818.618389826323</v>
       </c>
       <c r="CZ84" s="23">
-        <f t="shared" si="137"/>
+        <f t="shared" si="140"/>
         <v>19774.819137696006</v>
       </c>
       <c r="DA84" s="23">
-        <f t="shared" si="137"/>
+        <f t="shared" si="140"/>
         <v>20273.168994466552</v>
       </c>
       <c r="DB84" s="23">
-        <f t="shared" si="137"/>
+        <f t="shared" si="140"/>
         <v>20309.883795525107</v>
       </c>
       <c r="DC84" s="23">
-        <f t="shared" si="137"/>
+        <f t="shared" si="140"/>
         <v>19525.462265954669</v>
       </c>
     </row>
@@ -20933,11 +21330,11 @@
         <v>1619.8000000000002</v>
       </c>
       <c r="AG85" s="23">
-        <f t="shared" ref="AG85:AH85" si="138">+AG84*AG94</f>
+        <f t="shared" ref="AG85:AH85" si="141">+AG84*AG94</f>
         <v>1615.1184000000001</v>
       </c>
       <c r="AH85" s="23">
-        <f t="shared" si="138"/>
+        <f t="shared" si="141"/>
         <v>1539.0211200000001</v>
       </c>
       <c r="AI85" s="23"/>
@@ -21033,7 +21430,9 @@
       <c r="CG85" s="54">
         <v>737</v>
       </c>
-      <c r="CH85" s="54"/>
+      <c r="CH85" s="54">
+        <v>374</v>
+      </c>
       <c r="CI85" s="54"/>
       <c r="CJ85" s="54"/>
       <c r="CK85" s="54"/>
@@ -21055,31 +21454,31 @@
         <v>2764</v>
       </c>
       <c r="CW85" s="23">
-        <f t="shared" ref="CW85:DC85" si="139">CW84*CW94</f>
+        <f t="shared" ref="CW85:DC85" si="142">CW84*CW94</f>
         <v>4803.5283672000005</v>
       </c>
       <c r="CX85" s="23">
-        <f t="shared" si="139"/>
+        <f t="shared" si="142"/>
         <v>5101.8788107240007</v>
       </c>
       <c r="CY85" s="23">
-        <f t="shared" si="139"/>
+        <f t="shared" si="142"/>
         <v>4954.6545974565806</v>
       </c>
       <c r="CZ85" s="23">
-        <f t="shared" si="139"/>
+        <f t="shared" si="142"/>
         <v>4943.7047844240014</v>
       </c>
       <c r="DA85" s="23">
-        <f t="shared" si="139"/>
+        <f t="shared" si="142"/>
         <v>5068.2922486166381</v>
       </c>
       <c r="DB85" s="23">
-        <f t="shared" si="139"/>
+        <f t="shared" si="142"/>
         <v>5077.4709488812769</v>
       </c>
       <c r="DC85" s="23">
-        <f t="shared" si="139"/>
+        <f t="shared" si="142"/>
         <v>4881.3655664886674</v>
       </c>
     </row>
@@ -21265,7 +21664,9 @@
       <c r="CG86" s="54">
         <v>-78</v>
       </c>
-      <c r="CH86" s="54"/>
+      <c r="CH86" s="54">
+        <v>0</v>
+      </c>
       <c r="CI86" s="54"/>
       <c r="CJ86" s="54"/>
       <c r="CK86" s="54"/>
@@ -21315,27 +21716,27 @@
         <v>1683</v>
       </c>
       <c r="M87" s="23">
-        <f t="shared" ref="M87:R87" si="140">M84-M85+M86</f>
+        <f t="shared" ref="M87:R87" si="143">M84-M85+M86</f>
         <v>1837</v>
       </c>
       <c r="N87" s="23">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>1900</v>
       </c>
       <c r="O87" s="23">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>2590</v>
       </c>
       <c r="P87" s="23">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>1839</v>
       </c>
       <c r="Q87" s="23">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>1995</v>
       </c>
       <c r="R87" s="23">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>1691</v>
       </c>
       <c r="S87" s="23">
@@ -21355,31 +21756,31 @@
         <v>1793</v>
       </c>
       <c r="W87" s="23">
-        <f t="shared" ref="W87:AC87" si="141">W84-W85+W86</f>
+        <f t="shared" ref="W87:AC87" si="144">W84-W85+W86</f>
         <v>2228</v>
       </c>
       <c r="X87" s="23">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v>2244</v>
       </c>
       <c r="Y87" s="23">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v>2402</v>
       </c>
       <c r="Z87" s="23">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v>2058</v>
       </c>
       <c r="AA87" s="23">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v>2940</v>
       </c>
       <c r="AB87" s="23">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v>2478</v>
       </c>
       <c r="AC87" s="23">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v>2860</v>
       </c>
       <c r="AD87" s="23">
@@ -21391,15 +21792,15 @@
         <v>2170</v>
       </c>
       <c r="AF87" s="23">
-        <f t="shared" ref="AF87:AH87" si="142">AF84-AF85+AF86</f>
+        <f t="shared" ref="AF87:AH87" si="145">AF84-AF85+AF86</f>
         <v>4395.2</v>
       </c>
       <c r="AG87" s="23">
-        <f t="shared" si="142"/>
+        <f t="shared" si="145"/>
         <v>4383.1615999999995</v>
       </c>
       <c r="AH87" s="23">
-        <f t="shared" si="142"/>
+        <f t="shared" si="145"/>
         <v>4187.4828799999996</v>
       </c>
       <c r="AI87" s="23"/>
@@ -21408,11 +21809,11 @@
       <c r="AL87" s="23"/>
       <c r="AM87" s="23"/>
       <c r="AN87" s="23">
-        <f t="shared" ref="AN87:AO87" si="143">AN84-AN85+AN86</f>
+        <f t="shared" ref="AN87:AO87" si="146">AN84-AN85+AN86</f>
         <v>1462</v>
       </c>
       <c r="AO87" s="23">
-        <f t="shared" si="143"/>
+        <f t="shared" si="146"/>
         <v>1774</v>
       </c>
       <c r="AP87" s="23"/>
@@ -21441,35 +21842,35 @@
       <c r="BM87" s="54"/>
       <c r="BN87" s="54"/>
       <c r="BO87" s="54">
-        <f t="shared" ref="BO87" si="144">BO84-BO85-BO86</f>
+        <f t="shared" ref="BO87" si="147">BO84-BO85-BO86</f>
         <v>2042</v>
       </c>
       <c r="BP87" s="54">
-        <f t="shared" ref="BP87" si="145">BP84-BP85-BP86</f>
+        <f t="shared" ref="BP87" si="148">BP84-BP85-BP86</f>
         <v>1540</v>
       </c>
       <c r="BQ87" s="54">
-        <f t="shared" ref="BQ87:BR87" si="146">BQ84-BQ85-BQ86</f>
+        <f t="shared" ref="BQ87:BR87" si="149">BQ84-BQ85-BQ86</f>
         <v>2299</v>
       </c>
       <c r="BR87" s="54">
-        <f t="shared" si="146"/>
+        <f t="shared" si="149"/>
         <v>1527</v>
       </c>
       <c r="BS87" s="54">
-        <f t="shared" ref="BS87:BV87" si="147">BS84-BS85-BS86</f>
+        <f t="shared" ref="BS87:BV87" si="150">BS84-BS85-BS86</f>
         <v>2016</v>
       </c>
       <c r="BT87" s="54">
-        <f t="shared" si="147"/>
+        <f t="shared" si="150"/>
         <v>1731</v>
       </c>
       <c r="BU87" s="54">
-        <f t="shared" si="147"/>
+        <f t="shared" si="150"/>
         <v>2736</v>
       </c>
       <c r="BV87" s="54">
-        <f t="shared" si="147"/>
+        <f t="shared" si="150"/>
         <v>1730</v>
       </c>
       <c r="BW87" s="54">
@@ -21481,31 +21882,31 @@
         <v>2170</v>
       </c>
       <c r="BY87" s="54">
-        <f t="shared" ref="BY87:CE87" si="148">BY84-BY85-BY86</f>
+        <f t="shared" ref="BY87:CE87" si="151">BY84-BY85-BY86</f>
         <v>3606</v>
       </c>
       <c r="BZ87" s="54">
-        <f t="shared" si="148"/>
+        <f t="shared" si="151"/>
         <v>2140</v>
       </c>
       <c r="CA87" s="54">
-        <f t="shared" si="148"/>
+        <f t="shared" si="151"/>
         <v>2698</v>
       </c>
       <c r="CB87" s="54">
-        <f t="shared" si="148"/>
+        <f t="shared" si="151"/>
         <v>2177</v>
       </c>
       <c r="CC87" s="54">
-        <f t="shared" si="148"/>
+        <f t="shared" si="151"/>
         <v>3196</v>
       </c>
       <c r="CD87" s="54">
-        <f t="shared" si="148"/>
-        <v>2083</v>
+        <f t="shared" si="151"/>
+        <v>868</v>
       </c>
       <c r="CE87" s="54">
-        <f t="shared" si="148"/>
+        <f t="shared" si="151"/>
         <v>2219</v>
       </c>
       <c r="CF87" s="54">
@@ -21516,7 +21917,10 @@
         <f>CG84-CG85-CG86</f>
         <v>3778</v>
       </c>
-      <c r="CH87" s="54"/>
+      <c r="CH87" s="54">
+        <f>CH84-CH85-CH86</f>
+        <v>1641</v>
+      </c>
       <c r="CI87" s="54"/>
       <c r="CJ87" s="54"/>
       <c r="CK87" s="54"/>
@@ -21525,47 +21929,47 @@
       <c r="CN87" s="23"/>
       <c r="CR87" s="23"/>
       <c r="CS87" s="23">
-        <f t="shared" ref="CS87:CT87" si="149">CS84-CS85+CS86</f>
+        <f t="shared" ref="CS87:CT87" si="152">CS84-CS85+CS86</f>
         <v>739</v>
       </c>
       <c r="CT87" s="23">
-        <f t="shared" si="149"/>
+        <f t="shared" si="152"/>
         <v>7942</v>
       </c>
       <c r="CU87" s="23">
-        <f t="shared" ref="CU87:DC87" si="150">CU84-CU85+CU86</f>
+        <f t="shared" ref="CU87:DC87" si="153">CU84-CU85+CU86</f>
         <v>8932</v>
       </c>
       <c r="CV87" s="23">
-        <f t="shared" si="150"/>
+        <f t="shared" si="153"/>
         <v>9193.5499999999993</v>
       </c>
       <c r="CW87" s="23">
-        <f t="shared" si="150"/>
+        <f t="shared" si="153"/>
         <v>14410.585101600002</v>
       </c>
       <c r="CX87" s="23">
-        <f t="shared" si="150"/>
+        <f t="shared" si="153"/>
         <v>15305.636432172003</v>
       </c>
       <c r="CY87" s="23">
-        <f t="shared" si="150"/>
+        <f t="shared" si="153"/>
         <v>14863.963792369741</v>
       </c>
       <c r="CZ87" s="23">
-        <f t="shared" si="150"/>
+        <f t="shared" si="153"/>
         <v>14831.114353272005</v>
       </c>
       <c r="DA87" s="23">
-        <f t="shared" si="150"/>
+        <f t="shared" si="153"/>
         <v>15204.876745849913</v>
       </c>
       <c r="DB87" s="23">
-        <f t="shared" si="150"/>
+        <f t="shared" si="153"/>
         <v>15232.412846643831</v>
       </c>
       <c r="DC87" s="23">
-        <f t="shared" si="150"/>
+        <f t="shared" si="153"/>
         <v>14644.096699466001</v>
       </c>
     </row>
@@ -21726,7 +22130,9 @@
       <c r="CG88" s="54">
         <v>29</v>
       </c>
-      <c r="CH88" s="54"/>
+      <c r="CH88" s="54">
+        <v>0</v>
+      </c>
       <c r="CI88" s="54"/>
       <c r="CJ88" s="54"/>
       <c r="CK88" s="54"/>
@@ -21773,35 +22179,35 @@
         <v>1596</v>
       </c>
       <c r="M89" s="23">
-        <f t="shared" ref="M89:W89" si="151">M87+M88</f>
+        <f t="shared" ref="M89:W89" si="154">M87+M88</f>
         <v>1737</v>
       </c>
       <c r="N89" s="23">
-        <f t="shared" si="151"/>
+        <f t="shared" si="154"/>
         <v>1797</v>
       </c>
       <c r="O89" s="23">
-        <f t="shared" si="151"/>
+        <f t="shared" si="154"/>
         <v>2478</v>
       </c>
       <c r="P89" s="23">
-        <f t="shared" si="151"/>
+        <f t="shared" si="154"/>
         <v>1740</v>
       </c>
       <c r="Q89" s="23">
-        <f t="shared" si="151"/>
+        <f t="shared" si="154"/>
         <v>1884</v>
       </c>
       <c r="R89" s="23">
-        <f t="shared" si="151"/>
+        <f t="shared" si="154"/>
         <v>1594</v>
       </c>
       <c r="S89" s="23">
-        <f t="shared" si="151"/>
+        <f t="shared" si="154"/>
         <v>1915</v>
       </c>
       <c r="T89" s="23">
-        <f t="shared" si="151"/>
+        <f t="shared" si="154"/>
         <v>1894</v>
       </c>
       <c r="U89" s="23">
@@ -21809,35 +22215,35 @@
         <v>1980</v>
       </c>
       <c r="V89" s="23">
-        <f t="shared" si="151"/>
+        <f t="shared" si="154"/>
         <v>1683</v>
       </c>
       <c r="W89" s="23">
-        <f t="shared" si="151"/>
+        <f t="shared" si="154"/>
         <v>2107</v>
       </c>
       <c r="X89" s="23">
-        <f t="shared" ref="X89:AC89" si="152">X87+X88</f>
+        <f t="shared" ref="X89:AC89" si="155">X87+X88</f>
         <v>2133</v>
       </c>
       <c r="Y89" s="23">
-        <f t="shared" si="152"/>
+        <f t="shared" si="155"/>
         <v>2288</v>
       </c>
       <c r="Z89" s="23">
-        <f t="shared" si="152"/>
+        <f t="shared" si="155"/>
         <v>1977</v>
       </c>
       <c r="AA89" s="23">
-        <f t="shared" si="152"/>
+        <f t="shared" si="155"/>
         <v>2940</v>
       </c>
       <c r="AB89" s="23">
-        <f t="shared" si="152"/>
+        <f t="shared" si="155"/>
         <v>2478</v>
       </c>
       <c r="AC89" s="23">
-        <f t="shared" si="152"/>
+        <f t="shared" si="155"/>
         <v>2860</v>
       </c>
       <c r="AD89" s="23">
@@ -21849,15 +22255,15 @@
         <v>2170</v>
       </c>
       <c r="AF89" s="23">
-        <f t="shared" ref="AF89:AH89" si="153">AF87+AF88</f>
+        <f t="shared" ref="AF89:AH89" si="156">AF87+AF88</f>
         <v>4395.2</v>
       </c>
       <c r="AG89" s="23">
-        <f t="shared" si="153"/>
+        <f t="shared" si="156"/>
         <v>4383.1615999999995</v>
       </c>
       <c r="AH89" s="23">
-        <f t="shared" si="153"/>
+        <f t="shared" si="156"/>
         <v>4187.4828799999996</v>
       </c>
       <c r="AI89" s="23"/>
@@ -21866,11 +22272,11 @@
       <c r="AL89" s="23"/>
       <c r="AM89" s="23"/>
       <c r="AN89" s="23">
-        <f t="shared" ref="AN89:AO89" si="154">AN87+AN88</f>
+        <f t="shared" ref="AN89:AO89" si="157">AN87+AN88</f>
         <v>1462</v>
       </c>
       <c r="AO89" s="23">
-        <f t="shared" si="154"/>
+        <f t="shared" si="157"/>
         <v>1774</v>
       </c>
       <c r="AP89" s="23"/>
@@ -21899,82 +22305,85 @@
       <c r="BM89" s="54"/>
       <c r="BN89" s="54"/>
       <c r="BO89" s="54">
-        <f t="shared" ref="BO89" si="155">BO87-BO88</f>
+        <f t="shared" ref="BO89" si="158">BO87-BO88</f>
         <v>2042</v>
       </c>
       <c r="BP89" s="54">
-        <f t="shared" ref="BP89:BQ89" si="156">BP87-BP88</f>
+        <f t="shared" ref="BP89:BQ89" si="159">BP87-BP88</f>
         <v>1540</v>
       </c>
       <c r="BQ89" s="54">
-        <f t="shared" si="156"/>
+        <f t="shared" si="159"/>
         <v>2299</v>
       </c>
       <c r="BR89" s="54">
-        <f t="shared" ref="BR89:BX89" si="157">BR87-BR88</f>
+        <f t="shared" ref="BR89:BX89" si="160">BR87-BR88</f>
         <v>1527</v>
       </c>
       <c r="BS89" s="54">
-        <f t="shared" si="157"/>
+        <f t="shared" si="160"/>
         <v>2016</v>
       </c>
       <c r="BT89" s="54">
-        <f t="shared" si="157"/>
+        <f t="shared" si="160"/>
         <v>1731</v>
       </c>
       <c r="BU89" s="54">
-        <f t="shared" si="157"/>
+        <f t="shared" si="160"/>
         <v>2736</v>
       </c>
       <c r="BV89" s="54">
-        <f t="shared" si="157"/>
+        <f t="shared" si="160"/>
         <v>1730</v>
       </c>
       <c r="BW89" s="54">
-        <f t="shared" si="157"/>
+        <f t="shared" si="160"/>
         <v>2423</v>
       </c>
       <c r="BX89" s="54">
-        <f t="shared" si="157"/>
+        <f t="shared" si="160"/>
         <v>2170</v>
       </c>
       <c r="BY89" s="54">
-        <f t="shared" ref="BY89:CB89" si="158">BY87-BY88</f>
+        <f t="shared" ref="BY89:CB89" si="161">BY87-BY88</f>
         <v>3606</v>
       </c>
       <c r="BZ89" s="54">
-        <f t="shared" si="158"/>
+        <f t="shared" si="161"/>
         <v>2140</v>
       </c>
       <c r="CA89" s="54">
-        <f t="shared" si="158"/>
+        <f t="shared" si="161"/>
         <v>2698</v>
       </c>
       <c r="CB89" s="54">
-        <f t="shared" si="158"/>
+        <f t="shared" si="161"/>
         <v>2177</v>
       </c>
       <c r="CC89" s="54">
-        <f t="shared" ref="CC89:CD89" si="159">CC87-CC88</f>
+        <f t="shared" ref="CC89:CD89" si="162">CC87-CC88</f>
         <v>3196</v>
       </c>
       <c r="CD89" s="54">
-        <f t="shared" si="159"/>
-        <v>2083</v>
+        <f t="shared" si="162"/>
+        <v>868</v>
       </c>
       <c r="CE89" s="54">
-        <f t="shared" ref="CE89:CG89" si="160">CE87-CE88</f>
+        <f t="shared" ref="CE89:CH89" si="163">CE87-CE88</f>
         <v>2219</v>
       </c>
       <c r="CF89" s="54">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>2161</v>
       </c>
       <c r="CG89" s="54">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>3749</v>
       </c>
-      <c r="CH89" s="54"/>
+      <c r="CH89" s="54">
+        <f t="shared" si="163"/>
+        <v>1641</v>
+      </c>
       <c r="CI89" s="54"/>
       <c r="CJ89" s="54"/>
       <c r="CK89" s="54"/>
@@ -21984,295 +22393,295 @@
       <c r="CR89" s="23"/>
       <c r="CS89" s="23"/>
       <c r="CT89" s="23">
-        <f t="shared" ref="CT89" si="161">CT87+CT88</f>
+        <f t="shared" ref="CT89" si="164">CT87+CT88</f>
         <v>7523</v>
       </c>
       <c r="CU89" s="23">
-        <f t="shared" ref="CU89:DC89" si="162">CU87+CU88</f>
+        <f t="shared" ref="CU89:DC89" si="165">CU87+CU88</f>
         <v>8513</v>
       </c>
       <c r="CV89" s="23">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>9193.5499999999993</v>
       </c>
       <c r="CW89" s="23">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>14410.585101600002</v>
       </c>
       <c r="CX89" s="23">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>15305.636432172003</v>
       </c>
       <c r="CY89" s="23">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>14863.963792369741</v>
       </c>
       <c r="CZ89" s="23">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>14831.114353272005</v>
       </c>
       <c r="DA89" s="23">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>15204.876745849913</v>
       </c>
       <c r="DB89" s="23">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>15232.412846643831</v>
       </c>
       <c r="DC89" s="23">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>14644.096699466001</v>
       </c>
       <c r="DD89" s="14">
-        <f t="shared" ref="DD89:EI89" si="163">DC89*(1+$DO$93)</f>
+        <f t="shared" ref="DD89:EI89" si="166">DC89*(1+$DO$93)</f>
         <v>14497.655732471341</v>
       </c>
       <c r="DE89" s="14">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>14352.679175146628</v>
       </c>
       <c r="DF89" s="14">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>14209.152383395161</v>
       </c>
       <c r="DG89" s="14">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>14067.06085956121</v>
       </c>
       <c r="DH89" s="14">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>13926.390250965598</v>
       </c>
       <c r="DI89" s="14">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>13787.126348455942</v>
       </c>
       <c r="DJ89" s="14">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>13649.255084971383</v>
       </c>
       <c r="DK89" s="14">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>13512.762534121668</v>
       </c>
       <c r="DL89" s="14">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>13377.634908780452</v>
       </c>
       <c r="DM89" s="14">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>13243.858559692648</v>
       </c>
       <c r="DN89" s="14">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>13111.419974095721</v>
       </c>
       <c r="DO89" s="14">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>12980.305774354763</v>
       </c>
       <c r="DP89" s="14">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>12850.502716611216</v>
       </c>
       <c r="DQ89" s="14">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>12721.997689445103</v>
       </c>
       <c r="DR89" s="14">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>12594.777712550651</v>
       </c>
       <c r="DS89" s="14">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>12468.829935425145</v>
       </c>
       <c r="DT89" s="14">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>12344.141636070894</v>
       </c>
       <c r="DU89" s="14">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>12220.700219710185</v>
       </c>
       <c r="DV89" s="14">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>12098.493217513083</v>
       </c>
       <c r="DW89" s="14">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>11977.508285337952</v>
       </c>
       <c r="DX89" s="14">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>11857.733202484573</v>
       </c>
       <c r="DY89" s="14">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>11739.155870459726</v>
       </c>
       <c r="DZ89" s="14">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>11621.764311755129</v>
       </c>
       <c r="EA89" s="14">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>11505.546668637577</v>
       </c>
       <c r="EB89" s="14">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>11390.491201951201</v>
       </c>
       <c r="EC89" s="14">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>11276.586289931689</v>
       </c>
       <c r="ED89" s="14">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>11163.820427032371</v>
       </c>
       <c r="EE89" s="14">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>11052.182222762047</v>
       </c>
       <c r="EF89" s="14">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>10941.660400534427</v>
       </c>
       <c r="EG89" s="14">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>10832.243796529083</v>
       </c>
       <c r="EH89" s="14">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>10723.921358563792</v>
       </c>
       <c r="EI89" s="14">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>10616.682144978155</v>
       </c>
       <c r="EJ89" s="14">
-        <f t="shared" ref="EJ89:FN89" si="164">EI89*(1+$DO$93)</f>
+        <f t="shared" ref="EJ89:FN89" si="167">EI89*(1+$DO$93)</f>
         <v>10510.515323528372</v>
       </c>
       <c r="EK89" s="14">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>10405.410170293089</v>
       </c>
       <c r="EL89" s="14">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>10301.356068590158</v>
       </c>
       <c r="EM89" s="14">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>10198.342507904255</v>
       </c>
       <c r="EN89" s="14">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>10096.359082825213</v>
       </c>
       <c r="EO89" s="14">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>9995.3954919969601</v>
       </c>
       <c r="EP89" s="14">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>9895.4415370769912</v>
       </c>
       <c r="EQ89" s="14">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>9796.4871217062209</v>
       </c>
       <c r="ER89" s="14">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>9698.522250489159</v>
       </c>
       <c r="ES89" s="14">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>9601.5370279842682</v>
       </c>
       <c r="ET89" s="14">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>9505.5216577044248</v>
       </c>
       <c r="EU89" s="14">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>9410.4664411273807</v>
       </c>
       <c r="EV89" s="14">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>9316.3617767161068</v>
       </c>
       <c r="EW89" s="14">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>9223.198158948946</v>
       </c>
       <c r="EX89" s="14">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>9130.9661773594562</v>
       </c>
       <c r="EY89" s="14">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>9039.6565155858607</v>
       </c>
       <c r="EZ89" s="14">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>8949.2599504300015</v>
       </c>
       <c r="FA89" s="14">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>8859.767350925702</v>
       </c>
       <c r="FB89" s="14">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>8771.1696774164448</v>
       </c>
       <c r="FC89" s="14">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>8683.4579806422807</v>
       </c>
       <c r="FD89" s="14">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>8596.623400835857</v>
       </c>
       <c r="FE89" s="14">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>8510.6571668274992</v>
       </c>
       <c r="FF89" s="14">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>8425.550595159224</v>
       </c>
       <c r="FG89" s="14">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>8341.2950892076315</v>
       </c>
       <c r="FH89" s="14">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>8257.8821383155555</v>
       </c>
       <c r="FI89" s="14">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>8175.3033169323999</v>
       </c>
       <c r="FJ89" s="14">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>8093.5502837630756</v>
       </c>
       <c r="FK89" s="14">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>8012.6147809254444</v>
       </c>
       <c r="FL89" s="14">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>7932.4886331161897</v>
       </c>
       <c r="FM89" s="14">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>7853.1637467850278</v>
       </c>
       <c r="FN89" s="14">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>7774.6321093171773</v>
       </c>
     </row>
@@ -22303,88 +22712,88 @@
       <c r="K90" s="40"/>
       <c r="L90" s="40"/>
       <c r="M90" s="40">
-        <f t="shared" ref="M90:W90" si="165">M89/M91</f>
+        <f t="shared" ref="M90:W90" si="168">M89/M91</f>
         <v>1.2885756676557865</v>
       </c>
       <c r="N90" s="40">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>1.3322953736654806</v>
       </c>
       <c r="O90" s="40">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>1.8340611353711791</v>
       </c>
       <c r="P90" s="40">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>1.2870774465566979</v>
       </c>
       <c r="Q90" s="40">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>1.3962795523604832</v>
       </c>
       <c r="R90" s="40">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>1.1937392346289224</v>
       </c>
       <c r="S90" s="40">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>1.4498788612961842</v>
       </c>
       <c r="T90" s="40">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>1.4502297090352221</v>
       </c>
       <c r="U90" s="40">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>1.5174739423666463</v>
       </c>
       <c r="V90" s="40">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>1.289556355834802</v>
       </c>
       <c r="W90" s="40">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>1.613941018766756</v>
       </c>
       <c r="X90" s="40">
-        <f t="shared" ref="X90:Y90" si="166">X89/X91</f>
+        <f t="shared" ref="X90:Y90" si="169">X89/X91</f>
         <v>1.6338567598621219</v>
       </c>
       <c r="Y90" s="40">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>1.7523167649536646</v>
       </c>
       <c r="Z90" s="40">
-        <f t="shared" ref="Z90:AH90" si="167">Z89/Z91</f>
+        <f t="shared" ref="Z90:AH90" si="170">Z89/Z91</f>
         <v>1.5126243305279266</v>
       </c>
       <c r="AA90" s="40">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>2.2489099671077795</v>
       </c>
       <c r="AB90" s="40">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>1.8998696618876025</v>
       </c>
       <c r="AC90" s="40">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>2.1919068056407114</v>
       </c>
       <c r="AD90" s="40"/>
       <c r="AE90" s="40">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>1.6625804474410051</v>
       </c>
       <c r="AF90" s="40">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>3.3674532638676062</v>
       </c>
       <c r="AG90" s="40">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>3.3582298498314431</v>
       </c>
       <c r="AH90" s="40">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>3.2083074471345383</v>
       </c>
       <c r="AI90" s="40"/>
@@ -22393,11 +22802,11 @@
       <c r="AL90" s="40"/>
       <c r="AM90" s="40"/>
       <c r="AN90" s="40">
-        <f t="shared" ref="AN90:AO90" si="168">AN89/AN91</f>
+        <f t="shared" ref="AN90:AO90" si="171">AN89/AN91</f>
         <v>1.1028136079052575</v>
       </c>
       <c r="AO90" s="40">
-        <f t="shared" si="168"/>
+        <f t="shared" si="171"/>
         <v>1.3403853418964866</v>
       </c>
       <c r="AP90" s="40"/>
@@ -22426,71 +22835,71 @@
       <c r="BM90" s="63"/>
       <c r="BN90" s="63"/>
       <c r="BO90" s="63">
-        <f t="shared" ref="BO90" si="169">BO89/BO91</f>
+        <f t="shared" ref="BO90" si="172">BO89/BO91</f>
         <v>1.6319028210660913</v>
       </c>
       <c r="BP90" s="63">
-        <f t="shared" ref="BP90:BQ90" si="170">BP89/BP91</f>
+        <f t="shared" ref="BP90:BQ90" si="173">BP89/BP91</f>
         <v>1.2298354895384123</v>
       </c>
       <c r="BQ90" s="63">
-        <f t="shared" si="170"/>
+        <f t="shared" si="173"/>
         <v>1.8308513179899657</v>
       </c>
       <c r="BR90" s="63">
-        <f t="shared" ref="BR90:BX90" si="171">BR89/BR91</f>
+        <f t="shared" ref="BR90:BX90" si="174">BR89/BR91</f>
         <v>1.2166361246115849</v>
       </c>
       <c r="BS90" s="63">
-        <f t="shared" si="171"/>
+        <f t="shared" si="174"/>
         <v>1.6137036740574722</v>
       </c>
       <c r="BT90" s="63">
-        <f t="shared" si="171"/>
+        <f t="shared" si="174"/>
         <v>1.3833613042435866</v>
       </c>
       <c r="BU90" s="63">
-        <f t="shared" si="171"/>
+        <f t="shared" si="174"/>
         <v>2.1809485850936627</v>
       </c>
       <c r="BV90" s="63">
-        <f t="shared" si="171"/>
+        <f t="shared" si="174"/>
         <v>1.3785959040561</v>
       </c>
       <c r="BW90" s="63">
-        <f t="shared" si="171"/>
+        <f t="shared" si="174"/>
         <v>1.9396413704771054</v>
       </c>
       <c r="BX90" s="63">
-        <f t="shared" si="171"/>
+        <f t="shared" si="174"/>
         <v>1.7348896706108092</v>
       </c>
       <c r="BY90" s="63">
-        <f t="shared" ref="BY90:CE90" si="172">BY89/BY91</f>
+        <f t="shared" ref="BY90:CE90" si="175">BY89/BY91</f>
         <v>2.8767451136816913</v>
       </c>
       <c r="BZ90" s="63">
-        <f t="shared" si="172"/>
+        <f t="shared" si="175"/>
         <v>1.7065390749601277</v>
       </c>
       <c r="CA90" s="63">
-        <f t="shared" si="172"/>
+        <f t="shared" si="175"/>
         <v>2.1596093812535022</v>
       </c>
       <c r="CB90" s="63">
-        <f t="shared" si="172"/>
+        <f t="shared" si="175"/>
         <v>1.7407644330721255</v>
       </c>
       <c r="CC90" s="63">
-        <f t="shared" si="172"/>
+        <f t="shared" si="175"/>
         <v>2.5502713054580273</v>
       </c>
       <c r="CD90" s="63">
-        <f t="shared" si="172"/>
-        <v>1.6616145500957245</v>
+        <f t="shared" si="175"/>
+        <v>0.69240587109125717</v>
       </c>
       <c r="CE90" s="63">
-        <f t="shared" si="172"/>
+        <f t="shared" si="175"/>
         <v>1.7769058295964126</v>
       </c>
       <c r="CF90" s="63">
@@ -22501,7 +22910,10 @@
         <f>CG89/CG91</f>
         <v>2.9920191540303271</v>
       </c>
-      <c r="CH90" s="63"/>
+      <c r="CH90" s="63">
+        <f>+CH89/CH91</f>
+        <v>1.3090299936183791</v>
+      </c>
       <c r="CI90" s="63"/>
       <c r="CJ90" s="63"/>
       <c r="CK90" s="63"/>
@@ -22517,7 +22929,7 @@
         <v>5.7111573689172825</v>
       </c>
       <c r="CT90" s="46">
-        <f t="shared" ref="CT90:CY90" si="173">CT89/CT91</f>
+        <f t="shared" ref="CT90:CY90" si="176">CT89/CT91</f>
         <v>5.7463669868428582</v>
       </c>
       <c r="CU90" s="46">
@@ -22529,15 +22941,15 @@
         <v>7.0423475640894706</v>
       </c>
       <c r="CW90" s="46">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>11.038646538862222</v>
       </c>
       <c r="CX90" s="46">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>11.724264451158211</v>
       </c>
       <c r="CY90" s="46">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>11.385938968723631</v>
       </c>
       <c r="CZ90" s="46">
@@ -22733,7 +23145,9 @@
       <c r="CG91" s="54">
         <v>1253</v>
       </c>
-      <c r="CH91" s="54"/>
+      <c r="CH91" s="54">
+        <v>1253.5999999999999</v>
+      </c>
       <c r="CI91" s="54"/>
       <c r="CJ91" s="54"/>
       <c r="CK91" s="54"/>
@@ -22757,23 +23171,23 @@
         <v>1305.4666666666665</v>
       </c>
       <c r="CW91" s="23">
-        <f t="shared" ref="CW91:DA91" si="174">CV91</f>
+        <f t="shared" ref="CW91:DA91" si="177">CV91</f>
         <v>1305.4666666666665</v>
       </c>
       <c r="CX91" s="23">
-        <f t="shared" si="174"/>
+        <f t="shared" si="177"/>
         <v>1305.4666666666665</v>
       </c>
       <c r="CY91" s="23">
-        <f t="shared" si="174"/>
+        <f t="shared" si="177"/>
         <v>1305.4666666666665</v>
       </c>
       <c r="CZ91" s="23">
-        <f t="shared" si="174"/>
+        <f t="shared" si="177"/>
         <v>1305.4666666666665</v>
       </c>
       <c r="DA91" s="23">
-        <f t="shared" si="174"/>
+        <f t="shared" si="177"/>
         <v>1305.4666666666665</v>
       </c>
       <c r="DB91" s="23">
@@ -22798,79 +23212,79 @@
         <v>169</v>
       </c>
       <c r="M93" s="41">
-        <f t="shared" ref="M93:W93" si="175">M78/M76</f>
+        <f t="shared" ref="M93:W93" si="178">M78/M76</f>
         <v>0.76829445007969854</v>
       </c>
       <c r="N93" s="41">
-        <f t="shared" si="175"/>
+        <f t="shared" si="178"/>
         <v>0.76495377922784125</v>
       </c>
       <c r="O93" s="41">
-        <f t="shared" si="175"/>
+        <f t="shared" si="178"/>
         <v>0.77595095443778739</v>
       </c>
       <c r="P93" s="41">
-        <f t="shared" si="175"/>
+        <f t="shared" si="178"/>
         <v>0.77676898688571838</v>
       </c>
       <c r="Q93" s="41">
-        <f t="shared" si="175"/>
+        <f t="shared" si="178"/>
         <v>0.77153024911032031</v>
       </c>
       <c r="R93" s="41">
-        <f t="shared" si="175"/>
+        <f t="shared" si="178"/>
         <v>0.76067139343076251</v>
       </c>
       <c r="S93" s="41">
-        <f t="shared" si="175"/>
+        <f t="shared" si="178"/>
         <v>0.76803006214770919</v>
       </c>
       <c r="T93" s="41">
-        <f t="shared" si="175"/>
+        <f t="shared" si="178"/>
         <v>0.78472118403348778</v>
       </c>
       <c r="U93" s="41">
-        <f t="shared" si="175"/>
+        <f t="shared" si="178"/>
         <v>0.78389026703633446</v>
       </c>
       <c r="V93" s="41">
-        <f t="shared" si="175"/>
+        <f t="shared" si="178"/>
         <v>0.77994075327972912</v>
       </c>
       <c r="W93" s="41">
-        <f t="shared" si="175"/>
+        <f t="shared" si="178"/>
         <v>0.79977486984663004</v>
       </c>
       <c r="X93" s="41">
-        <f t="shared" ref="X93:Y93" si="176">X78/X76</f>
+        <f t="shared" ref="X93:Y93" si="179">X78/X76</f>
         <v>0.80193496371943029</v>
       </c>
       <c r="Y93" s="41">
-        <f t="shared" si="176"/>
+        <f t="shared" si="179"/>
         <v>0.77621621621621617</v>
       </c>
       <c r="Z93" s="41">
-        <f t="shared" ref="Z93:AE93" si="177">Z78/Z76</f>
+        <f t="shared" ref="Z93:AE93" si="180">Z78/Z76</f>
         <v>0.7477244939546257</v>
       </c>
       <c r="AA93" s="41">
-        <f t="shared" si="177"/>
+        <f t="shared" si="180"/>
         <v>0.7929855659660674</v>
       </c>
       <c r="AB93" s="41">
-        <f t="shared" si="177"/>
+        <f t="shared" si="180"/>
         <v>0.7879994860593601</v>
       </c>
       <c r="AC93" s="41">
-        <f t="shared" si="177"/>
+        <f t="shared" si="180"/>
         <v>0.76243447129523079</v>
       </c>
       <c r="AD93" s="41">
-        <f t="shared" si="177"/>
+        <f t="shared" si="180"/>
         <v>0.74374577417173771</v>
       </c>
       <c r="AE93" s="41">
-        <f t="shared" si="177"/>
+        <f t="shared" si="180"/>
         <v>0.74945365728242708</v>
       </c>
       <c r="AF93" s="41">
@@ -22915,79 +23329,79 @@
       <c r="BM93" s="64"/>
       <c r="BN93" s="64"/>
       <c r="BO93" s="64">
-        <f t="shared" ref="BO93" si="178">+BO78/BO76</f>
+        <f t="shared" ref="BO93" si="181">+BO78/BO76</f>
         <v>0.72094059957650725</v>
       </c>
       <c r="BP93" s="64">
-        <f t="shared" ref="BP93" si="179">+BP78/BP76</f>
+        <f t="shared" ref="BP93" si="182">+BP78/BP76</f>
         <v>0.70403314243938098</v>
       </c>
       <c r="BQ93" s="64">
-        <f t="shared" ref="BQ93:BR93" si="180">+BQ78/BQ76</f>
+        <f t="shared" ref="BQ93:BR93" si="183">+BQ78/BQ76</f>
         <v>0.70893554172381057</v>
       </c>
       <c r="BR93" s="64">
-        <f t="shared" si="180"/>
+        <f t="shared" si="183"/>
         <v>0.67117885312300152</v>
       </c>
       <c r="BS93" s="64">
-        <f t="shared" ref="BS93" si="181">+BS78/BS76</f>
+        <f t="shared" ref="BS93" si="184">+BS78/BS76</f>
         <v>0.72191828657897805</v>
       </c>
       <c r="BT93" s="64">
-        <f t="shared" ref="BT93:BU93" si="182">+BT78/BT76</f>
+        <f t="shared" ref="BT93:BU93" si="185">+BT78/BT76</f>
         <v>0.70757090576395243</v>
       </c>
       <c r="BU93" s="64">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>0.72766487730061347</v>
       </c>
       <c r="BV93" s="64">
-        <f t="shared" ref="BV93:BW93" si="183">+BV78/BV76</f>
+        <f t="shared" ref="BV93:BW93" si="186">+BV78/BV76</f>
         <v>0.69481689013408043</v>
       </c>
       <c r="BW93" s="64">
-        <f t="shared" si="183"/>
+        <f t="shared" si="186"/>
         <v>0.74165202108963091</v>
       </c>
       <c r="BX93" s="64">
-        <f t="shared" ref="BX93:CF93" si="184">+BX78/BX76</f>
+        <f t="shared" ref="BX93:CF93" si="187">+BX78/BX76</f>
         <v>0.74070778964017403</v>
       </c>
       <c r="BY93" s="64">
-        <f t="shared" si="184"/>
+        <f t="shared" si="187"/>
         <v>0.74563371254606636</v>
       </c>
       <c r="BZ93" s="64">
-        <f t="shared" si="184"/>
+        <f t="shared" si="187"/>
         <v>0.7199738903394256</v>
       </c>
       <c r="CA93" s="64">
-        <f t="shared" si="184"/>
+        <f t="shared" si="187"/>
         <v>0.76147148028568634</v>
       </c>
       <c r="CB93" s="64">
-        <f t="shared" si="184"/>
+        <f t="shared" si="187"/>
         <v>0.74450577019568487</v>
       </c>
       <c r="CC93" s="64">
-        <f t="shared" si="184"/>
+        <f t="shared" si="187"/>
         <v>0.74038783015713805</v>
       </c>
       <c r="CD93" s="64">
-        <f t="shared" si="184"/>
-        <v>0.74796226760692375</v>
+        <f t="shared" si="187"/>
+        <v>0.71640560593569658</v>
       </c>
       <c r="CE93" s="64">
-        <f t="shared" si="184"/>
+        <f t="shared" si="187"/>
         <v>0.735282874617737</v>
       </c>
       <c r="CF93" s="64">
-        <f t="shared" si="184"/>
+        <f t="shared" si="187"/>
         <v>0.74211261051651933</v>
       </c>
       <c r="CG93" s="64">
-        <f t="shared" ref="CG93" si="185">+CG78/CG76</f>
+        <f t="shared" ref="CG93" si="188">+CG78/CG76</f>
         <v>0.74953493563509188</v>
       </c>
       <c r="CH93" s="64"/>
@@ -22998,15 +23412,15 @@
       <c r="CM93" s="64"/>
       <c r="CN93" s="41"/>
       <c r="CS93" s="41">
-        <f t="shared" ref="CS93:CU93" si="186">CS78/CS76</f>
+        <f t="shared" ref="CS93:CU93" si="189">CS78/CS76</f>
         <v>0</v>
       </c>
       <c r="CT93" s="41">
-        <f t="shared" si="186"/>
+        <f t="shared" si="189"/>
         <v>0.77909255898366603</v>
       </c>
       <c r="CU93" s="41">
-        <f t="shared" si="186"/>
+        <f t="shared" si="189"/>
         <v>0.78130330945069937</v>
       </c>
       <c r="CV93" s="41">
@@ -23045,51 +23459,51 @@
         <v>171</v>
       </c>
       <c r="M94" s="41">
-        <f t="shared" ref="M94:W94" si="187">M85/M84</f>
+        <f t="shared" ref="M94:W94" si="190">M85/M84</f>
         <v>0.30154220779220781</v>
       </c>
       <c r="N94" s="41">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>0.22399328859060402</v>
       </c>
       <c r="O94" s="41">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>9.8529411764705879E-2</v>
       </c>
       <c r="P94" s="41">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>0.29905335628227192</v>
       </c>
       <c r="Q94" s="41">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>0.31461538461538463</v>
       </c>
       <c r="R94" s="41">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>0.23469903894790087</v>
       </c>
       <c r="S94" s="41">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>0.28983788058521154</v>
       </c>
       <c r="T94" s="41">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>0.26058091286307056</v>
       </c>
       <c r="U94" s="41">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>0.28576879053796261</v>
       </c>
       <c r="V94" s="41">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>0.26219512195121952</v>
       </c>
       <c r="W94" s="41">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>0.28512396694214875</v>
       </c>
       <c r="X94" s="41">
-        <f t="shared" ref="X94:Z94" si="188">X85/X84</f>
+        <f t="shared" ref="X94:Z94" si="191">X85/X84</f>
         <v>0.32398980706224972</v>
       </c>
       <c r="Y94" s="41">
@@ -23097,19 +23511,19 @@
         <v>0.28421052631578947</v>
       </c>
       <c r="Z94" s="41">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>0.21958584987057808</v>
       </c>
       <c r="AA94" s="41">
-        <f t="shared" ref="AA94:AC94" si="189">AA85/AA84</f>
+        <f t="shared" ref="AA94:AC94" si="192">AA85/AA84</f>
         <v>0.22935779816513763</v>
       </c>
       <c r="AB94" s="41">
-        <f t="shared" si="189"/>
+        <f t="shared" si="192"/>
         <v>0.27565039462145574</v>
       </c>
       <c r="AC94" s="41">
-        <f t="shared" si="189"/>
+        <f t="shared" si="192"/>
         <v>0.12385165022116366</v>
       </c>
       <c r="AD94" s="41">
@@ -23162,79 +23576,79 @@
       <c r="BM94" s="64"/>
       <c r="BN94" s="64"/>
       <c r="BO94" s="64">
-        <f t="shared" ref="BO94" si="190">+BO85/BO84</f>
+        <f t="shared" ref="BO94" si="193">+BO85/BO84</f>
         <v>0.20383602858217376</v>
       </c>
       <c r="BP94" s="64">
-        <f t="shared" ref="BP94" si="191">+BP85/BP84</f>
+        <f t="shared" ref="BP94" si="194">+BP85/BP84</f>
         <v>0.22064777327935223</v>
       </c>
       <c r="BQ94" s="64">
-        <f t="shared" ref="BQ94:BR94" si="192">+BQ85/BQ84</f>
+        <f t="shared" ref="BQ94:BR94" si="195">+BQ85/BQ84</f>
         <v>0.2209420535411725</v>
       </c>
       <c r="BR94" s="64">
-        <f t="shared" si="192"/>
+        <f t="shared" si="195"/>
         <v>0.22052067381316998</v>
       </c>
       <c r="BS94" s="64">
-        <f t="shared" ref="BS94" si="193">+BS85/BS84</f>
+        <f t="shared" ref="BS94" si="196">+BS85/BS84</f>
         <v>0.21034077555816685</v>
       </c>
       <c r="BT94" s="64">
-        <f t="shared" ref="BT94:BU94" si="194">+BT85/BT84</f>
+        <f t="shared" ref="BT94:BU94" si="197">+BT85/BT84</f>
         <v>0.20922795797167656</v>
       </c>
       <c r="BU94" s="64">
-        <f t="shared" si="194"/>
+        <f t="shared" si="197"/>
         <v>0.21220846530377196</v>
       </c>
       <c r="BV94" s="64">
-        <f t="shared" ref="BV94:BW94" si="195">+BV85/BV84</f>
+        <f t="shared" ref="BV94:BW94" si="198">+BV85/BV84</f>
         <v>0.203865623561896</v>
       </c>
       <c r="BW94" s="64">
-        <f t="shared" si="195"/>
+        <f t="shared" si="198"/>
         <v>0.18854655056932351</v>
       </c>
       <c r="BX94" s="64">
-        <f t="shared" ref="BX94:CF94" si="196">+BX85/BX84</f>
+        <f t="shared" ref="BX94:CF94" si="199">+BX85/BX84</f>
         <v>0.1890881913303438</v>
       </c>
       <c r="BY94" s="64">
-        <f t="shared" si="196"/>
+        <f t="shared" si="199"/>
         <v>0.18911625815156285</v>
       </c>
       <c r="BZ94" s="64">
-        <f t="shared" si="196"/>
+        <f t="shared" si="199"/>
         <v>0.20593692022263452</v>
       </c>
       <c r="CA94" s="64">
-        <f t="shared" si="196"/>
+        <f t="shared" si="199"/>
         <v>0.18857142857142858</v>
       </c>
       <c r="CB94" s="64">
-        <f t="shared" si="196"/>
+        <f t="shared" si="199"/>
         <v>0.18889716840536513</v>
       </c>
       <c r="CC94" s="64">
-        <f t="shared" si="196"/>
+        <f t="shared" si="199"/>
         <v>0.18986058301647654</v>
       </c>
       <c r="CD94" s="64">
-        <f t="shared" si="196"/>
-        <v>0.17797947908445147</v>
+        <f t="shared" si="199"/>
+        <v>0.34192570128885519</v>
       </c>
       <c r="CE94" s="64">
-        <f t="shared" si="196"/>
+        <f t="shared" si="199"/>
         <v>0.20749999999999999</v>
       </c>
       <c r="CF94" s="64">
-        <f t="shared" si="196"/>
+        <f t="shared" si="199"/>
         <v>0.20755408874220754</v>
       </c>
       <c r="CG94" s="64">
-        <f t="shared" ref="CG94" si="197">+CG85/CG84</f>
+        <f t="shared" ref="CG94" si="200">+CG85/CG84</f>
         <v>0.16610322289835475</v>
       </c>
       <c r="CH94" s="64"/>
@@ -23405,27 +23819,27 @@
       <c r="M96" s="39"/>
       <c r="N96" s="39"/>
       <c r="O96" s="42">
-        <f t="shared" ref="O96:V96" si="198">O76/K76-1</f>
+        <f t="shared" ref="O96:V96" si="201">O76/K76-1</f>
         <v>2.0184790334043967E-2</v>
       </c>
       <c r="P96" s="42">
-        <f t="shared" si="198"/>
+        <f t="shared" si="201"/>
         <v>-2.005366473661907E-2</v>
       </c>
       <c r="Q96" s="42">
-        <f t="shared" si="198"/>
+        <f t="shared" si="201"/>
         <v>1.7968410375307942E-2</v>
       </c>
       <c r="R96" s="42">
-        <f t="shared" si="198"/>
+        <f t="shared" si="201"/>
         <v>-6.0494834148994037E-2</v>
       </c>
       <c r="S96" s="42">
-        <f t="shared" si="198"/>
+        <f t="shared" si="201"/>
         <v>-3.5948167758116156E-2</v>
       </c>
       <c r="T96" s="42">
-        <f t="shared" si="198"/>
+        <f t="shared" si="201"/>
         <v>-3.6028246144977683E-2</v>
       </c>
       <c r="U96" s="42">
@@ -23433,43 +23847,43 @@
         <v>-2.4483985765124561E-2</v>
       </c>
       <c r="V96" s="42">
-        <f t="shared" si="198"/>
+        <f t="shared" si="201"/>
         <v>2.5756041093908166E-2</v>
       </c>
       <c r="W96" s="42">
-        <f t="shared" ref="W96:X96" si="199">W76/S76-1</f>
+        <f t="shared" ref="W96:X96" si="202">W76/S76-1</f>
         <v>2.7171556583321266E-2</v>
       </c>
       <c r="X96" s="42">
-        <f t="shared" si="199"/>
+        <f t="shared" si="202"/>
         <v>0.11257288084915529</v>
       </c>
       <c r="Y96" s="42">
-        <f t="shared" ref="Y96:AE96" si="200">Y76/U76-1</f>
+        <f t="shared" ref="Y96:AE96" si="203">Y76/U76-1</f>
         <v>7.9819057347147337E-2</v>
       </c>
       <c r="Z96" s="42">
-        <f t="shared" si="200"/>
+        <f t="shared" si="203"/>
         <v>3.83693045563549E-2</v>
       </c>
       <c r="AA96" s="42">
-        <f t="shared" si="200"/>
+        <f t="shared" si="203"/>
         <v>0.11129871957225279</v>
       </c>
       <c r="AB96" s="42">
-        <f t="shared" si="200"/>
+        <f t="shared" si="203"/>
         <v>4.5821015855952663E-2</v>
       </c>
       <c r="AC96" s="42">
-        <f t="shared" si="200"/>
+        <f t="shared" si="203"/>
         <v>5.6891891891891921E-2</v>
       </c>
       <c r="AD96" s="42">
-        <f t="shared" si="200"/>
+        <f t="shared" si="203"/>
         <v>4.6189376443417363E-3</v>
       </c>
       <c r="AE96" s="42">
-        <f t="shared" si="200"/>
+        <f t="shared" si="203"/>
         <v>-1.5067105596353492E-2</v>
       </c>
       <c r="AF96" s="42"/>
@@ -23528,7 +23942,7 @@
         <v>6.5231293967171089E-2</v>
       </c>
       <c r="BW96" s="65">
-        <f t="shared" ref="BW96" si="201">+BW76/BS76-1</f>
+        <f t="shared" ref="BW96" si="204">+BW76/BS76-1</f>
         <v>0.12594575718775469</v>
       </c>
       <c r="BX96" s="65">
@@ -23536,60 +23950,60 @@
         <v>0.15690759377859109</v>
       </c>
       <c r="BY96" s="65">
-        <f t="shared" ref="BY96:CH96" si="202">+BY76/BU76-1</f>
+        <f t="shared" ref="BY96:CH96" si="205">+BY76/BU76-1</f>
         <v>0.19651073619631898</v>
       </c>
       <c r="BZ96" s="65">
-        <f t="shared" si="202"/>
+        <f t="shared" si="205"/>
         <v>7.3043826295777547E-2</v>
       </c>
       <c r="CA96" s="65">
-        <f t="shared" si="202"/>
+        <f t="shared" si="205"/>
         <v>5.6652537992349927E-2</v>
       </c>
       <c r="CB96" s="65">
-        <f t="shared" si="202"/>
+        <f t="shared" si="205"/>
         <v>-1.4926848556741756E-2</v>
       </c>
       <c r="CC96" s="65">
-        <f t="shared" si="202"/>
+        <f t="shared" si="205"/>
         <v>-4.1499759653901624E-2</v>
       </c>
       <c r="CD96" s="65">
-        <f t="shared" si="202"/>
-        <v>1.818351361432291E-2</v>
+        <f t="shared" si="205"/>
+        <v>-9.5113763521074257E-2</v>
       </c>
       <c r="CE96" s="65">
         <f>+CE76/CA76-1</f>
         <v>2.3774581743469358E-2</v>
       </c>
       <c r="CF96" s="65">
-        <f t="shared" si="202"/>
+        <f t="shared" si="205"/>
         <v>7.8273958855995973E-2</v>
       </c>
       <c r="CG96" s="65">
-        <f t="shared" si="202"/>
+        <f t="shared" si="205"/>
         <v>0.12328652624540282</v>
       </c>
       <c r="CH96" s="65">
-        <f t="shared" si="202"/>
-        <v>0.1102665079219709</v>
+        <f t="shared" si="205"/>
+        <v>8.8520197856553962E-2</v>
       </c>
       <c r="CI96" s="65">
-        <f t="shared" ref="CI96" si="203">+CI76/CE76-1</f>
-        <v>0.12857702599388388</v>
+        <f t="shared" ref="CI96" si="206">+CI76/CE76-1</f>
+        <v>6.9218272171254203E-3</v>
       </c>
       <c r="CJ96" s="65">
-        <f t="shared" ref="CJ96" si="204">+CJ76/CF76-1</f>
-        <v>0.15651279664960449</v>
+        <f t="shared" ref="CJ96" si="207">+CJ76/CF76-1</f>
+        <v>3.8039087947882688E-2</v>
       </c>
       <c r="CK96" s="65">
-        <f t="shared" ref="CK96" si="205">+CK76/CG76-1</f>
-        <v>7.0104174417739307E-2</v>
+        <f t="shared" ref="CK96" si="208">+CK76/CG76-1</f>
+        <v>-2.4620135426743128E-2</v>
       </c>
       <c r="CL96" s="65">
-        <f t="shared" ref="CL96" si="206">+CL76/CH76-1</f>
-        <v>8.7081580466881192E-2</v>
+        <f t="shared" ref="CL96" si="209">+CL76/CH76-1</f>
+        <v>9.9942251254378611E-2</v>
       </c>
       <c r="CM96" s="65"/>
       <c r="CN96" s="42"/>
@@ -23602,27 +24016,27 @@
         <v>-1.1313572762837953E-2</v>
       </c>
       <c r="CT96" s="42">
-        <f t="shared" ref="CT96:CY96" si="207">CT76/CS76-1</f>
+        <f t="shared" ref="CT96:CY96" si="210">CT76/CS76-1</f>
         <v>-1.7895337230857011E-2</v>
       </c>
       <c r="CU96" s="42">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>6.3883847549909278E-2</v>
       </c>
       <c r="CV96" s="42">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>3.7700443534629757E-2</v>
       </c>
       <c r="CW96" s="42">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>-8.8696366924214676E-3</v>
       </c>
       <c r="CX96" s="42">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>-3.3663060457657656E-2</v>
       </c>
       <c r="CY96" s="42">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>-5.5654504717852049E-2</v>
       </c>
       <c r="CZ96" s="42">
@@ -23763,7 +24177,9 @@
       <c r="CG97" s="65">
         <v>0.157</v>
       </c>
-      <c r="CH97" s="65"/>
+      <c r="CH97" s="65">
+        <v>0.10299999999999999</v>
+      </c>
       <c r="CI97" s="65"/>
       <c r="CJ97" s="65"/>
       <c r="CK97" s="65"/>
@@ -23785,6 +24201,9 @@
       <c r="DA97" s="42"/>
       <c r="DB97" s="42"/>
       <c r="DC97" s="42"/>
+      <c r="DJ97" s="78">
+        <v>0.113</v>
+      </c>
       <c r="DN97" s="19" t="s">
         <v>339</v>
       </c>
@@ -23796,7 +24215,7 @@
     </row>
     <row r="98" spans="2:120" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B98" s="19" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C98" s="32"/>
       <c r="D98" s="32"/>
@@ -23867,83 +24286,83 @@
       <c r="BQ98" s="66"/>
       <c r="BR98" s="66"/>
       <c r="BS98" s="66">
-        <f t="shared" ref="BS98:CA98" si="208">+BS3/BO3-1</f>
+        <f t="shared" ref="BS98:CA98" si="211">+BS3/BO3-1</f>
         <v>0.34922680412371143</v>
       </c>
       <c r="BT98" s="66">
-        <f t="shared" si="208"/>
+        <f t="shared" si="211"/>
         <v>0.44871794871794868</v>
       </c>
       <c r="BU98" s="66">
-        <f t="shared" si="208"/>
+        <f t="shared" si="211"/>
         <v>0.53594771241830075</v>
       </c>
       <c r="BV98" s="66">
-        <f t="shared" si="208"/>
+        <f t="shared" si="211"/>
         <v>0.57739307535641538</v>
       </c>
       <c r="BW98" s="66">
-        <f t="shared" si="208"/>
+        <f t="shared" si="211"/>
         <v>0.54154727793696278</v>
       </c>
       <c r="BX98" s="66">
-        <f t="shared" si="208"/>
+        <f t="shared" si="211"/>
         <v>0.57924376508447306</v>
       </c>
       <c r="BY98" s="66">
-        <f t="shared" si="208"/>
+        <f t="shared" si="211"/>
         <v>0.64113475177304968</v>
       </c>
       <c r="BZ98" s="66">
-        <f t="shared" si="208"/>
+        <f t="shared" si="211"/>
         <v>0.55067785668173008</v>
       </c>
       <c r="CA98" s="66">
-        <f t="shared" si="208"/>
+        <f t="shared" si="211"/>
         <v>0.43494423791821557</v>
       </c>
       <c r="CB98" s="66">
-        <f t="shared" ref="CB98:CG98" si="209">+CB3/BX3-1</f>
+        <f t="shared" ref="CB98:CG98" si="212">+CB3/BX3-1</f>
         <v>0.30514518593988793</v>
       </c>
       <c r="CC98" s="66">
-        <f t="shared" si="209"/>
+        <f t="shared" si="212"/>
         <v>0.2303370786516854</v>
       </c>
       <c r="CD98" s="66">
-        <f t="shared" si="209"/>
+        <f t="shared" si="212"/>
         <v>0.24479600333055784</v>
       </c>
       <c r="CE98" s="66">
-        <f t="shared" si="209"/>
+        <f t="shared" si="212"/>
         <v>0.22409326424870457</v>
       </c>
       <c r="CF98" s="66">
-        <f t="shared" si="209"/>
+        <f t="shared" si="212"/>
         <v>0.28922716627634659</v>
       </c>
       <c r="CG98" s="66">
-        <f t="shared" si="209"/>
+        <f t="shared" si="212"/>
         <v>0.22093431682472775</v>
       </c>
       <c r="CH98" s="66">
-        <f t="shared" ref="CH98:CL99" si="210">+CH3/CD3-1</f>
+        <f t="shared" ref="CH98:CL99" si="213">+CH3/CD3-1</f>
         <v>0.15652173913043477</v>
       </c>
       <c r="CI98" s="66">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="CJ98" s="66">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>0.30000000000000027</v>
       </c>
       <c r="CK98" s="66">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="CL98" s="66">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>0.30000000000000027</v>
       </c>
       <c r="CM98" s="66"/>
@@ -23963,7 +24382,7 @@
       <c r="DA98" s="43"/>
       <c r="DB98" s="43"/>
       <c r="DC98" s="43"/>
-      <c r="DO98" s="74"/>
+      <c r="DO98" s="73"/>
     </row>
     <row r="99" spans="2:120" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B99" s="19" t="s">
@@ -23982,71 +24401,71 @@
       <c r="M99" s="43"/>
       <c r="N99" s="43"/>
       <c r="O99" s="43">
-        <f t="shared" ref="O99:AE99" si="211">O4/K4-1</f>
+        <f t="shared" ref="O99:AE99" si="214">O4/K4-1</f>
         <v>0.19895287958115193</v>
       </c>
       <c r="P99" s="43">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>0.19477434679334915</v>
       </c>
       <c r="Q99" s="43">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>0.25728155339805836</v>
       </c>
       <c r="R99" s="43">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>0.22394678492239461</v>
       </c>
       <c r="S99" s="43">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>0.21615720524017457</v>
       </c>
       <c r="T99" s="43">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>0.14512922465208744</v>
       </c>
       <c r="U99" s="43">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>0.18146718146718155</v>
       </c>
       <c r="V99" s="43">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>0.27717391304347827</v>
       </c>
       <c r="W99" s="43">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>0.34111310592459598</v>
       </c>
       <c r="X99" s="43">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>0.375</v>
       </c>
       <c r="Y99" s="43">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>0.2712418300653594</v>
       </c>
       <c r="Z99" s="43">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>8.2269503546099187E-2</v>
       </c>
       <c r="AA99" s="43">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>5.7563587684069661E-2</v>
       </c>
       <c r="AB99" s="43">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>0.16919191919191912</v>
       </c>
       <c r="AC99" s="43">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>0.15681233933161964</v>
       </c>
       <c r="AD99" s="43">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>0.17169069462647446</v>
       </c>
       <c r="AE99" s="43">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>0.17088607594936711</v>
       </c>
       <c r="AF99" s="43"/>
@@ -24093,47 +24512,47 @@
         <v>-9.9447513812154664E-2</v>
       </c>
       <c r="BT99" s="66">
-        <f t="shared" ref="BT99:CD99" si="212">+BT4/BP4-1</f>
+        <f t="shared" ref="BT99:CD99" si="215">+BT4/BP4-1</f>
         <v>-8.0808080808080773E-2</v>
       </c>
       <c r="BU99" s="66">
-        <f t="shared" si="212"/>
+        <f t="shared" si="215"/>
         <v>-5.3272450532724558E-2</v>
       </c>
       <c r="BV99" s="66">
-        <f t="shared" si="212"/>
+        <f t="shared" si="215"/>
         <v>-6.8143100511073307E-3</v>
       </c>
       <c r="BW99" s="66">
-        <f t="shared" si="212"/>
+        <f t="shared" si="215"/>
         <v>2.914110429447847E-2</v>
       </c>
       <c r="BX99" s="66">
-        <f t="shared" si="212"/>
+        <f t="shared" si="215"/>
         <v>-5.8084772370486704E-2</v>
       </c>
       <c r="BY99" s="66">
-        <f t="shared" si="212"/>
+        <f t="shared" si="215"/>
         <v>-0.1012861736334405</v>
       </c>
       <c r="BZ99" s="66">
-        <f t="shared" si="212"/>
+        <f t="shared" si="215"/>
         <v>-0.26415094339622647</v>
       </c>
       <c r="CA99" s="66">
-        <f t="shared" si="212"/>
+        <f t="shared" si="215"/>
         <v>-0.33383010432190763</v>
       </c>
       <c r="CB99" s="66">
-        <f t="shared" si="212"/>
+        <f t="shared" si="215"/>
         <v>-0.41166666666666663</v>
       </c>
       <c r="CC99" s="66">
-        <f t="shared" si="212"/>
+        <f t="shared" si="215"/>
         <v>-0.38640429338103754</v>
       </c>
       <c r="CD99" s="66">
-        <f t="shared" si="212"/>
+        <f t="shared" si="215"/>
         <v>-0.35431235431235431</v>
       </c>
       <c r="CE99" s="66">
@@ -24149,23 +24568,23 @@
         <v>0.2565597667638484</v>
       </c>
       <c r="CH99" s="66">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>0.58483754512635389</v>
       </c>
       <c r="CI99" s="66">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="CJ99" s="66">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="CK99" s="66">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>-9.9999999999999867E-2</v>
       </c>
       <c r="CL99" s="66">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="CM99" s="66"/>
@@ -24185,7 +24604,7 @@
       <c r="DA99" s="43"/>
       <c r="DB99" s="43"/>
       <c r="DC99" s="43"/>
-      <c r="DF99" s="74"/>
+      <c r="DF99" s="73"/>
     </row>
     <row r="100" spans="2:120" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B100" s="19" t="s">
@@ -24211,43 +24630,43 @@
       <c r="T100" s="43"/>
       <c r="U100" s="43"/>
       <c r="V100" s="43">
-        <f t="shared" ref="V100:AE100" si="213">V6/R6-1</f>
+        <f t="shared" ref="V100:AE100" si="216">V6/R6-1</f>
         <v>0.11127596439169141</v>
       </c>
       <c r="W100" s="43">
-        <f t="shared" si="213"/>
+        <f t="shared" si="216"/>
         <v>6.2761506276150625E-2</v>
       </c>
       <c r="X100" s="43">
-        <f t="shared" si="213"/>
+        <f t="shared" si="216"/>
         <v>0.22448979591836737</v>
       </c>
       <c r="Y100" s="43">
-        <f t="shared" si="213"/>
+        <f t="shared" si="216"/>
         <v>0.17637795275590551</v>
       </c>
       <c r="Z100" s="43">
-        <f t="shared" si="213"/>
+        <f t="shared" si="216"/>
         <v>6.6755674232310547E-3</v>
       </c>
       <c r="AA100" s="43">
-        <f t="shared" si="213"/>
+        <f t="shared" si="216"/>
         <v>9.1863517060366551E-3</v>
       </c>
       <c r="AB100" s="43">
-        <f t="shared" si="213"/>
+        <f t="shared" si="216"/>
         <v>0.11025641025641031</v>
       </c>
       <c r="AC100" s="43">
-        <f t="shared" si="213"/>
+        <f t="shared" si="216"/>
         <v>-0.21151271753681389</v>
       </c>
       <c r="AD100" s="43">
-        <f t="shared" si="213"/>
+        <f t="shared" si="216"/>
         <v>-0.22811671087533159</v>
       </c>
       <c r="AE100" s="43">
-        <f t="shared" si="213"/>
+        <f t="shared" si="216"/>
         <v>-0.24187256176853056</v>
       </c>
       <c r="AF100" s="43"/>
@@ -24346,35 +24765,35 @@
       <c r="O101" s="43"/>
       <c r="P101" s="43"/>
       <c r="Q101" s="43">
-        <f t="shared" ref="Q101:V101" si="214">Q90/M90-1</f>
+        <f t="shared" ref="Q101:V101" si="217">Q90/M90-1</f>
         <v>8.3583671031624229E-2</v>
       </c>
       <c r="R101" s="43">
-        <f t="shared" si="214"/>
+        <f t="shared" si="217"/>
         <v>-0.10399806362410113</v>
       </c>
       <c r="S101" s="43">
-        <f t="shared" si="214"/>
+        <f t="shared" si="217"/>
         <v>-0.20947081134089007</v>
       </c>
       <c r="T101" s="43">
-        <f t="shared" si="214"/>
+        <f t="shared" si="217"/>
         <v>0.12676180669236614</v>
       </c>
       <c r="U101" s="43">
-        <f t="shared" si="214"/>
+        <f t="shared" si="217"/>
         <v>8.6798084095178307E-2</v>
       </c>
       <c r="V101" s="43">
-        <f t="shared" si="214"/>
+        <f t="shared" si="217"/>
         <v>8.0266375123093425E-2</v>
       </c>
       <c r="W101" s="43">
-        <f t="shared" ref="W101:X101" si="215">W90/S90-1</f>
+        <f t="shared" ref="W101:X101" si="218">W90/S90-1</f>
         <v>0.11315576897500335</v>
       </c>
       <c r="X101" s="43">
-        <f t="shared" si="215"/>
+        <f t="shared" si="218"/>
         <v>0.1266192863674398</v>
       </c>
       <c r="Y101" s="43">
@@ -24466,27 +24885,27 @@
       <c r="CR101" s="33"/>
       <c r="CS101" s="43"/>
       <c r="CT101" s="43">
-        <f t="shared" ref="CT101:CY101" si="216">CT90/CS90-1</f>
+        <f t="shared" ref="CT101:CY101" si="219">CT90/CS90-1</f>
         <v>6.165058262481482E-3</v>
       </c>
       <c r="CU101" s="43">
-        <f t="shared" si="216"/>
+        <f t="shared" si="219"/>
         <v>0.13441259351318302</v>
       </c>
       <c r="CV101" s="43">
-        <f t="shared" si="216"/>
+        <f t="shared" si="219"/>
         <v>8.0321595516685163E-2</v>
       </c>
       <c r="CW101" s="43">
-        <f t="shared" si="216"/>
+        <f t="shared" si="219"/>
         <v>0.56746687640791649</v>
       </c>
       <c r="CX101" s="43">
-        <f t="shared" si="216"/>
+        <f t="shared" si="219"/>
         <v>6.211068629493921E-2</v>
       </c>
       <c r="CY101" s="43">
-        <f t="shared" si="216"/>
+        <f t="shared" si="219"/>
         <v>-2.8856862095187452E-2</v>
       </c>
       <c r="CZ101" s="43">
@@ -24502,7 +24921,7 @@
         <v>1.8110045384902573E-3</v>
       </c>
       <c r="DC101" s="43">
-        <f t="shared" ref="DC101" si="217">DC90/DB90-1</f>
+        <f t="shared" ref="DC101" si="220">DC90/DB90-1</f>
         <v>-3.8622649812662835E-2</v>
       </c>
       <c r="DN101" s="10"/>
@@ -24723,7 +25142,7 @@
         <v>175</v>
       </c>
       <c r="CT104" s="23">
-        <f t="shared" ref="CT104:CY104" si="218">CT89</f>
+        <f t="shared" ref="CT104:CY104" si="221">CT89</f>
         <v>7523</v>
       </c>
       <c r="CU104" s="23">
@@ -24731,19 +25150,19 @@
         <v>8513</v>
       </c>
       <c r="CV104" s="23">
-        <f t="shared" si="218"/>
+        <f t="shared" si="221"/>
         <v>9193.5499999999993</v>
       </c>
       <c r="CW104" s="23">
-        <f t="shared" si="218"/>
+        <f t="shared" si="221"/>
         <v>14410.585101600002</v>
       </c>
       <c r="CX104" s="23">
-        <f t="shared" si="218"/>
+        <f t="shared" si="221"/>
         <v>15305.636432172003</v>
       </c>
       <c r="CY104" s="23">
-        <f t="shared" si="218"/>
+        <f t="shared" si="221"/>
         <v>14863.963792369741</v>
       </c>
       <c r="CZ104" s="23">
@@ -24808,7 +25227,7 @@
         <v>-15241.838400000001</v>
       </c>
       <c r="AH106" s="23">
-        <f t="shared" ref="AH106" si="219">+AG106+AH89</f>
+        <f t="shared" ref="AH106" si="222">+AG106+AH89</f>
         <v>-11054.355520000001</v>
       </c>
       <c r="AI106" s="23"/>
@@ -24881,31 +25300,31 @@
         <v>-11054.355520000001</v>
       </c>
       <c r="CW106" s="23">
-        <f t="shared" ref="CW106:DC106" si="220">CW104+CV106</f>
+        <f t="shared" ref="CW106:DC106" si="223">CW104+CV106</f>
         <v>3356.2295816000005</v>
       </c>
       <c r="CX106" s="23">
-        <f t="shared" si="220"/>
+        <f t="shared" si="223"/>
         <v>18661.866013772003</v>
       </c>
       <c r="CY106" s="23">
-        <f t="shared" si="220"/>
+        <f t="shared" si="223"/>
         <v>33525.829806141744</v>
       </c>
       <c r="CZ106" s="23">
-        <f t="shared" si="220"/>
+        <f t="shared" si="223"/>
         <v>48356.944159413746</v>
       </c>
       <c r="DA106" s="23">
-        <f t="shared" si="220"/>
+        <f t="shared" si="223"/>
         <v>63561.820905263659</v>
       </c>
       <c r="DB106" s="23">
-        <f t="shared" si="220"/>
+        <f t="shared" si="223"/>
         <v>78794.233751907494</v>
       </c>
       <c r="DC106" s="23">
-        <f t="shared" si="220"/>
+        <f t="shared" si="223"/>
         <v>78794.233751907494</v>
       </c>
     </row>
@@ -26879,84 +27298,84 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="29" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="29" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="29"/>
       <c r="C5" s="29" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="29"/>
       <c r="C6" s="29" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="29" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="29" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" s="29" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" s="30" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C22" s="30" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C23" s="29" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C25" s="30" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C26" s="29" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
   </sheetData>
@@ -27195,7 +27614,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -27541,18 +27960,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -27572,6 +27991,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A163F551-4DC3-4346-BFB2-E5655EE44603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96797E59-4DFD-499C-8A4E-CC49F873674A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -27584,12 +28011,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A163F551-4DC3-4346-BFB2-E5655EE44603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SAN FP.xlsx
+++ b/SAN FP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C10D12F-E20F-4A69-904B-4C974EEC7CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371751A4-32A7-47E8-BB20-9B145179A7E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51765" yWindow="0" windowWidth="22965" windowHeight="20985" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23640" yWindow="3300" windowWidth="22485" windowHeight="14175" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="22" r:id="rId1"/>
@@ -3480,14 +3480,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>85</xdr:col>
-      <xdr:colOff>17180</xdr:colOff>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>4042</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>85</xdr:col>
-      <xdr:colOff>17180</xdr:colOff>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>4042</xdr:colOff>
       <xdr:row>120</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -3506,8 +3506,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="37663921" y="0"/>
-          <a:ext cx="0" cy="19647447"/>
+          <a:off x="38583576" y="0"/>
+          <a:ext cx="0" cy="19811672"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3527,14 +3527,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>113</xdr:col>
-      <xdr:colOff>13138</xdr:colOff>
+      <xdr:col>114</xdr:col>
+      <xdr:colOff>52551</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>113</xdr:col>
-      <xdr:colOff>13138</xdr:colOff>
+      <xdr:col>114</xdr:col>
+      <xdr:colOff>52551</xdr:colOff>
       <xdr:row>130</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -3553,7 +3553,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="51047431" y="0"/>
+          <a:off x="51960517" y="0"/>
           <a:ext cx="0" cy="21444388"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -5120,7 +5120,9 @@
   </sheetPr>
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6539,10 +6541,10 @@
   <dimension ref="A1:FN124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="DF62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="CD93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="DJ97" sqref="DJ97"/>
+      <selection pane="bottomRight" activeCell="CG94" sqref="CG94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7092,20 +7094,19 @@
         <v>3458</v>
       </c>
       <c r="CI3" s="60">
-        <f t="shared" ref="CI3:CL3" si="19">+CE3*1.3</f>
-        <v>3685.5</v>
+        <v>3480</v>
       </c>
       <c r="CJ3" s="60">
-        <f t="shared" si="19"/>
-        <v>4293.9000000000005</v>
+        <f>+CF3*1.2</f>
+        <v>3963.6</v>
       </c>
       <c r="CK3" s="60">
-        <f t="shared" si="19"/>
-        <v>4518.8</v>
+        <f>+CG3*1.2</f>
+        <v>4171.2</v>
       </c>
       <c r="CL3" s="60">
-        <f t="shared" si="19"/>
-        <v>4495.4000000000005</v>
+        <f>+CH3*1.2</f>
+        <v>4149.5999999999995</v>
       </c>
       <c r="CM3" s="60"/>
       <c r="CN3" s="32"/>
@@ -7142,32 +7143,32 @@
         <v>10715</v>
       </c>
       <c r="DJ3" s="27">
-        <f>SUM(CE3:CH3)</f>
+        <f t="shared" ref="DJ3:DJ32" si="19">SUM(CE3:CH3)</f>
         <v>13072</v>
       </c>
       <c r="DK3" s="27">
         <f>SUM(CI3:CL3)</f>
-        <v>16993.600000000002</v>
+        <v>15764.399999999998</v>
       </c>
       <c r="DL3" s="27">
         <f>+DK3*1.1</f>
-        <v>18692.960000000003</v>
+        <v>17340.84</v>
       </c>
       <c r="DM3" s="27">
         <f>+DL3*1.07</f>
-        <v>20001.467200000003</v>
+        <v>18554.698800000002</v>
       </c>
       <c r="DN3" s="27">
         <f>+DM3*1.05</f>
-        <v>21001.540560000005</v>
+        <v>19482.433740000004</v>
       </c>
       <c r="DO3" s="27">
         <f>+DN3*1.05</f>
-        <v>22051.617588000005</v>
+        <v>20456.555427000007</v>
       </c>
       <c r="DP3" s="27">
         <f>+DO3*1.05</f>
-        <v>23154.198467400005</v>
+        <v>21479.383198350009</v>
       </c>
     </row>
     <row r="4" spans="1:125" s="27" customFormat="1" x14ac:dyDescent="0.2">
@@ -7361,11 +7362,10 @@
         <v>439</v>
       </c>
       <c r="CI4" s="54">
-        <f t="shared" ref="CI4:CL4" si="21">+CE4*0.9</f>
-        <v>324</v>
+        <v>450</v>
       </c>
       <c r="CJ4" s="54">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="CI4:CL4" si="21">+CF4*0.9</f>
         <v>358.2</v>
       </c>
       <c r="CK4" s="54">
@@ -7431,7 +7431,7 @@
       </c>
       <c r="DE4" s="48"/>
       <c r="DJ4" s="27">
-        <f>SUM(CE4:CH4)</f>
+        <f t="shared" si="19"/>
         <v>1628</v>
       </c>
     </row>
@@ -7572,20 +7572,19 @@
         <v>78</v>
       </c>
       <c r="CI5" s="54">
-        <f t="shared" ref="CI5:CL5" si="23">+CH5-5</f>
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="CJ5" s="54">
-        <f t="shared" si="23"/>
-        <v>68</v>
+        <f t="shared" ref="CI5:CL5" si="23">+CI5-5</f>
+        <v>60</v>
       </c>
       <c r="CK5" s="54">
         <f t="shared" si="23"/>
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="CL5" s="54">
         <f t="shared" si="23"/>
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="CM5" s="54"/>
       <c r="CN5" s="23"/>
@@ -7605,7 +7604,7 @@
       <c r="DB5" s="23"/>
       <c r="DC5" s="23"/>
       <c r="DJ5" s="27">
-        <f>SUM(CE5:CH5)</f>
+        <f t="shared" si="19"/>
         <v>379</v>
       </c>
     </row>
@@ -7799,11 +7798,10 @@
         <v>231</v>
       </c>
       <c r="CI6" s="54">
-        <f t="shared" ref="CI6:CL7" si="24">+CE6</f>
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="CJ6" s="54">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="CI6:CL7" si="24">+CF6</f>
         <v>256</v>
       </c>
       <c r="CK6" s="54">
@@ -7869,7 +7867,7 @@
       </c>
       <c r="DE6" s="48"/>
       <c r="DJ6" s="27">
-        <f>SUM(CE6:CH6)</f>
+        <f t="shared" si="19"/>
         <v>982</v>
       </c>
     </row>
@@ -8014,8 +8012,7 @@
         <v>1010</v>
       </c>
       <c r="CI7" s="54">
-        <f t="shared" si="24"/>
-        <v>1140</v>
+        <v>1040</v>
       </c>
       <c r="CJ7" s="54">
         <f t="shared" si="24"/>
@@ -8048,7 +8045,7 @@
       <c r="DC7" s="23"/>
       <c r="DE7" s="48"/>
       <c r="DJ7" s="27">
-        <f>SUM(CE7:CH7)</f>
+        <f t="shared" si="19"/>
         <v>4285</v>
       </c>
     </row>
@@ -8155,20 +8152,19 @@
         <v>230</v>
       </c>
       <c r="CI8" s="54">
-        <f t="shared" ref="CI8:CL8" si="27">+CH8+10</f>
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="CJ8" s="54">
-        <f t="shared" si="27"/>
-        <v>250</v>
+        <f t="shared" ref="CI8:CL8" si="27">+CI8+10</f>
+        <v>261</v>
       </c>
       <c r="CK8" s="54">
         <f t="shared" si="27"/>
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="CL8" s="54">
         <f t="shared" si="27"/>
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="CM8" s="54"/>
       <c r="CN8" s="23"/>
@@ -8189,7 +8185,7 @@
       <c r="DC8" s="23"/>
       <c r="DE8" s="48"/>
       <c r="DJ8" s="27">
-        <f>SUM(CE8:CH8)</f>
+        <f t="shared" si="19"/>
         <v>682</v>
       </c>
     </row>
@@ -8324,11 +8320,10 @@
         <v>290</v>
       </c>
       <c r="CI9" s="54">
-        <f t="shared" ref="CI9:CL9" si="28">+CE9*0.9</f>
-        <v>288.90000000000003</v>
+        <v>354</v>
       </c>
       <c r="CJ9" s="54">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="CI9:CL9" si="28">+CF9*0.9</f>
         <v>281.7</v>
       </c>
       <c r="CK9" s="54">
@@ -8358,7 +8353,7 @@
       <c r="DC9" s="23"/>
       <c r="DE9" s="48"/>
       <c r="DJ9" s="27">
-        <f>SUM(CE9:CH9)</f>
+        <f t="shared" si="19"/>
         <v>1227</v>
       </c>
     </row>
@@ -8466,22 +8461,10 @@
       <c r="CH10" s="54">
         <v>22</v>
       </c>
-      <c r="CI10" s="54">
-        <f t="shared" ref="CI10:CL10" si="29">+CH10+5</f>
-        <v>27</v>
-      </c>
-      <c r="CJ10" s="54">
-        <f t="shared" si="29"/>
-        <v>32</v>
-      </c>
-      <c r="CK10" s="54">
-        <f t="shared" si="29"/>
-        <v>37</v>
-      </c>
-      <c r="CL10" s="54">
-        <f t="shared" si="29"/>
-        <v>42</v>
-      </c>
+      <c r="CI10" s="54"/>
+      <c r="CJ10" s="54"/>
+      <c r="CK10" s="54"/>
+      <c r="CL10" s="54"/>
       <c r="CM10" s="54"/>
       <c r="CN10" s="23"/>
       <c r="CO10" s="23"/>
@@ -8501,7 +8484,7 @@
       <c r="DC10" s="23"/>
       <c r="DE10" s="48"/>
       <c r="DJ10" s="27">
-        <f>SUM(CE10:CH10)</f>
+        <f t="shared" si="19"/>
         <v>105</v>
       </c>
     </row>
@@ -8610,20 +8593,19 @@
         <v>18</v>
       </c>
       <c r="CI11" s="54">
-        <f t="shared" ref="CI11:CL11" si="30">+CH11+5</f>
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="CJ11" s="54">
-        <f t="shared" si="30"/>
-        <v>28</v>
+        <f t="shared" ref="CI11:CL11" si="29">+CI11+5</f>
+        <v>16</v>
       </c>
       <c r="CK11" s="54">
-        <f t="shared" si="30"/>
-        <v>33</v>
+        <f t="shared" si="29"/>
+        <v>21</v>
       </c>
       <c r="CL11" s="54">
-        <f t="shared" si="30"/>
-        <v>38</v>
+        <f t="shared" si="29"/>
+        <v>26</v>
       </c>
       <c r="CM11" s="54"/>
       <c r="CN11" s="23"/>
@@ -8644,7 +8626,7 @@
       <c r="DC11" s="23"/>
       <c r="DE11" s="48"/>
       <c r="DJ11" s="27">
-        <f>SUM(CE11:CH11)</f>
+        <f t="shared" si="19"/>
         <v>54</v>
       </c>
     </row>
@@ -8729,11 +8711,11 @@
         <v>510</v>
       </c>
       <c r="AG12" s="23">
-        <f t="shared" ref="AG12:AH12" si="31">+AF12-10</f>
+        <f t="shared" ref="AG12:AH12" si="30">+AF12-10</f>
         <v>500</v>
       </c>
       <c r="AH12" s="23">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>490</v>
       </c>
       <c r="AI12" s="23"/>
@@ -8837,19 +8819,18 @@
         <v>211</v>
       </c>
       <c r="CI12" s="54">
-        <f t="shared" ref="CI12:CL12" si="32">+CD12</f>
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="CJ12" s="54">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="CI12:CL12" si="31">+CE12</f>
         <v>238</v>
       </c>
       <c r="CK12" s="54">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>235</v>
       </c>
       <c r="CL12" s="54">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>230</v>
       </c>
       <c r="CM12" s="54"/>
@@ -8858,7 +8839,7 @@
       <c r="CP12" s="23"/>
       <c r="CQ12" s="23"/>
       <c r="CR12" s="23">
-        <f t="shared" ref="CR12:CR65" si="33">SUM(K12:N12)</f>
+        <f t="shared" ref="CR12:CR65" si="32">SUM(K12:N12)</f>
         <v>2229</v>
       </c>
       <c r="CS12" s="23">
@@ -8866,7 +8847,7 @@
         <v>2424</v>
       </c>
       <c r="CT12" s="23">
-        <f t="shared" ref="CT12:CT15" si="34">SUM(S12:V12)</f>
+        <f t="shared" ref="CT12:CT15" si="33">SUM(S12:V12)</f>
         <v>2616</v>
       </c>
       <c r="CU12" s="23">
@@ -8894,11 +8875,11 @@
         <v>720.88464000000022</v>
       </c>
       <c r="DA12" s="23">
-        <f t="shared" ref="DA12:DB12" si="35">CZ12*0.8</f>
+        <f t="shared" ref="DA12:DB12" si="34">CZ12*0.8</f>
         <v>576.70771200000024</v>
       </c>
       <c r="DB12" s="23">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>461.36616960000021</v>
       </c>
       <c r="DC12" s="23">
@@ -8906,7 +8887,7 @@
         <v>46.136616960000026</v>
       </c>
       <c r="DJ12" s="27">
-        <f>SUM(CE12:CH12)</f>
+        <f t="shared" si="19"/>
         <v>914</v>
       </c>
     </row>
@@ -9049,20 +9030,19 @@
         <v>132</v>
       </c>
       <c r="CI13" s="54">
-        <f t="shared" ref="CI13:CL13" si="36">+CH13-5</f>
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="CJ13" s="54">
-        <f t="shared" si="36"/>
-        <v>122</v>
+        <f t="shared" ref="CI13:CL13" si="35">+CI13-5</f>
+        <v>130</v>
       </c>
       <c r="CK13" s="54">
-        <f t="shared" si="36"/>
-        <v>117</v>
+        <f t="shared" si="35"/>
+        <v>125</v>
       </c>
       <c r="CL13" s="54">
-        <f t="shared" si="36"/>
-        <v>112</v>
+        <f t="shared" si="35"/>
+        <v>120</v>
       </c>
       <c r="CM13" s="54"/>
       <c r="CN13" s="23"/>
@@ -9082,7 +9062,7 @@
       <c r="DB13" s="23"/>
       <c r="DC13" s="23"/>
       <c r="DJ13" s="27">
-        <f>SUM(CE13:CH13)</f>
+        <f t="shared" si="19"/>
         <v>671</v>
       </c>
     </row>
@@ -9223,19 +9203,18 @@
         <v>269</v>
       </c>
       <c r="CI14" s="54">
-        <f t="shared" ref="CI14:CL14" si="37">+CE14*1.01</f>
+        <v>262</v>
+      </c>
+      <c r="CJ14" s="54">
+        <f t="shared" ref="CI14:CL14" si="36">+CF14*1.01</f>
+        <v>275.73</v>
+      </c>
+      <c r="CK14" s="54">
+        <f t="shared" si="36"/>
         <v>255.53</v>
       </c>
-      <c r="CJ14" s="54">
-        <f t="shared" si="37"/>
-        <v>275.73</v>
-      </c>
-      <c r="CK14" s="54">
-        <f t="shared" si="37"/>
-        <v>255.53</v>
-      </c>
       <c r="CL14" s="54">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>271.69</v>
       </c>
       <c r="CM14" s="54"/>
@@ -9256,7 +9235,7 @@
       <c r="DB14" s="23"/>
       <c r="DC14" s="23"/>
       <c r="DJ14" s="27">
-        <f>SUM(CE14:CH14)</f>
+        <f t="shared" si="19"/>
         <v>1048</v>
       </c>
     </row>
@@ -9341,11 +9320,11 @@
         <v>343</v>
       </c>
       <c r="AG15" s="23">
-        <f t="shared" ref="AG15:AH15" si="38">+AF15</f>
+        <f t="shared" ref="AG15:AH15" si="37">+AF15</f>
         <v>343</v>
       </c>
       <c r="AH15" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>343</v>
       </c>
       <c r="AI15" s="23"/>
@@ -9449,19 +9428,18 @@
         <v>105</v>
       </c>
       <c r="CI15" s="54">
-        <f t="shared" ref="CI15:CL15" si="39">+CE15*0.9</f>
-        <v>94.5</v>
+        <v>110</v>
       </c>
       <c r="CJ15" s="54">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="CI15:CL15" si="38">+CF15*0.9</f>
         <v>97.2</v>
       </c>
       <c r="CK15" s="54">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>88.2</v>
       </c>
       <c r="CL15" s="54">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>94.5</v>
       </c>
       <c r="CM15" s="54"/>
@@ -9470,15 +9448,15 @@
       <c r="CP15" s="23"/>
       <c r="CQ15" s="23"/>
       <c r="CR15" s="23">
+        <f t="shared" si="32"/>
+        <v>1015</v>
+      </c>
+      <c r="CS15" s="23">
+        <f t="shared" ref="CS15:CS48" si="39">SUM(O15:R15)</f>
+        <v>1080</v>
+      </c>
+      <c r="CT15" s="23">
         <f t="shared" si="33"/>
-        <v>1015</v>
-      </c>
-      <c r="CS15" s="23">
-        <f t="shared" ref="CS15:CS48" si="40">SUM(O15:R15)</f>
-        <v>1080</v>
-      </c>
-      <c r="CT15" s="23">
-        <f t="shared" si="34"/>
         <v>1202</v>
       </c>
       <c r="CU15" s="23">
@@ -9498,27 +9476,27 @@
         <v>530.80000000000007</v>
       </c>
       <c r="CY15" s="23">
-        <f t="shared" ref="CY15:DC15" si="41">CX15*0.8</f>
+        <f t="shared" ref="CY15:DC15" si="40">CX15*0.8</f>
         <v>424.6400000000001</v>
       </c>
       <c r="CZ15" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>339.7120000000001</v>
       </c>
       <c r="DA15" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>271.76960000000008</v>
       </c>
       <c r="DB15" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>217.41568000000007</v>
       </c>
       <c r="DC15" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>173.93254400000006</v>
       </c>
       <c r="DJ15" s="27">
-        <f>SUM(CE15:CH15)</f>
+        <f t="shared" si="19"/>
         <v>416</v>
       </c>
     </row>
@@ -9661,19 +9639,18 @@
         <v>171</v>
       </c>
       <c r="CI16" s="54">
-        <f t="shared" ref="CI16:CL16" si="42">+CE16</f>
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="CJ16" s="54">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="CI16:CL16" si="41">+CF16</f>
         <v>193</v>
       </c>
       <c r="CK16" s="54">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>164</v>
       </c>
       <c r="CL16" s="54">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>171</v>
       </c>
       <c r="CM16" s="54"/>
@@ -9694,7 +9671,7 @@
       <c r="DB16" s="23"/>
       <c r="DC16" s="23"/>
       <c r="DJ16" s="27">
-        <f>SUM(CE16:CH16)</f>
+        <f t="shared" si="19"/>
         <v>742</v>
       </c>
     </row>
@@ -9829,20 +9806,19 @@
         <v>81</v>
       </c>
       <c r="CI17" s="54">
-        <f t="shared" ref="CI17:CL17" si="43">+CH17</f>
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="CJ17" s="54">
-        <f t="shared" si="43"/>
-        <v>81</v>
+        <f t="shared" ref="CI17:CL17" si="42">+CI17</f>
+        <v>70</v>
       </c>
       <c r="CK17" s="54">
-        <f t="shared" si="43"/>
-        <v>81</v>
+        <f t="shared" si="42"/>
+        <v>70</v>
       </c>
       <c r="CL17" s="54">
-        <f t="shared" si="43"/>
-        <v>81</v>
+        <f t="shared" si="42"/>
+        <v>70</v>
       </c>
       <c r="CM17" s="54"/>
       <c r="CN17" s="23"/>
@@ -9862,7 +9838,7 @@
       <c r="DB17" s="23"/>
       <c r="DC17" s="23"/>
       <c r="DJ17" s="27">
-        <f>SUM(CE17:CH17)</f>
+        <f t="shared" si="19"/>
         <v>368</v>
       </c>
     </row>
@@ -9997,20 +9973,19 @@
         <v>169</v>
       </c>
       <c r="CI18" s="54">
-        <f t="shared" ref="CI18:CL18" si="44">+CH18</f>
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="CJ18" s="54">
-        <f t="shared" si="44"/>
-        <v>169</v>
+        <f t="shared" ref="CI18:CL18" si="43">+CI18</f>
+        <v>160</v>
       </c>
       <c r="CK18" s="54">
-        <f t="shared" si="44"/>
-        <v>169</v>
+        <f t="shared" si="43"/>
+        <v>160</v>
       </c>
       <c r="CL18" s="54">
-        <f t="shared" si="44"/>
-        <v>169</v>
+        <f t="shared" si="43"/>
+        <v>160</v>
       </c>
       <c r="CM18" s="54"/>
       <c r="CN18" s="23"/>
@@ -10030,7 +10005,7 @@
       <c r="DB18" s="23"/>
       <c r="DC18" s="23"/>
       <c r="DJ18" s="27">
-        <f>SUM(CE18:CH18)</f>
+        <f t="shared" si="19"/>
         <v>588</v>
       </c>
     </row>
@@ -10187,20 +10162,19 @@
         <v>77</v>
       </c>
       <c r="CI19" s="54">
-        <f t="shared" ref="CI19:CL19" si="45">+CH19</f>
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="CJ19" s="54">
-        <f t="shared" si="45"/>
-        <v>77</v>
+        <f t="shared" ref="CI19:CL19" si="44">+CI19</f>
+        <v>75</v>
       </c>
       <c r="CK19" s="54">
-        <f t="shared" si="45"/>
-        <v>77</v>
+        <f t="shared" si="44"/>
+        <v>75</v>
       </c>
       <c r="CL19" s="54">
-        <f t="shared" si="45"/>
-        <v>77</v>
+        <f t="shared" si="44"/>
+        <v>75</v>
       </c>
       <c r="CM19" s="54"/>
       <c r="CN19" s="23"/>
@@ -10239,7 +10213,7 @@
         <v>40</v>
       </c>
       <c r="DJ19" s="27">
-        <f>SUM(CE19:CH19)</f>
+        <f t="shared" si="19"/>
         <v>290</v>
       </c>
     </row>
@@ -10365,20 +10339,19 @@
         <v>125</v>
       </c>
       <c r="CI20" s="54">
-        <f t="shared" ref="CI20:CL20" si="46">+CH20</f>
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="CJ20" s="54">
-        <f t="shared" si="46"/>
-        <v>125</v>
+        <f t="shared" ref="CI20:CL20" si="45">+CI20</f>
+        <v>122</v>
       </c>
       <c r="CK20" s="54">
-        <f t="shared" si="46"/>
-        <v>125</v>
+        <f t="shared" si="45"/>
+        <v>122</v>
       </c>
       <c r="CL20" s="54">
-        <f t="shared" si="46"/>
-        <v>125</v>
+        <f t="shared" si="45"/>
+        <v>122</v>
       </c>
       <c r="CM20" s="54"/>
       <c r="CN20" s="23"/>
@@ -10397,7 +10370,7 @@
       <c r="DB20" s="23"/>
       <c r="DC20" s="23"/>
       <c r="DJ20" s="27">
-        <f>SUM(CE20:CH20)</f>
+        <f t="shared" si="19"/>
         <v>492</v>
       </c>
     </row>
@@ -10532,20 +10505,19 @@
         <v>126</v>
       </c>
       <c r="CI21" s="54">
-        <f t="shared" ref="CI21:CL21" si="47">+CH21</f>
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="CJ21" s="54">
-        <f t="shared" si="47"/>
-        <v>126</v>
+        <f t="shared" ref="CI21:CL21" si="46">+CI21</f>
+        <v>111</v>
       </c>
       <c r="CK21" s="54">
-        <f t="shared" si="47"/>
-        <v>126</v>
+        <f t="shared" si="46"/>
+        <v>111</v>
       </c>
       <c r="CL21" s="54">
-        <f t="shared" si="47"/>
-        <v>126</v>
+        <f t="shared" si="46"/>
+        <v>111</v>
       </c>
       <c r="CM21" s="54"/>
       <c r="CN21" s="23"/>
@@ -10565,7 +10537,7 @@
       <c r="DB21" s="23"/>
       <c r="DC21" s="23"/>
       <c r="DJ21" s="27">
-        <f>SUM(CE21:CH21)</f>
+        <f t="shared" si="19"/>
         <v>424</v>
       </c>
     </row>
@@ -10605,7 +10577,7 @@
         <v>68</v>
       </c>
       <c r="AG22" s="23">
-        <f t="shared" ref="AG22" si="48">+AF22</f>
+        <f t="shared" ref="AG22" si="47">+AF22</f>
         <v>68</v>
       </c>
       <c r="AH22" s="23">
@@ -10713,20 +10685,19 @@
         <v>77</v>
       </c>
       <c r="CI22" s="54">
-        <f t="shared" ref="CI22:CL22" si="49">+CH22</f>
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="CJ22" s="54">
-        <f t="shared" si="49"/>
-        <v>77</v>
+        <f t="shared" ref="CI22:CL22" si="48">+CI22</f>
+        <v>81</v>
       </c>
       <c r="CK22" s="54">
-        <f t="shared" si="49"/>
-        <v>77</v>
+        <f t="shared" si="48"/>
+        <v>81</v>
       </c>
       <c r="CL22" s="54">
-        <f t="shared" si="49"/>
-        <v>77</v>
+        <f t="shared" si="48"/>
+        <v>81</v>
       </c>
       <c r="CM22" s="54"/>
       <c r="CN22" s="23"/>
@@ -10770,7 +10741,7 @@
       </c>
       <c r="DE22" s="19"/>
       <c r="DJ22" s="27">
-        <f>SUM(CE22:CH22)</f>
+        <f t="shared" si="19"/>
         <v>311</v>
       </c>
     </row>
@@ -10911,20 +10882,19 @@
         <v>69</v>
       </c>
       <c r="CI23" s="54">
-        <f t="shared" ref="CI23:CL23" si="50">+CH23</f>
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="CJ23" s="54">
-        <f t="shared" si="50"/>
-        <v>69</v>
+        <f t="shared" ref="CI23:CL23" si="49">+CI23</f>
+        <v>94</v>
       </c>
       <c r="CK23" s="54">
-        <f t="shared" si="50"/>
-        <v>69</v>
+        <f t="shared" si="49"/>
+        <v>94</v>
       </c>
       <c r="CL23" s="54">
-        <f t="shared" si="50"/>
-        <v>69</v>
+        <f t="shared" si="49"/>
+        <v>94</v>
       </c>
       <c r="CM23" s="54"/>
       <c r="CN23" s="23"/>
@@ -10944,7 +10914,7 @@
       <c r="DB23" s="23"/>
       <c r="DC23" s="23"/>
       <c r="DJ23" s="27">
-        <f>SUM(CE23:CH23)</f>
+        <f t="shared" si="19"/>
         <v>297</v>
       </c>
     </row>
@@ -11079,20 +11049,19 @@
         <v>110</v>
       </c>
       <c r="CI24" s="54">
-        <f t="shared" ref="CI24:CL24" si="51">+CH24</f>
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="CJ24" s="54">
-        <f t="shared" si="51"/>
-        <v>110</v>
+        <f t="shared" ref="CI24:CL24" si="50">+CI24</f>
+        <v>130</v>
       </c>
       <c r="CK24" s="54">
-        <f t="shared" si="51"/>
-        <v>110</v>
+        <f t="shared" si="50"/>
+        <v>130</v>
       </c>
       <c r="CL24" s="54">
-        <f t="shared" si="51"/>
-        <v>110</v>
+        <f t="shared" si="50"/>
+        <v>130</v>
       </c>
       <c r="CM24" s="54"/>
       <c r="CN24" s="23"/>
@@ -11112,7 +11081,7 @@
       <c r="DB24" s="23"/>
       <c r="DC24" s="23"/>
       <c r="DJ24" s="27">
-        <f>SUM(CE24:CH24)</f>
+        <f t="shared" si="19"/>
         <v>483</v>
       </c>
     </row>
@@ -11247,20 +11216,19 @@
         <v>87</v>
       </c>
       <c r="CI25" s="54">
-        <f t="shared" ref="CI25:CL25" si="52">+CH25</f>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CJ25" s="54">
-        <f t="shared" si="52"/>
-        <v>87</v>
+        <f t="shared" ref="CI25:CL25" si="51">+CI25</f>
+        <v>86</v>
       </c>
       <c r="CK25" s="54">
-        <f t="shared" si="52"/>
-        <v>87</v>
+        <f t="shared" si="51"/>
+        <v>86</v>
       </c>
       <c r="CL25" s="54">
-        <f t="shared" si="52"/>
-        <v>87</v>
+        <f t="shared" si="51"/>
+        <v>86</v>
       </c>
       <c r="CM25" s="54"/>
       <c r="CN25" s="23"/>
@@ -11280,7 +11248,7 @@
       <c r="DB25" s="23"/>
       <c r="DC25" s="23"/>
       <c r="DJ25" s="27">
-        <f>SUM(CE25:CH25)</f>
+        <f t="shared" si="19"/>
         <v>333</v>
       </c>
     </row>
@@ -11413,20 +11381,19 @@
         <v>130</v>
       </c>
       <c r="CI26" s="54">
-        <f t="shared" ref="CI26:CL26" si="53">+CH26</f>
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="CJ26" s="54">
-        <f t="shared" si="53"/>
-        <v>130</v>
+        <f t="shared" ref="CI26:CL26" si="52">+CI26</f>
+        <v>136</v>
       </c>
       <c r="CK26" s="54">
-        <f t="shared" si="53"/>
-        <v>130</v>
+        <f t="shared" si="52"/>
+        <v>136</v>
       </c>
       <c r="CL26" s="54">
-        <f t="shared" si="53"/>
-        <v>130</v>
+        <f t="shared" si="52"/>
+        <v>136</v>
       </c>
       <c r="CM26" s="54"/>
       <c r="CN26" s="23"/>
@@ -11446,7 +11413,7 @@
       <c r="DB26" s="23"/>
       <c r="DC26" s="23"/>
       <c r="DJ26" s="27">
-        <f>SUM(CE26:CH26)</f>
+        <f t="shared" si="19"/>
         <v>471</v>
       </c>
     </row>
@@ -11572,20 +11539,19 @@
         <v>12</v>
       </c>
       <c r="CI27" s="54">
-        <f t="shared" ref="CI27:CL27" si="54">+CH27</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="CJ27" s="54">
-        <f t="shared" si="54"/>
-        <v>12</v>
+        <f t="shared" ref="CI27:CL27" si="53">+CI27</f>
+        <v>8</v>
       </c>
       <c r="CK27" s="54">
-        <f t="shared" si="54"/>
-        <v>12</v>
+        <f t="shared" si="53"/>
+        <v>8</v>
       </c>
       <c r="CL27" s="54">
-        <f t="shared" si="54"/>
-        <v>12</v>
+        <f t="shared" si="53"/>
+        <v>8</v>
       </c>
       <c r="CM27" s="54"/>
       <c r="CN27" s="23"/>
@@ -11604,7 +11570,7 @@
       <c r="DB27" s="23"/>
       <c r="DC27" s="23"/>
       <c r="DJ27" s="27">
-        <f>SUM(CE27:CH27)</f>
+        <f t="shared" si="19"/>
         <v>74</v>
       </c>
     </row>
@@ -11737,20 +11703,19 @@
         <v>58</v>
       </c>
       <c r="CI28" s="54">
-        <f t="shared" ref="CI28:CL28" si="55">+CH28</f>
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="CJ28" s="54">
-        <f t="shared" si="55"/>
-        <v>58</v>
+        <f t="shared" ref="CI28:CL28" si="54">+CI28</f>
+        <v>70</v>
       </c>
       <c r="CK28" s="54">
-        <f t="shared" si="55"/>
-        <v>58</v>
+        <f t="shared" si="54"/>
+        <v>70</v>
       </c>
       <c r="CL28" s="54">
-        <f t="shared" si="55"/>
-        <v>58</v>
+        <f t="shared" si="54"/>
+        <v>70</v>
       </c>
       <c r="CM28" s="54"/>
       <c r="CN28" s="23"/>
@@ -11770,7 +11735,7 @@
       <c r="DB28" s="23"/>
       <c r="DC28" s="23"/>
       <c r="DJ28" s="27">
-        <f>SUM(CE28:CH28)</f>
+        <f t="shared" si="19"/>
         <v>227</v>
       </c>
     </row>
@@ -11905,20 +11870,19 @@
         <v>73</v>
       </c>
       <c r="CI29" s="54">
-        <f t="shared" ref="CI29:CL29" si="56">+CH29</f>
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="CJ29" s="54">
-        <f t="shared" si="56"/>
-        <v>73</v>
+        <f t="shared" ref="CI29:CL29" si="55">+CI29</f>
+        <v>67</v>
       </c>
       <c r="CK29" s="54">
-        <f t="shared" si="56"/>
-        <v>73</v>
+        <f t="shared" si="55"/>
+        <v>67</v>
       </c>
       <c r="CL29" s="54">
-        <f t="shared" si="56"/>
-        <v>73</v>
+        <f t="shared" si="55"/>
+        <v>67</v>
       </c>
       <c r="CM29" s="54"/>
       <c r="CN29" s="23"/>
@@ -11938,7 +11902,7 @@
       <c r="DB29" s="23"/>
       <c r="DC29" s="23"/>
       <c r="DJ29" s="27">
-        <f>SUM(CE29:CH29)</f>
+        <f t="shared" si="19"/>
         <v>249</v>
       </c>
     </row>
@@ -12047,20 +12011,19 @@
         <v>38</v>
       </c>
       <c r="CI30" s="54">
-        <f t="shared" ref="CI30:CL30" si="57">+CH30</f>
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="CJ30" s="54">
-        <f t="shared" si="57"/>
-        <v>38</v>
+        <f t="shared" ref="CI30:CL30" si="56">+CI30</f>
+        <v>56</v>
       </c>
       <c r="CK30" s="54">
-        <f t="shared" si="57"/>
-        <v>38</v>
+        <f t="shared" si="56"/>
+        <v>56</v>
       </c>
       <c r="CL30" s="54">
-        <f t="shared" si="57"/>
-        <v>38</v>
+        <f t="shared" si="56"/>
+        <v>56</v>
       </c>
       <c r="CM30" s="54"/>
       <c r="CN30" s="23"/>
@@ -12080,7 +12043,7 @@
       <c r="DB30" s="23"/>
       <c r="DC30" s="23"/>
       <c r="DJ30" s="27">
-        <f>SUM(CE30:CH30)</f>
+        <f t="shared" si="19"/>
         <v>151</v>
       </c>
     </row>
@@ -12213,20 +12176,19 @@
         <v>51</v>
       </c>
       <c r="CI31" s="54">
-        <f t="shared" ref="CI31:CL31" si="58">+CH31</f>
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="CJ31" s="54">
-        <f t="shared" si="58"/>
-        <v>51</v>
+        <f t="shared" ref="CI31:CL31" si="57">+CI31</f>
+        <v>44</v>
       </c>
       <c r="CK31" s="54">
-        <f t="shared" si="58"/>
-        <v>51</v>
+        <f t="shared" si="57"/>
+        <v>44</v>
       </c>
       <c r="CL31" s="54">
-        <f t="shared" si="58"/>
-        <v>51</v>
+        <f t="shared" si="57"/>
+        <v>44</v>
       </c>
       <c r="CM31" s="54"/>
       <c r="CN31" s="23"/>
@@ -12246,7 +12208,7 @@
       <c r="DB31" s="23"/>
       <c r="DC31" s="23"/>
       <c r="DJ31" s="27">
-        <f>SUM(CE31:CH31)</f>
+        <f t="shared" si="19"/>
         <v>183</v>
       </c>
     </row>
@@ -12367,20 +12329,19 @@
         <v>132</v>
       </c>
       <c r="CI32" s="54">
-        <f t="shared" ref="CI32:CL32" si="59">+CH32</f>
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CJ32" s="54">
-        <f t="shared" si="59"/>
-        <v>132</v>
+        <f t="shared" ref="CI32:CL32" si="58">+CI32</f>
+        <v>131</v>
       </c>
       <c r="CK32" s="54">
-        <f t="shared" si="59"/>
-        <v>132</v>
+        <f t="shared" si="58"/>
+        <v>131</v>
       </c>
       <c r="CL32" s="54">
-        <f t="shared" si="59"/>
-        <v>132</v>
+        <f t="shared" si="58"/>
+        <v>131</v>
       </c>
       <c r="CM32" s="54"/>
       <c r="CN32" s="23"/>
@@ -12400,7 +12361,7 @@
       <c r="DB32" s="23"/>
       <c r="DC32" s="23"/>
       <c r="DJ32" s="27">
-        <f>SUM(CE32:CH32)</f>
+        <f t="shared" si="19"/>
         <v>470</v>
       </c>
     </row>
@@ -12765,20 +12726,19 @@
         <v>184</v>
       </c>
       <c r="CI35" s="54">
-        <f>+CH35+10</f>
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="CJ35" s="54">
         <f>+CI35+10</f>
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="CK35" s="54">
         <f>+CJ35+10</f>
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="CL35" s="54">
         <f>+CK35+10</f>
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="CM35" s="54"/>
       <c r="CN35" s="23"/>
@@ -13267,31 +13227,31 @@
         <v>478</v>
       </c>
       <c r="CW38" s="23">
-        <f t="shared" ref="CW38:DC38" si="60">CV38*0.9</f>
+        <f t="shared" ref="CW38:DC38" si="59">CV38*0.9</f>
         <v>430.2</v>
       </c>
       <c r="CX38" s="23">
-        <f t="shared" si="60"/>
+        <f t="shared" si="59"/>
         <v>387.18</v>
       </c>
       <c r="CY38" s="23">
-        <f t="shared" si="60"/>
+        <f t="shared" si="59"/>
         <v>348.46199999999999</v>
       </c>
       <c r="CZ38" s="23">
-        <f t="shared" si="60"/>
+        <f t="shared" si="59"/>
         <v>313.61579999999998</v>
       </c>
       <c r="DA38" s="23">
-        <f t="shared" si="60"/>
+        <f t="shared" si="59"/>
         <v>282.25421999999998</v>
       </c>
       <c r="DB38" s="23">
-        <f t="shared" si="60"/>
+        <f t="shared" si="59"/>
         <v>254.02879799999999</v>
       </c>
       <c r="DC38" s="23">
-        <f t="shared" si="60"/>
+        <f t="shared" si="59"/>
         <v>228.6259182</v>
       </c>
     </row>
@@ -13575,31 +13535,31 @@
         <v>177</v>
       </c>
       <c r="CW40" s="23">
-        <f t="shared" ref="CW40:DB40" si="61">CV40*1.02</f>
+        <f t="shared" ref="CW40:DB40" si="60">CV40*1.02</f>
         <v>180.54</v>
       </c>
       <c r="CX40" s="23">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>184.1508</v>
       </c>
       <c r="CY40" s="23">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>187.83381600000001</v>
       </c>
       <c r="CZ40" s="23">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>191.59049232000001</v>
       </c>
       <c r="DA40" s="23">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>195.42230216640002</v>
       </c>
       <c r="DB40" s="23">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>199.33074820972803</v>
       </c>
       <c r="DC40" s="23">
-        <f t="shared" ref="DC40" si="62">DB40*1.02</f>
+        <f t="shared" ref="DC40" si="61">DB40*1.02</f>
         <v>203.31736317392259</v>
       </c>
     </row>
@@ -13676,11 +13636,11 @@
         <v>248</v>
       </c>
       <c r="AG41" s="23">
-        <f t="shared" ref="AG41:AH41" si="63">+AF41</f>
+        <f t="shared" ref="AG41:AH41" si="62">+AF41</f>
         <v>248</v>
       </c>
       <c r="AH41" s="23">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>248</v>
       </c>
       <c r="AI41" s="23"/>
@@ -13768,7 +13728,7 @@
         <v>1521</v>
       </c>
       <c r="CT41" s="23">
-        <f t="shared" ref="CT41:CT48" si="64">SUM(S41:V41)</f>
+        <f t="shared" ref="CT41:CT48" si="63">SUM(S41:V41)</f>
         <v>1348</v>
       </c>
       <c r="CU41" s="23">
@@ -13784,27 +13744,27 @@
         <v>362.95</v>
       </c>
       <c r="CX41" s="23">
-        <f t="shared" ref="CX41:DC41" si="65">CW41*0.85</f>
+        <f t="shared" ref="CX41:DC41" si="64">CW41*0.85</f>
         <v>308.50749999999999</v>
       </c>
       <c r="CY41" s="23">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>262.23137500000001</v>
       </c>
       <c r="CZ41" s="23">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>222.89666875</v>
       </c>
       <c r="DA41" s="23">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>189.4621684375</v>
       </c>
       <c r="DB41" s="23">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>161.04284317187501</v>
       </c>
       <c r="DC41" s="23">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>136.88641669609376</v>
       </c>
       <c r="DJ41" s="27"/>
@@ -13967,7 +13927,7 @@
         <v>1250</v>
       </c>
       <c r="CT42" s="23">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>829</v>
       </c>
       <c r="CU42" s="23">
@@ -13991,19 +13951,19 @@
         <v>6.5520000000000014</v>
       </c>
       <c r="CZ42" s="23">
-        <f t="shared" ref="CZ42:DB42" si="66">CY42*0.5</f>
+        <f t="shared" ref="CZ42:DB42" si="65">CY42*0.5</f>
         <v>3.2760000000000007</v>
       </c>
       <c r="DA42" s="23">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>1.6380000000000003</v>
       </c>
       <c r="DB42" s="23">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>0.81900000000000017</v>
       </c>
       <c r="DC42" s="23">
-        <f t="shared" ref="DC42" si="67">DB42*0.5</f>
+        <f t="shared" ref="DC42" si="66">DB42*0.5</f>
         <v>0.40950000000000009</v>
       </c>
       <c r="DJ42" s="27"/>
@@ -14164,7 +14124,7 @@
         <v>706</v>
       </c>
       <c r="CT43" s="23">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>688</v>
       </c>
       <c r="CU43" s="23">
@@ -14176,31 +14136,31 @@
         <v>607</v>
       </c>
       <c r="CW43" s="23">
-        <f t="shared" ref="CW43:DC43" si="68">CV43*0.8</f>
+        <f t="shared" ref="CW43:DC43" si="67">CV43*0.8</f>
         <v>485.6</v>
       </c>
       <c r="CX43" s="23">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>388.48</v>
       </c>
       <c r="CY43" s="23">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>310.78400000000005</v>
       </c>
       <c r="CZ43" s="23">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>248.62720000000004</v>
       </c>
       <c r="DA43" s="23">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>198.90176000000005</v>
       </c>
       <c r="DB43" s="23">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>159.12140800000006</v>
       </c>
       <c r="DC43" s="23">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>127.29712640000005</v>
       </c>
       <c r="DJ43" s="27"/>
@@ -14346,15 +14306,15 @@
       <c r="CP44" s="23"/>
       <c r="CQ44" s="23"/>
       <c r="CR44" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>977</v>
       </c>
       <c r="CS44" s="23">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>741</v>
       </c>
       <c r="CT44" s="23">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>513</v>
       </c>
       <c r="CU44" s="23">
@@ -14366,15 +14326,15 @@
         <v>410</v>
       </c>
       <c r="CW44" s="23">
-        <f t="shared" ref="CW44:DC48" si="69">CV44*0.9</f>
+        <f t="shared" ref="CW44:DC48" si="68">CV44*0.9</f>
         <v>369</v>
       </c>
       <c r="CX44" s="23">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>332.1</v>
       </c>
       <c r="CY44" s="23">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>298.89000000000004</v>
       </c>
       <c r="CZ44" s="23">
@@ -14382,15 +14342,15 @@
         <v>119.55600000000003</v>
       </c>
       <c r="DA44" s="23">
-        <f t="shared" ref="DA44:DC44" si="70">+CZ44*0.4</f>
+        <f t="shared" ref="DA44:DC44" si="69">+CZ44*0.4</f>
         <v>47.822400000000016</v>
       </c>
       <c r="DB44" s="23">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>19.128960000000006</v>
       </c>
       <c r="DC44" s="23">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>7.6515840000000033</v>
       </c>
       <c r="DJ44" s="27"/>
@@ -14542,7 +14502,7 @@
         <v>333</v>
       </c>
       <c r="CT45" s="23">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>331</v>
       </c>
       <c r="CU45" s="23">
@@ -14554,31 +14514,31 @@
         <v>296</v>
       </c>
       <c r="CW45" s="23">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>266.40000000000003</v>
       </c>
       <c r="CX45" s="23">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>239.76000000000005</v>
       </c>
       <c r="CY45" s="23">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>215.78400000000005</v>
       </c>
       <c r="CZ45" s="23">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>194.20560000000006</v>
       </c>
       <c r="DA45" s="23">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>174.78504000000007</v>
       </c>
       <c r="DB45" s="23">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>157.30653600000005</v>
       </c>
       <c r="DC45" s="23">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>141.57588240000004</v>
       </c>
       <c r="DJ45" s="27"/>
@@ -14845,7 +14805,7 @@
         <v>316</v>
       </c>
       <c r="CT47" s="23">
-        <f t="shared" ref="CT47" si="71">SUM(S47:V47)</f>
+        <f t="shared" ref="CT47" si="70">SUM(S47:V47)</f>
         <v>329</v>
       </c>
       <c r="CU47" s="23">
@@ -14857,15 +14817,15 @@
         <v>372</v>
       </c>
       <c r="CW47" s="23">
-        <f t="shared" ref="CW47:CY47" si="72">CV47</f>
+        <f t="shared" ref="CW47:CY47" si="71">CV47</f>
         <v>372</v>
       </c>
       <c r="CX47" s="23">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>372</v>
       </c>
       <c r="CY47" s="23">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>372</v>
       </c>
       <c r="CZ47" s="23"/>
@@ -15011,15 +14971,15 @@
       <c r="CP48" s="23"/>
       <c r="CQ48" s="23"/>
       <c r="CR48" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>283</v>
       </c>
       <c r="CS48" s="23">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>294</v>
       </c>
       <c r="CT48" s="23">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>241</v>
       </c>
       <c r="CU48" s="23">
@@ -15031,7 +14991,7 @@
         <v>189</v>
       </c>
       <c r="CW48" s="23">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>170.1</v>
       </c>
       <c r="CX48" s="23">
@@ -15039,23 +14999,23 @@
         <v>68.040000000000006</v>
       </c>
       <c r="CY48" s="23">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>61.236000000000004</v>
       </c>
       <c r="CZ48" s="23">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>55.112400000000008</v>
       </c>
       <c r="DA48" s="23">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>49.601160000000007</v>
       </c>
       <c r="DB48" s="23">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>44.641044000000008</v>
       </c>
       <c r="DC48" s="23">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>40.176939600000011</v>
       </c>
       <c r="DJ48" s="27"/>
@@ -15337,27 +15297,27 @@
         <v>214.20000000000002</v>
       </c>
       <c r="CX50" s="23">
-        <f t="shared" ref="CX50:DC50" si="73">+CW50*0.9</f>
+        <f t="shared" ref="CX50:DC50" si="72">+CW50*0.9</f>
         <v>192.78000000000003</v>
       </c>
       <c r="CY50" s="23">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>173.50200000000004</v>
       </c>
       <c r="CZ50" s="23">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>156.15180000000004</v>
       </c>
       <c r="DA50" s="23">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>140.53662000000003</v>
       </c>
       <c r="DB50" s="23">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>126.48295800000002</v>
       </c>
       <c r="DC50" s="23">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>113.83466220000003</v>
       </c>
       <c r="DE50" s="19"/>
@@ -15561,11 +15521,11 @@
         <v>204</v>
       </c>
       <c r="AG52" s="23">
-        <f t="shared" ref="AG52:AH52" si="74">+AF52-10</f>
+        <f t="shared" ref="AG52:AH52" si="73">+AF52-10</f>
         <v>194</v>
       </c>
       <c r="AH52" s="23">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>184</v>
       </c>
       <c r="AI52" s="23"/>
@@ -15677,19 +15637,19 @@
         <v>318.3</v>
       </c>
       <c r="CZ52" s="23">
-        <f t="shared" ref="CZ52:DB52" si="75">CY52*0.75</f>
+        <f t="shared" ref="CZ52:DB52" si="74">CY52*0.75</f>
         <v>238.72500000000002</v>
       </c>
       <c r="DA52" s="23">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>179.04375000000002</v>
       </c>
       <c r="DB52" s="23">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>134.28281250000001</v>
       </c>
       <c r="DC52" s="23">
-        <f t="shared" ref="DC52" si="76">DB52*0.75</f>
+        <f t="shared" ref="DC52" si="75">DB52*0.75</f>
         <v>100.71210937500001</v>
       </c>
       <c r="DJ52" s="27"/>
@@ -16635,15 +16595,15 @@
         <v>712</v>
       </c>
       <c r="AF61" s="23">
-        <f t="shared" ref="AF61:AH64" si="77">+AE61</f>
+        <f t="shared" ref="AF61:AH64" si="76">+AE61</f>
         <v>712</v>
       </c>
       <c r="AG61" s="23">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>712</v>
       </c>
       <c r="AH61" s="23">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>712</v>
       </c>
       <c r="AI61" s="23"/>
@@ -16744,20 +16704,17 @@
         <v>1271</v>
       </c>
       <c r="CH61" s="54"/>
-      <c r="CI61" s="54">
-        <f t="shared" ref="CH61:CL61" si="78">+CH61</f>
+      <c r="CI61" s="54"/>
+      <c r="CJ61" s="54">
+        <f t="shared" ref="CI61:CL61" si="77">+CI61</f>
         <v>0</v>
       </c>
-      <c r="CJ61" s="54">
-        <f t="shared" si="78"/>
+      <c r="CK61" s="54">
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="CK61" s="54">
-        <f t="shared" si="78"/>
-        <v>0</v>
-      </c>
       <c r="CL61" s="54">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="CM61" s="54"/>
@@ -16776,31 +16733,31 @@
         <v>2217</v>
       </c>
       <c r="CW61" s="23">
-        <f t="shared" ref="CW61:DC61" si="79">CV61*1.02</f>
+        <f t="shared" ref="CW61:DC61" si="78">CV61*1.02</f>
         <v>2261.34</v>
       </c>
       <c r="CX61" s="23">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>2306.5668000000001</v>
       </c>
       <c r="CY61" s="23">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>2352.698136</v>
       </c>
       <c r="CZ61" s="23">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>2399.75209872</v>
       </c>
       <c r="DA61" s="23">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>2447.7471406944001</v>
       </c>
       <c r="DB61" s="23">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>2496.7020835082881</v>
       </c>
       <c r="DC61" s="23">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>2546.6361251784538</v>
       </c>
       <c r="DJ61" s="27"/>
@@ -16911,20 +16868,19 @@
         <v>124</v>
       </c>
       <c r="CI62" s="54">
-        <f t="shared" ref="CH62:CL62" si="80">+CH62</f>
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="CJ62" s="54">
-        <f t="shared" si="80"/>
-        <v>124</v>
+        <f t="shared" ref="CI62:CL62" si="79">+CI62</f>
+        <v>103</v>
       </c>
       <c r="CK62" s="54">
-        <f t="shared" si="80"/>
-        <v>124</v>
+        <f t="shared" si="79"/>
+        <v>103</v>
       </c>
       <c r="CL62" s="54">
-        <f t="shared" si="80"/>
-        <v>124</v>
+        <f t="shared" si="79"/>
+        <v>103</v>
       </c>
       <c r="CM62" s="54"/>
       <c r="CN62" s="23"/>
@@ -16943,7 +16899,7 @@
       <c r="DB62" s="23"/>
       <c r="DC62" s="23"/>
       <c r="DJ62" s="27">
-        <f t="shared" ref="DJ36:DJ66" si="81">SUM(CE62:CH62)</f>
+        <f t="shared" ref="DJ62" si="80">SUM(CE62:CH62)</f>
         <v>528</v>
       </c>
     </row>
@@ -16986,15 +16942,15 @@
         <v>414</v>
       </c>
       <c r="AF63" s="23">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>414</v>
       </c>
       <c r="AG63" s="23">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>414</v>
       </c>
       <c r="AH63" s="23">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>414</v>
       </c>
       <c r="AI63" s="23"/>
@@ -17093,31 +17049,31 @@
         <v>1534</v>
       </c>
       <c r="CW63" s="23">
-        <f t="shared" ref="CW63:DC63" si="82">CV63*1.02</f>
+        <f t="shared" ref="CW63:DC63" si="81">CV63*1.02</f>
         <v>1564.68</v>
       </c>
       <c r="CX63" s="23">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>1595.9736</v>
       </c>
       <c r="CY63" s="23">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>1627.8930720000001</v>
       </c>
       <c r="CZ63" s="23">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>1660.4509334400002</v>
       </c>
       <c r="DA63" s="23">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>1693.6599521088003</v>
       </c>
       <c r="DB63" s="23">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>1727.5331511509764</v>
       </c>
       <c r="DC63" s="23">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>1762.083814173996</v>
       </c>
       <c r="DJ63" s="27"/>
@@ -17193,15 +17149,15 @@
         <v>1479</v>
       </c>
       <c r="AF64" s="23">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>1479</v>
       </c>
       <c r="AG64" s="23">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>1479</v>
       </c>
       <c r="AH64" s="23">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>1479</v>
       </c>
       <c r="AI64" s="23"/>
@@ -17320,19 +17276,19 @@
         <v>5760.8</v>
       </c>
       <c r="CX64" s="44">
-        <f t="shared" ref="CX64:DA64" si="83">CW64*0.95</f>
+        <f t="shared" ref="CX64:DA64" si="82">CW64*0.95</f>
         <v>5472.76</v>
       </c>
       <c r="CY64" s="44">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>5199.1220000000003</v>
       </c>
       <c r="CZ64" s="44">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>4939.1659</v>
       </c>
       <c r="DA64" s="44">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>4692.2076049999996</v>
       </c>
       <c r="DB64" s="44">
@@ -17418,11 +17374,11 @@
         <v>748</v>
       </c>
       <c r="AG65" s="23">
-        <f t="shared" ref="AG65:AH65" si="84">+AC65</f>
+        <f t="shared" ref="AG65:AH65" si="83">+AC65</f>
         <v>1226</v>
       </c>
       <c r="AH65" s="23">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>890</v>
       </c>
       <c r="AI65" s="23"/>
@@ -17514,11 +17470,11 @@
       <c r="CP65" s="23"/>
       <c r="CQ65" s="23"/>
       <c r="CR65" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>2533</v>
       </c>
       <c r="CS65" s="23">
-        <f t="shared" ref="CS65" si="85">SUM(O65:R65)</f>
+        <f t="shared" ref="CS65" si="84">SUM(O65:R65)</f>
         <v>2778</v>
       </c>
       <c r="CT65" s="23">
@@ -17542,23 +17498,23 @@
         <v>4079.1296000000002</v>
       </c>
       <c r="CY65" s="23">
-        <f t="shared" ref="CY65:DC65" si="86">CX65*1.03</f>
+        <f t="shared" ref="CY65:DC65" si="85">CX65*1.03</f>
         <v>4201.5034880000003</v>
       </c>
       <c r="CZ65" s="23">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>4327.5485926400006</v>
       </c>
       <c r="DA65" s="23">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>4457.3750504192003</v>
       </c>
       <c r="DB65" s="23">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>4591.096301931776</v>
       </c>
       <c r="DC65" s="23">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>4728.8291909897298</v>
       </c>
       <c r="DJ65" s="27"/>
@@ -17676,20 +17632,19 @@
         <v>632</v>
       </c>
       <c r="CI66" s="54">
-        <f t="shared" ref="CI66:CL66" si="87">+CH66</f>
-        <v>632</v>
+        <v>668</v>
       </c>
       <c r="CJ66" s="54">
-        <f t="shared" si="87"/>
-        <v>632</v>
+        <f t="shared" ref="CI66:CL66" si="86">+CI66</f>
+        <v>668</v>
       </c>
       <c r="CK66" s="54">
-        <f t="shared" si="87"/>
-        <v>632</v>
+        <f t="shared" si="86"/>
+        <v>668</v>
       </c>
       <c r="CL66" s="54">
-        <f t="shared" si="87"/>
-        <v>632</v>
+        <f t="shared" si="86"/>
+        <v>668</v>
       </c>
       <c r="CM66" s="54"/>
       <c r="CN66" s="23"/>
@@ -17708,7 +17663,7 @@
       <c r="DB66" s="23"/>
       <c r="DC66" s="23"/>
       <c r="DJ66" s="27">
-        <f>SUM(CE66:CH66)</f>
+        <f t="shared" ref="DJ66:DJ71" si="87">SUM(CE66:CH66)</f>
         <v>2740</v>
       </c>
     </row>
@@ -17805,20 +17760,19 @@
         <v>841</v>
       </c>
       <c r="CI67" s="54">
-        <f t="shared" ref="CI67:CL67" si="88">+CH67</f>
-        <v>841</v>
+        <v>284</v>
       </c>
       <c r="CJ67" s="54">
-        <f t="shared" si="88"/>
-        <v>841</v>
+        <f t="shared" ref="CI67:CL67" si="88">+CI67</f>
+        <v>284</v>
       </c>
       <c r="CK67" s="54">
         <f t="shared" si="88"/>
-        <v>841</v>
+        <v>284</v>
       </c>
       <c r="CL67" s="54">
         <f t="shared" si="88"/>
-        <v>841</v>
+        <v>284</v>
       </c>
       <c r="CM67" s="54"/>
       <c r="CN67" s="23"/>
@@ -17837,7 +17791,7 @@
       <c r="DB67" s="23"/>
       <c r="DC67" s="23"/>
       <c r="DJ67" s="27">
-        <f>SUM(CE67:CH67)</f>
+        <f t="shared" si="87"/>
         <v>1686</v>
       </c>
     </row>
@@ -17954,20 +17908,19 @@
         <v>249</v>
       </c>
       <c r="CI68" s="54">
-        <f t="shared" ref="CI68:CL68" si="89">+CH68</f>
-        <v>249</v>
+        <v>302</v>
       </c>
       <c r="CJ68" s="54">
-        <f t="shared" si="89"/>
-        <v>249</v>
+        <f t="shared" ref="CI68:CL68" si="89">+CI68</f>
+        <v>302</v>
       </c>
       <c r="CK68" s="54">
         <f t="shared" si="89"/>
-        <v>249</v>
+        <v>302</v>
       </c>
       <c r="CL68" s="54">
         <f t="shared" si="89"/>
-        <v>249</v>
+        <v>302</v>
       </c>
       <c r="CM68" s="54"/>
       <c r="CN68" s="23"/>
@@ -17986,7 +17939,7 @@
       <c r="DB68" s="23"/>
       <c r="DC68" s="23"/>
       <c r="DJ68" s="27">
-        <f>SUM(CE68:CH68)</f>
+        <f t="shared" si="87"/>
         <v>1316</v>
       </c>
     </row>
@@ -18115,7 +18068,7 @@
       <c r="DB69" s="23"/>
       <c r="DC69" s="23"/>
       <c r="DJ69" s="27">
-        <f>SUM(CE69:CH69)</f>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
     </row>
@@ -18251,7 +18204,7 @@
       <c r="DB70" s="23"/>
       <c r="DC70" s="23"/>
       <c r="DJ70" s="27">
-        <f>SUM(CE70:CH70)</f>
+        <f t="shared" si="87"/>
         <v>1</v>
       </c>
     </row>
@@ -18368,7 +18321,6 @@
         <v>454</v>
       </c>
       <c r="CI71" s="54">
-        <f>+CE71</f>
         <v>73</v>
       </c>
       <c r="CJ71" s="54">
@@ -18400,7 +18352,7 @@
       <c r="DB71" s="23"/>
       <c r="DC71" s="23"/>
       <c r="DJ71" s="27">
-        <f>SUM(CE71:CH71)</f>
+        <f t="shared" si="87"/>
         <v>2555</v>
       </c>
     </row>
@@ -19123,19 +19075,19 @@
       </c>
       <c r="CI76" s="62">
         <f t="shared" si="95"/>
-        <v>10536.43</v>
+        <v>9896</v>
       </c>
       <c r="CJ76" s="62">
         <f t="shared" si="95"/>
-        <v>11153.73</v>
+        <v>10328.43</v>
       </c>
       <c r="CK76" s="62">
         <f t="shared" si="95"/>
-        <v>13108.13</v>
+        <v>12260.529999999999</v>
       </c>
       <c r="CL76" s="62">
         <f t="shared" si="95"/>
-        <v>11618.69</v>
+        <v>10767.89</v>
       </c>
       <c r="CM76" s="62"/>
       <c r="CN76" s="39"/>
@@ -19400,7 +19352,10 @@
         <f>3576-856</f>
         <v>2720</v>
       </c>
-      <c r="CI77" s="54"/>
+      <c r="CI77" s="54">
+        <f>2826-617</f>
+        <v>2209</v>
+      </c>
       <c r="CJ77" s="54"/>
       <c r="CK77" s="54"/>
       <c r="CL77" s="54"/>
@@ -19675,7 +19630,10 @@
         <f>+CH76-CH77</f>
         <v>7843</v>
       </c>
-      <c r="CI78" s="54"/>
+      <c r="CI78" s="54">
+        <f>+CI76-CI77</f>
+        <v>7687</v>
+      </c>
       <c r="CJ78" s="54"/>
       <c r="CK78" s="54"/>
       <c r="CL78" s="54"/>
@@ -19899,7 +19857,9 @@
       <c r="CH79" s="54">
         <v>2257</v>
       </c>
-      <c r="CI79" s="54"/>
+      <c r="CI79" s="54">
+        <v>1808</v>
+      </c>
       <c r="CJ79" s="54"/>
       <c r="CK79" s="54"/>
       <c r="CL79" s="54"/>
@@ -20108,7 +20068,9 @@
       <c r="CH80" s="54">
         <v>2648</v>
       </c>
-      <c r="CI80" s="54"/>
+      <c r="CI80" s="54">
+        <v>2200</v>
+      </c>
       <c r="CJ80" s="54"/>
       <c r="CK80" s="54"/>
       <c r="CL80" s="54"/>
@@ -20398,10 +20360,13 @@
         <v>4533</v>
       </c>
       <c r="CH81" s="54">
-        <f t="shared" ref="CH81" si="121">CH80+CH79</f>
+        <f t="shared" ref="CH81:CI81" si="121">CH80+CH79</f>
         <v>4905</v>
       </c>
-      <c r="CI81" s="54"/>
+      <c r="CI81" s="54">
+        <f t="shared" si="121"/>
+        <v>4008</v>
+      </c>
       <c r="CJ81" s="54"/>
       <c r="CK81" s="54"/>
       <c r="CL81" s="54"/>
@@ -20688,10 +20653,13 @@
         <v>5540</v>
       </c>
       <c r="CH82" s="54">
-        <f t="shared" ref="CH82" si="130">CH78-CH81</f>
+        <f t="shared" ref="CH82:CI82" si="130">CH78-CH81</f>
         <v>2938</v>
       </c>
-      <c r="CI82" s="54"/>
+      <c r="CI82" s="54">
+        <f t="shared" si="130"/>
+        <v>3679</v>
+      </c>
       <c r="CJ82" s="54"/>
       <c r="CK82" s="54"/>
       <c r="CL82" s="54"/>
@@ -20929,6 +20897,9 @@
       <c r="CH83" s="53">
         <f>-886+32-7-62</f>
         <v>-923</v>
+      </c>
+      <c r="CI83" s="53">
+        <v>-826</v>
       </c>
       <c r="CR83" s="23"/>
       <c r="CS83" s="23"/>
@@ -21198,7 +21169,10 @@
         <f>CH82+CH83</f>
         <v>2015</v>
       </c>
-      <c r="CI84" s="54"/>
+      <c r="CI84" s="54">
+        <f>CI82+CI83</f>
+        <v>2853</v>
+      </c>
       <c r="CJ84" s="54"/>
       <c r="CK84" s="54"/>
       <c r="CL84" s="54"/>
@@ -21433,7 +21407,9 @@
       <c r="CH85" s="54">
         <v>374</v>
       </c>
-      <c r="CI85" s="54"/>
+      <c r="CI85" s="54">
+        <v>622</v>
+      </c>
       <c r="CJ85" s="54"/>
       <c r="CK85" s="54"/>
       <c r="CL85" s="54"/>
@@ -21667,7 +21643,9 @@
       <c r="CH86" s="54">
         <v>0</v>
       </c>
-      <c r="CI86" s="54"/>
+      <c r="CI86" s="54">
+        <v>0</v>
+      </c>
       <c r="CJ86" s="54"/>
       <c r="CK86" s="54"/>
       <c r="CL86" s="54"/>
@@ -21921,7 +21899,10 @@
         <f>CH84-CH85-CH86</f>
         <v>1641</v>
       </c>
-      <c r="CI87" s="54"/>
+      <c r="CI87" s="54">
+        <f>CI84-CI85-CI86</f>
+        <v>2231</v>
+      </c>
       <c r="CJ87" s="54"/>
       <c r="CK87" s="54"/>
       <c r="CL87" s="54"/>
@@ -22133,7 +22114,9 @@
       <c r="CH88" s="54">
         <v>0</v>
       </c>
-      <c r="CI88" s="54"/>
+      <c r="CI88" s="54">
+        <v>0</v>
+      </c>
       <c r="CJ88" s="54"/>
       <c r="CK88" s="54"/>
       <c r="CL88" s="54"/>
@@ -22369,7 +22352,7 @@
         <v>868</v>
       </c>
       <c r="CE89" s="54">
-        <f t="shared" ref="CE89:CH89" si="163">CE87-CE88</f>
+        <f t="shared" ref="CE89:CI89" si="163">CE87-CE88</f>
         <v>2219</v>
       </c>
       <c r="CF89" s="54">
@@ -22384,7 +22367,10 @@
         <f t="shared" si="163"/>
         <v>1641</v>
       </c>
-      <c r="CI89" s="54"/>
+      <c r="CI89" s="54">
+        <f t="shared" si="163"/>
+        <v>2231</v>
+      </c>
       <c r="CJ89" s="54"/>
       <c r="CK89" s="54"/>
       <c r="CL89" s="54"/>
@@ -22914,7 +22900,10 @@
         <f>+CH89/CH91</f>
         <v>1.3090299936183791</v>
       </c>
-      <c r="CI90" s="63"/>
+      <c r="CI90" s="63">
+        <f>+CI89/CI91</f>
+        <v>1.8080881757030551</v>
+      </c>
       <c r="CJ90" s="63"/>
       <c r="CK90" s="63"/>
       <c r="CL90" s="63"/>
@@ -23148,7 +23137,9 @@
       <c r="CH91" s="54">
         <v>1253.5999999999999</v>
       </c>
-      <c r="CI91" s="54"/>
+      <c r="CI91" s="54">
+        <v>1233.9000000000001</v>
+      </c>
       <c r="CJ91" s="54"/>
       <c r="CK91" s="54"/>
       <c r="CL91" s="54"/>
@@ -23401,11 +23392,17 @@
         <v>0.74211261051651933</v>
       </c>
       <c r="CG93" s="64">
-        <f t="shared" ref="CG93" si="188">+CG78/CG76</f>
+        <f t="shared" ref="CG93:CI93" si="188">+CG78/CG76</f>
         <v>0.74953493563509188</v>
       </c>
-      <c r="CH93" s="64"/>
-      <c r="CI93" s="64"/>
+      <c r="CH93" s="64">
+        <f t="shared" si="188"/>
+        <v>0.74249739657294334</v>
+      </c>
+      <c r="CI93" s="64">
+        <f t="shared" si="188"/>
+        <v>0.77677849636216656</v>
+      </c>
       <c r="CJ93" s="64"/>
       <c r="CK93" s="64"/>
       <c r="CL93" s="64"/>
@@ -23648,11 +23645,17 @@
         <v>0.20755408874220754</v>
       </c>
       <c r="CG94" s="64">
-        <f t="shared" ref="CG94" si="200">+CG85/CG84</f>
+        <f t="shared" ref="CG94:CI94" si="200">+CG85/CG84</f>
         <v>0.16610322289835475</v>
       </c>
-      <c r="CH94" s="64"/>
-      <c r="CI94" s="64"/>
+      <c r="CH94" s="64">
+        <f t="shared" si="200"/>
+        <v>0.18560794044665013</v>
+      </c>
+      <c r="CI94" s="64">
+        <f t="shared" si="200"/>
+        <v>0.21801612337889942</v>
+      </c>
       <c r="CJ94" s="64"/>
       <c r="CK94" s="64"/>
       <c r="CL94" s="64"/>
@@ -23991,19 +23994,19 @@
       </c>
       <c r="CI96" s="65">
         <f t="shared" ref="CI96" si="206">+CI76/CE76-1</f>
-        <v>6.9218272171254203E-3</v>
+        <v>-5.4281345565749262E-2</v>
       </c>
       <c r="CJ96" s="65">
         <f t="shared" ref="CJ96" si="207">+CJ76/CF76-1</f>
-        <v>3.8039087947882688E-2</v>
+        <v>-3.8768729641693755E-2</v>
       </c>
       <c r="CK96" s="65">
         <f t="shared" ref="CK96" si="208">+CK76/CG76-1</f>
-        <v>-2.4620135426743128E-2</v>
+        <v>-8.7690304338120528E-2</v>
       </c>
       <c r="CL96" s="65">
         <f t="shared" ref="CL96" si="209">+CL76/CH76-1</f>
-        <v>9.9942251254378611E-2</v>
+        <v>1.9396951623591674E-2</v>
       </c>
       <c r="CM96" s="65"/>
       <c r="CN96" s="42"/>
@@ -24180,7 +24183,9 @@
       <c r="CH97" s="65">
         <v>0.10299999999999999</v>
       </c>
-      <c r="CI97" s="65"/>
+      <c r="CI97" s="65">
+        <v>9.7000000000000003E-2</v>
+      </c>
       <c r="CJ97" s="65"/>
       <c r="CK97" s="65"/>
       <c r="CL97" s="65"/>
@@ -24351,19 +24356,19 @@
       </c>
       <c r="CI98" s="66">
         <f t="shared" si="213"/>
-        <v>0.30000000000000004</v>
+        <v>0.22751322751322745</v>
       </c>
       <c r="CJ98" s="66">
         <f t="shared" si="213"/>
-        <v>0.30000000000000027</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="CK98" s="66">
         <f t="shared" si="213"/>
-        <v>0.30000000000000004</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="CL98" s="66">
         <f t="shared" si="213"/>
-        <v>0.30000000000000027</v>
+        <v>0.19999999999999973</v>
       </c>
       <c r="CM98" s="66"/>
       <c r="CN98" s="43"/>
@@ -24573,7 +24578,7 @@
       </c>
       <c r="CI99" s="66">
         <f t="shared" si="213"/>
-        <v>-9.9999999999999978E-2</v>
+        <v>0.25</v>
       </c>
       <c r="CJ99" s="66">
         <f t="shared" si="213"/>
@@ -27846,6 +27851,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100764A4B226BE2F34C80DFAA3D37A3CB30" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70544b0716d1f2dd0e24adda29a3d132">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -27959,22 +27979,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96797E59-4DFD-499C-8A4E-CC49F873674A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A163F551-4DC3-4346-BFB2-E5655EE44603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3CFCAF3-5635-4E82-8C3B-EBE76824AE5D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27988,27 +28016,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A163F551-4DC3-4346-BFB2-E5655EE44603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96797E59-4DFD-499C-8A4E-CC49F873674A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>